--- a/WebApiWithAspDotNet6.xlsx
+++ b/WebApiWithAspDotNet6.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9215"/>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Chung" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Chung!$A$1:$AC$352</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Chung!$A$1:$AC$504</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
-    <t>ASP.NET CORE (&gt;&lt;)</t>
+    <t>ASP.NET CORE API WEB APP (&gt;&lt;)</t>
   </si>
   <si>
     <t>1.</t>
@@ -242,18 +242,159 @@
   <si>
     <t>Use mapper in controller</t>
   </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Save data from the client</t>
+  </si>
+  <si>
+    <t>Case_1</t>
+  </si>
+  <si>
+    <t>This endpoint does not need validation because of the validation of Route attribute</t>
+  </si>
+  <si>
+    <t>Case_2</t>
+  </si>
+  <si>
+    <t>This endpoint need validation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ModelState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: ModelState is used to transfer validation errors from the server-side code to the client-side view. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">For example, if a user submits a form and one of the fields fails validation, an error message can be added to the ModelState dictionary. </t>
+  </si>
+  <si>
+    <t>Then, when the view is rendered, the error message can be displayed to the user.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ModelState is a property of `</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ControllerBase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Fluent Validation</t>
+  </si>
+  <si>
+    <t>Building strongly-typed validation rules</t>
+  </si>
+  <si>
+    <t>FluentValidation</t>
+  </si>
+  <si>
+    <t>FluentValidation.AspNetCore</t>
+  </si>
+  <si>
+    <t>FluentValidation.DependencyInjectionExtensions</t>
+  </si>
+  <si>
+    <t>Register FluentValidation into Services</t>
+  </si>
+  <si>
+    <t>Define rules</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>You don't need to validate coming input because fluentvalidation had already done it for you before</t>
+  </si>
+  <si>
+    <t>you get into the api method</t>
+  </si>
+  <si>
+    <t>=&gt; if validation is false, fluentvalidation automatically update the ModelState and return badrequest</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>Authentication &amp; Authorization</t>
+  </si>
+  <si>
+    <t>Authentication: determine which user can access your api (not everyone can access your API =&gt; your DB)</t>
+  </si>
+  <si>
+    <t>Authorization: determine roll of valid user (not every user can use important API like delete)</t>
+  </si>
+  <si>
+    <t>AUTHENTICATION FLOW</t>
+  </si>
+  <si>
+    <t>JSON Web Tokens (JWT)</t>
+  </si>
+  <si>
+    <t>Microsoft.AspNetCore.Authentication.JwtBearer</t>
+  </si>
+  <si>
+    <t>Microsoft.IdentityModel.Tokens</t>
+  </si>
+  <si>
+    <t>System.IdentityModel.Tokens.Jwt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,34 +450,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -346,55 +464,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,11 +478,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,9 +501,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +518,84 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,13 +640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +658,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,13 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,37 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,25 +760,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,19 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,37 +814,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,6 +931,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -815,24 +1011,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,45 +1028,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,134 +1049,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1108,8 +1256,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1118,6 +1284,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,6 +1300,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1189,6 +1361,9 @@
     <mruColors>
       <color rgb="00FFFF99"/>
       <color rgb="0000EA69"/>
+      <color rgb="005B28C2"/>
+      <color rgb="001C981C"/>
+      <color rgb="00F5189F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5347,6 +5522,1833 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>125095</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="63054865"/>
+          <a:ext cx="3851910" cy="1015365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="496570" y="64789685"/>
+          <a:ext cx="5989320" cy="782955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309245</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="496570" y="65702180"/>
+          <a:ext cx="3082290" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="496570" y="68615560"/>
+          <a:ext cx="5965190" cy="2569845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>316865</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497205" y="74256900"/>
+          <a:ext cx="5958840" cy="1655445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>126365</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Oval 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5297805" y="74647425"/>
+          <a:ext cx="320675" cy="326390"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>316865</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497205" y="76535280"/>
+          <a:ext cx="5962015" cy="2583180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Oval 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5504180" y="77054710"/>
+          <a:ext cx="320675" cy="326390"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83185</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>288290</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangles 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="81814670"/>
+          <a:ext cx="1071880" cy="948690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>WWW</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Cube 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3964940" y="81826100"/>
+          <a:ext cx="998855" cy="846455"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="035C7D"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217805</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Can 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5709920" y="81854040"/>
+          <a:ext cx="634365" cy="741045"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="5B28C2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="7B32B2"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="401A5D"/>
+              </a:gs>
+            </a:gsLst>
+          </a:gradFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Left-Right Arrow 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5101590" y="82153125"/>
+          <a:ext cx="494665" cy="163195"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F5189F"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161290</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214630</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Left-Right Arrow 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1843405" y="81840705"/>
+          <a:ext cx="1958340" cy="163195"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F5189F"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Left-Right Arrow 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1842135" y="82610960"/>
+          <a:ext cx="1958340" cy="163195"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F5189F"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Text Box 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1833245" y="81565115"/>
+          <a:ext cx="1961515" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Send Username &amp; Password</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23495</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Text Box 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2094865" y="82020410"/>
+          <a:ext cx="1515745" cy="198755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Get JWT Token</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Text Box 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2068830" y="82409030"/>
+          <a:ext cx="1531620" cy="191135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Use JWT to make call</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Text Box 72"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2056130" y="82770345"/>
+          <a:ext cx="1555750" cy="191770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Get data back</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5635,10 +7637,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AB351"/>
+  <dimension ref="B1:AB503"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="K321" sqref="K321"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="M475" sqref="M475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.62962962962963" defaultRowHeight="13.8"/>
@@ -5743,7 +7745,7 @@
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="39" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -6146,7 +8148,7 @@
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:28">
       <c r="B17" s="8"/>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="39" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -7339,7 +9341,7 @@
     </row>
     <row r="58" ht="20.1" customHeight="1" spans="2:28">
       <c r="B58" s="8"/>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="9" t="s">
@@ -7594,7 +9596,7 @@
     <row r="66" spans="2:28">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="12" t="s">
@@ -7627,7 +9629,7 @@
     <row r="67" spans="2:28">
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="12" t="s">
@@ -7688,7 +9690,7 @@
     </row>
     <row r="69" ht="20.1" customHeight="1" spans="2:28">
       <c r="B69" s="8"/>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="39" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -8769,7 +10771,7 @@
     </row>
     <row r="106" ht="20.1" customHeight="1" spans="2:28">
       <c r="B106" s="8"/>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="39" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="9" t="s">
@@ -8831,7 +10833,7 @@
     </row>
     <row r="108" spans="2:28">
       <c r="B108" s="10"/>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D108" s="23" t="s">
@@ -9154,7 +11156,7 @@
     </row>
     <row r="119" spans="2:28">
       <c r="B119" s="10"/>
-      <c r="C119" s="34" t="s">
+      <c r="C119" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D119" s="23" t="s">
@@ -9825,7 +11827,7 @@
     </row>
     <row r="142" spans="2:28">
       <c r="B142" s="10"/>
-      <c r="C142" s="34" t="s">
+      <c r="C142" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D142" s="23" t="s">
@@ -10061,7 +12063,7 @@
     </row>
     <row r="150" spans="2:28">
       <c r="B150" s="10"/>
-      <c r="C150" s="34" t="s">
+      <c r="C150" s="41" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="23" t="s">
@@ -10761,7 +12763,7 @@
     </row>
     <row r="174" ht="20.1" customHeight="1" spans="2:28">
       <c r="B174" s="8"/>
-      <c r="C174" s="32" t="s">
+      <c r="C174" s="39" t="s">
         <v>38</v>
       </c>
       <c r="D174" s="9" t="s">
@@ -10823,7 +12825,7 @@
     </row>
     <row r="176" spans="2:28">
       <c r="B176" s="10"/>
-      <c r="C176" s="34" t="s">
+      <c r="C176" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D176" s="23" t="s">
@@ -11523,7 +13525,7 @@
     </row>
     <row r="200" spans="2:28">
       <c r="B200" s="10"/>
-      <c r="C200" s="34" t="s">
+      <c r="C200" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D200" s="23" t="s">
@@ -12258,7 +14260,7 @@
     </row>
     <row r="225" ht="20.1" customHeight="1" spans="2:28">
       <c r="B225" s="8"/>
-      <c r="C225" s="32" t="s">
+      <c r="C225" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D225" s="9" t="s">
@@ -12356,7 +14358,7 @@
       <c r="C228" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D228" s="33" t="s">
+      <c r="D228" s="40" t="s">
         <v>48</v>
       </c>
       <c r="E228" s="12"/>
@@ -13087,7 +15089,7 @@
     </row>
     <row r="253" ht="20.1" customHeight="1" spans="2:28">
       <c r="B253" s="8"/>
-      <c r="C253" s="32" t="s">
+      <c r="C253" s="39" t="s">
         <v>52</v>
       </c>
       <c r="D253" s="9" t="s">
@@ -13242,7 +15244,7 @@
     </row>
     <row r="258" spans="2:28">
       <c r="B258" s="10"/>
-      <c r="C258" s="33" t="s">
+      <c r="C258" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D258" s="12" t="s">
@@ -13275,7 +15277,7 @@
     </row>
     <row r="259" spans="2:28">
       <c r="B259" s="10"/>
-      <c r="C259" s="33" t="s">
+      <c r="C259" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D259" s="12" t="s">
@@ -14008,7 +16010,7 @@
     </row>
     <row r="284" spans="2:28">
       <c r="B284" s="10"/>
-      <c r="C284" s="34" t="s">
+      <c r="C284" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D284" s="23" t="s">
@@ -14476,7 +16478,7 @@
     </row>
     <row r="300" spans="2:28">
       <c r="B300" s="10"/>
-      <c r="C300" s="34" t="s">
+      <c r="C300" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D300" s="23" t="s">
@@ -14683,7 +16685,7 @@
     </row>
     <row r="307" spans="2:28">
       <c r="B307" s="10"/>
-      <c r="C307" s="34" t="s">
+      <c r="C307" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D307" s="23" t="s">
@@ -15122,7 +17124,7 @@
     </row>
     <row r="322" spans="2:28">
       <c r="B322" s="10"/>
-      <c r="C322" s="34" t="s">
+      <c r="C322" s="41" t="s">
         <v>36</v>
       </c>
       <c r="D322" s="23" t="s">
@@ -15936,66 +17938,4561 @@
       <c r="AA349" s="12"/>
       <c r="AB349" s="19"/>
     </row>
-    <row r="350" spans="2:28">
-      <c r="B350" s="10"/>
-      <c r="C350" s="11"/>
-      <c r="D350" s="13"/>
-      <c r="E350" s="12"/>
-      <c r="F350" s="12"/>
-      <c r="G350" s="12"/>
-      <c r="H350" s="12"/>
-      <c r="I350" s="12"/>
-      <c r="J350" s="12"/>
-      <c r="K350" s="12"/>
-      <c r="L350" s="12"/>
-      <c r="M350" s="12"/>
-      <c r="N350" s="12"/>
-      <c r="O350" s="12"/>
-      <c r="P350" s="12"/>
-      <c r="Q350" s="12"/>
-      <c r="R350" s="12"/>
-      <c r="S350" s="12"/>
-      <c r="T350" s="12"/>
-      <c r="U350" s="12"/>
-      <c r="V350" s="12"/>
-      <c r="W350" s="12"/>
-      <c r="X350" s="12"/>
-      <c r="Y350" s="12"/>
-      <c r="Z350" s="12"/>
-      <c r="AA350" s="12"/>
-      <c r="AB350" s="19"/>
+    <row r="350" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B350" s="8"/>
+      <c r="C350" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E350" s="9"/>
+      <c r="F350" s="9"/>
+      <c r="G350" s="9"/>
+      <c r="H350" s="9"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="9"/>
+      <c r="K350" s="9"/>
+      <c r="L350" s="9"/>
+      <c r="M350" s="9"/>
+      <c r="N350" s="9"/>
+      <c r="O350" s="9"/>
+      <c r="P350" s="9"/>
+      <c r="Q350" s="9"/>
+      <c r="R350" s="9"/>
+      <c r="S350" s="9"/>
+      <c r="T350" s="9"/>
+      <c r="U350" s="9"/>
+      <c r="V350" s="9"/>
+      <c r="W350" s="9"/>
+      <c r="X350" s="9"/>
+      <c r="Y350" s="9"/>
+      <c r="Z350" s="9"/>
+      <c r="AA350" s="9"/>
+      <c r="AB350" s="18"/>
     </row>
     <row r="351" spans="2:28">
-      <c r="B351" s="28"/>
-      <c r="C351" s="29"/>
-      <c r="D351" s="30"/>
-      <c r="E351" s="30"/>
-      <c r="F351" s="30"/>
-      <c r="G351" s="30"/>
-      <c r="H351" s="30"/>
-      <c r="I351" s="30"/>
-      <c r="J351" s="30"/>
-      <c r="K351" s="30"/>
-      <c r="L351" s="30"/>
-      <c r="M351" s="30"/>
-      <c r="N351" s="30"/>
-      <c r="O351" s="30"/>
-      <c r="P351" s="30"/>
-      <c r="Q351" s="30"/>
-      <c r="R351" s="30"/>
-      <c r="S351" s="30"/>
-      <c r="T351" s="30"/>
-      <c r="U351" s="30"/>
-      <c r="V351" s="30"/>
-      <c r="W351" s="30"/>
-      <c r="X351" s="30"/>
-      <c r="Y351" s="30"/>
-      <c r="Z351" s="30"/>
-      <c r="AA351" s="30"/>
-      <c r="AB351" s="31"/>
+      <c r="B351" s="10"/>
+      <c r="C351" s="11"/>
+      <c r="D351" s="13"/>
+      <c r="E351" s="12"/>
+      <c r="F351" s="12"/>
+      <c r="G351" s="12"/>
+      <c r="H351" s="12"/>
+      <c r="I351" s="12"/>
+      <c r="J351" s="12"/>
+      <c r="K351" s="12"/>
+      <c r="L351" s="12"/>
+      <c r="M351" s="12"/>
+      <c r="N351" s="12"/>
+      <c r="O351" s="12"/>
+      <c r="P351" s="12"/>
+      <c r="Q351" s="12"/>
+      <c r="R351" s="12"/>
+      <c r="S351" s="12"/>
+      <c r="T351" s="12"/>
+      <c r="U351" s="12"/>
+      <c r="V351" s="12"/>
+      <c r="W351" s="12"/>
+      <c r="X351" s="12"/>
+      <c r="Y351" s="12"/>
+      <c r="Z351" s="12"/>
+      <c r="AA351" s="12"/>
+      <c r="AB351" s="19"/>
+    </row>
+    <row r="352" ht="15" spans="2:28">
+      <c r="B352" s="10"/>
+      <c r="C352" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D352" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E352" s="12"/>
+      <c r="F352" s="12"/>
+      <c r="G352" s="12"/>
+      <c r="H352" s="12"/>
+      <c r="I352" s="12"/>
+      <c r="J352" s="12"/>
+      <c r="K352" s="12"/>
+      <c r="L352" s="12"/>
+      <c r="M352" s="12"/>
+      <c r="N352" s="12"/>
+      <c r="O352" s="12"/>
+      <c r="P352" s="12"/>
+      <c r="Q352" s="12"/>
+      <c r="R352" s="12"/>
+      <c r="S352" s="12"/>
+      <c r="T352" s="12"/>
+      <c r="U352" s="12"/>
+      <c r="V352" s="12"/>
+      <c r="W352" s="12"/>
+      <c r="X352" s="12"/>
+      <c r="Y352" s="12"/>
+      <c r="Z352" s="12"/>
+      <c r="AA352" s="12"/>
+      <c r="AB352" s="19"/>
+    </row>
+    <row r="353" spans="2:28">
+      <c r="B353" s="10"/>
+      <c r="C353" s="11"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="12"/>
+      <c r="F353" s="12"/>
+      <c r="G353" s="12"/>
+      <c r="H353" s="12"/>
+      <c r="I353" s="12"/>
+      <c r="J353" s="12"/>
+      <c r="K353" s="12"/>
+      <c r="L353" s="12"/>
+      <c r="M353" s="12"/>
+      <c r="N353" s="12"/>
+      <c r="O353" s="12"/>
+      <c r="P353" s="12"/>
+      <c r="Q353" s="12"/>
+      <c r="R353" s="12"/>
+      <c r="S353" s="12"/>
+      <c r="T353" s="12"/>
+      <c r="U353" s="12"/>
+      <c r="V353" s="12"/>
+      <c r="W353" s="12"/>
+      <c r="X353" s="12"/>
+      <c r="Y353" s="12"/>
+      <c r="Z353" s="12"/>
+      <c r="AA353" s="12"/>
+      <c r="AB353" s="19"/>
+    </row>
+    <row r="354" spans="2:28">
+      <c r="B354" s="10"/>
+      <c r="C354" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D354" s="13"/>
+      <c r="E354" s="12"/>
+      <c r="F354" s="12"/>
+      <c r="G354" s="12"/>
+      <c r="H354" s="12"/>
+      <c r="I354" s="12"/>
+      <c r="J354" s="12"/>
+      <c r="K354" s="12"/>
+      <c r="L354" s="12"/>
+      <c r="M354" s="12"/>
+      <c r="N354" s="12"/>
+      <c r="O354" s="12"/>
+      <c r="P354" s="12"/>
+      <c r="Q354" s="12"/>
+      <c r="R354" s="12"/>
+      <c r="S354" s="12"/>
+      <c r="T354" s="12"/>
+      <c r="U354" s="12"/>
+      <c r="V354" s="12"/>
+      <c r="W354" s="12"/>
+      <c r="X354" s="12"/>
+      <c r="Y354" s="12"/>
+      <c r="Z354" s="12"/>
+      <c r="AA354" s="12"/>
+      <c r="AB354" s="19"/>
+    </row>
+    <row r="355" spans="2:28">
+      <c r="B355" s="10"/>
+      <c r="C355" s="11"/>
+      <c r="D355" s="13"/>
+      <c r="E355" s="12"/>
+      <c r="F355" s="12"/>
+      <c r="G355" s="12"/>
+      <c r="H355" s="12"/>
+      <c r="I355" s="12"/>
+      <c r="J355" s="12"/>
+      <c r="K355" s="12"/>
+      <c r="L355" s="12"/>
+      <c r="M355" s="12"/>
+      <c r="N355" s="12"/>
+      <c r="O355" s="12"/>
+      <c r="P355" s="12"/>
+      <c r="Q355" s="12"/>
+      <c r="R355" s="12"/>
+      <c r="S355" s="12"/>
+      <c r="T355" s="12"/>
+      <c r="U355" s="12"/>
+      <c r="V355" s="12"/>
+      <c r="W355" s="12"/>
+      <c r="X355" s="12"/>
+      <c r="Y355" s="12"/>
+      <c r="Z355" s="12"/>
+      <c r="AA355" s="12"/>
+      <c r="AB355" s="19"/>
+    </row>
+    <row r="356" spans="2:28">
+      <c r="B356" s="10"/>
+      <c r="C356" s="11"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="12"/>
+      <c r="F356" s="12"/>
+      <c r="G356" s="12"/>
+      <c r="H356" s="12"/>
+      <c r="I356" s="12"/>
+      <c r="J356" s="12"/>
+      <c r="K356" s="12"/>
+      <c r="L356" s="12"/>
+      <c r="M356" s="12"/>
+      <c r="N356" s="12"/>
+      <c r="O356" s="12"/>
+      <c r="P356" s="12"/>
+      <c r="Q356" s="12"/>
+      <c r="R356" s="12"/>
+      <c r="S356" s="12"/>
+      <c r="T356" s="12"/>
+      <c r="U356" s="12"/>
+      <c r="V356" s="12"/>
+      <c r="W356" s="12"/>
+      <c r="X356" s="12"/>
+      <c r="Y356" s="12"/>
+      <c r="Z356" s="12"/>
+      <c r="AA356" s="12"/>
+      <c r="AB356" s="19"/>
+    </row>
+    <row r="357" spans="2:28">
+      <c r="B357" s="10"/>
+      <c r="C357" s="11"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="12"/>
+      <c r="F357" s="12"/>
+      <c r="G357" s="12"/>
+      <c r="H357" s="12"/>
+      <c r="I357" s="12"/>
+      <c r="J357" s="12"/>
+      <c r="K357" s="12"/>
+      <c r="L357" s="12"/>
+      <c r="M357" s="12"/>
+      <c r="N357" s="12"/>
+      <c r="O357" s="12"/>
+      <c r="P357" s="12"/>
+      <c r="Q357" s="12"/>
+      <c r="R357" s="12"/>
+      <c r="S357" s="12"/>
+      <c r="T357" s="12"/>
+      <c r="U357" s="12"/>
+      <c r="V357" s="12"/>
+      <c r="W357" s="12"/>
+      <c r="X357" s="12"/>
+      <c r="Y357" s="12"/>
+      <c r="Z357" s="12"/>
+      <c r="AA357" s="12"/>
+      <c r="AB357" s="19"/>
+    </row>
+    <row r="358" spans="2:28">
+      <c r="B358" s="10"/>
+      <c r="C358" s="11"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="12"/>
+      <c r="F358" s="12"/>
+      <c r="G358" s="12"/>
+      <c r="H358" s="12"/>
+      <c r="I358" s="12"/>
+      <c r="J358" s="12"/>
+      <c r="K358" s="12"/>
+      <c r="L358" s="12"/>
+      <c r="M358" s="12"/>
+      <c r="N358" s="12"/>
+      <c r="O358" s="12"/>
+      <c r="P358" s="12"/>
+      <c r="Q358" s="12"/>
+      <c r="R358" s="12"/>
+      <c r="S358" s="12"/>
+      <c r="T358" s="12"/>
+      <c r="U358" s="12"/>
+      <c r="V358" s="12"/>
+      <c r="W358" s="12"/>
+      <c r="X358" s="12"/>
+      <c r="Y358" s="12"/>
+      <c r="Z358" s="12"/>
+      <c r="AA358" s="12"/>
+      <c r="AB358" s="19"/>
+    </row>
+    <row r="359" spans="2:28">
+      <c r="B359" s="10"/>
+      <c r="C359" s="11"/>
+      <c r="D359" s="13"/>
+      <c r="E359" s="12"/>
+      <c r="F359" s="12"/>
+      <c r="G359" s="12"/>
+      <c r="H359" s="12"/>
+      <c r="I359" s="12"/>
+      <c r="J359" s="12"/>
+      <c r="K359" s="12"/>
+      <c r="L359" s="12"/>
+      <c r="M359" s="12"/>
+      <c r="N359" s="12"/>
+      <c r="O359" s="12"/>
+      <c r="P359" s="12"/>
+      <c r="Q359" s="12"/>
+      <c r="R359" s="12"/>
+      <c r="S359" s="12"/>
+      <c r="T359" s="12"/>
+      <c r="U359" s="12"/>
+      <c r="V359" s="12"/>
+      <c r="W359" s="12"/>
+      <c r="X359" s="12"/>
+      <c r="Y359" s="12"/>
+      <c r="Z359" s="12"/>
+      <c r="AA359" s="12"/>
+      <c r="AB359" s="19"/>
+    </row>
+    <row r="360" spans="2:28">
+      <c r="B360" s="10"/>
+      <c r="C360" s="11"/>
+      <c r="D360" s="13"/>
+      <c r="E360" s="12"/>
+      <c r="F360" s="12"/>
+      <c r="G360" s="12"/>
+      <c r="H360" s="12"/>
+      <c r="I360" s="12"/>
+      <c r="J360" s="12"/>
+      <c r="K360" s="12"/>
+      <c r="L360" s="12"/>
+      <c r="M360" s="12"/>
+      <c r="N360" s="12"/>
+      <c r="O360" s="12"/>
+      <c r="P360" s="12"/>
+      <c r="Q360" s="12"/>
+      <c r="R360" s="12"/>
+      <c r="S360" s="12"/>
+      <c r="T360" s="12"/>
+      <c r="U360" s="12"/>
+      <c r="V360" s="12"/>
+      <c r="W360" s="12"/>
+      <c r="X360" s="12"/>
+      <c r="Y360" s="12"/>
+      <c r="Z360" s="12"/>
+      <c r="AA360" s="12"/>
+      <c r="AB360" s="19"/>
+    </row>
+    <row r="361" spans="2:28">
+      <c r="B361" s="10"/>
+      <c r="C361" s="11"/>
+      <c r="D361" s="13"/>
+      <c r="E361" s="12"/>
+      <c r="F361" s="12"/>
+      <c r="G361" s="12"/>
+      <c r="H361" s="12"/>
+      <c r="I361" s="12"/>
+      <c r="J361" s="12"/>
+      <c r="K361" s="12"/>
+      <c r="L361" s="12"/>
+      <c r="M361" s="12"/>
+      <c r="N361" s="12"/>
+      <c r="O361" s="12"/>
+      <c r="P361" s="12"/>
+      <c r="Q361" s="12"/>
+      <c r="R361" s="12"/>
+      <c r="S361" s="12"/>
+      <c r="T361" s="12"/>
+      <c r="U361" s="12"/>
+      <c r="V361" s="12"/>
+      <c r="W361" s="12"/>
+      <c r="X361" s="12"/>
+      <c r="Y361" s="12"/>
+      <c r="Z361" s="12"/>
+      <c r="AA361" s="12"/>
+      <c r="AB361" s="19"/>
+    </row>
+    <row r="362" spans="2:28">
+      <c r="B362" s="10"/>
+      <c r="C362" s="11"/>
+      <c r="D362" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E362" s="12"/>
+      <c r="F362" s="12"/>
+      <c r="G362" s="12"/>
+      <c r="H362" s="12"/>
+      <c r="I362" s="12"/>
+      <c r="J362" s="12"/>
+      <c r="K362" s="12"/>
+      <c r="L362" s="12"/>
+      <c r="M362" s="12"/>
+      <c r="N362" s="12"/>
+      <c r="O362" s="12"/>
+      <c r="P362" s="12"/>
+      <c r="Q362" s="12"/>
+      <c r="R362" s="12"/>
+      <c r="S362" s="12"/>
+      <c r="T362" s="12"/>
+      <c r="U362" s="12"/>
+      <c r="V362" s="12"/>
+      <c r="W362" s="12"/>
+      <c r="X362" s="12"/>
+      <c r="Y362" s="12"/>
+      <c r="Z362" s="12"/>
+      <c r="AA362" s="12"/>
+      <c r="AB362" s="19"/>
+    </row>
+    <row r="363" spans="2:28">
+      <c r="B363" s="10"/>
+      <c r="C363" s="11"/>
+      <c r="D363" s="13"/>
+      <c r="E363" s="12"/>
+      <c r="F363" s="12"/>
+      <c r="G363" s="12"/>
+      <c r="H363" s="12"/>
+      <c r="I363" s="12"/>
+      <c r="J363" s="12"/>
+      <c r="K363" s="12"/>
+      <c r="L363" s="12"/>
+      <c r="M363" s="12"/>
+      <c r="N363" s="12"/>
+      <c r="O363" s="12"/>
+      <c r="P363" s="12"/>
+      <c r="Q363" s="12"/>
+      <c r="R363" s="12"/>
+      <c r="S363" s="12"/>
+      <c r="T363" s="12"/>
+      <c r="U363" s="12"/>
+      <c r="V363" s="12"/>
+      <c r="W363" s="12"/>
+      <c r="X363" s="12"/>
+      <c r="Y363" s="12"/>
+      <c r="Z363" s="12"/>
+      <c r="AA363" s="12"/>
+      <c r="AB363" s="19"/>
+    </row>
+    <row r="364" spans="2:28">
+      <c r="B364" s="10"/>
+      <c r="C364" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" s="13"/>
+      <c r="E364" s="12"/>
+      <c r="F364" s="12"/>
+      <c r="G364" s="12"/>
+      <c r="H364" s="12"/>
+      <c r="I364" s="12"/>
+      <c r="J364" s="12"/>
+      <c r="K364" s="12"/>
+      <c r="L364" s="12"/>
+      <c r="M364" s="12"/>
+      <c r="N364" s="12"/>
+      <c r="O364" s="12"/>
+      <c r="P364" s="12"/>
+      <c r="Q364" s="12"/>
+      <c r="R364" s="12"/>
+      <c r="S364" s="12"/>
+      <c r="T364" s="12"/>
+      <c r="U364" s="12"/>
+      <c r="V364" s="12"/>
+      <c r="W364" s="12"/>
+      <c r="X364" s="12"/>
+      <c r="Y364" s="12"/>
+      <c r="Z364" s="12"/>
+      <c r="AA364" s="12"/>
+      <c r="AB364" s="19"/>
+    </row>
+    <row r="365" spans="2:28">
+      <c r="B365" s="10"/>
+      <c r="C365" s="11"/>
+      <c r="D365" s="13"/>
+      <c r="E365" s="12"/>
+      <c r="F365" s="12"/>
+      <c r="G365" s="12"/>
+      <c r="H365" s="12"/>
+      <c r="I365" s="12"/>
+      <c r="J365" s="12"/>
+      <c r="K365" s="12"/>
+      <c r="L365" s="12"/>
+      <c r="M365" s="12"/>
+      <c r="N365" s="12"/>
+      <c r="O365" s="12"/>
+      <c r="P365" s="12"/>
+      <c r="Q365" s="12"/>
+      <c r="R365" s="12"/>
+      <c r="S365" s="12"/>
+      <c r="T365" s="12"/>
+      <c r="U365" s="12"/>
+      <c r="V365" s="12"/>
+      <c r="W365" s="12"/>
+      <c r="X365" s="12"/>
+      <c r="Y365" s="12"/>
+      <c r="Z365" s="12"/>
+      <c r="AA365" s="12"/>
+      <c r="AB365" s="19"/>
+    </row>
+    <row r="366" spans="2:28">
+      <c r="B366" s="10"/>
+      <c r="C366" s="11"/>
+      <c r="D366" s="13"/>
+      <c r="E366" s="12"/>
+      <c r="F366" s="12"/>
+      <c r="G366" s="12"/>
+      <c r="H366" s="12"/>
+      <c r="I366" s="12"/>
+      <c r="J366" s="12"/>
+      <c r="K366" s="12"/>
+      <c r="L366" s="12"/>
+      <c r="M366" s="12"/>
+      <c r="N366" s="12"/>
+      <c r="O366" s="12"/>
+      <c r="P366" s="12"/>
+      <c r="Q366" s="12"/>
+      <c r="R366" s="12"/>
+      <c r="S366" s="12"/>
+      <c r="T366" s="12"/>
+      <c r="U366" s="12"/>
+      <c r="V366" s="12"/>
+      <c r="W366" s="12"/>
+      <c r="X366" s="12"/>
+      <c r="Y366" s="12"/>
+      <c r="Z366" s="12"/>
+      <c r="AA366" s="12"/>
+      <c r="AB366" s="19"/>
+    </row>
+    <row r="367" spans="2:28">
+      <c r="B367" s="10"/>
+      <c r="C367" s="11"/>
+      <c r="D367" s="13"/>
+      <c r="E367" s="12"/>
+      <c r="F367" s="12"/>
+      <c r="G367" s="12"/>
+      <c r="H367" s="12"/>
+      <c r="I367" s="12"/>
+      <c r="J367" s="12"/>
+      <c r="K367" s="12"/>
+      <c r="L367" s="12"/>
+      <c r="M367" s="12"/>
+      <c r="N367" s="12"/>
+      <c r="O367" s="12"/>
+      <c r="P367" s="12"/>
+      <c r="Q367" s="12"/>
+      <c r="R367" s="12"/>
+      <c r="S367" s="12"/>
+      <c r="T367" s="12"/>
+      <c r="U367" s="12"/>
+      <c r="V367" s="12"/>
+      <c r="W367" s="12"/>
+      <c r="X367" s="12"/>
+      <c r="Y367" s="12"/>
+      <c r="Z367" s="12"/>
+      <c r="AA367" s="12"/>
+      <c r="AB367" s="19"/>
+    </row>
+    <row r="368" spans="2:28">
+      <c r="B368" s="10"/>
+      <c r="C368" s="11"/>
+      <c r="D368" s="13"/>
+      <c r="E368" s="12"/>
+      <c r="F368" s="12"/>
+      <c r="G368" s="12"/>
+      <c r="H368" s="12"/>
+      <c r="I368" s="12"/>
+      <c r="J368" s="12"/>
+      <c r="K368" s="12"/>
+      <c r="L368" s="12"/>
+      <c r="M368" s="12"/>
+      <c r="N368" s="12"/>
+      <c r="O368" s="12"/>
+      <c r="P368" s="12"/>
+      <c r="Q368" s="12"/>
+      <c r="R368" s="12"/>
+      <c r="S368" s="12"/>
+      <c r="T368" s="12"/>
+      <c r="U368" s="12"/>
+      <c r="V368" s="12"/>
+      <c r="W368" s="12"/>
+      <c r="X368" s="12"/>
+      <c r="Y368" s="12"/>
+      <c r="Z368" s="12"/>
+      <c r="AA368" s="12"/>
+      <c r="AB368" s="19"/>
+    </row>
+    <row r="369" spans="2:28">
+      <c r="B369" s="10"/>
+      <c r="C369" s="11"/>
+      <c r="D369" s="13"/>
+      <c r="E369" s="12"/>
+      <c r="F369" s="12"/>
+      <c r="G369" s="12"/>
+      <c r="H369" s="12"/>
+      <c r="I369" s="12"/>
+      <c r="J369" s="12"/>
+      <c r="K369" s="12"/>
+      <c r="L369" s="12"/>
+      <c r="M369" s="12"/>
+      <c r="N369" s="12"/>
+      <c r="O369" s="12"/>
+      <c r="P369" s="12"/>
+      <c r="Q369" s="12"/>
+      <c r="R369" s="12"/>
+      <c r="S369" s="12"/>
+      <c r="T369" s="12"/>
+      <c r="U369" s="12"/>
+      <c r="V369" s="12"/>
+      <c r="W369" s="12"/>
+      <c r="X369" s="12"/>
+      <c r="Y369" s="12"/>
+      <c r="Z369" s="12"/>
+      <c r="AA369" s="12"/>
+      <c r="AB369" s="19"/>
+    </row>
+    <row r="370" spans="2:28">
+      <c r="B370" s="10"/>
+      <c r="C370" s="11"/>
+      <c r="D370" s="13"/>
+      <c r="E370" s="12"/>
+      <c r="F370" s="12"/>
+      <c r="G370" s="12"/>
+      <c r="H370" s="12"/>
+      <c r="I370" s="12"/>
+      <c r="J370" s="12"/>
+      <c r="K370" s="12"/>
+      <c r="L370" s="12"/>
+      <c r="M370" s="12"/>
+      <c r="N370" s="12"/>
+      <c r="O370" s="12"/>
+      <c r="P370" s="12"/>
+      <c r="Q370" s="12"/>
+      <c r="R370" s="12"/>
+      <c r="S370" s="12"/>
+      <c r="T370" s="12"/>
+      <c r="U370" s="12"/>
+      <c r="V370" s="12"/>
+      <c r="W370" s="12"/>
+      <c r="X370" s="12"/>
+      <c r="Y370" s="12"/>
+      <c r="Z370" s="12"/>
+      <c r="AA370" s="12"/>
+      <c r="AB370" s="19"/>
+    </row>
+    <row r="371" spans="2:28">
+      <c r="B371" s="10"/>
+      <c r="C371" s="11"/>
+      <c r="D371" s="13"/>
+      <c r="E371" s="12"/>
+      <c r="F371" s="12"/>
+      <c r="G371" s="12"/>
+      <c r="H371" s="12"/>
+      <c r="I371" s="12"/>
+      <c r="J371" s="12"/>
+      <c r="K371" s="12"/>
+      <c r="L371" s="12"/>
+      <c r="M371" s="12"/>
+      <c r="N371" s="12"/>
+      <c r="O371" s="12"/>
+      <c r="P371" s="12"/>
+      <c r="Q371" s="12"/>
+      <c r="R371" s="12"/>
+      <c r="S371" s="12"/>
+      <c r="T371" s="12"/>
+      <c r="U371" s="12"/>
+      <c r="V371" s="12"/>
+      <c r="W371" s="12"/>
+      <c r="X371" s="12"/>
+      <c r="Y371" s="12"/>
+      <c r="Z371" s="12"/>
+      <c r="AA371" s="12"/>
+      <c r="AB371" s="19"/>
+    </row>
+    <row r="372" spans="2:28">
+      <c r="B372" s="10"/>
+      <c r="C372" s="11"/>
+      <c r="D372" s="13"/>
+      <c r="E372" s="12"/>
+      <c r="F372" s="12"/>
+      <c r="G372" s="12"/>
+      <c r="H372" s="12"/>
+      <c r="I372" s="12"/>
+      <c r="J372" s="12"/>
+      <c r="K372" s="12"/>
+      <c r="L372" s="12"/>
+      <c r="M372" s="12"/>
+      <c r="N372" s="12"/>
+      <c r="O372" s="12"/>
+      <c r="P372" s="12"/>
+      <c r="Q372" s="12"/>
+      <c r="R372" s="12"/>
+      <c r="S372" s="12"/>
+      <c r="T372" s="12"/>
+      <c r="U372" s="12"/>
+      <c r="V372" s="12"/>
+      <c r="W372" s="12"/>
+      <c r="X372" s="12"/>
+      <c r="Y372" s="12"/>
+      <c r="Z372" s="12"/>
+      <c r="AA372" s="12"/>
+      <c r="AB372" s="19"/>
+    </row>
+    <row r="373" spans="2:28">
+      <c r="B373" s="10"/>
+      <c r="C373" s="11"/>
+      <c r="D373" s="13"/>
+      <c r="E373" s="12"/>
+      <c r="F373" s="12"/>
+      <c r="G373" s="12"/>
+      <c r="H373" s="12"/>
+      <c r="I373" s="12"/>
+      <c r="J373" s="12"/>
+      <c r="K373" s="12"/>
+      <c r="L373" s="12"/>
+      <c r="M373" s="12"/>
+      <c r="N373" s="12"/>
+      <c r="O373" s="12"/>
+      <c r="P373" s="12"/>
+      <c r="Q373" s="12"/>
+      <c r="R373" s="12"/>
+      <c r="S373" s="12"/>
+      <c r="T373" s="12"/>
+      <c r="U373" s="12"/>
+      <c r="V373" s="12"/>
+      <c r="W373" s="12"/>
+      <c r="X373" s="12"/>
+      <c r="Y373" s="12"/>
+      <c r="Z373" s="12"/>
+      <c r="AA373" s="12"/>
+      <c r="AB373" s="19"/>
+    </row>
+    <row r="374" spans="2:28">
+      <c r="B374" s="10"/>
+      <c r="C374" s="11"/>
+      <c r="D374" s="13"/>
+      <c r="E374" s="12"/>
+      <c r="F374" s="12"/>
+      <c r="G374" s="12"/>
+      <c r="H374" s="12"/>
+      <c r="I374" s="12"/>
+      <c r="J374" s="12"/>
+      <c r="K374" s="12"/>
+      <c r="L374" s="12"/>
+      <c r="M374" s="12"/>
+      <c r="N374" s="12"/>
+      <c r="O374" s="12"/>
+      <c r="P374" s="12"/>
+      <c r="Q374" s="12"/>
+      <c r="R374" s="12"/>
+      <c r="S374" s="12"/>
+      <c r="T374" s="12"/>
+      <c r="U374" s="12"/>
+      <c r="V374" s="12"/>
+      <c r="W374" s="12"/>
+      <c r="X374" s="12"/>
+      <c r="Y374" s="12"/>
+      <c r="Z374" s="12"/>
+      <c r="AA374" s="12"/>
+      <c r="AB374" s="19"/>
+    </row>
+    <row r="375" spans="2:28">
+      <c r="B375" s="10"/>
+      <c r="C375" s="11"/>
+      <c r="D375" s="13"/>
+      <c r="E375" s="12"/>
+      <c r="F375" s="12"/>
+      <c r="G375" s="12"/>
+      <c r="H375" s="12"/>
+      <c r="I375" s="12"/>
+      <c r="J375" s="12"/>
+      <c r="K375" s="12"/>
+      <c r="L375" s="12"/>
+      <c r="M375" s="12"/>
+      <c r="N375" s="12"/>
+      <c r="O375" s="12"/>
+      <c r="P375" s="12"/>
+      <c r="Q375" s="12"/>
+      <c r="R375" s="12"/>
+      <c r="S375" s="12"/>
+      <c r="T375" s="12"/>
+      <c r="U375" s="12"/>
+      <c r="V375" s="12"/>
+      <c r="W375" s="12"/>
+      <c r="X375" s="12"/>
+      <c r="Y375" s="12"/>
+      <c r="Z375" s="12"/>
+      <c r="AA375" s="12"/>
+      <c r="AB375" s="19"/>
+    </row>
+    <row r="376" spans="2:28">
+      <c r="B376" s="10"/>
+      <c r="C376" s="11"/>
+      <c r="D376" s="13"/>
+      <c r="E376" s="12"/>
+      <c r="F376" s="12"/>
+      <c r="G376" s="12"/>
+      <c r="H376" s="12"/>
+      <c r="I376" s="12"/>
+      <c r="J376" s="12"/>
+      <c r="K376" s="12"/>
+      <c r="L376" s="12"/>
+      <c r="M376" s="12"/>
+      <c r="N376" s="12"/>
+      <c r="O376" s="12"/>
+      <c r="P376" s="12"/>
+      <c r="Q376" s="12"/>
+      <c r="R376" s="12"/>
+      <c r="S376" s="12"/>
+      <c r="T376" s="12"/>
+      <c r="U376" s="12"/>
+      <c r="V376" s="12"/>
+      <c r="W376" s="12"/>
+      <c r="X376" s="12"/>
+      <c r="Y376" s="12"/>
+      <c r="Z376" s="12"/>
+      <c r="AA376" s="12"/>
+      <c r="AB376" s="19"/>
+    </row>
+    <row r="377" spans="2:28">
+      <c r="B377" s="10"/>
+      <c r="C377" s="11"/>
+      <c r="D377" s="13"/>
+      <c r="E377" s="12"/>
+      <c r="F377" s="12"/>
+      <c r="G377" s="12"/>
+      <c r="H377" s="12"/>
+      <c r="I377" s="12"/>
+      <c r="J377" s="12"/>
+      <c r="K377" s="12"/>
+      <c r="L377" s="12"/>
+      <c r="M377" s="12"/>
+      <c r="N377" s="12"/>
+      <c r="O377" s="12"/>
+      <c r="P377" s="12"/>
+      <c r="Q377" s="12"/>
+      <c r="R377" s="12"/>
+      <c r="S377" s="12"/>
+      <c r="T377" s="12"/>
+      <c r="U377" s="12"/>
+      <c r="V377" s="12"/>
+      <c r="W377" s="12"/>
+      <c r="X377" s="12"/>
+      <c r="Y377" s="12"/>
+      <c r="Z377" s="12"/>
+      <c r="AA377" s="12"/>
+      <c r="AB377" s="19"/>
+    </row>
+    <row r="378" spans="2:28">
+      <c r="B378" s="10"/>
+      <c r="C378" s="11"/>
+      <c r="D378" s="13"/>
+      <c r="E378" s="12"/>
+      <c r="F378" s="12"/>
+      <c r="G378" s="12"/>
+      <c r="H378" s="12"/>
+      <c r="I378" s="12"/>
+      <c r="J378" s="12"/>
+      <c r="K378" s="12"/>
+      <c r="L378" s="12"/>
+      <c r="M378" s="12"/>
+      <c r="N378" s="12"/>
+      <c r="O378" s="12"/>
+      <c r="P378" s="12"/>
+      <c r="Q378" s="12"/>
+      <c r="R378" s="12"/>
+      <c r="S378" s="12"/>
+      <c r="T378" s="12"/>
+      <c r="U378" s="12"/>
+      <c r="V378" s="12"/>
+      <c r="W378" s="12"/>
+      <c r="X378" s="12"/>
+      <c r="Y378" s="12"/>
+      <c r="Z378" s="12"/>
+      <c r="AA378" s="12"/>
+      <c r="AB378" s="19"/>
+    </row>
+    <row r="379" spans="2:28">
+      <c r="B379" s="10"/>
+      <c r="C379" s="11"/>
+      <c r="D379" s="13"/>
+      <c r="E379" s="12"/>
+      <c r="F379" s="12"/>
+      <c r="G379" s="12"/>
+      <c r="H379" s="12"/>
+      <c r="I379" s="12"/>
+      <c r="J379" s="12"/>
+      <c r="K379" s="12"/>
+      <c r="L379" s="12"/>
+      <c r="M379" s="12"/>
+      <c r="N379" s="12"/>
+      <c r="O379" s="12"/>
+      <c r="P379" s="12"/>
+      <c r="Q379" s="12"/>
+      <c r="R379" s="12"/>
+      <c r="S379" s="12"/>
+      <c r="T379" s="12"/>
+      <c r="U379" s="12"/>
+      <c r="V379" s="12"/>
+      <c r="W379" s="12"/>
+      <c r="X379" s="12"/>
+      <c r="Y379" s="12"/>
+      <c r="Z379" s="12"/>
+      <c r="AA379" s="12"/>
+      <c r="AB379" s="19"/>
+    </row>
+    <row r="380" spans="2:28">
+      <c r="B380" s="10"/>
+      <c r="C380" s="11"/>
+      <c r="D380" s="13"/>
+      <c r="E380" s="12"/>
+      <c r="F380" s="12"/>
+      <c r="G380" s="12"/>
+      <c r="H380" s="12"/>
+      <c r="I380" s="12"/>
+      <c r="J380" s="12"/>
+      <c r="K380" s="12"/>
+      <c r="L380" s="12"/>
+      <c r="M380" s="12"/>
+      <c r="N380" s="12"/>
+      <c r="O380" s="12"/>
+      <c r="P380" s="12"/>
+      <c r="Q380" s="12"/>
+      <c r="R380" s="12"/>
+      <c r="S380" s="12"/>
+      <c r="T380" s="12"/>
+      <c r="U380" s="12"/>
+      <c r="V380" s="12"/>
+      <c r="W380" s="12"/>
+      <c r="X380" s="12"/>
+      <c r="Y380" s="12"/>
+      <c r="Z380" s="12"/>
+      <c r="AA380" s="12"/>
+      <c r="AB380" s="19"/>
+    </row>
+    <row r="381" spans="2:28">
+      <c r="B381" s="10"/>
+      <c r="C381" s="11"/>
+      <c r="D381" s="13"/>
+      <c r="E381" s="12"/>
+      <c r="F381" s="12"/>
+      <c r="G381" s="12"/>
+      <c r="H381" s="12"/>
+      <c r="I381" s="12"/>
+      <c r="J381" s="12"/>
+      <c r="K381" s="12"/>
+      <c r="L381" s="12"/>
+      <c r="M381" s="12"/>
+      <c r="N381" s="12"/>
+      <c r="O381" s="12"/>
+      <c r="P381" s="12"/>
+      <c r="Q381" s="12"/>
+      <c r="R381" s="12"/>
+      <c r="S381" s="12"/>
+      <c r="T381" s="12"/>
+      <c r="U381" s="12"/>
+      <c r="V381" s="12"/>
+      <c r="W381" s="12"/>
+      <c r="X381" s="12"/>
+      <c r="Y381" s="12"/>
+      <c r="Z381" s="12"/>
+      <c r="AA381" s="12"/>
+      <c r="AB381" s="19"/>
+    </row>
+    <row r="382" spans="2:28">
+      <c r="B382" s="10"/>
+      <c r="C382" s="11"/>
+      <c r="D382" s="13"/>
+      <c r="E382" s="12"/>
+      <c r="F382" s="12"/>
+      <c r="G382" s="12"/>
+      <c r="H382" s="12"/>
+      <c r="I382" s="12"/>
+      <c r="J382" s="12"/>
+      <c r="K382" s="12"/>
+      <c r="L382" s="12"/>
+      <c r="M382" s="12"/>
+      <c r="N382" s="12"/>
+      <c r="O382" s="12"/>
+      <c r="P382" s="12"/>
+      <c r="Q382" s="12"/>
+      <c r="R382" s="12"/>
+      <c r="S382" s="12"/>
+      <c r="T382" s="12"/>
+      <c r="U382" s="12"/>
+      <c r="V382" s="12"/>
+      <c r="W382" s="12"/>
+      <c r="X382" s="12"/>
+      <c r="Y382" s="12"/>
+      <c r="Z382" s="12"/>
+      <c r="AA382" s="12"/>
+      <c r="AB382" s="19"/>
+    </row>
+    <row r="383" spans="2:28">
+      <c r="B383" s="10"/>
+      <c r="C383" s="11"/>
+      <c r="D383" s="13"/>
+      <c r="E383" s="12"/>
+      <c r="F383" s="12"/>
+      <c r="G383" s="12"/>
+      <c r="H383" s="12"/>
+      <c r="I383" s="12"/>
+      <c r="J383" s="12"/>
+      <c r="K383" s="12"/>
+      <c r="L383" s="12"/>
+      <c r="M383" s="12"/>
+      <c r="N383" s="12"/>
+      <c r="O383" s="12"/>
+      <c r="P383" s="12"/>
+      <c r="Q383" s="12"/>
+      <c r="R383" s="12"/>
+      <c r="S383" s="12"/>
+      <c r="T383" s="12"/>
+      <c r="U383" s="12"/>
+      <c r="V383" s="12"/>
+      <c r="W383" s="12"/>
+      <c r="X383" s="12"/>
+      <c r="Y383" s="12"/>
+      <c r="Z383" s="12"/>
+      <c r="AA383" s="12"/>
+      <c r="AB383" s="19"/>
+    </row>
+    <row r="384" spans="2:28">
+      <c r="B384" s="10"/>
+      <c r="C384" s="11"/>
+      <c r="D384" s="13"/>
+      <c r="E384" s="12"/>
+      <c r="F384" s="12"/>
+      <c r="G384" s="12"/>
+      <c r="H384" s="12"/>
+      <c r="I384" s="12"/>
+      <c r="J384" s="12"/>
+      <c r="K384" s="12"/>
+      <c r="L384" s="12"/>
+      <c r="M384" s="12"/>
+      <c r="N384" s="12"/>
+      <c r="O384" s="12"/>
+      <c r="P384" s="12"/>
+      <c r="Q384" s="12"/>
+      <c r="R384" s="12"/>
+      <c r="S384" s="12"/>
+      <c r="T384" s="12"/>
+      <c r="U384" s="12"/>
+      <c r="V384" s="12"/>
+      <c r="W384" s="12"/>
+      <c r="X384" s="12"/>
+      <c r="Y384" s="12"/>
+      <c r="Z384" s="12"/>
+      <c r="AA384" s="12"/>
+      <c r="AB384" s="19"/>
+    </row>
+    <row r="385" spans="2:28">
+      <c r="B385" s="10"/>
+      <c r="C385" s="11"/>
+      <c r="D385" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E385" s="12"/>
+      <c r="F385" s="12"/>
+      <c r="G385" s="12"/>
+      <c r="H385" s="12"/>
+      <c r="I385" s="12"/>
+      <c r="J385" s="12"/>
+      <c r="K385" s="12"/>
+      <c r="L385" s="12"/>
+      <c r="M385" s="12"/>
+      <c r="N385" s="12"/>
+      <c r="O385" s="12"/>
+      <c r="P385" s="12"/>
+      <c r="Q385" s="12"/>
+      <c r="R385" s="12"/>
+      <c r="S385" s="12"/>
+      <c r="T385" s="12"/>
+      <c r="U385" s="12"/>
+      <c r="V385" s="12"/>
+      <c r="W385" s="12"/>
+      <c r="X385" s="12"/>
+      <c r="Y385" s="12"/>
+      <c r="Z385" s="12"/>
+      <c r="AA385" s="12"/>
+      <c r="AB385" s="19"/>
+    </row>
+    <row r="386" spans="2:28">
+      <c r="B386" s="10"/>
+      <c r="C386" s="11"/>
+      <c r="D386" s="13"/>
+      <c r="E386" s="12"/>
+      <c r="F386" s="12"/>
+      <c r="G386" s="12"/>
+      <c r="H386" s="12"/>
+      <c r="I386" s="12"/>
+      <c r="J386" s="12"/>
+      <c r="K386" s="12"/>
+      <c r="L386" s="12"/>
+      <c r="M386" s="12"/>
+      <c r="N386" s="12"/>
+      <c r="O386" s="12"/>
+      <c r="P386" s="12"/>
+      <c r="Q386" s="12"/>
+      <c r="R386" s="12"/>
+      <c r="S386" s="12"/>
+      <c r="T386" s="12"/>
+      <c r="U386" s="12"/>
+      <c r="V386" s="12"/>
+      <c r="W386" s="12"/>
+      <c r="X386" s="12"/>
+      <c r="Y386" s="12"/>
+      <c r="Z386" s="12"/>
+      <c r="AA386" s="12"/>
+      <c r="AB386" s="19"/>
+    </row>
+    <row r="387" spans="2:28">
+      <c r="B387" s="10"/>
+      <c r="C387" s="11"/>
+      <c r="D387" s="13"/>
+      <c r="E387" s="12"/>
+      <c r="F387" s="12"/>
+      <c r="G387" s="12"/>
+      <c r="H387" s="12"/>
+      <c r="I387" s="12"/>
+      <c r="J387" s="12"/>
+      <c r="K387" s="12"/>
+      <c r="L387" s="12"/>
+      <c r="M387" s="12"/>
+      <c r="N387" s="12"/>
+      <c r="O387" s="12"/>
+      <c r="P387" s="12"/>
+      <c r="Q387" s="12"/>
+      <c r="R387" s="12"/>
+      <c r="S387" s="12"/>
+      <c r="T387" s="12"/>
+      <c r="U387" s="12"/>
+      <c r="V387" s="12"/>
+      <c r="W387" s="12"/>
+      <c r="X387" s="12"/>
+      <c r="Y387" s="12"/>
+      <c r="Z387" s="12"/>
+      <c r="AA387" s="12"/>
+      <c r="AB387" s="19"/>
+    </row>
+    <row r="388" spans="2:28">
+      <c r="B388" s="10"/>
+      <c r="C388" s="11"/>
+      <c r="D388" s="13"/>
+      <c r="E388" s="12"/>
+      <c r="F388" s="12"/>
+      <c r="G388" s="12"/>
+      <c r="H388" s="12"/>
+      <c r="I388" s="12"/>
+      <c r="J388" s="12"/>
+      <c r="K388" s="12"/>
+      <c r="L388" s="12"/>
+      <c r="M388" s="12"/>
+      <c r="N388" s="12"/>
+      <c r="O388" s="12"/>
+      <c r="P388" s="12"/>
+      <c r="Q388" s="12"/>
+      <c r="R388" s="12"/>
+      <c r="S388" s="12"/>
+      <c r="T388" s="12"/>
+      <c r="U388" s="12"/>
+      <c r="V388" s="12"/>
+      <c r="W388" s="12"/>
+      <c r="X388" s="12"/>
+      <c r="Y388" s="12"/>
+      <c r="Z388" s="12"/>
+      <c r="AA388" s="12"/>
+      <c r="AB388" s="19"/>
+    </row>
+    <row r="389" spans="2:28">
+      <c r="B389" s="10"/>
+      <c r="C389" s="11"/>
+      <c r="D389" s="13"/>
+      <c r="E389" s="12"/>
+      <c r="F389" s="12"/>
+      <c r="G389" s="12"/>
+      <c r="H389" s="12"/>
+      <c r="I389" s="12"/>
+      <c r="J389" s="12"/>
+      <c r="K389" s="12"/>
+      <c r="L389" s="12"/>
+      <c r="M389" s="12"/>
+      <c r="N389" s="12"/>
+      <c r="O389" s="12"/>
+      <c r="P389" s="12"/>
+      <c r="Q389" s="12"/>
+      <c r="R389" s="12"/>
+      <c r="S389" s="12"/>
+      <c r="T389" s="12"/>
+      <c r="U389" s="12"/>
+      <c r="V389" s="12"/>
+      <c r="W389" s="12"/>
+      <c r="X389" s="12"/>
+      <c r="Y389" s="12"/>
+      <c r="Z389" s="12"/>
+      <c r="AA389" s="12"/>
+      <c r="AB389" s="19"/>
+    </row>
+    <row r="390" spans="2:28">
+      <c r="B390" s="10"/>
+      <c r="C390" s="11"/>
+      <c r="D390" s="13"/>
+      <c r="E390" s="12"/>
+      <c r="F390" s="12"/>
+      <c r="G390" s="12"/>
+      <c r="H390" s="12"/>
+      <c r="I390" s="12"/>
+      <c r="J390" s="12"/>
+      <c r="K390" s="12"/>
+      <c r="L390" s="12"/>
+      <c r="M390" s="12"/>
+      <c r="N390" s="12"/>
+      <c r="O390" s="12"/>
+      <c r="P390" s="12"/>
+      <c r="Q390" s="12"/>
+      <c r="R390" s="12"/>
+      <c r="S390" s="12"/>
+      <c r="T390" s="12"/>
+      <c r="U390" s="12"/>
+      <c r="V390" s="12"/>
+      <c r="W390" s="12"/>
+      <c r="X390" s="12"/>
+      <c r="Y390" s="12"/>
+      <c r="Z390" s="12"/>
+      <c r="AA390" s="12"/>
+      <c r="AB390" s="19"/>
+    </row>
+    <row r="391" spans="2:28">
+      <c r="B391" s="10"/>
+      <c r="C391" s="11"/>
+      <c r="D391" s="13"/>
+      <c r="E391" s="12"/>
+      <c r="F391" s="12"/>
+      <c r="G391" s="12"/>
+      <c r="H391" s="12"/>
+      <c r="I391" s="12"/>
+      <c r="J391" s="12"/>
+      <c r="K391" s="12"/>
+      <c r="L391" s="12"/>
+      <c r="M391" s="12"/>
+      <c r="N391" s="12"/>
+      <c r="O391" s="12"/>
+      <c r="P391" s="12"/>
+      <c r="Q391" s="12"/>
+      <c r="R391" s="12"/>
+      <c r="S391" s="12"/>
+      <c r="T391" s="12"/>
+      <c r="U391" s="12"/>
+      <c r="V391" s="12"/>
+      <c r="W391" s="12"/>
+      <c r="X391" s="12"/>
+      <c r="Y391" s="12"/>
+      <c r="Z391" s="12"/>
+      <c r="AA391" s="12"/>
+      <c r="AB391" s="19"/>
+    </row>
+    <row r="392" spans="2:28">
+      <c r="B392" s="10"/>
+      <c r="C392" s="11"/>
+      <c r="D392" s="13"/>
+      <c r="E392" s="12"/>
+      <c r="F392" s="12"/>
+      <c r="G392" s="12"/>
+      <c r="H392" s="12"/>
+      <c r="I392" s="12"/>
+      <c r="J392" s="12"/>
+      <c r="K392" s="12"/>
+      <c r="L392" s="12"/>
+      <c r="M392" s="12"/>
+      <c r="N392" s="12"/>
+      <c r="O392" s="12"/>
+      <c r="P392" s="12"/>
+      <c r="Q392" s="12"/>
+      <c r="R392" s="12"/>
+      <c r="S392" s="12"/>
+      <c r="T392" s="12"/>
+      <c r="U392" s="12"/>
+      <c r="V392" s="12"/>
+      <c r="W392" s="12"/>
+      <c r="X392" s="12"/>
+      <c r="Y392" s="12"/>
+      <c r="Z392" s="12"/>
+      <c r="AA392" s="12"/>
+      <c r="AB392" s="19"/>
+    </row>
+    <row r="393" spans="2:28">
+      <c r="B393" s="10"/>
+      <c r="C393" s="11"/>
+      <c r="D393" s="13"/>
+      <c r="E393" s="12"/>
+      <c r="F393" s="12"/>
+      <c r="G393" s="12"/>
+      <c r="H393" s="12"/>
+      <c r="I393" s="12"/>
+      <c r="J393" s="12"/>
+      <c r="K393" s="12"/>
+      <c r="L393" s="12"/>
+      <c r="M393" s="12"/>
+      <c r="N393" s="12"/>
+      <c r="O393" s="12"/>
+      <c r="P393" s="12"/>
+      <c r="Q393" s="12"/>
+      <c r="R393" s="12"/>
+      <c r="S393" s="12"/>
+      <c r="T393" s="12"/>
+      <c r="U393" s="12"/>
+      <c r="V393" s="12"/>
+      <c r="W393" s="12"/>
+      <c r="X393" s="12"/>
+      <c r="Y393" s="12"/>
+      <c r="Z393" s="12"/>
+      <c r="AA393" s="12"/>
+      <c r="AB393" s="19"/>
+    </row>
+    <row r="394" spans="2:28">
+      <c r="B394" s="10"/>
+      <c r="C394" s="11"/>
+      <c r="D394" s="13"/>
+      <c r="E394" s="12"/>
+      <c r="F394" s="12"/>
+      <c r="G394" s="12"/>
+      <c r="H394" s="12"/>
+      <c r="I394" s="12"/>
+      <c r="J394" s="12"/>
+      <c r="K394" s="12"/>
+      <c r="L394" s="12"/>
+      <c r="M394" s="12"/>
+      <c r="N394" s="12"/>
+      <c r="O394" s="12"/>
+      <c r="P394" s="12"/>
+      <c r="Q394" s="12"/>
+      <c r="R394" s="12"/>
+      <c r="S394" s="12"/>
+      <c r="T394" s="12"/>
+      <c r="U394" s="12"/>
+      <c r="V394" s="12"/>
+      <c r="W394" s="12"/>
+      <c r="X394" s="12"/>
+      <c r="Y394" s="12"/>
+      <c r="Z394" s="12"/>
+      <c r="AA394" s="12"/>
+      <c r="AB394" s="19"/>
+    </row>
+    <row r="395" spans="2:28">
+      <c r="B395" s="10"/>
+      <c r="C395" s="11"/>
+      <c r="D395" s="13"/>
+      <c r="E395" s="12"/>
+      <c r="F395" s="12"/>
+      <c r="G395" s="12"/>
+      <c r="H395" s="12"/>
+      <c r="I395" s="12"/>
+      <c r="J395" s="12"/>
+      <c r="K395" s="12"/>
+      <c r="L395" s="12"/>
+      <c r="M395" s="12"/>
+      <c r="N395" s="12"/>
+      <c r="O395" s="12"/>
+      <c r="P395" s="12"/>
+      <c r="Q395" s="12"/>
+      <c r="R395" s="12"/>
+      <c r="S395" s="12"/>
+      <c r="T395" s="12"/>
+      <c r="U395" s="12"/>
+      <c r="V395" s="12"/>
+      <c r="W395" s="12"/>
+      <c r="X395" s="12"/>
+      <c r="Y395" s="12"/>
+      <c r="Z395" s="12"/>
+      <c r="AA395" s="12"/>
+      <c r="AB395" s="19"/>
+    </row>
+    <row r="396" spans="2:28">
+      <c r="B396" s="10"/>
+      <c r="C396" s="11"/>
+      <c r="D396" s="13"/>
+      <c r="E396" s="12"/>
+      <c r="F396" s="12"/>
+      <c r="G396" s="12"/>
+      <c r="H396" s="12"/>
+      <c r="I396" s="12"/>
+      <c r="J396" s="12"/>
+      <c r="K396" s="12"/>
+      <c r="L396" s="12"/>
+      <c r="M396" s="12"/>
+      <c r="N396" s="12"/>
+      <c r="O396" s="12"/>
+      <c r="P396" s="12"/>
+      <c r="Q396" s="12"/>
+      <c r="R396" s="12"/>
+      <c r="S396" s="12"/>
+      <c r="T396" s="12"/>
+      <c r="U396" s="12"/>
+      <c r="V396" s="12"/>
+      <c r="W396" s="12"/>
+      <c r="X396" s="12"/>
+      <c r="Y396" s="12"/>
+      <c r="Z396" s="12"/>
+      <c r="AA396" s="12"/>
+      <c r="AB396" s="19"/>
+    </row>
+    <row r="397" spans="2:28">
+      <c r="B397" s="10"/>
+      <c r="C397" s="11"/>
+      <c r="D397" s="13"/>
+      <c r="E397" s="12"/>
+      <c r="F397" s="12"/>
+      <c r="G397" s="12"/>
+      <c r="H397" s="12"/>
+      <c r="I397" s="12"/>
+      <c r="J397" s="12"/>
+      <c r="K397" s="12"/>
+      <c r="L397" s="12"/>
+      <c r="M397" s="12"/>
+      <c r="N397" s="12"/>
+      <c r="O397" s="12"/>
+      <c r="P397" s="12"/>
+      <c r="Q397" s="12"/>
+      <c r="R397" s="12"/>
+      <c r="S397" s="12"/>
+      <c r="T397" s="12"/>
+      <c r="U397" s="12"/>
+      <c r="V397" s="12"/>
+      <c r="W397" s="12"/>
+      <c r="X397" s="12"/>
+      <c r="Y397" s="12"/>
+      <c r="Z397" s="12"/>
+      <c r="AA397" s="12"/>
+      <c r="AB397" s="19"/>
+    </row>
+    <row r="398" spans="2:28">
+      <c r="B398" s="10"/>
+      <c r="C398" s="11"/>
+      <c r="D398" s="13"/>
+      <c r="E398" s="12"/>
+      <c r="F398" s="12"/>
+      <c r="G398" s="12"/>
+      <c r="H398" s="12"/>
+      <c r="I398" s="12"/>
+      <c r="J398" s="12"/>
+      <c r="K398" s="12"/>
+      <c r="L398" s="12"/>
+      <c r="M398" s="12"/>
+      <c r="N398" s="12"/>
+      <c r="O398" s="12"/>
+      <c r="P398" s="12"/>
+      <c r="Q398" s="12"/>
+      <c r="R398" s="12"/>
+      <c r="S398" s="12"/>
+      <c r="T398" s="12"/>
+      <c r="U398" s="12"/>
+      <c r="V398" s="12"/>
+      <c r="W398" s="12"/>
+      <c r="X398" s="12"/>
+      <c r="Y398" s="12"/>
+      <c r="Z398" s="12"/>
+      <c r="AA398" s="12"/>
+      <c r="AB398" s="19"/>
+    </row>
+    <row r="399" spans="2:28">
+      <c r="B399" s="10"/>
+      <c r="C399" s="11"/>
+      <c r="D399" s="13"/>
+      <c r="E399" s="12"/>
+      <c r="F399" s="12"/>
+      <c r="G399" s="12"/>
+      <c r="H399" s="12"/>
+      <c r="I399" s="12"/>
+      <c r="J399" s="12"/>
+      <c r="K399" s="12"/>
+      <c r="L399" s="12"/>
+      <c r="M399" s="12"/>
+      <c r="N399" s="12"/>
+      <c r="O399" s="12"/>
+      <c r="P399" s="12"/>
+      <c r="Q399" s="12"/>
+      <c r="R399" s="12"/>
+      <c r="S399" s="12"/>
+      <c r="T399" s="12"/>
+      <c r="U399" s="12"/>
+      <c r="V399" s="12"/>
+      <c r="W399" s="12"/>
+      <c r="X399" s="12"/>
+      <c r="Y399" s="12"/>
+      <c r="Z399" s="12"/>
+      <c r="AA399" s="12"/>
+      <c r="AB399" s="19"/>
+    </row>
+    <row r="400" spans="2:28">
+      <c r="B400" s="10"/>
+      <c r="C400" s="11"/>
+      <c r="D400" s="13"/>
+      <c r="E400" s="12"/>
+      <c r="F400" s="12"/>
+      <c r="G400" s="12"/>
+      <c r="H400" s="12"/>
+      <c r="I400" s="12"/>
+      <c r="J400" s="12"/>
+      <c r="K400" s="12"/>
+      <c r="L400" s="12"/>
+      <c r="M400" s="12"/>
+      <c r="N400" s="12"/>
+      <c r="O400" s="12"/>
+      <c r="P400" s="12"/>
+      <c r="Q400" s="12"/>
+      <c r="R400" s="12"/>
+      <c r="S400" s="12"/>
+      <c r="T400" s="12"/>
+      <c r="U400" s="12"/>
+      <c r="V400" s="12"/>
+      <c r="W400" s="12"/>
+      <c r="X400" s="12"/>
+      <c r="Y400" s="12"/>
+      <c r="Z400" s="12"/>
+      <c r="AA400" s="12"/>
+      <c r="AB400" s="19"/>
+    </row>
+    <row r="401" spans="2:28">
+      <c r="B401" s="10"/>
+      <c r="C401" s="11"/>
+      <c r="D401" s="13"/>
+      <c r="E401" s="12"/>
+      <c r="F401" s="12"/>
+      <c r="G401" s="12"/>
+      <c r="H401" s="12"/>
+      <c r="I401" s="12"/>
+      <c r="J401" s="12"/>
+      <c r="K401" s="12"/>
+      <c r="L401" s="12"/>
+      <c r="M401" s="12"/>
+      <c r="N401" s="12"/>
+      <c r="O401" s="12"/>
+      <c r="P401" s="12"/>
+      <c r="Q401" s="12"/>
+      <c r="R401" s="12"/>
+      <c r="S401" s="12"/>
+      <c r="T401" s="12"/>
+      <c r="U401" s="12"/>
+      <c r="V401" s="12"/>
+      <c r="W401" s="12"/>
+      <c r="X401" s="12"/>
+      <c r="Y401" s="12"/>
+      <c r="Z401" s="12"/>
+      <c r="AA401" s="12"/>
+      <c r="AB401" s="19"/>
+    </row>
+    <row r="402" spans="2:28">
+      <c r="B402" s="10"/>
+      <c r="C402" s="11"/>
+      <c r="D402" s="13"/>
+      <c r="E402" s="12"/>
+      <c r="F402" s="12"/>
+      <c r="G402" s="12"/>
+      <c r="H402" s="12"/>
+      <c r="I402" s="12"/>
+      <c r="J402" s="12"/>
+      <c r="K402" s="12"/>
+      <c r="L402" s="12"/>
+      <c r="M402" s="12"/>
+      <c r="N402" s="12"/>
+      <c r="O402" s="12"/>
+      <c r="P402" s="12"/>
+      <c r="Q402" s="12"/>
+      <c r="R402" s="12"/>
+      <c r="S402" s="12"/>
+      <c r="T402" s="12"/>
+      <c r="U402" s="12"/>
+      <c r="V402" s="12"/>
+      <c r="W402" s="12"/>
+      <c r="X402" s="12"/>
+      <c r="Y402" s="12"/>
+      <c r="Z402" s="12"/>
+      <c r="AA402" s="12"/>
+      <c r="AB402" s="19"/>
+    </row>
+    <row r="403" spans="2:28">
+      <c r="B403" s="10"/>
+      <c r="C403" s="11"/>
+      <c r="D403" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E403" s="12"/>
+      <c r="F403" s="12"/>
+      <c r="G403" s="12"/>
+      <c r="H403" s="12"/>
+      <c r="I403" s="12"/>
+      <c r="J403" s="12"/>
+      <c r="K403" s="12"/>
+      <c r="L403" s="12"/>
+      <c r="M403" s="12"/>
+      <c r="N403" s="12"/>
+      <c r="O403" s="12"/>
+      <c r="P403" s="12"/>
+      <c r="Q403" s="12"/>
+      <c r="R403" s="12"/>
+      <c r="S403" s="12"/>
+      <c r="T403" s="12"/>
+      <c r="U403" s="12"/>
+      <c r="V403" s="12"/>
+      <c r="W403" s="12"/>
+      <c r="X403" s="12"/>
+      <c r="Y403" s="12"/>
+      <c r="Z403" s="12"/>
+      <c r="AA403" s="12"/>
+      <c r="AB403" s="19"/>
+    </row>
+    <row r="404" spans="2:28">
+      <c r="B404" s="10"/>
+      <c r="C404" s="11"/>
+      <c r="D404" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E404" s="12"/>
+      <c r="F404" s="12"/>
+      <c r="G404" s="12"/>
+      <c r="H404" s="12"/>
+      <c r="I404" s="12"/>
+      <c r="J404" s="12"/>
+      <c r="K404" s="12"/>
+      <c r="L404" s="12"/>
+      <c r="M404" s="12"/>
+      <c r="N404" s="12"/>
+      <c r="O404" s="12"/>
+      <c r="P404" s="12"/>
+      <c r="Q404" s="12"/>
+      <c r="R404" s="12"/>
+      <c r="S404" s="12"/>
+      <c r="T404" s="12"/>
+      <c r="U404" s="12"/>
+      <c r="V404" s="12"/>
+      <c r="W404" s="12"/>
+      <c r="X404" s="12"/>
+      <c r="Y404" s="12"/>
+      <c r="Z404" s="12"/>
+      <c r="AA404" s="12"/>
+      <c r="AB404" s="19"/>
+    </row>
+    <row r="405" spans="2:28">
+      <c r="B405" s="10"/>
+      <c r="C405" s="11"/>
+      <c r="D405" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E405" s="12"/>
+      <c r="F405" s="12"/>
+      <c r="G405" s="12"/>
+      <c r="H405" s="12"/>
+      <c r="I405" s="12"/>
+      <c r="J405" s="12"/>
+      <c r="K405" s="12"/>
+      <c r="L405" s="12"/>
+      <c r="M405" s="12"/>
+      <c r="N405" s="12"/>
+      <c r="O405" s="12"/>
+      <c r="P405" s="12"/>
+      <c r="Q405" s="12"/>
+      <c r="R405" s="12"/>
+      <c r="S405" s="12"/>
+      <c r="T405" s="12"/>
+      <c r="U405" s="12"/>
+      <c r="V405" s="12"/>
+      <c r="W405" s="12"/>
+      <c r="X405" s="12"/>
+      <c r="Y405" s="12"/>
+      <c r="Z405" s="12"/>
+      <c r="AA405" s="12"/>
+      <c r="AB405" s="19"/>
+    </row>
+    <row r="406" spans="2:28">
+      <c r="B406" s="10"/>
+      <c r="C406" s="11"/>
+      <c r="D406" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E406" s="12"/>
+      <c r="F406" s="12"/>
+      <c r="G406" s="12"/>
+      <c r="H406" s="12"/>
+      <c r="I406" s="12"/>
+      <c r="J406" s="12"/>
+      <c r="K406" s="12"/>
+      <c r="L406" s="12"/>
+      <c r="M406" s="12"/>
+      <c r="N406" s="12"/>
+      <c r="O406" s="12"/>
+      <c r="P406" s="12"/>
+      <c r="Q406" s="12"/>
+      <c r="R406" s="12"/>
+      <c r="S406" s="12"/>
+      <c r="T406" s="12"/>
+      <c r="U406" s="12"/>
+      <c r="V406" s="12"/>
+      <c r="W406" s="12"/>
+      <c r="X406" s="12"/>
+      <c r="Y406" s="12"/>
+      <c r="Z406" s="12"/>
+      <c r="AA406" s="12"/>
+      <c r="AB406" s="19"/>
+    </row>
+    <row r="407" spans="2:28">
+      <c r="B407" s="10"/>
+      <c r="C407" s="11"/>
+      <c r="D407" s="13"/>
+      <c r="E407" s="12"/>
+      <c r="F407" s="12"/>
+      <c r="G407" s="12"/>
+      <c r="H407" s="12"/>
+      <c r="I407" s="12"/>
+      <c r="J407" s="12"/>
+      <c r="K407" s="12"/>
+      <c r="L407" s="12"/>
+      <c r="M407" s="12"/>
+      <c r="N407" s="12"/>
+      <c r="O407" s="12"/>
+      <c r="P407" s="12"/>
+      <c r="Q407" s="12"/>
+      <c r="R407" s="12"/>
+      <c r="S407" s="12"/>
+      <c r="T407" s="12"/>
+      <c r="U407" s="12"/>
+      <c r="V407" s="12"/>
+      <c r="W407" s="12"/>
+      <c r="X407" s="12"/>
+      <c r="Y407" s="12"/>
+      <c r="Z407" s="12"/>
+      <c r="AA407" s="12"/>
+      <c r="AB407" s="19"/>
+    </row>
+    <row r="408" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B408" s="8"/>
+      <c r="C408" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E408" s="9"/>
+      <c r="F408" s="9"/>
+      <c r="G408" s="9"/>
+      <c r="H408" s="9"/>
+      <c r="I408" s="9"/>
+      <c r="J408" s="9"/>
+      <c r="K408" s="9"/>
+      <c r="L408" s="9"/>
+      <c r="M408" s="9"/>
+      <c r="N408" s="9"/>
+      <c r="O408" s="9"/>
+      <c r="P408" s="9"/>
+      <c r="Q408" s="9"/>
+      <c r="R408" s="9"/>
+      <c r="S408" s="9"/>
+      <c r="T408" s="9"/>
+      <c r="U408" s="9"/>
+      <c r="V408" s="9"/>
+      <c r="W408" s="9"/>
+      <c r="X408" s="9"/>
+      <c r="Y408" s="9"/>
+      <c r="Z408" s="9"/>
+      <c r="AA408" s="9"/>
+      <c r="AB408" s="18"/>
+    </row>
+    <row r="409" spans="2:28">
+      <c r="B409" s="10"/>
+      <c r="C409" s="11"/>
+      <c r="D409" s="13"/>
+      <c r="E409" s="12"/>
+      <c r="F409" s="12"/>
+      <c r="G409" s="12"/>
+      <c r="H409" s="12"/>
+      <c r="I409" s="12"/>
+      <c r="J409" s="12"/>
+      <c r="K409" s="12"/>
+      <c r="L409" s="12"/>
+      <c r="M409" s="12"/>
+      <c r="N409" s="12"/>
+      <c r="O409" s="12"/>
+      <c r="P409" s="12"/>
+      <c r="Q409" s="12"/>
+      <c r="R409" s="12"/>
+      <c r="S409" s="12"/>
+      <c r="T409" s="12"/>
+      <c r="U409" s="12"/>
+      <c r="V409" s="12"/>
+      <c r="W409" s="12"/>
+      <c r="X409" s="12"/>
+      <c r="Y409" s="12"/>
+      <c r="Z409" s="12"/>
+      <c r="AA409" s="12"/>
+      <c r="AB409" s="19"/>
+    </row>
+    <row r="410" ht="15" spans="2:28">
+      <c r="B410" s="10"/>
+      <c r="C410" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D410" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E410" s="12"/>
+      <c r="F410" s="12"/>
+      <c r="G410" s="12"/>
+      <c r="H410" s="12"/>
+      <c r="I410" s="12"/>
+      <c r="J410" s="12"/>
+      <c r="K410" s="12"/>
+      <c r="L410" s="12"/>
+      <c r="M410" s="12"/>
+      <c r="N410" s="12"/>
+      <c r="O410" s="12"/>
+      <c r="P410" s="12"/>
+      <c r="Q410" s="12"/>
+      <c r="R410" s="12"/>
+      <c r="S410" s="12"/>
+      <c r="T410" s="12"/>
+      <c r="U410" s="12"/>
+      <c r="V410" s="12"/>
+      <c r="W410" s="12"/>
+      <c r="X410" s="12"/>
+      <c r="Y410" s="12"/>
+      <c r="Z410" s="12"/>
+      <c r="AA410" s="12"/>
+      <c r="AB410" s="19"/>
+    </row>
+    <row r="411" spans="2:28">
+      <c r="B411" s="10"/>
+      <c r="C411" s="11"/>
+      <c r="D411" s="13"/>
+      <c r="E411" s="12"/>
+      <c r="F411" s="12"/>
+      <c r="G411" s="12"/>
+      <c r="H411" s="12"/>
+      <c r="I411" s="12"/>
+      <c r="J411" s="12"/>
+      <c r="K411" s="12"/>
+      <c r="L411" s="12"/>
+      <c r="M411" s="12"/>
+      <c r="N411" s="12"/>
+      <c r="O411" s="12"/>
+      <c r="P411" s="12"/>
+      <c r="Q411" s="12"/>
+      <c r="R411" s="12"/>
+      <c r="S411" s="12"/>
+      <c r="T411" s="12"/>
+      <c r="U411" s="12"/>
+      <c r="V411" s="12"/>
+      <c r="W411" s="12"/>
+      <c r="X411" s="12"/>
+      <c r="Y411" s="12"/>
+      <c r="Z411" s="12"/>
+      <c r="AA411" s="12"/>
+      <c r="AB411" s="19"/>
+    </row>
+    <row r="412" spans="2:28">
+      <c r="B412" s="10"/>
+      <c r="C412" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D412" s="21"/>
+      <c r="E412" s="12"/>
+      <c r="F412" s="12"/>
+      <c r="G412" s="12"/>
+      <c r="H412" s="12"/>
+      <c r="I412" s="12"/>
+      <c r="J412" s="12"/>
+      <c r="K412" s="12"/>
+      <c r="L412" s="12"/>
+      <c r="M412" s="12"/>
+      <c r="N412" s="12"/>
+      <c r="O412" s="12"/>
+      <c r="P412" s="12"/>
+      <c r="Q412" s="12"/>
+      <c r="R412" s="12"/>
+      <c r="S412" s="12"/>
+      <c r="T412" s="12"/>
+      <c r="U412" s="12"/>
+      <c r="V412" s="12"/>
+      <c r="W412" s="12"/>
+      <c r="X412" s="12"/>
+      <c r="Y412" s="12"/>
+      <c r="Z412" s="12"/>
+      <c r="AA412" s="12"/>
+      <c r="AB412" s="19"/>
+    </row>
+    <row r="413" spans="2:28">
+      <c r="B413" s="10"/>
+      <c r="C413" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D413" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E413" s="12"/>
+      <c r="F413" s="12"/>
+      <c r="G413" s="12"/>
+      <c r="H413" s="12"/>
+      <c r="I413" s="12"/>
+      <c r="J413" s="12"/>
+      <c r="K413" s="12"/>
+      <c r="L413" s="12"/>
+      <c r="M413" s="12"/>
+      <c r="N413" s="12"/>
+      <c r="O413" s="12"/>
+      <c r="P413" s="12"/>
+      <c r="Q413" s="12"/>
+      <c r="R413" s="12"/>
+      <c r="S413" s="12"/>
+      <c r="T413" s="12"/>
+      <c r="U413" s="12"/>
+      <c r="V413" s="12"/>
+      <c r="W413" s="12"/>
+      <c r="X413" s="12"/>
+      <c r="Y413" s="12"/>
+      <c r="Z413" s="12"/>
+      <c r="AA413" s="12"/>
+      <c r="AB413" s="19"/>
+    </row>
+    <row r="414" spans="2:28">
+      <c r="B414" s="10"/>
+      <c r="C414" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D414" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E414" s="12"/>
+      <c r="F414" s="12"/>
+      <c r="G414" s="12"/>
+      <c r="H414" s="12"/>
+      <c r="I414" s="12"/>
+      <c r="J414" s="12"/>
+      <c r="K414" s="12"/>
+      <c r="L414" s="12"/>
+      <c r="M414" s="12"/>
+      <c r="N414" s="12"/>
+      <c r="O414" s="12"/>
+      <c r="P414" s="12"/>
+      <c r="Q414" s="12"/>
+      <c r="R414" s="12"/>
+      <c r="S414" s="12"/>
+      <c r="T414" s="12"/>
+      <c r="U414" s="12"/>
+      <c r="V414" s="12"/>
+      <c r="W414" s="12"/>
+      <c r="X414" s="12"/>
+      <c r="Y414" s="12"/>
+      <c r="Z414" s="12"/>
+      <c r="AA414" s="12"/>
+      <c r="AB414" s="19"/>
+    </row>
+    <row r="415" spans="2:28">
+      <c r="B415" s="10"/>
+      <c r="C415" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D415" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E415" s="12"/>
+      <c r="F415" s="12"/>
+      <c r="G415" s="12"/>
+      <c r="H415" s="12"/>
+      <c r="I415" s="12"/>
+      <c r="J415" s="12"/>
+      <c r="K415" s="12"/>
+      <c r="L415" s="12"/>
+      <c r="M415" s="12"/>
+      <c r="N415" s="12"/>
+      <c r="O415" s="12"/>
+      <c r="P415" s="12"/>
+      <c r="Q415" s="12"/>
+      <c r="R415" s="12"/>
+      <c r="S415" s="12"/>
+      <c r="T415" s="12"/>
+      <c r="U415" s="12"/>
+      <c r="V415" s="12"/>
+      <c r="W415" s="12"/>
+      <c r="X415" s="12"/>
+      <c r="Y415" s="12"/>
+      <c r="Z415" s="12"/>
+      <c r="AA415" s="12"/>
+      <c r="AB415" s="19"/>
+    </row>
+    <row r="416" spans="2:28">
+      <c r="B416" s="10"/>
+      <c r="C416" s="11"/>
+      <c r="D416" s="13"/>
+      <c r="E416" s="12"/>
+      <c r="F416" s="12"/>
+      <c r="G416" s="12"/>
+      <c r="H416" s="12"/>
+      <c r="I416" s="12"/>
+      <c r="J416" s="12"/>
+      <c r="K416" s="12"/>
+      <c r="L416" s="12"/>
+      <c r="M416" s="12"/>
+      <c r="N416" s="12"/>
+      <c r="O416" s="12"/>
+      <c r="P416" s="12"/>
+      <c r="Q416" s="12"/>
+      <c r="R416" s="12"/>
+      <c r="S416" s="12"/>
+      <c r="T416" s="12"/>
+      <c r="U416" s="12"/>
+      <c r="V416" s="12"/>
+      <c r="W416" s="12"/>
+      <c r="X416" s="12"/>
+      <c r="Y416" s="12"/>
+      <c r="Z416" s="12"/>
+      <c r="AA416" s="12"/>
+      <c r="AB416" s="19"/>
+    </row>
+    <row r="417" spans="2:28">
+      <c r="B417" s="10"/>
+      <c r="C417" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D417" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E417" s="12"/>
+      <c r="F417" s="12"/>
+      <c r="G417" s="12"/>
+      <c r="H417" s="12"/>
+      <c r="I417" s="12"/>
+      <c r="J417" s="12"/>
+      <c r="K417" s="12"/>
+      <c r="L417" s="12"/>
+      <c r="M417" s="12"/>
+      <c r="N417" s="12"/>
+      <c r="O417" s="12"/>
+      <c r="P417" s="12"/>
+      <c r="Q417" s="12"/>
+      <c r="R417" s="12"/>
+      <c r="S417" s="12"/>
+      <c r="T417" s="12"/>
+      <c r="U417" s="12"/>
+      <c r="V417" s="12"/>
+      <c r="W417" s="12"/>
+      <c r="X417" s="12"/>
+      <c r="Y417" s="12"/>
+      <c r="Z417" s="12"/>
+      <c r="AA417" s="12"/>
+      <c r="AB417" s="19"/>
+    </row>
+    <row r="418" spans="2:28">
+      <c r="B418" s="10"/>
+      <c r="C418" s="11"/>
+      <c r="D418" s="13"/>
+      <c r="E418" s="12"/>
+      <c r="F418" s="12"/>
+      <c r="G418" s="12"/>
+      <c r="H418" s="12"/>
+      <c r="I418" s="12"/>
+      <c r="J418" s="12"/>
+      <c r="K418" s="12"/>
+      <c r="L418" s="12"/>
+      <c r="M418" s="12"/>
+      <c r="N418" s="12"/>
+      <c r="O418" s="12"/>
+      <c r="P418" s="12"/>
+      <c r="Q418" s="12"/>
+      <c r="R418" s="12"/>
+      <c r="S418" s="12"/>
+      <c r="T418" s="12"/>
+      <c r="U418" s="12"/>
+      <c r="V418" s="12"/>
+      <c r="W418" s="12"/>
+      <c r="X418" s="12"/>
+      <c r="Y418" s="12"/>
+      <c r="Z418" s="12"/>
+      <c r="AA418" s="12"/>
+      <c r="AB418" s="19"/>
+    </row>
+    <row r="419" spans="2:28">
+      <c r="B419" s="10"/>
+      <c r="C419" s="11"/>
+      <c r="D419" s="13"/>
+      <c r="E419" s="12"/>
+      <c r="F419" s="12"/>
+      <c r="G419" s="12"/>
+      <c r="H419" s="12"/>
+      <c r="I419" s="12"/>
+      <c r="J419" s="12"/>
+      <c r="K419" s="12"/>
+      <c r="L419" s="12"/>
+      <c r="M419" s="12"/>
+      <c r="N419" s="12"/>
+      <c r="O419" s="12"/>
+      <c r="P419" s="12"/>
+      <c r="Q419" s="12"/>
+      <c r="R419" s="12"/>
+      <c r="S419" s="12"/>
+      <c r="T419" s="12"/>
+      <c r="U419" s="12"/>
+      <c r="V419" s="12"/>
+      <c r="W419" s="12"/>
+      <c r="X419" s="12"/>
+      <c r="Y419" s="12"/>
+      <c r="Z419" s="12"/>
+      <c r="AA419" s="12"/>
+      <c r="AB419" s="19"/>
+    </row>
+    <row r="420" spans="2:28">
+      <c r="B420" s="10"/>
+      <c r="C420" s="11"/>
+      <c r="D420" s="13"/>
+      <c r="E420" s="12"/>
+      <c r="F420" s="12"/>
+      <c r="G420" s="12"/>
+      <c r="H420" s="12"/>
+      <c r="I420" s="12"/>
+      <c r="J420" s="12"/>
+      <c r="K420" s="12"/>
+      <c r="L420" s="12"/>
+      <c r="M420" s="12"/>
+      <c r="N420" s="12"/>
+      <c r="O420" s="12"/>
+      <c r="P420" s="12"/>
+      <c r="Q420" s="12"/>
+      <c r="R420" s="12"/>
+      <c r="S420" s="12"/>
+      <c r="T420" s="12"/>
+      <c r="U420" s="12"/>
+      <c r="V420" s="12"/>
+      <c r="W420" s="12"/>
+      <c r="X420" s="12"/>
+      <c r="Y420" s="12"/>
+      <c r="Z420" s="12"/>
+      <c r="AA420" s="12"/>
+      <c r="AB420" s="19"/>
+    </row>
+    <row r="421" spans="2:28">
+      <c r="B421" s="10"/>
+      <c r="C421" s="11"/>
+      <c r="D421" s="13"/>
+      <c r="E421" s="12"/>
+      <c r="F421" s="12"/>
+      <c r="G421" s="12"/>
+      <c r="H421" s="12"/>
+      <c r="I421" s="12"/>
+      <c r="J421" s="12"/>
+      <c r="K421" s="12"/>
+      <c r="L421" s="12"/>
+      <c r="M421" s="12"/>
+      <c r="N421" s="12"/>
+      <c r="O421" s="12"/>
+      <c r="P421" s="12"/>
+      <c r="Q421" s="12"/>
+      <c r="R421" s="12"/>
+      <c r="S421" s="12"/>
+      <c r="T421" s="12"/>
+      <c r="U421" s="12"/>
+      <c r="V421" s="12"/>
+      <c r="W421" s="12"/>
+      <c r="X421" s="12"/>
+      <c r="Y421" s="12"/>
+      <c r="Z421" s="12"/>
+      <c r="AA421" s="12"/>
+      <c r="AB421" s="19"/>
+    </row>
+    <row r="422" spans="2:28">
+      <c r="B422" s="10"/>
+      <c r="C422" s="11"/>
+      <c r="D422" s="13"/>
+      <c r="E422" s="12"/>
+      <c r="F422" s="12"/>
+      <c r="G422" s="12"/>
+      <c r="H422" s="12"/>
+      <c r="I422" s="12"/>
+      <c r="J422" s="12"/>
+      <c r="K422" s="12"/>
+      <c r="L422" s="12"/>
+      <c r="M422" s="12"/>
+      <c r="N422" s="12"/>
+      <c r="O422" s="12"/>
+      <c r="P422" s="12"/>
+      <c r="Q422" s="12"/>
+      <c r="R422" s="12"/>
+      <c r="S422" s="12"/>
+      <c r="T422" s="12"/>
+      <c r="U422" s="12"/>
+      <c r="V422" s="12"/>
+      <c r="W422" s="12"/>
+      <c r="X422" s="12"/>
+      <c r="Y422" s="12"/>
+      <c r="Z422" s="12"/>
+      <c r="AA422" s="12"/>
+      <c r="AB422" s="19"/>
+    </row>
+    <row r="423" spans="2:28">
+      <c r="B423" s="10"/>
+      <c r="C423" s="11"/>
+      <c r="D423" s="13"/>
+      <c r="E423" s="12"/>
+      <c r="F423" s="12"/>
+      <c r="G423" s="12"/>
+      <c r="H423" s="12"/>
+      <c r="I423" s="12"/>
+      <c r="J423" s="12"/>
+      <c r="K423" s="12"/>
+      <c r="L423" s="12"/>
+      <c r="M423" s="12"/>
+      <c r="N423" s="12"/>
+      <c r="O423" s="12"/>
+      <c r="P423" s="12"/>
+      <c r="Q423" s="12"/>
+      <c r="R423" s="12"/>
+      <c r="S423" s="12"/>
+      <c r="T423" s="12"/>
+      <c r="U423" s="12"/>
+      <c r="V423" s="12"/>
+      <c r="W423" s="12"/>
+      <c r="X423" s="12"/>
+      <c r="Y423" s="12"/>
+      <c r="Z423" s="12"/>
+      <c r="AA423" s="12"/>
+      <c r="AB423" s="19"/>
+    </row>
+    <row r="424" spans="2:28">
+      <c r="B424" s="10"/>
+      <c r="C424" s="11"/>
+      <c r="D424" s="13"/>
+      <c r="E424" s="12"/>
+      <c r="F424" s="12"/>
+      <c r="G424" s="12"/>
+      <c r="H424" s="12"/>
+      <c r="I424" s="12"/>
+      <c r="J424" s="12"/>
+      <c r="K424" s="12"/>
+      <c r="L424" s="12"/>
+      <c r="M424" s="12"/>
+      <c r="N424" s="12"/>
+      <c r="O424" s="12"/>
+      <c r="P424" s="12"/>
+      <c r="Q424" s="12"/>
+      <c r="R424" s="12"/>
+      <c r="S424" s="12"/>
+      <c r="T424" s="12"/>
+      <c r="U424" s="12"/>
+      <c r="V424" s="12"/>
+      <c r="W424" s="12"/>
+      <c r="X424" s="12"/>
+      <c r="Y424" s="12"/>
+      <c r="Z424" s="12"/>
+      <c r="AA424" s="12"/>
+      <c r="AB424" s="19"/>
+    </row>
+    <row r="425" spans="2:28">
+      <c r="B425" s="10"/>
+      <c r="C425" s="11"/>
+      <c r="D425" s="13"/>
+      <c r="E425" s="12"/>
+      <c r="F425" s="12"/>
+      <c r="G425" s="12"/>
+      <c r="H425" s="12"/>
+      <c r="I425" s="12"/>
+      <c r="J425" s="12"/>
+      <c r="K425" s="12"/>
+      <c r="L425" s="12"/>
+      <c r="M425" s="12"/>
+      <c r="N425" s="12"/>
+      <c r="O425" s="12"/>
+      <c r="P425" s="12"/>
+      <c r="Q425" s="12"/>
+      <c r="R425" s="12"/>
+      <c r="S425" s="12"/>
+      <c r="T425" s="12"/>
+      <c r="U425" s="12"/>
+      <c r="V425" s="12"/>
+      <c r="W425" s="12"/>
+      <c r="X425" s="12"/>
+      <c r="Y425" s="12"/>
+      <c r="Z425" s="12"/>
+      <c r="AA425" s="12"/>
+      <c r="AB425" s="19"/>
+    </row>
+    <row r="426" spans="2:28">
+      <c r="B426" s="10"/>
+      <c r="C426" s="11"/>
+      <c r="D426" s="13"/>
+      <c r="E426" s="12"/>
+      <c r="F426" s="12"/>
+      <c r="G426" s="12"/>
+      <c r="H426" s="12"/>
+      <c r="I426" s="12"/>
+      <c r="J426" s="12"/>
+      <c r="K426" s="12"/>
+      <c r="L426" s="12"/>
+      <c r="M426" s="12"/>
+      <c r="N426" s="12"/>
+      <c r="O426" s="12"/>
+      <c r="P426" s="12"/>
+      <c r="Q426" s="12"/>
+      <c r="R426" s="12"/>
+      <c r="S426" s="12"/>
+      <c r="T426" s="12"/>
+      <c r="U426" s="12"/>
+      <c r="V426" s="12"/>
+      <c r="W426" s="12"/>
+      <c r="X426" s="12"/>
+      <c r="Y426" s="12"/>
+      <c r="Z426" s="12"/>
+      <c r="AA426" s="12"/>
+      <c r="AB426" s="19"/>
+    </row>
+    <row r="427" spans="2:28">
+      <c r="B427" s="10"/>
+      <c r="C427" s="11"/>
+      <c r="D427" s="13"/>
+      <c r="E427" s="12"/>
+      <c r="F427" s="12"/>
+      <c r="G427" s="12"/>
+      <c r="H427" s="12"/>
+      <c r="I427" s="12"/>
+      <c r="J427" s="12"/>
+      <c r="K427" s="12"/>
+      <c r="L427" s="12"/>
+      <c r="M427" s="12"/>
+      <c r="N427" s="12"/>
+      <c r="O427" s="12"/>
+      <c r="P427" s="12"/>
+      <c r="Q427" s="12"/>
+      <c r="R427" s="12"/>
+      <c r="S427" s="12"/>
+      <c r="T427" s="12"/>
+      <c r="U427" s="12"/>
+      <c r="V427" s="12"/>
+      <c r="W427" s="12"/>
+      <c r="X427" s="12"/>
+      <c r="Y427" s="12"/>
+      <c r="Z427" s="12"/>
+      <c r="AA427" s="12"/>
+      <c r="AB427" s="19"/>
+    </row>
+    <row r="428" spans="2:28">
+      <c r="B428" s="10"/>
+      <c r="C428" s="11"/>
+      <c r="D428" s="13"/>
+      <c r="E428" s="12"/>
+      <c r="F428" s="12"/>
+      <c r="G428" s="12"/>
+      <c r="H428" s="12"/>
+      <c r="I428" s="12"/>
+      <c r="J428" s="12"/>
+      <c r="K428" s="12"/>
+      <c r="L428" s="12"/>
+      <c r="M428" s="12"/>
+      <c r="N428" s="12"/>
+      <c r="O428" s="12"/>
+      <c r="P428" s="12"/>
+      <c r="Q428" s="12"/>
+      <c r="R428" s="12"/>
+      <c r="S428" s="12"/>
+      <c r="T428" s="12"/>
+      <c r="U428" s="12"/>
+      <c r="V428" s="12"/>
+      <c r="W428" s="12"/>
+      <c r="X428" s="12"/>
+      <c r="Y428" s="12"/>
+      <c r="Z428" s="12"/>
+      <c r="AA428" s="12"/>
+      <c r="AB428" s="19"/>
+    </row>
+    <row r="429" spans="2:28">
+      <c r="B429" s="10"/>
+      <c r="C429" s="11"/>
+      <c r="D429" s="13"/>
+      <c r="E429" s="12"/>
+      <c r="F429" s="12"/>
+      <c r="G429" s="12"/>
+      <c r="H429" s="12"/>
+      <c r="I429" s="12"/>
+      <c r="J429" s="12"/>
+      <c r="K429" s="12"/>
+      <c r="L429" s="12"/>
+      <c r="M429" s="12"/>
+      <c r="N429" s="12"/>
+      <c r="O429" s="12"/>
+      <c r="P429" s="12"/>
+      <c r="Q429" s="12"/>
+      <c r="R429" s="12"/>
+      <c r="S429" s="12"/>
+      <c r="T429" s="12"/>
+      <c r="U429" s="12"/>
+      <c r="V429" s="12"/>
+      <c r="W429" s="12"/>
+      <c r="X429" s="12"/>
+      <c r="Y429" s="12"/>
+      <c r="Z429" s="12"/>
+      <c r="AA429" s="12"/>
+      <c r="AB429" s="19"/>
+    </row>
+    <row r="430" spans="2:28">
+      <c r="B430" s="10"/>
+      <c r="C430" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D430" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E430" s="12"/>
+      <c r="F430" s="12"/>
+      <c r="G430" s="12"/>
+      <c r="H430" s="12"/>
+      <c r="I430" s="12"/>
+      <c r="J430" s="12"/>
+      <c r="K430" s="12"/>
+      <c r="L430" s="12"/>
+      <c r="M430" s="12"/>
+      <c r="N430" s="12"/>
+      <c r="O430" s="12"/>
+      <c r="P430" s="12"/>
+      <c r="Q430" s="12"/>
+      <c r="R430" s="12"/>
+      <c r="S430" s="12"/>
+      <c r="T430" s="12"/>
+      <c r="U430" s="12"/>
+      <c r="V430" s="12"/>
+      <c r="W430" s="12"/>
+      <c r="X430" s="12"/>
+      <c r="Y430" s="12"/>
+      <c r="Z430" s="12"/>
+      <c r="AA430" s="12"/>
+      <c r="AB430" s="19"/>
+    </row>
+    <row r="431" spans="2:28">
+      <c r="B431" s="10"/>
+      <c r="C431" s="11"/>
+      <c r="D431" s="13"/>
+      <c r="E431" s="12"/>
+      <c r="F431" s="12"/>
+      <c r="G431" s="12"/>
+      <c r="H431" s="12"/>
+      <c r="I431" s="12"/>
+      <c r="J431" s="12"/>
+      <c r="K431" s="12"/>
+      <c r="L431" s="12"/>
+      <c r="M431" s="12"/>
+      <c r="N431" s="12"/>
+      <c r="O431" s="12"/>
+      <c r="P431" s="12"/>
+      <c r="Q431" s="12"/>
+      <c r="R431" s="12"/>
+      <c r="S431" s="12"/>
+      <c r="T431" s="12"/>
+      <c r="U431" s="12"/>
+      <c r="V431" s="12"/>
+      <c r="W431" s="12"/>
+      <c r="X431" s="12"/>
+      <c r="Y431" s="12"/>
+      <c r="Z431" s="12"/>
+      <c r="AA431" s="12"/>
+      <c r="AB431" s="19"/>
+    </row>
+    <row r="432" spans="2:28">
+      <c r="B432" s="10"/>
+      <c r="C432" s="11"/>
+      <c r="D432" s="13"/>
+      <c r="E432" s="12"/>
+      <c r="F432" s="12"/>
+      <c r="G432" s="12"/>
+      <c r="H432" s="12"/>
+      <c r="I432" s="12"/>
+      <c r="J432" s="12"/>
+      <c r="K432" s="12"/>
+      <c r="L432" s="12"/>
+      <c r="M432" s="12"/>
+      <c r="N432" s="12"/>
+      <c r="O432" s="12"/>
+      <c r="P432" s="12"/>
+      <c r="Q432" s="12"/>
+      <c r="R432" s="12"/>
+      <c r="S432" s="12"/>
+      <c r="T432" s="12"/>
+      <c r="U432" s="12"/>
+      <c r="V432" s="12"/>
+      <c r="W432" s="12"/>
+      <c r="X432" s="12"/>
+      <c r="Y432" s="12"/>
+      <c r="Z432" s="12"/>
+      <c r="AA432" s="12"/>
+      <c r="AB432" s="19"/>
+    </row>
+    <row r="433" spans="2:28">
+      <c r="B433" s="10"/>
+      <c r="C433" s="11"/>
+      <c r="D433" s="13"/>
+      <c r="E433" s="12"/>
+      <c r="F433" s="12"/>
+      <c r="G433" s="12"/>
+      <c r="H433" s="12"/>
+      <c r="I433" s="12"/>
+      <c r="J433" s="12"/>
+      <c r="K433" s="12"/>
+      <c r="L433" s="12"/>
+      <c r="M433" s="12"/>
+      <c r="N433" s="12"/>
+      <c r="O433" s="12"/>
+      <c r="P433" s="12"/>
+      <c r="Q433" s="12"/>
+      <c r="R433" s="12"/>
+      <c r="S433" s="12"/>
+      <c r="T433" s="12"/>
+      <c r="U433" s="12"/>
+      <c r="V433" s="12"/>
+      <c r="W433" s="12"/>
+      <c r="X433" s="12"/>
+      <c r="Y433" s="12"/>
+      <c r="Z433" s="12"/>
+      <c r="AA433" s="12"/>
+      <c r="AB433" s="19"/>
+    </row>
+    <row r="434" spans="2:28">
+      <c r="B434" s="10"/>
+      <c r="C434" s="11"/>
+      <c r="D434" s="13"/>
+      <c r="E434" s="12"/>
+      <c r="F434" s="12"/>
+      <c r="G434" s="12"/>
+      <c r="H434" s="12"/>
+      <c r="I434" s="12"/>
+      <c r="J434" s="12"/>
+      <c r="K434" s="12"/>
+      <c r="L434" s="12"/>
+      <c r="M434" s="12"/>
+      <c r="N434" s="12"/>
+      <c r="O434" s="12"/>
+      <c r="P434" s="12"/>
+      <c r="Q434" s="12"/>
+      <c r="R434" s="12"/>
+      <c r="S434" s="12"/>
+      <c r="T434" s="12"/>
+      <c r="U434" s="12"/>
+      <c r="V434" s="12"/>
+      <c r="W434" s="12"/>
+      <c r="X434" s="12"/>
+      <c r="Y434" s="12"/>
+      <c r="Z434" s="12"/>
+      <c r="AA434" s="12"/>
+      <c r="AB434" s="19"/>
+    </row>
+    <row r="435" spans="2:28">
+      <c r="B435" s="10"/>
+      <c r="C435" s="11"/>
+      <c r="D435" s="13"/>
+      <c r="E435" s="12"/>
+      <c r="F435" s="12"/>
+      <c r="G435" s="12"/>
+      <c r="H435" s="12"/>
+      <c r="I435" s="12"/>
+      <c r="J435" s="12"/>
+      <c r="K435" s="12"/>
+      <c r="L435" s="12"/>
+      <c r="M435" s="12"/>
+      <c r="N435" s="12"/>
+      <c r="O435" s="12"/>
+      <c r="P435" s="12"/>
+      <c r="Q435" s="12"/>
+      <c r="R435" s="12"/>
+      <c r="S435" s="12"/>
+      <c r="T435" s="12"/>
+      <c r="U435" s="12"/>
+      <c r="V435" s="12"/>
+      <c r="W435" s="12"/>
+      <c r="X435" s="12"/>
+      <c r="Y435" s="12"/>
+      <c r="Z435" s="12"/>
+      <c r="AA435" s="12"/>
+      <c r="AB435" s="19"/>
+    </row>
+    <row r="436" spans="2:28">
+      <c r="B436" s="10"/>
+      <c r="C436" s="11"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="12"/>
+      <c r="F436" s="12"/>
+      <c r="G436" s="12"/>
+      <c r="H436" s="12"/>
+      <c r="I436" s="12"/>
+      <c r="J436" s="12"/>
+      <c r="K436" s="12"/>
+      <c r="L436" s="12"/>
+      <c r="M436" s="12"/>
+      <c r="N436" s="12"/>
+      <c r="O436" s="12"/>
+      <c r="P436" s="12"/>
+      <c r="Q436" s="12"/>
+      <c r="R436" s="12"/>
+      <c r="S436" s="12"/>
+      <c r="T436" s="12"/>
+      <c r="U436" s="12"/>
+      <c r="V436" s="12"/>
+      <c r="W436" s="12"/>
+      <c r="X436" s="12"/>
+      <c r="Y436" s="12"/>
+      <c r="Z436" s="12"/>
+      <c r="AA436" s="12"/>
+      <c r="AB436" s="19"/>
+    </row>
+    <row r="437" spans="2:28">
+      <c r="B437" s="10"/>
+      <c r="C437" s="11"/>
+      <c r="D437" s="13"/>
+      <c r="E437" s="12"/>
+      <c r="F437" s="12"/>
+      <c r="G437" s="12"/>
+      <c r="H437" s="12"/>
+      <c r="I437" s="12"/>
+      <c r="J437" s="12"/>
+      <c r="K437" s="12"/>
+      <c r="L437" s="12"/>
+      <c r="M437" s="12"/>
+      <c r="N437" s="12"/>
+      <c r="O437" s="12"/>
+      <c r="P437" s="12"/>
+      <c r="Q437" s="12"/>
+      <c r="R437" s="12"/>
+      <c r="S437" s="12"/>
+      <c r="T437" s="12"/>
+      <c r="U437" s="12"/>
+      <c r="V437" s="12"/>
+      <c r="W437" s="12"/>
+      <c r="X437" s="12"/>
+      <c r="Y437" s="12"/>
+      <c r="Z437" s="12"/>
+      <c r="AA437" s="12"/>
+      <c r="AB437" s="19"/>
+    </row>
+    <row r="438" spans="2:28">
+      <c r="B438" s="10"/>
+      <c r="C438" s="11"/>
+      <c r="D438" s="13"/>
+      <c r="E438" s="12"/>
+      <c r="F438" s="12"/>
+      <c r="G438" s="12"/>
+      <c r="H438" s="12"/>
+      <c r="I438" s="12"/>
+      <c r="J438" s="12"/>
+      <c r="K438" s="12"/>
+      <c r="L438" s="12"/>
+      <c r="M438" s="12"/>
+      <c r="N438" s="12"/>
+      <c r="O438" s="12"/>
+      <c r="P438" s="12"/>
+      <c r="Q438" s="12"/>
+      <c r="R438" s="12"/>
+      <c r="S438" s="12"/>
+      <c r="T438" s="12"/>
+      <c r="U438" s="12"/>
+      <c r="V438" s="12"/>
+      <c r="W438" s="12"/>
+      <c r="X438" s="12"/>
+      <c r="Y438" s="12"/>
+      <c r="Z438" s="12"/>
+      <c r="AA438" s="12"/>
+      <c r="AB438" s="19"/>
+    </row>
+    <row r="439" spans="2:28">
+      <c r="B439" s="10"/>
+      <c r="C439" s="11"/>
+      <c r="D439" s="13"/>
+      <c r="E439" s="12"/>
+      <c r="F439" s="12"/>
+      <c r="G439" s="12"/>
+      <c r="H439" s="12"/>
+      <c r="I439" s="12"/>
+      <c r="J439" s="12"/>
+      <c r="K439" s="12"/>
+      <c r="L439" s="12"/>
+      <c r="M439" s="12"/>
+      <c r="N439" s="12"/>
+      <c r="O439" s="12"/>
+      <c r="P439" s="12"/>
+      <c r="Q439" s="12"/>
+      <c r="R439" s="12"/>
+      <c r="S439" s="12"/>
+      <c r="T439" s="12"/>
+      <c r="U439" s="12"/>
+      <c r="V439" s="12"/>
+      <c r="W439" s="12"/>
+      <c r="X439" s="12"/>
+      <c r="Y439" s="12"/>
+      <c r="Z439" s="12"/>
+      <c r="AA439" s="12"/>
+      <c r="AB439" s="19"/>
+    </row>
+    <row r="440" spans="2:28">
+      <c r="B440" s="10"/>
+      <c r="C440" s="11"/>
+      <c r="D440" s="13"/>
+      <c r="E440" s="12"/>
+      <c r="F440" s="12"/>
+      <c r="G440" s="12"/>
+      <c r="H440" s="12"/>
+      <c r="I440" s="12"/>
+      <c r="J440" s="12"/>
+      <c r="K440" s="12"/>
+      <c r="L440" s="12"/>
+      <c r="M440" s="12"/>
+      <c r="N440" s="12"/>
+      <c r="O440" s="12"/>
+      <c r="P440" s="12"/>
+      <c r="Q440" s="12"/>
+      <c r="R440" s="12"/>
+      <c r="S440" s="12"/>
+      <c r="T440" s="12"/>
+      <c r="U440" s="12"/>
+      <c r="V440" s="12"/>
+      <c r="W440" s="12"/>
+      <c r="X440" s="12"/>
+      <c r="Y440" s="12"/>
+      <c r="Z440" s="12"/>
+      <c r="AA440" s="12"/>
+      <c r="AB440" s="19"/>
+    </row>
+    <row r="441" spans="2:28">
+      <c r="B441" s="10"/>
+      <c r="C441" s="11"/>
+      <c r="D441" s="13"/>
+      <c r="E441" s="12"/>
+      <c r="F441" s="12"/>
+      <c r="G441" s="12"/>
+      <c r="H441" s="12"/>
+      <c r="I441" s="12"/>
+      <c r="J441" s="12"/>
+      <c r="K441" s="12"/>
+      <c r="L441" s="12"/>
+      <c r="M441" s="12"/>
+      <c r="N441" s="12"/>
+      <c r="O441" s="12"/>
+      <c r="P441" s="12"/>
+      <c r="Q441" s="12"/>
+      <c r="R441" s="12"/>
+      <c r="S441" s="12"/>
+      <c r="T441" s="12"/>
+      <c r="U441" s="12"/>
+      <c r="V441" s="12"/>
+      <c r="W441" s="12"/>
+      <c r="X441" s="12"/>
+      <c r="Y441" s="12"/>
+      <c r="Z441" s="12"/>
+      <c r="AA441" s="12"/>
+      <c r="AB441" s="19"/>
+    </row>
+    <row r="442" spans="2:28">
+      <c r="B442" s="10"/>
+      <c r="C442" s="11"/>
+      <c r="D442" s="13"/>
+      <c r="E442" s="12"/>
+      <c r="F442" s="12"/>
+      <c r="G442" s="12"/>
+      <c r="H442" s="12"/>
+      <c r="I442" s="12"/>
+      <c r="J442" s="12"/>
+      <c r="K442" s="12"/>
+      <c r="L442" s="12"/>
+      <c r="M442" s="12"/>
+      <c r="N442" s="12"/>
+      <c r="O442" s="12"/>
+      <c r="P442" s="12"/>
+      <c r="Q442" s="12"/>
+      <c r="R442" s="12"/>
+      <c r="S442" s="12"/>
+      <c r="T442" s="12"/>
+      <c r="U442" s="12"/>
+      <c r="V442" s="12"/>
+      <c r="W442" s="12"/>
+      <c r="X442" s="12"/>
+      <c r="Y442" s="12"/>
+      <c r="Z442" s="12"/>
+      <c r="AA442" s="12"/>
+      <c r="AB442" s="19"/>
+    </row>
+    <row r="443" spans="2:28">
+      <c r="B443" s="10"/>
+      <c r="C443" s="11"/>
+      <c r="D443" s="13"/>
+      <c r="E443" s="12"/>
+      <c r="F443" s="12"/>
+      <c r="G443" s="12"/>
+      <c r="H443" s="12"/>
+      <c r="I443" s="12"/>
+      <c r="J443" s="12"/>
+      <c r="K443" s="12"/>
+      <c r="L443" s="12"/>
+      <c r="M443" s="12"/>
+      <c r="N443" s="12"/>
+      <c r="O443" s="12"/>
+      <c r="P443" s="12"/>
+      <c r="Q443" s="12"/>
+      <c r="R443" s="12"/>
+      <c r="S443" s="12"/>
+      <c r="T443" s="12"/>
+      <c r="U443" s="12"/>
+      <c r="V443" s="12"/>
+      <c r="W443" s="12"/>
+      <c r="X443" s="12"/>
+      <c r="Y443" s="12"/>
+      <c r="Z443" s="12"/>
+      <c r="AA443" s="12"/>
+      <c r="AB443" s="19"/>
+    </row>
+    <row r="444" spans="2:28">
+      <c r="B444" s="10"/>
+      <c r="C444" s="11"/>
+      <c r="D444" s="13"/>
+      <c r="E444" s="12"/>
+      <c r="F444" s="12"/>
+      <c r="G444" s="12"/>
+      <c r="H444" s="12"/>
+      <c r="I444" s="12"/>
+      <c r="J444" s="12"/>
+      <c r="K444" s="12"/>
+      <c r="L444" s="12"/>
+      <c r="M444" s="12"/>
+      <c r="N444" s="12"/>
+      <c r="O444" s="12"/>
+      <c r="P444" s="12"/>
+      <c r="Q444" s="12"/>
+      <c r="R444" s="12"/>
+      <c r="S444" s="12"/>
+      <c r="T444" s="12"/>
+      <c r="U444" s="12"/>
+      <c r="V444" s="12"/>
+      <c r="W444" s="12"/>
+      <c r="X444" s="12"/>
+      <c r="Y444" s="12"/>
+      <c r="Z444" s="12"/>
+      <c r="AA444" s="12"/>
+      <c r="AB444" s="19"/>
+    </row>
+    <row r="445" spans="2:28">
+      <c r="B445" s="10"/>
+      <c r="C445" s="11"/>
+      <c r="D445" s="13"/>
+      <c r="E445" s="12"/>
+      <c r="F445" s="12"/>
+      <c r="G445" s="12"/>
+      <c r="H445" s="12"/>
+      <c r="I445" s="12"/>
+      <c r="J445" s="12"/>
+      <c r="K445" s="12"/>
+      <c r="L445" s="12"/>
+      <c r="M445" s="12"/>
+      <c r="N445" s="12"/>
+      <c r="O445" s="12"/>
+      <c r="P445" s="12"/>
+      <c r="Q445" s="12"/>
+      <c r="R445" s="12"/>
+      <c r="S445" s="12"/>
+      <c r="T445" s="12"/>
+      <c r="U445" s="12"/>
+      <c r="V445" s="12"/>
+      <c r="W445" s="12"/>
+      <c r="X445" s="12"/>
+      <c r="Y445" s="12"/>
+      <c r="Z445" s="12"/>
+      <c r="AA445" s="12"/>
+      <c r="AB445" s="19"/>
+    </row>
+    <row r="446" spans="2:28">
+      <c r="B446" s="10"/>
+      <c r="C446" s="11"/>
+      <c r="D446" s="13"/>
+      <c r="E446" s="12"/>
+      <c r="F446" s="12"/>
+      <c r="G446" s="12"/>
+      <c r="H446" s="12"/>
+      <c r="I446" s="12"/>
+      <c r="J446" s="12"/>
+      <c r="K446" s="12"/>
+      <c r="L446" s="12"/>
+      <c r="M446" s="12"/>
+      <c r="N446" s="12"/>
+      <c r="O446" s="12"/>
+      <c r="P446" s="12"/>
+      <c r="Q446" s="12"/>
+      <c r="R446" s="12"/>
+      <c r="S446" s="12"/>
+      <c r="T446" s="12"/>
+      <c r="U446" s="12"/>
+      <c r="V446" s="12"/>
+      <c r="W446" s="12"/>
+      <c r="X446" s="12"/>
+      <c r="Y446" s="12"/>
+      <c r="Z446" s="12"/>
+      <c r="AA446" s="12"/>
+      <c r="AB446" s="19"/>
+    </row>
+    <row r="447" spans="2:28">
+      <c r="B447" s="10"/>
+      <c r="C447" s="11"/>
+      <c r="D447" s="13"/>
+      <c r="E447" s="12"/>
+      <c r="F447" s="12"/>
+      <c r="G447" s="12"/>
+      <c r="H447" s="12"/>
+      <c r="I447" s="12"/>
+      <c r="J447" s="12"/>
+      <c r="K447" s="12"/>
+      <c r="L447" s="12"/>
+      <c r="M447" s="12"/>
+      <c r="N447" s="12"/>
+      <c r="O447" s="12"/>
+      <c r="P447" s="12"/>
+      <c r="Q447" s="12"/>
+      <c r="R447" s="12"/>
+      <c r="S447" s="12"/>
+      <c r="T447" s="12"/>
+      <c r="U447" s="12"/>
+      <c r="V447" s="12"/>
+      <c r="W447" s="12"/>
+      <c r="X447" s="12"/>
+      <c r="Y447" s="12"/>
+      <c r="Z447" s="12"/>
+      <c r="AA447" s="12"/>
+      <c r="AB447" s="19"/>
+    </row>
+    <row r="448" spans="2:28">
+      <c r="B448" s="10"/>
+      <c r="C448" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D448" s="13"/>
+      <c r="E448" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F448" s="12"/>
+      <c r="G448" s="12"/>
+      <c r="H448" s="12"/>
+      <c r="I448" s="12"/>
+      <c r="J448" s="12"/>
+      <c r="K448" s="12"/>
+      <c r="L448" s="12"/>
+      <c r="M448" s="12"/>
+      <c r="N448" s="12"/>
+      <c r="O448" s="12"/>
+      <c r="P448" s="12"/>
+      <c r="Q448" s="12"/>
+      <c r="R448" s="12"/>
+      <c r="S448" s="12"/>
+      <c r="T448" s="12"/>
+      <c r="U448" s="12"/>
+      <c r="V448" s="12"/>
+      <c r="W448" s="12"/>
+      <c r="X448" s="12"/>
+      <c r="Y448" s="12"/>
+      <c r="Z448" s="12"/>
+      <c r="AA448" s="12"/>
+      <c r="AB448" s="19"/>
+    </row>
+    <row r="449" spans="2:28">
+      <c r="B449" s="10"/>
+      <c r="C449" s="11"/>
+      <c r="D449" s="13"/>
+      <c r="E449" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F449" s="12"/>
+      <c r="G449" s="12"/>
+      <c r="H449" s="12"/>
+      <c r="I449" s="12"/>
+      <c r="J449" s="12"/>
+      <c r="K449" s="12"/>
+      <c r="L449" s="12"/>
+      <c r="M449" s="12"/>
+      <c r="N449" s="12"/>
+      <c r="O449" s="12"/>
+      <c r="P449" s="12"/>
+      <c r="Q449" s="12"/>
+      <c r="R449" s="12"/>
+      <c r="S449" s="12"/>
+      <c r="T449" s="12"/>
+      <c r="U449" s="12"/>
+      <c r="V449" s="12"/>
+      <c r="W449" s="12"/>
+      <c r="X449" s="12"/>
+      <c r="Y449" s="12"/>
+      <c r="Z449" s="12"/>
+      <c r="AA449" s="12"/>
+      <c r="AB449" s="19"/>
+    </row>
+    <row r="450" spans="2:28">
+      <c r="B450" s="10"/>
+      <c r="C450" s="11"/>
+      <c r="D450" s="13"/>
+      <c r="E450" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F450" s="12"/>
+      <c r="G450" s="12"/>
+      <c r="H450" s="12"/>
+      <c r="I450" s="12"/>
+      <c r="J450" s="12"/>
+      <c r="K450" s="12"/>
+      <c r="L450" s="12"/>
+      <c r="M450" s="12"/>
+      <c r="N450" s="12"/>
+      <c r="O450" s="12"/>
+      <c r="P450" s="12"/>
+      <c r="Q450" s="12"/>
+      <c r="R450" s="12"/>
+      <c r="S450" s="12"/>
+      <c r="T450" s="12"/>
+      <c r="U450" s="12"/>
+      <c r="V450" s="12"/>
+      <c r="W450" s="12"/>
+      <c r="X450" s="12"/>
+      <c r="Y450" s="12"/>
+      <c r="Z450" s="12"/>
+      <c r="AA450" s="12"/>
+      <c r="AB450" s="19"/>
+    </row>
+    <row r="451" spans="2:28">
+      <c r="B451" s="10"/>
+      <c r="C451" s="11"/>
+      <c r="D451" s="13"/>
+      <c r="E451" s="12"/>
+      <c r="F451" s="12"/>
+      <c r="G451" s="12"/>
+      <c r="H451" s="12"/>
+      <c r="I451" s="12"/>
+      <c r="J451" s="12"/>
+      <c r="K451" s="12"/>
+      <c r="L451" s="12"/>
+      <c r="M451" s="12"/>
+      <c r="N451" s="12"/>
+      <c r="O451" s="12"/>
+      <c r="P451" s="12"/>
+      <c r="Q451" s="12"/>
+      <c r="R451" s="12"/>
+      <c r="S451" s="12"/>
+      <c r="T451" s="12"/>
+      <c r="U451" s="12"/>
+      <c r="V451" s="12"/>
+      <c r="W451" s="12"/>
+      <c r="X451" s="12"/>
+      <c r="Y451" s="12"/>
+      <c r="Z451" s="12"/>
+      <c r="AA451" s="12"/>
+      <c r="AB451" s="19"/>
+    </row>
+    <row r="452" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B452" s="8"/>
+      <c r="C452" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D452" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E452" s="9"/>
+      <c r="F452" s="9"/>
+      <c r="G452" s="9"/>
+      <c r="H452" s="9"/>
+      <c r="I452" s="9"/>
+      <c r="J452" s="9"/>
+      <c r="K452" s="9"/>
+      <c r="L452" s="9"/>
+      <c r="M452" s="9"/>
+      <c r="N452" s="9"/>
+      <c r="O452" s="9"/>
+      <c r="P452" s="9"/>
+      <c r="Q452" s="9"/>
+      <c r="R452" s="9"/>
+      <c r="S452" s="9"/>
+      <c r="T452" s="9"/>
+      <c r="U452" s="9"/>
+      <c r="V452" s="9"/>
+      <c r="W452" s="9"/>
+      <c r="X452" s="9"/>
+      <c r="Y452" s="9"/>
+      <c r="Z452" s="9"/>
+      <c r="AA452" s="9"/>
+      <c r="AB452" s="18"/>
+    </row>
+    <row r="453" spans="2:28">
+      <c r="B453" s="28"/>
+      <c r="C453" s="29"/>
+      <c r="D453" s="30"/>
+      <c r="E453" s="31"/>
+      <c r="F453" s="31"/>
+      <c r="G453" s="31"/>
+      <c r="H453" s="31"/>
+      <c r="I453" s="31"/>
+      <c r="J453" s="31"/>
+      <c r="K453" s="31"/>
+      <c r="L453" s="31"/>
+      <c r="M453" s="31"/>
+      <c r="N453" s="31"/>
+      <c r="O453" s="31"/>
+      <c r="P453" s="31"/>
+      <c r="Q453" s="31"/>
+      <c r="R453" s="31"/>
+      <c r="S453" s="31"/>
+      <c r="T453" s="31"/>
+      <c r="U453" s="31"/>
+      <c r="V453" s="31"/>
+      <c r="W453" s="31"/>
+      <c r="X453" s="31"/>
+      <c r="Y453" s="31"/>
+      <c r="Z453" s="31"/>
+      <c r="AA453" s="31"/>
+      <c r="AB453" s="37"/>
+    </row>
+    <row r="454" ht="15" spans="2:28">
+      <c r="B454" s="28"/>
+      <c r="C454" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D454" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E454" s="31"/>
+      <c r="F454" s="31"/>
+      <c r="G454" s="31"/>
+      <c r="H454" s="31"/>
+      <c r="I454" s="31"/>
+      <c r="J454" s="31"/>
+      <c r="K454" s="31"/>
+      <c r="L454" s="31"/>
+      <c r="M454" s="31"/>
+      <c r="N454" s="31"/>
+      <c r="O454" s="31"/>
+      <c r="P454" s="31"/>
+      <c r="Q454" s="31"/>
+      <c r="R454" s="31"/>
+      <c r="S454" s="31"/>
+      <c r="T454" s="31"/>
+      <c r="U454" s="31"/>
+      <c r="V454" s="31"/>
+      <c r="W454" s="31"/>
+      <c r="X454" s="31"/>
+      <c r="Y454" s="31"/>
+      <c r="Z454" s="31"/>
+      <c r="AA454" s="31"/>
+      <c r="AB454" s="37"/>
+    </row>
+    <row r="455" ht="15" spans="2:28">
+      <c r="B455" s="28"/>
+      <c r="C455" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D455" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E455" s="31"/>
+      <c r="F455" s="31"/>
+      <c r="G455" s="31"/>
+      <c r="H455" s="31"/>
+      <c r="I455" s="31"/>
+      <c r="J455" s="31"/>
+      <c r="K455" s="31"/>
+      <c r="L455" s="31"/>
+      <c r="M455" s="31"/>
+      <c r="N455" s="31"/>
+      <c r="O455" s="31"/>
+      <c r="P455" s="31"/>
+      <c r="Q455" s="31"/>
+      <c r="R455" s="31"/>
+      <c r="S455" s="31"/>
+      <c r="T455" s="31"/>
+      <c r="U455" s="31"/>
+      <c r="V455" s="31"/>
+      <c r="W455" s="31"/>
+      <c r="X455" s="31"/>
+      <c r="Y455" s="31"/>
+      <c r="Z455" s="31"/>
+      <c r="AA455" s="31"/>
+      <c r="AB455" s="37"/>
+    </row>
+    <row r="456" spans="2:28">
+      <c r="B456" s="28"/>
+      <c r="C456" s="29"/>
+      <c r="D456" s="30"/>
+      <c r="E456" s="31"/>
+      <c r="F456" s="31"/>
+      <c r="G456" s="31"/>
+      <c r="H456" s="31"/>
+      <c r="I456" s="31"/>
+      <c r="J456" s="31"/>
+      <c r="K456" s="31"/>
+      <c r="L456" s="31"/>
+      <c r="M456" s="31"/>
+      <c r="N456" s="31"/>
+      <c r="O456" s="31"/>
+      <c r="P456" s="31"/>
+      <c r="Q456" s="31"/>
+      <c r="R456" s="31"/>
+      <c r="S456" s="31"/>
+      <c r="T456" s="31"/>
+      <c r="U456" s="31"/>
+      <c r="V456" s="31"/>
+      <c r="W456" s="31"/>
+      <c r="X456" s="31"/>
+      <c r="Y456" s="31"/>
+      <c r="Z456" s="31"/>
+      <c r="AA456" s="31"/>
+      <c r="AB456" s="37"/>
+    </row>
+    <row r="457" spans="2:28">
+      <c r="B457" s="28"/>
+      <c r="C457" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D457" s="30"/>
+      <c r="E457" s="31"/>
+      <c r="F457" s="31"/>
+      <c r="G457" s="31"/>
+      <c r="H457" s="31"/>
+      <c r="I457" s="31"/>
+      <c r="J457" s="31"/>
+      <c r="K457" s="31"/>
+      <c r="L457" s="31"/>
+      <c r="M457" s="31"/>
+      <c r="N457" s="31"/>
+      <c r="O457" s="31"/>
+      <c r="P457" s="31"/>
+      <c r="Q457" s="31"/>
+      <c r="R457" s="31"/>
+      <c r="S457" s="31"/>
+      <c r="T457" s="31"/>
+      <c r="U457" s="31"/>
+      <c r="V457" s="31"/>
+      <c r="W457" s="31"/>
+      <c r="X457" s="31"/>
+      <c r="Y457" s="31"/>
+      <c r="Z457" s="31"/>
+      <c r="AA457" s="31"/>
+      <c r="AB457" s="37"/>
+    </row>
+    <row r="458" spans="2:28">
+      <c r="B458" s="28"/>
+      <c r="C458" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D458" s="33"/>
+      <c r="E458" s="33"/>
+      <c r="F458" s="33"/>
+      <c r="G458" s="33"/>
+      <c r="H458" s="33"/>
+      <c r="I458" s="31"/>
+      <c r="J458" s="31"/>
+      <c r="K458" s="31"/>
+      <c r="L458" s="31"/>
+      <c r="M458" s="31"/>
+      <c r="N458" s="31"/>
+      <c r="O458" s="31"/>
+      <c r="P458" s="31"/>
+      <c r="Q458" s="31"/>
+      <c r="R458" s="31"/>
+      <c r="S458" s="31"/>
+      <c r="T458" s="31"/>
+      <c r="U458" s="31"/>
+      <c r="V458" s="31"/>
+      <c r="W458" s="31"/>
+      <c r="X458" s="31"/>
+      <c r="Y458" s="31"/>
+      <c r="Z458" s="31"/>
+      <c r="AA458" s="31"/>
+      <c r="AB458" s="37"/>
+    </row>
+    <row r="459" spans="2:28">
+      <c r="B459" s="28"/>
+      <c r="C459" s="29"/>
+      <c r="J459" s="31"/>
+      <c r="K459" s="31"/>
+      <c r="L459" s="31"/>
+      <c r="M459" s="31"/>
+      <c r="N459" s="31"/>
+      <c r="O459" s="31"/>
+      <c r="P459" s="31"/>
+      <c r="Q459" s="31"/>
+      <c r="R459" s="31"/>
+      <c r="S459" s="31"/>
+      <c r="T459" s="31"/>
+      <c r="U459" s="31"/>
+      <c r="V459" s="31"/>
+      <c r="W459" s="31"/>
+      <c r="X459" s="31"/>
+      <c r="Y459" s="31"/>
+      <c r="Z459" s="31"/>
+      <c r="AA459" s="31"/>
+      <c r="AB459" s="37"/>
+    </row>
+    <row r="460" spans="2:28">
+      <c r="B460" s="28"/>
+      <c r="C460" s="29"/>
+      <c r="D460" s="30"/>
+      <c r="E460" s="31"/>
+      <c r="F460" s="31"/>
+      <c r="G460" s="31"/>
+      <c r="H460" s="31"/>
+      <c r="I460" s="31"/>
+      <c r="J460" s="31"/>
+      <c r="K460" s="31"/>
+      <c r="L460" s="31"/>
+      <c r="M460" s="31"/>
+      <c r="N460" s="31"/>
+      <c r="O460" s="31"/>
+      <c r="P460" s="31"/>
+      <c r="Q460" s="31"/>
+      <c r="R460" s="31"/>
+      <c r="S460" s="31"/>
+      <c r="T460" s="31"/>
+      <c r="U460" s="31"/>
+      <c r="V460" s="31"/>
+      <c r="W460" s="31"/>
+      <c r="X460" s="31"/>
+      <c r="Y460" s="31"/>
+      <c r="Z460" s="31"/>
+      <c r="AA460" s="31"/>
+      <c r="AB460" s="37"/>
+    </row>
+    <row r="461" spans="2:28">
+      <c r="B461" s="28"/>
+      <c r="C461" s="29"/>
+      <c r="D461" s="30"/>
+      <c r="E461" s="31"/>
+      <c r="F461" s="31"/>
+      <c r="G461" s="31"/>
+      <c r="H461" s="31"/>
+      <c r="I461" s="31"/>
+      <c r="J461" s="31"/>
+      <c r="K461" s="31"/>
+      <c r="L461" s="31"/>
+      <c r="M461" s="31"/>
+      <c r="N461" s="31"/>
+      <c r="O461" s="31"/>
+      <c r="P461" s="31"/>
+      <c r="Q461" s="31"/>
+      <c r="R461" s="31"/>
+      <c r="S461" s="31"/>
+      <c r="T461" s="31"/>
+      <c r="U461" s="31"/>
+      <c r="V461" s="31"/>
+      <c r="W461" s="31"/>
+      <c r="X461" s="31"/>
+      <c r="Y461" s="31"/>
+      <c r="Z461" s="31"/>
+      <c r="AA461" s="31"/>
+      <c r="AB461" s="37"/>
+    </row>
+    <row r="462" spans="2:28">
+      <c r="B462" s="28"/>
+      <c r="C462" s="29"/>
+      <c r="D462" s="30"/>
+      <c r="E462" s="31"/>
+      <c r="F462" s="31"/>
+      <c r="G462" s="31"/>
+      <c r="H462" s="31"/>
+      <c r="I462" s="31"/>
+      <c r="J462" s="31"/>
+      <c r="K462" s="31"/>
+      <c r="L462" s="31"/>
+      <c r="M462" s="31"/>
+      <c r="N462" s="31"/>
+      <c r="O462" s="31"/>
+      <c r="P462" s="31"/>
+      <c r="Q462" s="31"/>
+      <c r="R462" s="31"/>
+      <c r="S462" s="31"/>
+      <c r="T462" s="31"/>
+      <c r="U462" s="31"/>
+      <c r="V462" s="31"/>
+      <c r="W462" s="31"/>
+      <c r="X462" s="31"/>
+      <c r="Y462" s="31"/>
+      <c r="Z462" s="31"/>
+      <c r="AA462" s="31"/>
+      <c r="AB462" s="37"/>
+    </row>
+    <row r="463" spans="2:28">
+      <c r="B463" s="28"/>
+      <c r="C463" s="29"/>
+      <c r="D463" s="30"/>
+      <c r="E463" s="31"/>
+      <c r="F463" s="31"/>
+      <c r="G463" s="31"/>
+      <c r="H463" s="31"/>
+      <c r="I463" s="31"/>
+      <c r="J463" s="31"/>
+      <c r="K463" s="31"/>
+      <c r="L463" s="31"/>
+      <c r="M463" s="31"/>
+      <c r="N463" s="31"/>
+      <c r="O463" s="31"/>
+      <c r="P463" s="31"/>
+      <c r="Q463" s="31"/>
+      <c r="R463" s="31"/>
+      <c r="S463" s="31"/>
+      <c r="T463" s="31"/>
+      <c r="U463" s="31"/>
+      <c r="V463" s="31"/>
+      <c r="W463" s="31"/>
+      <c r="X463" s="31"/>
+      <c r="Y463" s="31"/>
+      <c r="Z463" s="31"/>
+      <c r="AA463" s="31"/>
+      <c r="AB463" s="37"/>
+    </row>
+    <row r="464" spans="2:28">
+      <c r="B464" s="28"/>
+      <c r="C464" s="29"/>
+      <c r="D464" s="30"/>
+      <c r="E464" s="31"/>
+      <c r="F464" s="31"/>
+      <c r="G464" s="31"/>
+      <c r="H464" s="31"/>
+      <c r="I464" s="31"/>
+      <c r="J464" s="31"/>
+      <c r="K464" s="31"/>
+      <c r="L464" s="31"/>
+      <c r="M464" s="31"/>
+      <c r="N464" s="31"/>
+      <c r="O464" s="31"/>
+      <c r="P464" s="31"/>
+      <c r="Q464" s="31"/>
+      <c r="R464" s="31"/>
+      <c r="S464" s="31"/>
+      <c r="T464" s="31"/>
+      <c r="U464" s="31"/>
+      <c r="V464" s="31"/>
+      <c r="W464" s="31"/>
+      <c r="X464" s="31"/>
+      <c r="Y464" s="31"/>
+      <c r="Z464" s="31"/>
+      <c r="AA464" s="31"/>
+      <c r="AB464" s="37"/>
+    </row>
+    <row r="465" spans="2:28">
+      <c r="B465" s="28"/>
+      <c r="C465" s="29"/>
+      <c r="D465" s="30"/>
+      <c r="E465" s="31"/>
+      <c r="F465" s="31"/>
+      <c r="G465" s="31"/>
+      <c r="H465" s="31"/>
+      <c r="I465" s="31"/>
+      <c r="J465" s="31"/>
+      <c r="K465" s="31"/>
+      <c r="L465" s="31"/>
+      <c r="M465" s="31"/>
+      <c r="N465" s="31"/>
+      <c r="O465" s="31"/>
+      <c r="P465" s="31"/>
+      <c r="Q465" s="31"/>
+      <c r="R465" s="31"/>
+      <c r="S465" s="31"/>
+      <c r="T465" s="31"/>
+      <c r="U465" s="31"/>
+      <c r="V465" s="31"/>
+      <c r="W465" s="31"/>
+      <c r="X465" s="31"/>
+      <c r="Y465" s="31"/>
+      <c r="Z465" s="31"/>
+      <c r="AA465" s="31"/>
+      <c r="AB465" s="37"/>
+    </row>
+    <row r="466" spans="2:28">
+      <c r="B466" s="28"/>
+      <c r="C466" s="29"/>
+      <c r="D466" s="30"/>
+      <c r="E466" s="31"/>
+      <c r="F466" s="31"/>
+      <c r="G466" s="31"/>
+      <c r="H466" s="31"/>
+      <c r="I466" s="31"/>
+      <c r="J466" s="31"/>
+      <c r="K466" s="31"/>
+      <c r="L466" s="31"/>
+      <c r="M466" s="31"/>
+      <c r="N466" s="31"/>
+      <c r="O466" s="31"/>
+      <c r="P466" s="31"/>
+      <c r="Q466" s="31"/>
+      <c r="R466" s="31"/>
+      <c r="S466" s="31"/>
+      <c r="T466" s="31"/>
+      <c r="U466" s="31"/>
+      <c r="V466" s="31"/>
+      <c r="W466" s="31"/>
+      <c r="X466" s="31"/>
+      <c r="Y466" s="31"/>
+      <c r="Z466" s="31"/>
+      <c r="AA466" s="31"/>
+      <c r="AB466" s="37"/>
+    </row>
+    <row r="467" spans="2:28">
+      <c r="B467" s="28"/>
+      <c r="C467" s="29"/>
+      <c r="D467" s="30"/>
+      <c r="E467" s="31"/>
+      <c r="F467" s="31"/>
+      <c r="G467" s="31"/>
+      <c r="H467" s="31"/>
+      <c r="I467" s="31"/>
+      <c r="J467" s="31"/>
+      <c r="K467" s="31"/>
+      <c r="L467" s="31"/>
+      <c r="M467" s="31"/>
+      <c r="N467" s="31"/>
+      <c r="O467" s="31"/>
+      <c r="P467" s="31"/>
+      <c r="Q467" s="31"/>
+      <c r="R467" s="31"/>
+      <c r="S467" s="31"/>
+      <c r="T467" s="31"/>
+      <c r="U467" s="31"/>
+      <c r="V467" s="31"/>
+      <c r="W467" s="31"/>
+      <c r="X467" s="31"/>
+      <c r="Y467" s="31"/>
+      <c r="Z467" s="31"/>
+      <c r="AA467" s="31"/>
+      <c r="AB467" s="37"/>
+    </row>
+    <row r="468" spans="2:28">
+      <c r="B468" s="28"/>
+      <c r="C468" s="29"/>
+      <c r="D468" s="30"/>
+      <c r="E468" s="31"/>
+      <c r="F468" s="31"/>
+      <c r="G468" s="31"/>
+      <c r="H468" s="31"/>
+      <c r="I468" s="31"/>
+      <c r="J468" s="31"/>
+      <c r="K468" s="31"/>
+      <c r="L468" s="31"/>
+      <c r="M468" s="31"/>
+      <c r="N468" s="31"/>
+      <c r="O468" s="31"/>
+      <c r="P468" s="31"/>
+      <c r="Q468" s="31"/>
+      <c r="R468" s="31"/>
+      <c r="S468" s="31"/>
+      <c r="T468" s="31"/>
+      <c r="U468" s="31"/>
+      <c r="V468" s="31"/>
+      <c r="W468" s="31"/>
+      <c r="X468" s="31"/>
+      <c r="Y468" s="31"/>
+      <c r="Z468" s="31"/>
+      <c r="AA468" s="31"/>
+      <c r="AB468" s="37"/>
+    </row>
+    <row r="469" spans="2:28">
+      <c r="B469" s="28"/>
+      <c r="C469" s="29"/>
+      <c r="D469" s="30"/>
+      <c r="E469" s="31"/>
+      <c r="F469" s="31"/>
+      <c r="G469" s="31"/>
+      <c r="H469" s="31"/>
+      <c r="I469" s="31"/>
+      <c r="J469" s="31"/>
+      <c r="K469" s="31"/>
+      <c r="L469" s="31"/>
+      <c r="M469" s="31"/>
+      <c r="N469" s="31"/>
+      <c r="O469" s="31"/>
+      <c r="P469" s="31"/>
+      <c r="Q469" s="31"/>
+      <c r="R469" s="31"/>
+      <c r="S469" s="31"/>
+      <c r="T469" s="31"/>
+      <c r="U469" s="31"/>
+      <c r="V469" s="31"/>
+      <c r="W469" s="31"/>
+      <c r="X469" s="31"/>
+      <c r="Y469" s="31"/>
+      <c r="Z469" s="31"/>
+      <c r="AA469" s="31"/>
+      <c r="AB469" s="37"/>
+    </row>
+    <row r="470" spans="2:28">
+      <c r="B470" s="28"/>
+      <c r="C470" s="29"/>
+      <c r="D470" s="30"/>
+      <c r="E470" s="31"/>
+      <c r="F470" s="31"/>
+      <c r="G470" s="31"/>
+      <c r="H470" s="31"/>
+      <c r="I470" s="31"/>
+      <c r="J470" s="31"/>
+      <c r="K470" s="31"/>
+      <c r="L470" s="31"/>
+      <c r="M470" s="31"/>
+      <c r="N470" s="31"/>
+      <c r="O470" s="31"/>
+      <c r="P470" s="31"/>
+      <c r="Q470" s="31"/>
+      <c r="R470" s="31"/>
+      <c r="S470" s="31"/>
+      <c r="T470" s="31"/>
+      <c r="U470" s="31"/>
+      <c r="V470" s="31"/>
+      <c r="W470" s="31"/>
+      <c r="X470" s="31"/>
+      <c r="Y470" s="31"/>
+      <c r="Z470" s="31"/>
+      <c r="AA470" s="31"/>
+      <c r="AB470" s="37"/>
+    </row>
+    <row r="471" spans="2:28">
+      <c r="B471" s="28"/>
+      <c r="C471" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D471" s="30"/>
+      <c r="E471" s="31"/>
+      <c r="F471" s="31"/>
+      <c r="G471" s="31"/>
+      <c r="H471" s="31"/>
+      <c r="I471" s="31"/>
+      <c r="J471" s="31"/>
+      <c r="K471" s="31"/>
+      <c r="L471" s="31"/>
+      <c r="M471" s="31"/>
+      <c r="N471" s="31"/>
+      <c r="O471" s="31"/>
+      <c r="P471" s="31"/>
+      <c r="Q471" s="31"/>
+      <c r="R471" s="31"/>
+      <c r="S471" s="31"/>
+      <c r="T471" s="31"/>
+      <c r="U471" s="31"/>
+      <c r="V471" s="31"/>
+      <c r="W471" s="31"/>
+      <c r="X471" s="31"/>
+      <c r="Y471" s="31"/>
+      <c r="Z471" s="31"/>
+      <c r="AA471" s="31"/>
+      <c r="AB471" s="37"/>
+    </row>
+    <row r="472" spans="2:28">
+      <c r="B472" s="28"/>
+      <c r="C472" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D472" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E472" s="31"/>
+      <c r="F472" s="31"/>
+      <c r="G472" s="31"/>
+      <c r="H472" s="31"/>
+      <c r="I472" s="31"/>
+      <c r="J472" s="31"/>
+      <c r="K472" s="31"/>
+      <c r="L472" s="31"/>
+      <c r="M472" s="31"/>
+      <c r="N472" s="31"/>
+      <c r="O472" s="31"/>
+      <c r="P472" s="31"/>
+      <c r="Q472" s="31"/>
+      <c r="R472" s="31"/>
+      <c r="S472" s="31"/>
+      <c r="T472" s="31"/>
+      <c r="U472" s="31"/>
+      <c r="V472" s="31"/>
+      <c r="W472" s="31"/>
+      <c r="X472" s="31"/>
+      <c r="Y472" s="31"/>
+      <c r="Z472" s="31"/>
+      <c r="AA472" s="31"/>
+      <c r="AB472" s="37"/>
+    </row>
+    <row r="473" spans="2:28">
+      <c r="B473" s="28"/>
+      <c r="C473" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D473" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E473" s="31"/>
+      <c r="F473" s="31"/>
+      <c r="G473" s="31"/>
+      <c r="H473" s="31"/>
+      <c r="I473" s="31"/>
+      <c r="J473" s="31"/>
+      <c r="K473" s="31"/>
+      <c r="L473" s="31"/>
+      <c r="M473" s="31"/>
+      <c r="N473" s="31"/>
+      <c r="O473" s="31"/>
+      <c r="P473" s="31"/>
+      <c r="Q473" s="31"/>
+      <c r="R473" s="31"/>
+      <c r="S473" s="31"/>
+      <c r="T473" s="31"/>
+      <c r="U473" s="31"/>
+      <c r="V473" s="31"/>
+      <c r="W473" s="31"/>
+      <c r="X473" s="31"/>
+      <c r="Y473" s="31"/>
+      <c r="Z473" s="31"/>
+      <c r="AA473" s="31"/>
+      <c r="AB473" s="37"/>
+    </row>
+    <row r="474" spans="2:28">
+      <c r="B474" s="28"/>
+      <c r="C474" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D474" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E474" s="31"/>
+      <c r="F474" s="31"/>
+      <c r="G474" s="31"/>
+      <c r="H474" s="31"/>
+      <c r="I474" s="31"/>
+      <c r="J474" s="31"/>
+      <c r="K474" s="31"/>
+      <c r="L474" s="31"/>
+      <c r="M474" s="31"/>
+      <c r="N474" s="31"/>
+      <c r="O474" s="31"/>
+      <c r="P474" s="31"/>
+      <c r="Q474" s="31"/>
+      <c r="R474" s="31"/>
+      <c r="S474" s="31"/>
+      <c r="T474" s="31"/>
+      <c r="U474" s="31"/>
+      <c r="V474" s="31"/>
+      <c r="W474" s="31"/>
+      <c r="X474" s="31"/>
+      <c r="Y474" s="31"/>
+      <c r="Z474" s="31"/>
+      <c r="AA474" s="31"/>
+      <c r="AB474" s="37"/>
+    </row>
+    <row r="475" spans="2:28">
+      <c r="B475" s="28"/>
+      <c r="C475" s="29"/>
+      <c r="D475" s="30"/>
+      <c r="E475" s="31"/>
+      <c r="F475" s="31"/>
+      <c r="G475" s="31"/>
+      <c r="H475" s="31"/>
+      <c r="I475" s="31"/>
+      <c r="J475" s="31"/>
+      <c r="K475" s="31"/>
+      <c r="L475" s="31"/>
+      <c r="M475" s="31"/>
+      <c r="N475" s="31"/>
+      <c r="O475" s="31"/>
+      <c r="P475" s="31"/>
+      <c r="Q475" s="31"/>
+      <c r="R475" s="31"/>
+      <c r="S475" s="31"/>
+      <c r="T475" s="31"/>
+      <c r="U475" s="31"/>
+      <c r="V475" s="31"/>
+      <c r="W475" s="31"/>
+      <c r="X475" s="31"/>
+      <c r="Y475" s="31"/>
+      <c r="Z475" s="31"/>
+      <c r="AA475" s="31"/>
+      <c r="AB475" s="37"/>
+    </row>
+    <row r="476" spans="2:28">
+      <c r="B476" s="28"/>
+      <c r="C476" s="29"/>
+      <c r="D476" s="30"/>
+      <c r="E476" s="31"/>
+      <c r="F476" s="31"/>
+      <c r="G476" s="31"/>
+      <c r="H476" s="31"/>
+      <c r="I476" s="31"/>
+      <c r="J476" s="31"/>
+      <c r="K476" s="31"/>
+      <c r="L476" s="31"/>
+      <c r="M476" s="31"/>
+      <c r="N476" s="31"/>
+      <c r="O476" s="31"/>
+      <c r="P476" s="31"/>
+      <c r="Q476" s="31"/>
+      <c r="R476" s="31"/>
+      <c r="S476" s="31"/>
+      <c r="T476" s="31"/>
+      <c r="U476" s="31"/>
+      <c r="V476" s="31"/>
+      <c r="W476" s="31"/>
+      <c r="X476" s="31"/>
+      <c r="Y476" s="31"/>
+      <c r="Z476" s="31"/>
+      <c r="AA476" s="31"/>
+      <c r="AB476" s="37"/>
+    </row>
+    <row r="477" spans="2:28">
+      <c r="B477" s="28"/>
+      <c r="C477" s="29"/>
+      <c r="D477" s="30"/>
+      <c r="E477" s="31"/>
+      <c r="F477" s="31"/>
+      <c r="G477" s="31"/>
+      <c r="H477" s="31"/>
+      <c r="I477" s="31"/>
+      <c r="J477" s="31"/>
+      <c r="K477" s="31"/>
+      <c r="L477" s="31"/>
+      <c r="M477" s="31"/>
+      <c r="N477" s="31"/>
+      <c r="O477" s="31"/>
+      <c r="P477" s="31"/>
+      <c r="Q477" s="31"/>
+      <c r="R477" s="31"/>
+      <c r="S477" s="31"/>
+      <c r="T477" s="31"/>
+      <c r="U477" s="31"/>
+      <c r="V477" s="31"/>
+      <c r="W477" s="31"/>
+      <c r="X477" s="31"/>
+      <c r="Y477" s="31"/>
+      <c r="Z477" s="31"/>
+      <c r="AA477" s="31"/>
+      <c r="AB477" s="37"/>
+    </row>
+    <row r="478" spans="2:28">
+      <c r="B478" s="28"/>
+      <c r="C478" s="29"/>
+      <c r="D478" s="30"/>
+      <c r="E478" s="31"/>
+      <c r="F478" s="31"/>
+      <c r="G478" s="31"/>
+      <c r="H478" s="31"/>
+      <c r="I478" s="31"/>
+      <c r="J478" s="31"/>
+      <c r="K478" s="31"/>
+      <c r="L478" s="31"/>
+      <c r="M478" s="31"/>
+      <c r="N478" s="31"/>
+      <c r="O478" s="31"/>
+      <c r="P478" s="31"/>
+      <c r="Q478" s="31"/>
+      <c r="R478" s="31"/>
+      <c r="S478" s="31"/>
+      <c r="T478" s="31"/>
+      <c r="U478" s="31"/>
+      <c r="V478" s="31"/>
+      <c r="W478" s="31"/>
+      <c r="X478" s="31"/>
+      <c r="Y478" s="31"/>
+      <c r="Z478" s="31"/>
+      <c r="AA478" s="31"/>
+      <c r="AB478" s="37"/>
+    </row>
+    <row r="479" spans="2:28">
+      <c r="B479" s="28"/>
+      <c r="C479" s="29"/>
+      <c r="D479" s="30"/>
+      <c r="E479" s="31"/>
+      <c r="F479" s="31"/>
+      <c r="G479" s="31"/>
+      <c r="H479" s="31"/>
+      <c r="I479" s="31"/>
+      <c r="J479" s="31"/>
+      <c r="K479" s="31"/>
+      <c r="L479" s="31"/>
+      <c r="M479" s="31"/>
+      <c r="N479" s="31"/>
+      <c r="O479" s="31"/>
+      <c r="P479" s="31"/>
+      <c r="Q479" s="31"/>
+      <c r="R479" s="31"/>
+      <c r="S479" s="31"/>
+      <c r="T479" s="31"/>
+      <c r="U479" s="31"/>
+      <c r="V479" s="31"/>
+      <c r="W479" s="31"/>
+      <c r="X479" s="31"/>
+      <c r="Y479" s="31"/>
+      <c r="Z479" s="31"/>
+      <c r="AA479" s="31"/>
+      <c r="AB479" s="37"/>
+    </row>
+    <row r="480" spans="2:28">
+      <c r="B480" s="28"/>
+      <c r="C480" s="29"/>
+      <c r="D480" s="30"/>
+      <c r="E480" s="31"/>
+      <c r="F480" s="31"/>
+      <c r="G480" s="31"/>
+      <c r="H480" s="31"/>
+      <c r="I480" s="31"/>
+      <c r="J480" s="31"/>
+      <c r="K480" s="31"/>
+      <c r="L480" s="31"/>
+      <c r="M480" s="31"/>
+      <c r="N480" s="31"/>
+      <c r="O480" s="31"/>
+      <c r="P480" s="31"/>
+      <c r="Q480" s="31"/>
+      <c r="R480" s="31"/>
+      <c r="S480" s="31"/>
+      <c r="T480" s="31"/>
+      <c r="U480" s="31"/>
+      <c r="V480" s="31"/>
+      <c r="W480" s="31"/>
+      <c r="X480" s="31"/>
+      <c r="Y480" s="31"/>
+      <c r="Z480" s="31"/>
+      <c r="AA480" s="31"/>
+      <c r="AB480" s="37"/>
+    </row>
+    <row r="481" spans="2:28">
+      <c r="B481" s="28"/>
+      <c r="C481" s="29"/>
+      <c r="D481" s="30"/>
+      <c r="E481" s="31"/>
+      <c r="F481" s="31"/>
+      <c r="G481" s="31"/>
+      <c r="H481" s="31"/>
+      <c r="I481" s="31"/>
+      <c r="J481" s="31"/>
+      <c r="K481" s="31"/>
+      <c r="L481" s="31"/>
+      <c r="M481" s="31"/>
+      <c r="N481" s="31"/>
+      <c r="O481" s="31"/>
+      <c r="P481" s="31"/>
+      <c r="Q481" s="31"/>
+      <c r="R481" s="31"/>
+      <c r="S481" s="31"/>
+      <c r="T481" s="31"/>
+      <c r="U481" s="31"/>
+      <c r="V481" s="31"/>
+      <c r="W481" s="31"/>
+      <c r="X481" s="31"/>
+      <c r="Y481" s="31"/>
+      <c r="Z481" s="31"/>
+      <c r="AA481" s="31"/>
+      <c r="AB481" s="37"/>
+    </row>
+    <row r="482" spans="2:28">
+      <c r="B482" s="28"/>
+      <c r="C482" s="29"/>
+      <c r="D482" s="30"/>
+      <c r="E482" s="31"/>
+      <c r="F482" s="31"/>
+      <c r="G482" s="31"/>
+      <c r="H482" s="31"/>
+      <c r="I482" s="31"/>
+      <c r="J482" s="31"/>
+      <c r="K482" s="31"/>
+      <c r="L482" s="31"/>
+      <c r="M482" s="31"/>
+      <c r="N482" s="31"/>
+      <c r="O482" s="31"/>
+      <c r="P482" s="31"/>
+      <c r="Q482" s="31"/>
+      <c r="R482" s="31"/>
+      <c r="S482" s="31"/>
+      <c r="T482" s="31"/>
+      <c r="U482" s="31"/>
+      <c r="V482" s="31"/>
+      <c r="W482" s="31"/>
+      <c r="X482" s="31"/>
+      <c r="Y482" s="31"/>
+      <c r="Z482" s="31"/>
+      <c r="AA482" s="31"/>
+      <c r="AB482" s="37"/>
+    </row>
+    <row r="483" spans="2:28">
+      <c r="B483" s="28"/>
+      <c r="C483" s="29"/>
+      <c r="D483" s="30"/>
+      <c r="E483" s="31"/>
+      <c r="F483" s="31"/>
+      <c r="G483" s="31"/>
+      <c r="H483" s="31"/>
+      <c r="I483" s="31"/>
+      <c r="J483" s="31"/>
+      <c r="K483" s="31"/>
+      <c r="L483" s="31"/>
+      <c r="M483" s="31"/>
+      <c r="N483" s="31"/>
+      <c r="O483" s="31"/>
+      <c r="P483" s="31"/>
+      <c r="Q483" s="31"/>
+      <c r="R483" s="31"/>
+      <c r="S483" s="31"/>
+      <c r="T483" s="31"/>
+      <c r="U483" s="31"/>
+      <c r="V483" s="31"/>
+      <c r="W483" s="31"/>
+      <c r="X483" s="31"/>
+      <c r="Y483" s="31"/>
+      <c r="Z483" s="31"/>
+      <c r="AA483" s="31"/>
+      <c r="AB483" s="37"/>
+    </row>
+    <row r="484" spans="2:28">
+      <c r="B484" s="28"/>
+      <c r="C484" s="29"/>
+      <c r="D484" s="30"/>
+      <c r="E484" s="31"/>
+      <c r="F484" s="31"/>
+      <c r="G484" s="31"/>
+      <c r="H484" s="31"/>
+      <c r="I484" s="31"/>
+      <c r="J484" s="31"/>
+      <c r="K484" s="31"/>
+      <c r="L484" s="31"/>
+      <c r="M484" s="31"/>
+      <c r="N484" s="31"/>
+      <c r="O484" s="31"/>
+      <c r="P484" s="31"/>
+      <c r="Q484" s="31"/>
+      <c r="R484" s="31"/>
+      <c r="S484" s="31"/>
+      <c r="T484" s="31"/>
+      <c r="U484" s="31"/>
+      <c r="V484" s="31"/>
+      <c r="W484" s="31"/>
+      <c r="X484" s="31"/>
+      <c r="Y484" s="31"/>
+      <c r="Z484" s="31"/>
+      <c r="AA484" s="31"/>
+      <c r="AB484" s="37"/>
+    </row>
+    <row r="485" spans="2:28">
+      <c r="B485" s="28"/>
+      <c r="C485" s="29"/>
+      <c r="D485" s="30"/>
+      <c r="E485" s="31"/>
+      <c r="F485" s="31"/>
+      <c r="G485" s="31"/>
+      <c r="H485" s="31"/>
+      <c r="I485" s="31"/>
+      <c r="J485" s="31"/>
+      <c r="K485" s="31"/>
+      <c r="L485" s="31"/>
+      <c r="M485" s="31"/>
+      <c r="N485" s="31"/>
+      <c r="O485" s="31"/>
+      <c r="P485" s="31"/>
+      <c r="Q485" s="31"/>
+      <c r="R485" s="31"/>
+      <c r="S485" s="31"/>
+      <c r="T485" s="31"/>
+      <c r="U485" s="31"/>
+      <c r="V485" s="31"/>
+      <c r="W485" s="31"/>
+      <c r="X485" s="31"/>
+      <c r="Y485" s="31"/>
+      <c r="Z485" s="31"/>
+      <c r="AA485" s="31"/>
+      <c r="AB485" s="37"/>
+    </row>
+    <row r="486" spans="2:28">
+      <c r="B486" s="28"/>
+      <c r="C486" s="29"/>
+      <c r="D486" s="30"/>
+      <c r="E486" s="31"/>
+      <c r="F486" s="31"/>
+      <c r="G486" s="31"/>
+      <c r="H486" s="31"/>
+      <c r="I486" s="31"/>
+      <c r="J486" s="31"/>
+      <c r="K486" s="31"/>
+      <c r="L486" s="31"/>
+      <c r="M486" s="31"/>
+      <c r="N486" s="31"/>
+      <c r="O486" s="31"/>
+      <c r="P486" s="31"/>
+      <c r="Q486" s="31"/>
+      <c r="R486" s="31"/>
+      <c r="S486" s="31"/>
+      <c r="T486" s="31"/>
+      <c r="U486" s="31"/>
+      <c r="V486" s="31"/>
+      <c r="W486" s="31"/>
+      <c r="X486" s="31"/>
+      <c r="Y486" s="31"/>
+      <c r="Z486" s="31"/>
+      <c r="AA486" s="31"/>
+      <c r="AB486" s="37"/>
+    </row>
+    <row r="487" spans="2:28">
+      <c r="B487" s="28"/>
+      <c r="C487" s="29"/>
+      <c r="D487" s="30"/>
+      <c r="E487" s="31"/>
+      <c r="F487" s="31"/>
+      <c r="G487" s="31"/>
+      <c r="H487" s="31"/>
+      <c r="I487" s="31"/>
+      <c r="J487" s="31"/>
+      <c r="K487" s="31"/>
+      <c r="L487" s="31"/>
+      <c r="M487" s="31"/>
+      <c r="N487" s="31"/>
+      <c r="O487" s="31"/>
+      <c r="P487" s="31"/>
+      <c r="Q487" s="31"/>
+      <c r="R487" s="31"/>
+      <c r="S487" s="31"/>
+      <c r="T487" s="31"/>
+      <c r="U487" s="31"/>
+      <c r="V487" s="31"/>
+      <c r="W487" s="31"/>
+      <c r="X487" s="31"/>
+      <c r="Y487" s="31"/>
+      <c r="Z487" s="31"/>
+      <c r="AA487" s="31"/>
+      <c r="AB487" s="37"/>
+    </row>
+    <row r="488" spans="2:28">
+      <c r="B488" s="28"/>
+      <c r="C488" s="29"/>
+      <c r="D488" s="30"/>
+      <c r="E488" s="31"/>
+      <c r="F488" s="31"/>
+      <c r="G488" s="31"/>
+      <c r="H488" s="31"/>
+      <c r="I488" s="31"/>
+      <c r="J488" s="31"/>
+      <c r="K488" s="31"/>
+      <c r="L488" s="31"/>
+      <c r="M488" s="31"/>
+      <c r="N488" s="31"/>
+      <c r="O488" s="31"/>
+      <c r="P488" s="31"/>
+      <c r="Q488" s="31"/>
+      <c r="R488" s="31"/>
+      <c r="S488" s="31"/>
+      <c r="T488" s="31"/>
+      <c r="U488" s="31"/>
+      <c r="V488" s="31"/>
+      <c r="W488" s="31"/>
+      <c r="X488" s="31"/>
+      <c r="Y488" s="31"/>
+      <c r="Z488" s="31"/>
+      <c r="AA488" s="31"/>
+      <c r="AB488" s="37"/>
+    </row>
+    <row r="489" spans="2:28">
+      <c r="B489" s="28"/>
+      <c r="C489" s="29"/>
+      <c r="D489" s="30"/>
+      <c r="E489" s="31"/>
+      <c r="F489" s="31"/>
+      <c r="G489" s="31"/>
+      <c r="H489" s="31"/>
+      <c r="I489" s="31"/>
+      <c r="J489" s="31"/>
+      <c r="K489" s="31"/>
+      <c r="L489" s="31"/>
+      <c r="M489" s="31"/>
+      <c r="N489" s="31"/>
+      <c r="O489" s="31"/>
+      <c r="P489" s="31"/>
+      <c r="Q489" s="31"/>
+      <c r="R489" s="31"/>
+      <c r="S489" s="31"/>
+      <c r="T489" s="31"/>
+      <c r="U489" s="31"/>
+      <c r="V489" s="31"/>
+      <c r="W489" s="31"/>
+      <c r="X489" s="31"/>
+      <c r="Y489" s="31"/>
+      <c r="Z489" s="31"/>
+      <c r="AA489" s="31"/>
+      <c r="AB489" s="37"/>
+    </row>
+    <row r="490" spans="2:28">
+      <c r="B490" s="28"/>
+      <c r="C490" s="29"/>
+      <c r="D490" s="30"/>
+      <c r="E490" s="31"/>
+      <c r="F490" s="31"/>
+      <c r="G490" s="31"/>
+      <c r="H490" s="31"/>
+      <c r="I490" s="31"/>
+      <c r="J490" s="31"/>
+      <c r="K490" s="31"/>
+      <c r="L490" s="31"/>
+      <c r="M490" s="31"/>
+      <c r="N490" s="31"/>
+      <c r="O490" s="31"/>
+      <c r="P490" s="31"/>
+      <c r="Q490" s="31"/>
+      <c r="R490" s="31"/>
+      <c r="S490" s="31"/>
+      <c r="T490" s="31"/>
+      <c r="U490" s="31"/>
+      <c r="V490" s="31"/>
+      <c r="W490" s="31"/>
+      <c r="X490" s="31"/>
+      <c r="Y490" s="31"/>
+      <c r="Z490" s="31"/>
+      <c r="AA490" s="31"/>
+      <c r="AB490" s="37"/>
+    </row>
+    <row r="491" spans="2:28">
+      <c r="B491" s="28"/>
+      <c r="C491" s="29"/>
+      <c r="D491" s="30"/>
+      <c r="E491" s="31"/>
+      <c r="F491" s="31"/>
+      <c r="G491" s="31"/>
+      <c r="H491" s="31"/>
+      <c r="I491" s="31"/>
+      <c r="J491" s="31"/>
+      <c r="K491" s="31"/>
+      <c r="L491" s="31"/>
+      <c r="M491" s="31"/>
+      <c r="N491" s="31"/>
+      <c r="O491" s="31"/>
+      <c r="P491" s="31"/>
+      <c r="Q491" s="31"/>
+      <c r="R491" s="31"/>
+      <c r="S491" s="31"/>
+      <c r="T491" s="31"/>
+      <c r="U491" s="31"/>
+      <c r="V491" s="31"/>
+      <c r="W491" s="31"/>
+      <c r="X491" s="31"/>
+      <c r="Y491" s="31"/>
+      <c r="Z491" s="31"/>
+      <c r="AA491" s="31"/>
+      <c r="AB491" s="37"/>
+    </row>
+    <row r="492" spans="2:28">
+      <c r="B492" s="28"/>
+      <c r="C492" s="29"/>
+      <c r="D492" s="30"/>
+      <c r="E492" s="31"/>
+      <c r="F492" s="31"/>
+      <c r="G492" s="31"/>
+      <c r="H492" s="31"/>
+      <c r="I492" s="31"/>
+      <c r="J492" s="31"/>
+      <c r="K492" s="31"/>
+      <c r="L492" s="31"/>
+      <c r="M492" s="31"/>
+      <c r="N492" s="31"/>
+      <c r="O492" s="31"/>
+      <c r="P492" s="31"/>
+      <c r="Q492" s="31"/>
+      <c r="R492" s="31"/>
+      <c r="S492" s="31"/>
+      <c r="T492" s="31"/>
+      <c r="U492" s="31"/>
+      <c r="V492" s="31"/>
+      <c r="W492" s="31"/>
+      <c r="X492" s="31"/>
+      <c r="Y492" s="31"/>
+      <c r="Z492" s="31"/>
+      <c r="AA492" s="31"/>
+      <c r="AB492" s="37"/>
+    </row>
+    <row r="493" spans="2:28">
+      <c r="B493" s="28"/>
+      <c r="C493" s="29"/>
+      <c r="D493" s="30"/>
+      <c r="E493" s="31"/>
+      <c r="F493" s="31"/>
+      <c r="G493" s="31"/>
+      <c r="H493" s="31"/>
+      <c r="I493" s="31"/>
+      <c r="J493" s="31"/>
+      <c r="K493" s="31"/>
+      <c r="L493" s="31"/>
+      <c r="M493" s="31"/>
+      <c r="N493" s="31"/>
+      <c r="O493" s="31"/>
+      <c r="P493" s="31"/>
+      <c r="Q493" s="31"/>
+      <c r="R493" s="31"/>
+      <c r="S493" s="31"/>
+      <c r="T493" s="31"/>
+      <c r="U493" s="31"/>
+      <c r="V493" s="31"/>
+      <c r="W493" s="31"/>
+      <c r="X493" s="31"/>
+      <c r="Y493" s="31"/>
+      <c r="Z493" s="31"/>
+      <c r="AA493" s="31"/>
+      <c r="AB493" s="37"/>
+    </row>
+    <row r="494" spans="2:28">
+      <c r="B494" s="28"/>
+      <c r="C494" s="29"/>
+      <c r="D494" s="30"/>
+      <c r="E494" s="31"/>
+      <c r="F494" s="31"/>
+      <c r="G494" s="31"/>
+      <c r="H494" s="31"/>
+      <c r="I494" s="31"/>
+      <c r="J494" s="31"/>
+      <c r="K494" s="31"/>
+      <c r="L494" s="31"/>
+      <c r="M494" s="31"/>
+      <c r="N494" s="31"/>
+      <c r="O494" s="31"/>
+      <c r="P494" s="31"/>
+      <c r="Q494" s="31"/>
+      <c r="R494" s="31"/>
+      <c r="S494" s="31"/>
+      <c r="T494" s="31"/>
+      <c r="U494" s="31"/>
+      <c r="V494" s="31"/>
+      <c r="W494" s="31"/>
+      <c r="X494" s="31"/>
+      <c r="Y494" s="31"/>
+      <c r="Z494" s="31"/>
+      <c r="AA494" s="31"/>
+      <c r="AB494" s="37"/>
+    </row>
+    <row r="495" spans="2:28">
+      <c r="B495" s="28"/>
+      <c r="C495" s="29"/>
+      <c r="D495" s="30"/>
+      <c r="E495" s="31"/>
+      <c r="F495" s="31"/>
+      <c r="G495" s="31"/>
+      <c r="H495" s="31"/>
+      <c r="I495" s="31"/>
+      <c r="J495" s="31"/>
+      <c r="K495" s="31"/>
+      <c r="L495" s="31"/>
+      <c r="M495" s="31"/>
+      <c r="N495" s="31"/>
+      <c r="O495" s="31"/>
+      <c r="P495" s="31"/>
+      <c r="Q495" s="31"/>
+      <c r="R495" s="31"/>
+      <c r="S495" s="31"/>
+      <c r="T495" s="31"/>
+      <c r="U495" s="31"/>
+      <c r="V495" s="31"/>
+      <c r="W495" s="31"/>
+      <c r="X495" s="31"/>
+      <c r="Y495" s="31"/>
+      <c r="Z495" s="31"/>
+      <c r="AA495" s="31"/>
+      <c r="AB495" s="37"/>
+    </row>
+    <row r="496" spans="2:28">
+      <c r="B496" s="28"/>
+      <c r="C496" s="29"/>
+      <c r="D496" s="30"/>
+      <c r="E496" s="31"/>
+      <c r="F496" s="31"/>
+      <c r="G496" s="31"/>
+      <c r="H496" s="31"/>
+      <c r="I496" s="31"/>
+      <c r="J496" s="31"/>
+      <c r="K496" s="31"/>
+      <c r="L496" s="31"/>
+      <c r="M496" s="31"/>
+      <c r="N496" s="31"/>
+      <c r="O496" s="31"/>
+      <c r="P496" s="31"/>
+      <c r="Q496" s="31"/>
+      <c r="R496" s="31"/>
+      <c r="S496" s="31"/>
+      <c r="T496" s="31"/>
+      <c r="U496" s="31"/>
+      <c r="V496" s="31"/>
+      <c r="W496" s="31"/>
+      <c r="X496" s="31"/>
+      <c r="Y496" s="31"/>
+      <c r="Z496" s="31"/>
+      <c r="AA496" s="31"/>
+      <c r="AB496" s="37"/>
+    </row>
+    <row r="497" spans="2:28">
+      <c r="B497" s="28"/>
+      <c r="C497" s="29"/>
+      <c r="D497" s="30"/>
+      <c r="E497" s="31"/>
+      <c r="F497" s="31"/>
+      <c r="G497" s="31"/>
+      <c r="H497" s="31"/>
+      <c r="I497" s="31"/>
+      <c r="J497" s="31"/>
+      <c r="K497" s="31"/>
+      <c r="L497" s="31"/>
+      <c r="M497" s="31"/>
+      <c r="N497" s="31"/>
+      <c r="O497" s="31"/>
+      <c r="P497" s="31"/>
+      <c r="Q497" s="31"/>
+      <c r="R497" s="31"/>
+      <c r="S497" s="31"/>
+      <c r="T497" s="31"/>
+      <c r="U497" s="31"/>
+      <c r="V497" s="31"/>
+      <c r="W497" s="31"/>
+      <c r="X497" s="31"/>
+      <c r="Y497" s="31"/>
+      <c r="Z497" s="31"/>
+      <c r="AA497" s="31"/>
+      <c r="AB497" s="37"/>
+    </row>
+    <row r="498" spans="2:28">
+      <c r="B498" s="28"/>
+      <c r="C498" s="29"/>
+      <c r="D498" s="30"/>
+      <c r="E498" s="31"/>
+      <c r="F498" s="31"/>
+      <c r="G498" s="31"/>
+      <c r="H498" s="31"/>
+      <c r="I498" s="31"/>
+      <c r="J498" s="31"/>
+      <c r="K498" s="31"/>
+      <c r="L498" s="31"/>
+      <c r="M498" s="31"/>
+      <c r="N498" s="31"/>
+      <c r="O498" s="31"/>
+      <c r="P498" s="31"/>
+      <c r="Q498" s="31"/>
+      <c r="R498" s="31"/>
+      <c r="S498" s="31"/>
+      <c r="T498" s="31"/>
+      <c r="U498" s="31"/>
+      <c r="V498" s="31"/>
+      <c r="W498" s="31"/>
+      <c r="X498" s="31"/>
+      <c r="Y498" s="31"/>
+      <c r="Z498" s="31"/>
+      <c r="AA498" s="31"/>
+      <c r="AB498" s="37"/>
+    </row>
+    <row r="499" spans="2:28">
+      <c r="B499" s="28"/>
+      <c r="C499" s="29"/>
+      <c r="D499" s="30"/>
+      <c r="E499" s="31"/>
+      <c r="F499" s="31"/>
+      <c r="G499" s="31"/>
+      <c r="H499" s="31"/>
+      <c r="I499" s="31"/>
+      <c r="J499" s="31"/>
+      <c r="K499" s="31"/>
+      <c r="L499" s="31"/>
+      <c r="M499" s="31"/>
+      <c r="N499" s="31"/>
+      <c r="O499" s="31"/>
+      <c r="P499" s="31"/>
+      <c r="Q499" s="31"/>
+      <c r="R499" s="31"/>
+      <c r="S499" s="31"/>
+      <c r="T499" s="31"/>
+      <c r="U499" s="31"/>
+      <c r="V499" s="31"/>
+      <c r="W499" s="31"/>
+      <c r="X499" s="31"/>
+      <c r="Y499" s="31"/>
+      <c r="Z499" s="31"/>
+      <c r="AA499" s="31"/>
+      <c r="AB499" s="37"/>
+    </row>
+    <row r="500" spans="2:28">
+      <c r="B500" s="28"/>
+      <c r="C500" s="29"/>
+      <c r="D500" s="30"/>
+      <c r="E500" s="31"/>
+      <c r="F500" s="31"/>
+      <c r="G500" s="31"/>
+      <c r="H500" s="31"/>
+      <c r="I500" s="31"/>
+      <c r="J500" s="31"/>
+      <c r="K500" s="31"/>
+      <c r="L500" s="31"/>
+      <c r="M500" s="31"/>
+      <c r="N500" s="31"/>
+      <c r="O500" s="31"/>
+      <c r="P500" s="31"/>
+      <c r="Q500" s="31"/>
+      <c r="R500" s="31"/>
+      <c r="S500" s="31"/>
+      <c r="T500" s="31"/>
+      <c r="U500" s="31"/>
+      <c r="V500" s="31"/>
+      <c r="W500" s="31"/>
+      <c r="X500" s="31"/>
+      <c r="Y500" s="31"/>
+      <c r="Z500" s="31"/>
+      <c r="AA500" s="31"/>
+      <c r="AB500" s="37"/>
+    </row>
+    <row r="501" spans="2:28">
+      <c r="B501" s="28"/>
+      <c r="C501" s="29"/>
+      <c r="D501" s="30"/>
+      <c r="E501" s="31"/>
+      <c r="F501" s="31"/>
+      <c r="G501" s="31"/>
+      <c r="H501" s="31"/>
+      <c r="I501" s="31"/>
+      <c r="J501" s="31"/>
+      <c r="K501" s="31"/>
+      <c r="L501" s="31"/>
+      <c r="M501" s="31"/>
+      <c r="N501" s="31"/>
+      <c r="O501" s="31"/>
+      <c r="P501" s="31"/>
+      <c r="Q501" s="31"/>
+      <c r="R501" s="31"/>
+      <c r="S501" s="31"/>
+      <c r="T501" s="31"/>
+      <c r="U501" s="31"/>
+      <c r="V501" s="31"/>
+      <c r="W501" s="31"/>
+      <c r="X501" s="31"/>
+      <c r="Y501" s="31"/>
+      <c r="Z501" s="31"/>
+      <c r="AA501" s="31"/>
+      <c r="AB501" s="37"/>
+    </row>
+    <row r="502" spans="2:28">
+      <c r="B502" s="28"/>
+      <c r="C502" s="29"/>
+      <c r="D502" s="30"/>
+      <c r="E502" s="31"/>
+      <c r="F502" s="31"/>
+      <c r="G502" s="31"/>
+      <c r="H502" s="31"/>
+      <c r="I502" s="31"/>
+      <c r="J502" s="31"/>
+      <c r="K502" s="31"/>
+      <c r="L502" s="31"/>
+      <c r="M502" s="31"/>
+      <c r="N502" s="31"/>
+      <c r="O502" s="31"/>
+      <c r="P502" s="31"/>
+      <c r="Q502" s="31"/>
+      <c r="R502" s="31"/>
+      <c r="S502" s="31"/>
+      <c r="T502" s="31"/>
+      <c r="U502" s="31"/>
+      <c r="V502" s="31"/>
+      <c r="W502" s="31"/>
+      <c r="X502" s="31"/>
+      <c r="Y502" s="31"/>
+      <c r="Z502" s="31"/>
+      <c r="AA502" s="31"/>
+      <c r="AB502" s="37"/>
+    </row>
+    <row r="503" spans="2:28">
+      <c r="B503" s="34"/>
+      <c r="C503" s="35"/>
+      <c r="D503" s="36"/>
+      <c r="E503" s="36"/>
+      <c r="F503" s="36"/>
+      <c r="G503" s="36"/>
+      <c r="H503" s="36"/>
+      <c r="I503" s="36"/>
+      <c r="J503" s="36"/>
+      <c r="K503" s="36"/>
+      <c r="L503" s="36"/>
+      <c r="M503" s="36"/>
+      <c r="N503" s="36"/>
+      <c r="O503" s="36"/>
+      <c r="P503" s="36"/>
+      <c r="Q503" s="36"/>
+      <c r="R503" s="36"/>
+      <c r="S503" s="36"/>
+      <c r="T503" s="36"/>
+      <c r="U503" s="36"/>
+      <c r="V503" s="36"/>
+      <c r="W503" s="36"/>
+      <c r="X503" s="36"/>
+      <c r="Y503" s="36"/>
+      <c r="Z503" s="36"/>
+      <c r="AA503" s="36"/>
+      <c r="AB503" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C458:H458"/>
     <mergeCell ref="B1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebApiWithAspDotNet6.xlsx
+++ b/WebApiWithAspDotNet6.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Chung" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Chung!$A$1:$AC$504</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Chung!$A$1:$AC$559</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>ASP.NET CORE API WEB APP (&gt;&lt;)</t>
   </si>
@@ -383,14 +383,20 @@
   <si>
     <t>System.IdentityModel.Tokens.Jwt</t>
   </si>
+  <si>
+    <t>1. Create TokenHandler class (Repository)</t>
+  </si>
+  <si>
+    <t>2. AuthController (using TokenHandler)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -457,6 +463,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -466,6 +480,68 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,69 +571,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,24 +592,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +652,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,13 +676,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +742,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,145 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,11 +937,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +991,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -979,47 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1031,7 +1037,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,134 +1055,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1259,21 +1265,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,9 +1275,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1376,17 +1364,59 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="13060680"/>
+          <a:ext cx="5943600" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>173990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>52705</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1396,7 +1426,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="502285" y="16739870"/>
+          <a:off x="502285" y="19368770"/>
           <a:ext cx="7265035" cy="1727835"/>
           <a:chOff x="782" y="26432"/>
           <a:chExt cx="11410" cy="2730"/>
@@ -1410,7 +1440,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId1"/>
+          <a:blip r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1506,7 +1536,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" r:link="rId3"/>
+        <a:blip r:embed="rId3" r:link="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1550,7 +1580,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" r:link="rId3"/>
+        <a:blip r:embed="rId5" r:link="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1575,13 +1605,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>26035</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1591,7 +1621,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="841375" y="42692955"/>
+          <a:off x="841375" y="45321855"/>
           <a:ext cx="1059815" cy="422910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1744,13 +1774,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>23495</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>40005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>217805</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1760,7 +1790,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="838835" y="41412795"/>
+          <a:off x="838835" y="44041695"/>
           <a:ext cx="1061085" cy="3056255"/>
           <a:chOff x="1309" y="28079"/>
           <a:chExt cx="1673" cy="4734"/>
@@ -2035,13 +2065,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>12065</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>70485</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2051,7 +2081,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3281680" y="41419780"/>
+          <a:off x="3281680" y="44048680"/>
           <a:ext cx="2598420" cy="3060065"/>
           <a:chOff x="4744" y="28090"/>
           <a:chExt cx="4099" cy="4740"/>
@@ -2942,60 +2972,18 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>20955</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>84455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="13116560"/>
-          <a:ext cx="7237730" cy="3007995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>78740</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>43180</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>107315</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3004,7 +2992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4234815" y="13239750"/>
+          <a:off x="4898390" y="13578205"/>
           <a:ext cx="383540" cy="389890"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3061,13 +3049,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3077,7 +3065,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5820410" y="17141190"/>
+          <a:off x="5820410" y="19770090"/>
           <a:ext cx="332105" cy="337820"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3233,13 +3221,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>315595</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>139065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>183515</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3257,7 +3245,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495935" y="31586805"/>
+          <a:off x="495935" y="34215705"/>
           <a:ext cx="5179695" cy="3645535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3275,13 +3263,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>196215</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3299,7 +3287,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="496570" y="39134415"/>
+          <a:off x="496570" y="41763315"/>
           <a:ext cx="2651760" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3317,13 +3305,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>24765</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3333,7 +3321,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="501015" y="36172775"/>
+          <a:off x="501015" y="38801675"/>
           <a:ext cx="7555865" cy="2446655"/>
           <a:chOff x="780" y="40509"/>
           <a:chExt cx="11866" cy="3866"/>
@@ -3730,13 +3718,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>128270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>109855</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3754,7 +3742,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="496570" y="19578320"/>
+          <a:off x="496570" y="22207220"/>
           <a:ext cx="4152900" cy="1318260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3772,13 +3760,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>315595</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>67945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3796,7 +3784,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495935" y="21445855"/>
+          <a:off x="495935" y="24074755"/>
           <a:ext cx="5640705" cy="3578225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3814,13 +3802,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3830,7 +3818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4263390" y="20110450"/>
+          <a:off x="4263390" y="22739350"/>
           <a:ext cx="320675" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3986,13 +3974,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>70485</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>51435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>73660</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>27305</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4002,7 +3990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562600" y="21604605"/>
+          <a:off x="5562600" y="24233505"/>
           <a:ext cx="320675" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4158,13 +4146,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>315595</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4182,7 +4170,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495935" y="25459055"/>
+          <a:off x="495935" y="28087955"/>
           <a:ext cx="7561580" cy="846455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4200,13 +4188,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>45085</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4216,7 +4204,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6486525" y="25916890"/>
+          <a:off x="6486525" y="28545790"/>
           <a:ext cx="320675" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4372,13 +4360,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>311785</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4396,7 +4384,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="496570" y="26986230"/>
+          <a:off x="496570" y="29615130"/>
           <a:ext cx="5942330" cy="3554095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4414,13 +4402,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>229235</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4430,7 +4418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5721350" y="27143710"/>
+          <a:off x="5721350" y="29772610"/>
           <a:ext cx="320675" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4586,13 +4574,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>315595</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>305435</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4610,7 +4598,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495935" y="46653450"/>
+          <a:off x="495935" y="49282350"/>
           <a:ext cx="3396615" cy="3198495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4628,13 +4616,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>243205</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4652,7 +4640,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4782820" y="46651545"/>
+          <a:off x="4782820" y="49280445"/>
           <a:ext cx="3703320" cy="3244850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4670,13 +4658,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>290195</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4694,7 +4682,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="496570" y="50756820"/>
+          <a:off x="496570" y="53385720"/>
           <a:ext cx="6873240" cy="2167890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4712,13 +4700,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>252730</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>255905</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4728,7 +4716,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4792345" y="51041935"/>
+          <a:off x="4792345" y="53670835"/>
           <a:ext cx="320675" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4884,13 +4872,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316865</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>151130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>270510</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4908,7 +4896,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497205" y="53536850"/>
+          <a:off x="497205" y="56165750"/>
           <a:ext cx="6217920" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4926,13 +4914,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>181610</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>27305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>184785</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4942,7 +4930,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308725" y="53588285"/>
+          <a:off x="6308725" y="56217185"/>
           <a:ext cx="320675" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5098,13 +5086,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316865</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>304165</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5122,7 +5110,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497205" y="54787800"/>
+          <a:off x="497205" y="57416700"/>
           <a:ext cx="6886575" cy="1964690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5140,13 +5128,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>40005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5156,7 +5144,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5796915" y="55003065"/>
+          <a:off x="5796915" y="57631965"/>
           <a:ext cx="320675" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5312,13 +5300,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>217805</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>14605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5336,7 +5324,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="57416700"/>
+          <a:off x="497840" y="60045600"/>
           <a:ext cx="5847080" cy="4220845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5354,13 +5342,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>135255</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>138430</xdr:colOff>
-      <xdr:row>331</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5370,7 +5358,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5309870" y="58578115"/>
+          <a:off x="5309870" y="61207015"/>
           <a:ext cx="320675" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5526,13 +5514,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>314960</xdr:colOff>
-      <xdr:row>354</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>125095</xdr:colOff>
-      <xdr:row>360</xdr:row>
+      <xdr:row>375</xdr:row>
       <xdr:rowOff>73660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5550,7 +5538,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="63054865"/>
+          <a:off x="495300" y="65683765"/>
           <a:ext cx="3851910" cy="1015365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5568,13 +5556,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>383</xdr:row>
       <xdr:rowOff>173990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5592,7 +5580,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="496570" y="64789685"/>
+          <a:off x="496570" y="67418585"/>
           <a:ext cx="5989320" cy="782955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5610,13 +5598,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>384</xdr:row>
       <xdr:rowOff>128270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>309245</xdr:colOff>
-      <xdr:row>383</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5634,7 +5622,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="496570" y="65702180"/>
+          <a:off x="496570" y="68331080"/>
           <a:ext cx="3082290" cy="2362200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5652,13 +5640,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>62230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>17145</xdr:colOff>
-      <xdr:row>401</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5676,7 +5664,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="496570" y="68615560"/>
+          <a:off x="496570" y="71244460"/>
           <a:ext cx="5965190" cy="2569845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5694,13 +5682,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316865</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>427</xdr:row>
+      <xdr:row>442</xdr:row>
       <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5718,7 +5706,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497205" y="74256900"/>
+          <a:off x="497205" y="76885800"/>
           <a:ext cx="5958840" cy="1655445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5736,13 +5724,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123190</xdr:colOff>
-      <xdr:row>420</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>40005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>126365</xdr:colOff>
-      <xdr:row>422</xdr:row>
+      <xdr:row>437</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5752,7 +5740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5297805" y="74647425"/>
+          <a:off x="5297805" y="77276325"/>
           <a:ext cx="320675" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5908,13 +5896,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>316865</xdr:colOff>
-      <xdr:row>431</xdr:row>
+      <xdr:row>446</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>445</xdr:row>
+      <xdr:row>460</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5932,7 +5920,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497205" y="76535280"/>
+          <a:off x="497205" y="79164180"/>
           <a:ext cx="5962015" cy="2583180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5950,13 +5938,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12065</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>448</xdr:row>
       <xdr:rowOff>168910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>450</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5966,7 +5954,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5504180" y="77054710"/>
+          <a:off x="5504180" y="79683610"/>
           <a:ext cx="320675" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6122,13 +6110,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>83185</xdr:colOff>
-      <xdr:row>460</xdr:row>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>288290</xdr:colOff>
-      <xdr:row>465</xdr:row>
+      <xdr:row>480</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -6138,7 +6126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581025" y="81814670"/>
+          <a:off x="581025" y="84443570"/>
           <a:ext cx="1071880" cy="948690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6177,13 +6165,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>460</xdr:row>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>97790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>465</xdr:row>
+      <xdr:row>480</xdr:row>
       <xdr:rowOff>67945</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -6193,7 +6181,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3964940" y="81826100"/>
+          <a:off x="3964940" y="84455000"/>
           <a:ext cx="998855" cy="846455"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
@@ -6250,13 +6238,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>217805</xdr:colOff>
-      <xdr:row>460</xdr:row>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>464</xdr:row>
+      <xdr:row>479</xdr:row>
       <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -6266,7 +6254,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5709920" y="81854040"/>
+          <a:off x="5709920" y="84482940"/>
           <a:ext cx="634365" cy="741045"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -6322,13 +6310,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>244475</xdr:colOff>
-      <xdr:row>462</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>104140</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>478</xdr:row>
       <xdr:rowOff>62230</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -6338,7 +6326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5101590" y="82153125"/>
+          <a:off x="5101590" y="84782025"/>
           <a:ext cx="494665" cy="163195"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
@@ -6480,13 +6468,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161290</xdr:colOff>
-      <xdr:row>460</xdr:row>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>214630</xdr:colOff>
-      <xdr:row>461</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>100330</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -6496,7 +6484,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1843405" y="81840705"/>
+          <a:off x="1843405" y="84469605"/>
           <a:ext cx="1958340" cy="163195"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
@@ -6637,15 +6625,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>465</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>465</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:colOff>218440</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6654,7 +6642,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1842135" y="82610960"/>
+          <a:off x="1847215" y="85239225"/>
           <a:ext cx="1958340" cy="163195"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
@@ -6796,13 +6784,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>151130</xdr:colOff>
-      <xdr:row>459</xdr:row>
+      <xdr:row>474</xdr:row>
       <xdr:rowOff>12065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>207645</xdr:colOff>
-      <xdr:row>460</xdr:row>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>84455</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -6812,7 +6800,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1833245" y="81565115"/>
+          <a:off x="1833245" y="84194015"/>
           <a:ext cx="1961515" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6861,13 +6849,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>461</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>23495</xdr:colOff>
-      <xdr:row>462</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>140335</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -6877,7 +6865,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2094865" y="82020410"/>
+          <a:off x="2094865" y="84649310"/>
           <a:ext cx="1515745" cy="198755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7025,13 +7013,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>478</xdr:row>
       <xdr:rowOff>154940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>464</xdr:row>
+      <xdr:row>479</xdr:row>
       <xdr:rowOff>170815</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -7041,7 +7029,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2068830" y="82409030"/>
+          <a:off x="2068830" y="85037930"/>
           <a:ext cx="1531620" cy="191135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7189,13 +7177,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>56515</xdr:colOff>
-      <xdr:row>465</xdr:row>
+      <xdr:row>480</xdr:row>
       <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>24765</xdr:colOff>
-      <xdr:row>467</xdr:row>
+      <xdr:row>482</xdr:row>
       <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -7205,7 +7193,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2056130" y="82770345"/>
+          <a:off x="2056130" y="85399245"/>
           <a:ext cx="1555750" cy="191770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7347,6 +7335,262 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>316865</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497205" y="87336630"/>
+          <a:ext cx="5868670" cy="3867785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>258445</xdr:colOff>
+      <xdr:row>496</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261620</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Oval 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4798060" y="88159590"/>
+          <a:ext cx="320675" cy="326390"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>233045</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="16040100"/>
+          <a:ext cx="6179820" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7637,10 +7881,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AB503"/>
+  <dimension ref="B1:AB558"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="M475" sqref="M475"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.62962962962963" defaultRowHeight="13.8"/>
@@ -7745,7 +7989,7 @@
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:28">
       <c r="B4" s="8"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -8148,7 +8392,7 @@
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:28">
       <c r="B17" s="8"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -9341,7 +9585,7 @@
     </row>
     <row r="58" ht="20.1" customHeight="1" spans="2:28">
       <c r="B58" s="8"/>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="9" t="s">
@@ -9596,7 +9840,7 @@
     <row r="66" spans="2:28">
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="12" t="s">
@@ -9629,7 +9873,7 @@
     <row r="67" spans="2:28">
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="12" t="s">
@@ -9690,7 +9934,7 @@
     </row>
     <row r="69" ht="20.1" customHeight="1" spans="2:28">
       <c r="B69" s="8"/>
-      <c r="C69" s="39" t="s">
+      <c r="C69" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -10363,9 +10607,7 @@
     </row>
     <row r="92" spans="2:28">
       <c r="B92" s="10"/>
-      <c r="C92" s="22" t="s">
-        <v>27</v>
-      </c>
+      <c r="C92" s="11"/>
       <c r="D92" s="13"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -10769,42 +11011,40 @@
       <c r="AA105" s="12"/>
       <c r="AB105" s="19"/>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="2:28">
-      <c r="B106" s="8"/>
-      <c r="C106" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="9"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
-      <c r="U106" s="9"/>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
-      <c r="X106" s="9"/>
-      <c r="Y106" s="9"/>
-      <c r="Z106" s="9"/>
-      <c r="AA106" s="9"/>
-      <c r="AB106" s="18"/>
+    <row r="106" spans="2:28">
+      <c r="B106" s="10"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="19"/>
     </row>
     <row r="107" spans="2:28">
       <c r="B107" s="10"/>
-      <c r="C107" s="11"/>
+      <c r="C107" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="D107" s="13"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -10833,12 +11073,8 @@
     </row>
     <row r="108" spans="2:28">
       <c r="B108" s="10"/>
-      <c r="C108" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="13"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
@@ -11156,12 +11392,8 @@
     </row>
     <row r="119" spans="2:28">
       <c r="B119" s="10"/>
-      <c r="C119" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>33</v>
-      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="13"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
@@ -11216,34 +11448,38 @@
       <c r="AA120" s="12"/>
       <c r="AB120" s="19"/>
     </row>
-    <row r="121" spans="2:28">
-      <c r="B121" s="10"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="12"/>
-      <c r="S121" s="12"/>
-      <c r="T121" s="12"/>
-      <c r="U121" s="12"/>
-      <c r="V121" s="12"/>
-      <c r="W121" s="12"/>
-      <c r="X121" s="12"/>
-      <c r="Y121" s="12"/>
-      <c r="Z121" s="12"/>
-      <c r="AA121" s="12"/>
-      <c r="AB121" s="19"/>
+    <row r="121" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B121" s="8"/>
+      <c r="C121" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="U121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9"/>
+      <c r="X121" s="9"/>
+      <c r="Y121" s="9"/>
+      <c r="Z121" s="9"/>
+      <c r="AA121" s="9"/>
+      <c r="AB121" s="18"/>
     </row>
     <row r="122" spans="2:28">
       <c r="B122" s="10"/>
@@ -11276,8 +11512,12 @@
     </row>
     <row r="123" spans="2:28">
       <c r="B123" s="10"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="13"/>
+      <c r="C123" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
@@ -11595,8 +11835,12 @@
     </row>
     <row r="134" spans="2:28">
       <c r="B134" s="10"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="13"/>
+      <c r="C134" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
@@ -11827,12 +12071,8 @@
     </row>
     <row r="142" spans="2:28">
       <c r="B142" s="10"/>
-      <c r="C142" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="13"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
@@ -12063,12 +12303,8 @@
     </row>
     <row r="150" spans="2:28">
       <c r="B150" s="10"/>
-      <c r="C150" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D150" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="13"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
@@ -12270,8 +12506,12 @@
     </row>
     <row r="157" spans="2:28">
       <c r="B157" s="10"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="13"/>
+      <c r="C157" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
@@ -12502,8 +12742,12 @@
     </row>
     <row r="165" spans="2:28">
       <c r="B165" s="10"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="13"/>
+      <c r="C165" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D165" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
@@ -12761,38 +13005,34 @@
       <c r="AA173" s="12"/>
       <c r="AB173" s="19"/>
     </row>
-    <row r="174" ht="20.1" customHeight="1" spans="2:28">
-      <c r="B174" s="8"/>
-      <c r="C174" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
-      <c r="K174" s="9"/>
-      <c r="L174" s="9"/>
-      <c r="M174" s="9"/>
-      <c r="N174" s="9"/>
-      <c r="O174" s="9"/>
-      <c r="P174" s="9"/>
-      <c r="Q174" s="9"/>
-      <c r="R174" s="9"/>
-      <c r="S174" s="9"/>
-      <c r="T174" s="9"/>
-      <c r="U174" s="9"/>
-      <c r="V174" s="9"/>
-      <c r="W174" s="9"/>
-      <c r="X174" s="9"/>
-      <c r="Y174" s="9"/>
-      <c r="Z174" s="9"/>
-      <c r="AA174" s="9"/>
-      <c r="AB174" s="18"/>
+    <row r="174" spans="2:28">
+      <c r="B174" s="10"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="12"/>
+      <c r="S174" s="12"/>
+      <c r="T174" s="12"/>
+      <c r="U174" s="12"/>
+      <c r="V174" s="12"/>
+      <c r="W174" s="12"/>
+      <c r="X174" s="12"/>
+      <c r="Y174" s="12"/>
+      <c r="Z174" s="12"/>
+      <c r="AA174" s="12"/>
+      <c r="AB174" s="19"/>
     </row>
     <row r="175" spans="2:28">
       <c r="B175" s="10"/>
@@ -12825,12 +13065,8 @@
     </row>
     <row r="176" spans="2:28">
       <c r="B176" s="10"/>
-      <c r="C176" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D176" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="13"/>
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
@@ -13204,34 +13440,38 @@
       <c r="AA188" s="12"/>
       <c r="AB188" s="19"/>
     </row>
-    <row r="189" spans="2:28">
-      <c r="B189" s="10"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
-      <c r="M189" s="12"/>
-      <c r="N189" s="12"/>
-      <c r="O189" s="12"/>
-      <c r="P189" s="12"/>
-      <c r="Q189" s="12"/>
-      <c r="R189" s="12"/>
-      <c r="S189" s="12"/>
-      <c r="T189" s="12"/>
-      <c r="U189" s="12"/>
-      <c r="V189" s="12"/>
-      <c r="W189" s="12"/>
-      <c r="X189" s="12"/>
-      <c r="Y189" s="12"/>
-      <c r="Z189" s="12"/>
-      <c r="AA189" s="12"/>
-      <c r="AB189" s="19"/>
+    <row r="189" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B189" s="8"/>
+      <c r="C189" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
+      <c r="L189" s="9"/>
+      <c r="M189" s="9"/>
+      <c r="N189" s="9"/>
+      <c r="O189" s="9"/>
+      <c r="P189" s="9"/>
+      <c r="Q189" s="9"/>
+      <c r="R189" s="9"/>
+      <c r="S189" s="9"/>
+      <c r="T189" s="9"/>
+      <c r="U189" s="9"/>
+      <c r="V189" s="9"/>
+      <c r="W189" s="9"/>
+      <c r="X189" s="9"/>
+      <c r="Y189" s="9"/>
+      <c r="Z189" s="9"/>
+      <c r="AA189" s="9"/>
+      <c r="AB189" s="18"/>
     </row>
     <row r="190" spans="2:28">
       <c r="B190" s="10"/>
@@ -13264,8 +13504,12 @@
     </row>
     <row r="191" spans="2:28">
       <c r="B191" s="10"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="13"/>
+      <c r="C191" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
@@ -13525,12 +13769,8 @@
     </row>
     <row r="200" spans="2:28">
       <c r="B200" s="10"/>
-      <c r="C200" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D200" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="C200" s="11"/>
+      <c r="D200" s="13"/>
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
@@ -13558,10 +13798,8 @@
     </row>
     <row r="201" spans="2:28">
       <c r="B201" s="10"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="C201" s="11"/>
+      <c r="D201" s="13"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -13589,10 +13827,8 @@
     </row>
     <row r="202" spans="2:28">
       <c r="B202" s="10"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="23" t="s">
-        <v>43</v>
-      </c>
+      <c r="C202" s="11"/>
+      <c r="D202" s="13"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -13968,8 +14204,12 @@
     </row>
     <row r="215" spans="2:28">
       <c r="B215" s="10"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="13"/>
+      <c r="C215" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D215" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
       <c r="G215" s="12"/>
@@ -13997,8 +14237,10 @@
     </row>
     <row r="216" spans="2:28">
       <c r="B216" s="10"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="13"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
       <c r="G216" s="12"/>
@@ -14026,8 +14268,10 @@
     </row>
     <row r="217" spans="2:28">
       <c r="B217" s="10"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="13"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
       <c r="G217" s="12"/>
@@ -14084,9 +14328,7 @@
     </row>
     <row r="219" spans="2:28">
       <c r="B219" s="10"/>
-      <c r="C219" s="24" t="s">
-        <v>44</v>
-      </c>
+      <c r="C219" s="11"/>
       <c r="D219" s="13"/>
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
@@ -14258,38 +14500,34 @@
       <c r="AA224" s="12"/>
       <c r="AB224" s="19"/>
     </row>
-    <row r="225" ht="20.1" customHeight="1" spans="2:28">
-      <c r="B225" s="8"/>
-      <c r="C225" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E225" s="9"/>
-      <c r="F225" s="9"/>
-      <c r="G225" s="9"/>
-      <c r="H225" s="9"/>
-      <c r="I225" s="9"/>
-      <c r="J225" s="9"/>
-      <c r="K225" s="9"/>
-      <c r="L225" s="9"/>
-      <c r="M225" s="9"/>
-      <c r="N225" s="9"/>
-      <c r="O225" s="9"/>
-      <c r="P225" s="9"/>
-      <c r="Q225" s="9"/>
-      <c r="R225" s="9"/>
-      <c r="S225" s="9"/>
-      <c r="T225" s="9"/>
-      <c r="U225" s="9"/>
-      <c r="V225" s="9"/>
-      <c r="W225" s="9"/>
-      <c r="X225" s="9"/>
-      <c r="Y225" s="9"/>
-      <c r="Z225" s="9"/>
-      <c r="AA225" s="9"/>
-      <c r="AB225" s="18"/>
+    <row r="225" spans="2:28">
+      <c r="B225" s="10"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="12"/>
+      <c r="J225" s="12"/>
+      <c r="K225" s="12"/>
+      <c r="L225" s="12"/>
+      <c r="M225" s="12"/>
+      <c r="N225" s="12"/>
+      <c r="O225" s="12"/>
+      <c r="P225" s="12"/>
+      <c r="Q225" s="12"/>
+      <c r="R225" s="12"/>
+      <c r="S225" s="12"/>
+      <c r="T225" s="12"/>
+      <c r="U225" s="12"/>
+      <c r="V225" s="12"/>
+      <c r="W225" s="12"/>
+      <c r="X225" s="12"/>
+      <c r="Y225" s="12"/>
+      <c r="Z225" s="12"/>
+      <c r="AA225" s="12"/>
+      <c r="AB225" s="19"/>
     </row>
     <row r="226" spans="2:28">
       <c r="B226" s="10"/>
@@ -14320,14 +14558,10 @@
       <c r="AA226" s="12"/>
       <c r="AB226" s="19"/>
     </row>
-    <row r="227" ht="15" spans="2:28">
+    <row r="227" spans="2:28">
       <c r="B227" s="10"/>
-      <c r="C227" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D227" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="C227" s="11"/>
+      <c r="D227" s="13"/>
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
       <c r="G227" s="12"/>
@@ -14353,14 +14587,10 @@
       <c r="AA227" s="12"/>
       <c r="AB227" s="19"/>
     </row>
-    <row r="228" ht="15" spans="2:28">
+    <row r="228" spans="2:28">
       <c r="B228" s="10"/>
-      <c r="C228" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D228" s="40" t="s">
-        <v>48</v>
-      </c>
+      <c r="C228" s="11"/>
+      <c r="D228" s="13"/>
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
       <c r="G228" s="12"/>
@@ -14388,7 +14618,7 @@
     </row>
     <row r="229" spans="2:28">
       <c r="B229" s="10"/>
-      <c r="C229" s="13"/>
+      <c r="C229" s="11"/>
       <c r="D229" s="13"/>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
@@ -14447,20 +14677,17 @@
     <row r="231" spans="2:28">
       <c r="B231" s="10"/>
       <c r="C231" s="11"/>
-      <c r="D231" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E231" s="11"/>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
       <c r="K231" s="12"/>
       <c r="L231" s="12"/>
-      <c r="N231" s="26" t="s">
-        <v>50</v>
-      </c>
+      <c r="M231" s="12"/>
+      <c r="N231" s="12"/>
       <c r="O231" s="12"/>
       <c r="P231" s="12"/>
       <c r="Q231" s="12"/>
@@ -14480,9 +14707,7 @@
       <c r="B232" s="10"/>
       <c r="C232" s="11"/>
       <c r="D232" s="13"/>
-      <c r="E232" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="E232" s="12"/>
       <c r="F232" s="12"/>
       <c r="G232" s="12"/>
       <c r="H232" s="12"/>
@@ -14538,7 +14763,9 @@
     </row>
     <row r="234" spans="2:28">
       <c r="B234" s="10"/>
-      <c r="C234" s="11"/>
+      <c r="C234" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="D234" s="13"/>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
@@ -14710,34 +14937,38 @@
       <c r="AA239" s="12"/>
       <c r="AB239" s="19"/>
     </row>
-    <row r="240" spans="2:28">
-      <c r="B240" s="10"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="13"/>
-      <c r="E240" s="12"/>
-      <c r="F240" s="12"/>
-      <c r="G240" s="12"/>
-      <c r="H240" s="12"/>
-      <c r="I240" s="12"/>
-      <c r="J240" s="12"/>
-      <c r="K240" s="12"/>
-      <c r="L240" s="12"/>
-      <c r="M240" s="12"/>
-      <c r="N240" s="12"/>
-      <c r="O240" s="12"/>
-      <c r="P240" s="12"/>
-      <c r="Q240" s="12"/>
-      <c r="R240" s="12"/>
-      <c r="S240" s="12"/>
-      <c r="T240" s="12"/>
-      <c r="U240" s="12"/>
-      <c r="V240" s="12"/>
-      <c r="W240" s="12"/>
-      <c r="X240" s="12"/>
-      <c r="Y240" s="12"/>
-      <c r="Z240" s="12"/>
-      <c r="AA240" s="12"/>
-      <c r="AB240" s="19"/>
+    <row r="240" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B240" s="8"/>
+      <c r="C240" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E240" s="9"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="9"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="9"/>
+      <c r="K240" s="9"/>
+      <c r="L240" s="9"/>
+      <c r="M240" s="9"/>
+      <c r="N240" s="9"/>
+      <c r="O240" s="9"/>
+      <c r="P240" s="9"/>
+      <c r="Q240" s="9"/>
+      <c r="R240" s="9"/>
+      <c r="S240" s="9"/>
+      <c r="T240" s="9"/>
+      <c r="U240" s="9"/>
+      <c r="V240" s="9"/>
+      <c r="W240" s="9"/>
+      <c r="X240" s="9"/>
+      <c r="Y240" s="9"/>
+      <c r="Z240" s="9"/>
+      <c r="AA240" s="9"/>
+      <c r="AB240" s="18"/>
     </row>
     <row r="241" spans="2:28">
       <c r="B241" s="10"/>
@@ -14768,10 +14999,14 @@
       <c r="AA241" s="12"/>
       <c r="AB241" s="19"/>
     </row>
-    <row r="242" spans="2:28">
+    <row r="242" ht="15" spans="2:28">
       <c r="B242" s="10"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="13"/>
+      <c r="C242" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -14797,10 +15032,14 @@
       <c r="AA242" s="12"/>
       <c r="AB242" s="19"/>
     </row>
-    <row r="243" spans="2:28">
+    <row r="243" ht="15" spans="2:28">
       <c r="B243" s="10"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="13"/>
+      <c r="C243" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -14828,7 +15067,7 @@
     </row>
     <row r="244" spans="2:28">
       <c r="B244" s="10"/>
-      <c r="C244" s="11"/>
+      <c r="C244" s="13"/>
       <c r="D244" s="13"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
@@ -14887,17 +15126,20 @@
     <row r="246" spans="2:28">
       <c r="B246" s="10"/>
       <c r="C246" s="11"/>
-      <c r="D246" s="13"/>
-      <c r="E246" s="12"/>
-      <c r="F246" s="12"/>
-      <c r="G246" s="12"/>
+      <c r="D246" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
       <c r="H246" s="12"/>
       <c r="I246" s="12"/>
       <c r="J246" s="12"/>
       <c r="K246" s="12"/>
       <c r="L246" s="12"/>
-      <c r="M246" s="12"/>
-      <c r="N246" s="12"/>
+      <c r="N246" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="O246" s="12"/>
       <c r="P246" s="12"/>
       <c r="Q246" s="12"/>
@@ -14917,7 +15159,9 @@
       <c r="B247" s="10"/>
       <c r="C247" s="11"/>
       <c r="D247" s="13"/>
-      <c r="E247" s="12"/>
+      <c r="E247" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="F247" s="12"/>
       <c r="G247" s="12"/>
       <c r="H247" s="12"/>
@@ -15087,38 +15331,34 @@
       <c r="AA252" s="12"/>
       <c r="AB252" s="19"/>
     </row>
-    <row r="253" ht="20.1" customHeight="1" spans="2:28">
-      <c r="B253" s="8"/>
-      <c r="C253" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E253" s="9"/>
-      <c r="F253" s="9"/>
-      <c r="G253" s="9"/>
-      <c r="H253" s="9"/>
-      <c r="I253" s="9"/>
-      <c r="J253" s="9"/>
-      <c r="K253" s="9"/>
-      <c r="L253" s="9"/>
-      <c r="M253" s="9"/>
-      <c r="N253" s="9"/>
-      <c r="O253" s="9"/>
-      <c r="P253" s="9"/>
-      <c r="Q253" s="9"/>
-      <c r="R253" s="9"/>
-      <c r="S253" s="9"/>
-      <c r="T253" s="9"/>
-      <c r="U253" s="9"/>
-      <c r="V253" s="9"/>
-      <c r="W253" s="9"/>
-      <c r="X253" s="9"/>
-      <c r="Y253" s="9"/>
-      <c r="Z253" s="9"/>
-      <c r="AA253" s="9"/>
-      <c r="AB253" s="18"/>
+    <row r="253" spans="2:28">
+      <c r="B253" s="10"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12"/>
+      <c r="G253" s="12"/>
+      <c r="H253" s="12"/>
+      <c r="I253" s="12"/>
+      <c r="J253" s="12"/>
+      <c r="K253" s="12"/>
+      <c r="L253" s="12"/>
+      <c r="M253" s="12"/>
+      <c r="N253" s="12"/>
+      <c r="O253" s="12"/>
+      <c r="P253" s="12"/>
+      <c r="Q253" s="12"/>
+      <c r="R253" s="12"/>
+      <c r="S253" s="12"/>
+      <c r="T253" s="12"/>
+      <c r="U253" s="12"/>
+      <c r="V253" s="12"/>
+      <c r="W253" s="12"/>
+      <c r="X253" s="12"/>
+      <c r="Y253" s="12"/>
+      <c r="Z253" s="12"/>
+      <c r="AA253" s="12"/>
+      <c r="AB253" s="19"/>
     </row>
     <row r="254" spans="2:28">
       <c r="B254" s="10"/>
@@ -15149,14 +15389,10 @@
       <c r="AA254" s="12"/>
       <c r="AB254" s="19"/>
     </row>
-    <row r="255" ht="15" spans="2:28">
+    <row r="255" spans="2:28">
       <c r="B255" s="10"/>
-      <c r="C255" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D255" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="C255" s="11"/>
+      <c r="D255" s="13"/>
       <c r="E255" s="12"/>
       <c r="F255" s="12"/>
       <c r="G255" s="12"/>
@@ -15213,12 +15449,10 @@
     </row>
     <row r="257" spans="2:28">
       <c r="B257" s="10"/>
-      <c r="C257" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D257" s="21"/>
-      <c r="E257" s="27"/>
-      <c r="F257" s="27"/>
+      <c r="C257" s="11"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
       <c r="G257" s="12"/>
       <c r="H257" s="12"/>
       <c r="I257" s="12"/>
@@ -15244,12 +15478,8 @@
     </row>
     <row r="258" spans="2:28">
       <c r="B258" s="10"/>
-      <c r="C258" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D258" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="C258" s="11"/>
+      <c r="D258" s="13"/>
       <c r="E258" s="12"/>
       <c r="F258" s="12"/>
       <c r="G258" s="12"/>
@@ -15277,12 +15507,8 @@
     </row>
     <row r="259" spans="2:28">
       <c r="B259" s="10"/>
-      <c r="C259" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D259" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="C259" s="11"/>
+      <c r="D259" s="13"/>
       <c r="E259" s="12"/>
       <c r="F259" s="12"/>
       <c r="G259" s="12"/>
@@ -15339,9 +15565,7 @@
     </row>
     <row r="261" spans="2:28">
       <c r="B261" s="10"/>
-      <c r="C261" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="C261" s="11"/>
       <c r="D261" s="13"/>
       <c r="E261" s="12"/>
       <c r="F261" s="12"/>
@@ -15355,9 +15579,7 @@
       <c r="N261" s="12"/>
       <c r="O261" s="12"/>
       <c r="P261" s="12"/>
-      <c r="Q261" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q261" s="12"/>
       <c r="R261" s="12"/>
       <c r="S261" s="12"/>
       <c r="T261" s="12"/>
@@ -15544,34 +15766,38 @@
       <c r="AA267" s="12"/>
       <c r="AB267" s="19"/>
     </row>
-    <row r="268" spans="2:28">
-      <c r="B268" s="10"/>
-      <c r="C268" s="11"/>
-      <c r="D268" s="13"/>
-      <c r="E268" s="12"/>
-      <c r="F268" s="12"/>
-      <c r="G268" s="12"/>
-      <c r="H268" s="12"/>
-      <c r="I268" s="12"/>
-      <c r="J268" s="12"/>
-      <c r="K268" s="12"/>
-      <c r="L268" s="12"/>
-      <c r="M268" s="12"/>
-      <c r="N268" s="12"/>
-      <c r="O268" s="12"/>
-      <c r="P268" s="12"/>
-      <c r="Q268" s="12"/>
-      <c r="R268" s="12"/>
-      <c r="S268" s="12"/>
-      <c r="T268" s="12"/>
-      <c r="U268" s="12"/>
-      <c r="V268" s="12"/>
-      <c r="W268" s="12"/>
-      <c r="X268" s="12"/>
-      <c r="Y268" s="12"/>
-      <c r="Z268" s="12"/>
-      <c r="AA268" s="12"/>
-      <c r="AB268" s="19"/>
+    <row r="268" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B268" s="8"/>
+      <c r="C268" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="9"/>
+      <c r="I268" s="9"/>
+      <c r="J268" s="9"/>
+      <c r="K268" s="9"/>
+      <c r="L268" s="9"/>
+      <c r="M268" s="9"/>
+      <c r="N268" s="9"/>
+      <c r="O268" s="9"/>
+      <c r="P268" s="9"/>
+      <c r="Q268" s="9"/>
+      <c r="R268" s="9"/>
+      <c r="S268" s="9"/>
+      <c r="T268" s="9"/>
+      <c r="U268" s="9"/>
+      <c r="V268" s="9"/>
+      <c r="W268" s="9"/>
+      <c r="X268" s="9"/>
+      <c r="Y268" s="9"/>
+      <c r="Z268" s="9"/>
+      <c r="AA268" s="9"/>
+      <c r="AB268" s="18"/>
     </row>
     <row r="269" spans="2:28">
       <c r="B269" s="10"/>
@@ -15602,10 +15828,14 @@
       <c r="AA269" s="12"/>
       <c r="AB269" s="19"/>
     </row>
-    <row r="270" spans="2:28">
+    <row r="270" ht="15" spans="2:28">
       <c r="B270" s="10"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="13"/>
+      <c r="C270" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D270" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E270" s="12"/>
       <c r="F270" s="12"/>
       <c r="G270" s="12"/>
@@ -15662,10 +15892,12 @@
     </row>
     <row r="272" spans="2:28">
       <c r="B272" s="10"/>
-      <c r="C272" s="11"/>
-      <c r="D272" s="13"/>
-      <c r="E272" s="12"/>
-      <c r="F272" s="12"/>
+      <c r="C272" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D272" s="21"/>
+      <c r="E272" s="27"/>
+      <c r="F272" s="27"/>
       <c r="G272" s="12"/>
       <c r="H272" s="12"/>
       <c r="I272" s="12"/>
@@ -15691,8 +15923,12 @@
     </row>
     <row r="273" spans="2:28">
       <c r="B273" s="10"/>
-      <c r="C273" s="11"/>
-      <c r="D273" s="13"/>
+      <c r="C273" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E273" s="12"/>
       <c r="F273" s="12"/>
       <c r="G273" s="12"/>
@@ -15720,8 +15956,12 @@
     </row>
     <row r="274" spans="2:28">
       <c r="B274" s="10"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="13"/>
+      <c r="C274" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="E274" s="12"/>
       <c r="F274" s="12"/>
       <c r="G274" s="12"/>
@@ -15778,7 +16018,9 @@
     </row>
     <row r="276" spans="2:28">
       <c r="B276" s="10"/>
-      <c r="C276" s="11"/>
+      <c r="C276" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="D276" s="13"/>
       <c r="E276" s="12"/>
       <c r="F276" s="12"/>
@@ -15792,7 +16034,9 @@
       <c r="N276" s="12"/>
       <c r="O276" s="12"/>
       <c r="P276" s="12"/>
-      <c r="Q276" s="12"/>
+      <c r="Q276" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="R276" s="12"/>
       <c r="S276" s="12"/>
       <c r="T276" s="12"/>
@@ -16010,12 +16254,8 @@
     </row>
     <row r="284" spans="2:28">
       <c r="B284" s="10"/>
-      <c r="C284" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="C284" s="11"/>
+      <c r="D284" s="13"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
       <c r="G284" s="12"/>
@@ -16449,8 +16689,12 @@
     </row>
     <row r="299" spans="2:28">
       <c r="B299" s="10"/>
-      <c r="C299" s="11"/>
-      <c r="D299" s="13"/>
+      <c r="C299" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D299" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="E299" s="12"/>
       <c r="F299" s="12"/>
       <c r="G299" s="12"/>
@@ -16478,12 +16722,8 @@
     </row>
     <row r="300" spans="2:28">
       <c r="B300" s="10"/>
-      <c r="C300" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D300" s="23" t="s">
-        <v>60</v>
-      </c>
+      <c r="C300" s="11"/>
+      <c r="D300" s="13"/>
       <c r="E300" s="12"/>
       <c r="F300" s="12"/>
       <c r="G300" s="12"/>
@@ -16685,12 +16925,8 @@
     </row>
     <row r="307" spans="2:28">
       <c r="B307" s="10"/>
-      <c r="C307" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D307" s="23" t="s">
-        <v>61</v>
-      </c>
+      <c r="C307" s="11"/>
+      <c r="D307" s="13"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -16921,8 +17157,12 @@
     </row>
     <row r="315" spans="2:28">
       <c r="B315" s="10"/>
-      <c r="C315" s="11"/>
-      <c r="D315" s="13"/>
+      <c r="C315" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D315" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -17124,11 +17364,11 @@
     </row>
     <row r="322" spans="2:28">
       <c r="B322" s="10"/>
-      <c r="C322" s="41" t="s">
-        <v>36</v>
+      <c r="C322" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="D322" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E322" s="12"/>
       <c r="F322" s="12"/>
@@ -17563,8 +17803,12 @@
     </row>
     <row r="337" spans="2:28">
       <c r="B337" s="10"/>
-      <c r="C337" s="11"/>
-      <c r="D337" s="13"/>
+      <c r="C337" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D337" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="E337" s="12"/>
       <c r="F337" s="12"/>
       <c r="G337" s="12"/>
@@ -17938,38 +18182,34 @@
       <c r="AA349" s="12"/>
       <c r="AB349" s="19"/>
     </row>
-    <row r="350" ht="20.1" customHeight="1" spans="2:28">
-      <c r="B350" s="8"/>
-      <c r="C350" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D350" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E350" s="9"/>
-      <c r="F350" s="9"/>
-      <c r="G350" s="9"/>
-      <c r="H350" s="9"/>
-      <c r="I350" s="9"/>
-      <c r="J350" s="9"/>
-      <c r="K350" s="9"/>
-      <c r="L350" s="9"/>
-      <c r="M350" s="9"/>
-      <c r="N350" s="9"/>
-      <c r="O350" s="9"/>
-      <c r="P350" s="9"/>
-      <c r="Q350" s="9"/>
-      <c r="R350" s="9"/>
-      <c r="S350" s="9"/>
-      <c r="T350" s="9"/>
-      <c r="U350" s="9"/>
-      <c r="V350" s="9"/>
-      <c r="W350" s="9"/>
-      <c r="X350" s="9"/>
-      <c r="Y350" s="9"/>
-      <c r="Z350" s="9"/>
-      <c r="AA350" s="9"/>
-      <c r="AB350" s="18"/>
+    <row r="350" spans="2:28">
+      <c r="B350" s="10"/>
+      <c r="C350" s="11"/>
+      <c r="D350" s="13"/>
+      <c r="E350" s="12"/>
+      <c r="F350" s="12"/>
+      <c r="G350" s="12"/>
+      <c r="H350" s="12"/>
+      <c r="I350" s="12"/>
+      <c r="J350" s="12"/>
+      <c r="K350" s="12"/>
+      <c r="L350" s="12"/>
+      <c r="M350" s="12"/>
+      <c r="N350" s="12"/>
+      <c r="O350" s="12"/>
+      <c r="P350" s="12"/>
+      <c r="Q350" s="12"/>
+      <c r="R350" s="12"/>
+      <c r="S350" s="12"/>
+      <c r="T350" s="12"/>
+      <c r="U350" s="12"/>
+      <c r="V350" s="12"/>
+      <c r="W350" s="12"/>
+      <c r="X350" s="12"/>
+      <c r="Y350" s="12"/>
+      <c r="Z350" s="12"/>
+      <c r="AA350" s="12"/>
+      <c r="AB350" s="19"/>
     </row>
     <row r="351" spans="2:28">
       <c r="B351" s="10"/>
@@ -18000,14 +18240,10 @@
       <c r="AA351" s="12"/>
       <c r="AB351" s="19"/>
     </row>
-    <row r="352" ht="15" spans="2:28">
+    <row r="352" spans="2:28">
       <c r="B352" s="10"/>
-      <c r="C352" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D352" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="C352" s="11"/>
+      <c r="D352" s="13"/>
       <c r="E352" s="12"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
@@ -18064,9 +18300,7 @@
     </row>
     <row r="354" spans="2:28">
       <c r="B354" s="10"/>
-      <c r="C354" s="22" t="s">
-        <v>66</v>
-      </c>
+      <c r="C354" s="11"/>
       <c r="D354" s="13"/>
       <c r="E354" s="12"/>
       <c r="F354" s="12"/>
@@ -18299,9 +18533,7 @@
     <row r="362" spans="2:28">
       <c r="B362" s="10"/>
       <c r="C362" s="11"/>
-      <c r="D362" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="D362" s="13"/>
       <c r="E362" s="12"/>
       <c r="F362" s="12"/>
       <c r="G362" s="12"/>
@@ -18358,9 +18590,7 @@
     </row>
     <row r="364" spans="2:28">
       <c r="B364" s="10"/>
-      <c r="C364" s="22" t="s">
-        <v>68</v>
-      </c>
+      <c r="C364" s="11"/>
       <c r="D364" s="13"/>
       <c r="E364" s="12"/>
       <c r="F364" s="12"/>
@@ -18387,34 +18617,38 @@
       <c r="AA364" s="12"/>
       <c r="AB364" s="19"/>
     </row>
-    <row r="365" spans="2:28">
-      <c r="B365" s="10"/>
-      <c r="C365" s="11"/>
-      <c r="D365" s="13"/>
-      <c r="E365" s="12"/>
-      <c r="F365" s="12"/>
-      <c r="G365" s="12"/>
-      <c r="H365" s="12"/>
-      <c r="I365" s="12"/>
-      <c r="J365" s="12"/>
-      <c r="K365" s="12"/>
-      <c r="L365" s="12"/>
-      <c r="M365" s="12"/>
-      <c r="N365" s="12"/>
-      <c r="O365" s="12"/>
-      <c r="P365" s="12"/>
-      <c r="Q365" s="12"/>
-      <c r="R365" s="12"/>
-      <c r="S365" s="12"/>
-      <c r="T365" s="12"/>
-      <c r="U365" s="12"/>
-      <c r="V365" s="12"/>
-      <c r="W365" s="12"/>
-      <c r="X365" s="12"/>
-      <c r="Y365" s="12"/>
-      <c r="Z365" s="12"/>
-      <c r="AA365" s="12"/>
-      <c r="AB365" s="19"/>
+    <row r="365" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B365" s="8"/>
+      <c r="C365" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D365" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E365" s="9"/>
+      <c r="F365" s="9"/>
+      <c r="G365" s="9"/>
+      <c r="H365" s="9"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="9"/>
+      <c r="K365" s="9"/>
+      <c r="L365" s="9"/>
+      <c r="M365" s="9"/>
+      <c r="N365" s="9"/>
+      <c r="O365" s="9"/>
+      <c r="P365" s="9"/>
+      <c r="Q365" s="9"/>
+      <c r="R365" s="9"/>
+      <c r="S365" s="9"/>
+      <c r="T365" s="9"/>
+      <c r="U365" s="9"/>
+      <c r="V365" s="9"/>
+      <c r="W365" s="9"/>
+      <c r="X365" s="9"/>
+      <c r="Y365" s="9"/>
+      <c r="Z365" s="9"/>
+      <c r="AA365" s="9"/>
+      <c r="AB365" s="18"/>
     </row>
     <row r="366" spans="2:28">
       <c r="B366" s="10"/>
@@ -18445,10 +18679,14 @@
       <c r="AA366" s="12"/>
       <c r="AB366" s="19"/>
     </row>
-    <row r="367" spans="2:28">
+    <row r="367" ht="15" spans="2:28">
       <c r="B367" s="10"/>
-      <c r="C367" s="11"/>
-      <c r="D367" s="13"/>
+      <c r="C367" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D367" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="E367" s="12"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
@@ -18505,7 +18743,9 @@
     </row>
     <row r="369" spans="2:28">
       <c r="B369" s="10"/>
-      <c r="C369" s="11"/>
+      <c r="C369" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="D369" s="13"/>
       <c r="E369" s="12"/>
       <c r="F369" s="12"/>
@@ -18738,7 +18978,9 @@
     <row r="377" spans="2:28">
       <c r="B377" s="10"/>
       <c r="C377" s="11"/>
-      <c r="D377" s="13"/>
+      <c r="D377" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="E377" s="12"/>
       <c r="F377" s="12"/>
       <c r="G377" s="12"/>
@@ -18795,7 +19037,9 @@
     </row>
     <row r="379" spans="2:28">
       <c r="B379" s="10"/>
-      <c r="C379" s="11"/>
+      <c r="C379" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="D379" s="13"/>
       <c r="E379" s="12"/>
       <c r="F379" s="12"/>
@@ -18970,9 +19214,7 @@
     <row r="385" spans="2:28">
       <c r="B385" s="10"/>
       <c r="C385" s="11"/>
-      <c r="D385" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="D385" s="13"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -19407,7 +19649,9 @@
     <row r="400" spans="2:28">
       <c r="B400" s="10"/>
       <c r="C400" s="11"/>
-      <c r="D400" s="13"/>
+      <c r="D400" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E400" s="12"/>
       <c r="F400" s="12"/>
       <c r="G400" s="12"/>
@@ -19494,9 +19738,7 @@
     <row r="403" spans="2:28">
       <c r="B403" s="10"/>
       <c r="C403" s="11"/>
-      <c r="D403" s="42" t="s">
-        <v>70</v>
-      </c>
+      <c r="D403" s="13"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
       <c r="G403" s="12"/>
@@ -19525,9 +19767,7 @@
     <row r="404" spans="2:28">
       <c r="B404" s="10"/>
       <c r="C404" s="11"/>
-      <c r="D404" s="40" t="s">
-        <v>71</v>
-      </c>
+      <c r="D404" s="13"/>
       <c r="E404" s="12"/>
       <c r="F404" s="12"/>
       <c r="G404" s="12"/>
@@ -19556,9 +19796,7 @@
     <row r="405" spans="2:28">
       <c r="B405" s="10"/>
       <c r="C405" s="11"/>
-      <c r="D405" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="D405" s="13"/>
       <c r="E405" s="12"/>
       <c r="F405" s="12"/>
       <c r="G405" s="12"/>
@@ -19587,9 +19825,7 @@
     <row r="406" spans="2:28">
       <c r="B406" s="10"/>
       <c r="C406" s="11"/>
-      <c r="D406" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="D406" s="13"/>
       <c r="E406" s="12"/>
       <c r="F406" s="12"/>
       <c r="G406" s="12"/>
@@ -19644,38 +19880,34 @@
       <c r="AA407" s="12"/>
       <c r="AB407" s="19"/>
     </row>
-    <row r="408" ht="20.1" customHeight="1" spans="2:28">
-      <c r="B408" s="8"/>
-      <c r="C408" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D408" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E408" s="9"/>
-      <c r="F408" s="9"/>
-      <c r="G408" s="9"/>
-      <c r="H408" s="9"/>
-      <c r="I408" s="9"/>
-      <c r="J408" s="9"/>
-      <c r="K408" s="9"/>
-      <c r="L408" s="9"/>
-      <c r="M408" s="9"/>
-      <c r="N408" s="9"/>
-      <c r="O408" s="9"/>
-      <c r="P408" s="9"/>
-      <c r="Q408" s="9"/>
-      <c r="R408" s="9"/>
-      <c r="S408" s="9"/>
-      <c r="T408" s="9"/>
-      <c r="U408" s="9"/>
-      <c r="V408" s="9"/>
-      <c r="W408" s="9"/>
-      <c r="X408" s="9"/>
-      <c r="Y408" s="9"/>
-      <c r="Z408" s="9"/>
-      <c r="AA408" s="9"/>
-      <c r="AB408" s="18"/>
+    <row r="408" spans="2:28">
+      <c r="B408" s="10"/>
+      <c r="C408" s="11"/>
+      <c r="D408" s="13"/>
+      <c r="E408" s="12"/>
+      <c r="F408" s="12"/>
+      <c r="G408" s="12"/>
+      <c r="H408" s="12"/>
+      <c r="I408" s="12"/>
+      <c r="J408" s="12"/>
+      <c r="K408" s="12"/>
+      <c r="L408" s="12"/>
+      <c r="M408" s="12"/>
+      <c r="N408" s="12"/>
+      <c r="O408" s="12"/>
+      <c r="P408" s="12"/>
+      <c r="Q408" s="12"/>
+      <c r="R408" s="12"/>
+      <c r="S408" s="12"/>
+      <c r="T408" s="12"/>
+      <c r="U408" s="12"/>
+      <c r="V408" s="12"/>
+      <c r="W408" s="12"/>
+      <c r="X408" s="12"/>
+      <c r="Y408" s="12"/>
+      <c r="Z408" s="12"/>
+      <c r="AA408" s="12"/>
+      <c r="AB408" s="19"/>
     </row>
     <row r="409" spans="2:28">
       <c r="B409" s="10"/>
@@ -19706,14 +19938,10 @@
       <c r="AA409" s="12"/>
       <c r="AB409" s="19"/>
     </row>
-    <row r="410" ht="15" spans="2:28">
+    <row r="410" spans="2:28">
       <c r="B410" s="10"/>
-      <c r="C410" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D410" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="C410" s="11"/>
+      <c r="D410" s="13"/>
       <c r="E410" s="12"/>
       <c r="F410" s="12"/>
       <c r="G410" s="12"/>
@@ -19770,10 +19998,8 @@
     </row>
     <row r="412" spans="2:28">
       <c r="B412" s="10"/>
-      <c r="C412" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D412" s="21"/>
+      <c r="C412" s="11"/>
+      <c r="D412" s="13"/>
       <c r="E412" s="12"/>
       <c r="F412" s="12"/>
       <c r="G412" s="12"/>
@@ -19801,12 +20027,8 @@
     </row>
     <row r="413" spans="2:28">
       <c r="B413" s="10"/>
-      <c r="C413" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D413" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="C413" s="11"/>
+      <c r="D413" s="13"/>
       <c r="E413" s="12"/>
       <c r="F413" s="12"/>
       <c r="G413" s="12"/>
@@ -19834,12 +20056,8 @@
     </row>
     <row r="414" spans="2:28">
       <c r="B414" s="10"/>
-      <c r="C414" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D414" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="C414" s="11"/>
+      <c r="D414" s="13"/>
       <c r="E414" s="12"/>
       <c r="F414" s="12"/>
       <c r="G414" s="12"/>
@@ -19867,12 +20085,8 @@
     </row>
     <row r="415" spans="2:28">
       <c r="B415" s="10"/>
-      <c r="C415" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D415" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="C415" s="11"/>
+      <c r="D415" s="13"/>
       <c r="E415" s="12"/>
       <c r="F415" s="12"/>
       <c r="G415" s="12"/>
@@ -19929,12 +20143,8 @@
     </row>
     <row r="417" spans="2:28">
       <c r="B417" s="10"/>
-      <c r="C417" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D417" s="23" t="s">
-        <v>80</v>
-      </c>
+      <c r="C417" s="11"/>
+      <c r="D417" s="13"/>
       <c r="E417" s="12"/>
       <c r="F417" s="12"/>
       <c r="G417" s="12"/>
@@ -19963,7 +20173,9 @@
     <row r="418" spans="2:28">
       <c r="B418" s="10"/>
       <c r="C418" s="11"/>
-      <c r="D418" s="13"/>
+      <c r="D418" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -19992,7 +20204,9 @@
     <row r="419" spans="2:28">
       <c r="B419" s="10"/>
       <c r="C419" s="11"/>
-      <c r="D419" s="13"/>
+      <c r="D419" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -20021,7 +20235,9 @@
     <row r="420" spans="2:28">
       <c r="B420" s="10"/>
       <c r="C420" s="11"/>
-      <c r="D420" s="13"/>
+      <c r="D420" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -20050,7 +20266,9 @@
     <row r="421" spans="2:28">
       <c r="B421" s="10"/>
       <c r="C421" s="11"/>
-      <c r="D421" s="13"/>
+      <c r="D421" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -20105,34 +20323,38 @@
       <c r="AA422" s="12"/>
       <c r="AB422" s="19"/>
     </row>
-    <row r="423" spans="2:28">
-      <c r="B423" s="10"/>
-      <c r="C423" s="11"/>
-      <c r="D423" s="13"/>
-      <c r="E423" s="12"/>
-      <c r="F423" s="12"/>
-      <c r="G423" s="12"/>
-      <c r="H423" s="12"/>
-      <c r="I423" s="12"/>
-      <c r="J423" s="12"/>
-      <c r="K423" s="12"/>
-      <c r="L423" s="12"/>
-      <c r="M423" s="12"/>
-      <c r="N423" s="12"/>
-      <c r="O423" s="12"/>
-      <c r="P423" s="12"/>
-      <c r="Q423" s="12"/>
-      <c r="R423" s="12"/>
-      <c r="S423" s="12"/>
-      <c r="T423" s="12"/>
-      <c r="U423" s="12"/>
-      <c r="V423" s="12"/>
-      <c r="W423" s="12"/>
-      <c r="X423" s="12"/>
-      <c r="Y423" s="12"/>
-      <c r="Z423" s="12"/>
-      <c r="AA423" s="12"/>
-      <c r="AB423" s="19"/>
+    <row r="423" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B423" s="8"/>
+      <c r="C423" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D423" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E423" s="9"/>
+      <c r="F423" s="9"/>
+      <c r="G423" s="9"/>
+      <c r="H423" s="9"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="9"/>
+      <c r="K423" s="9"/>
+      <c r="L423" s="9"/>
+      <c r="M423" s="9"/>
+      <c r="N423" s="9"/>
+      <c r="O423" s="9"/>
+      <c r="P423" s="9"/>
+      <c r="Q423" s="9"/>
+      <c r="R423" s="9"/>
+      <c r="S423" s="9"/>
+      <c r="T423" s="9"/>
+      <c r="U423" s="9"/>
+      <c r="V423" s="9"/>
+      <c r="W423" s="9"/>
+      <c r="X423" s="9"/>
+      <c r="Y423" s="9"/>
+      <c r="Z423" s="9"/>
+      <c r="AA423" s="9"/>
+      <c r="AB423" s="18"/>
     </row>
     <row r="424" spans="2:28">
       <c r="B424" s="10"/>
@@ -20163,10 +20385,14 @@
       <c r="AA424" s="12"/>
       <c r="AB424" s="19"/>
     </row>
-    <row r="425" spans="2:28">
+    <row r="425" ht="15" spans="2:28">
       <c r="B425" s="10"/>
-      <c r="C425" s="11"/>
-      <c r="D425" s="13"/>
+      <c r="C425" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D425" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="E425" s="12"/>
       <c r="F425" s="12"/>
       <c r="G425" s="12"/>
@@ -20223,8 +20449,10 @@
     </row>
     <row r="427" spans="2:28">
       <c r="B427" s="10"/>
-      <c r="C427" s="11"/>
-      <c r="D427" s="13"/>
+      <c r="C427" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D427" s="21"/>
       <c r="E427" s="12"/>
       <c r="F427" s="12"/>
       <c r="G427" s="12"/>
@@ -20252,8 +20480,12 @@
     </row>
     <row r="428" spans="2:28">
       <c r="B428" s="10"/>
-      <c r="C428" s="11"/>
-      <c r="D428" s="13"/>
+      <c r="C428" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D428" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="E428" s="12"/>
       <c r="F428" s="12"/>
       <c r="G428" s="12"/>
@@ -20281,8 +20513,12 @@
     </row>
     <row r="429" spans="2:28">
       <c r="B429" s="10"/>
-      <c r="C429" s="11"/>
-      <c r="D429" s="13"/>
+      <c r="C429" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D429" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="E429" s="12"/>
       <c r="F429" s="12"/>
       <c r="G429" s="12"/>
@@ -20310,11 +20546,11 @@
     </row>
     <row r="430" spans="2:28">
       <c r="B430" s="10"/>
-      <c r="C430" s="41" t="s">
-        <v>32</v>
+      <c r="C430" s="34" t="s">
+        <v>21</v>
       </c>
-      <c r="D430" s="23" t="s">
-        <v>81</v>
+      <c r="D430" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="E430" s="12"/>
       <c r="F430" s="12"/>
@@ -20372,8 +20608,12 @@
     </row>
     <row r="432" spans="2:28">
       <c r="B432" s="10"/>
-      <c r="C432" s="11"/>
-      <c r="D432" s="13"/>
+      <c r="C432" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D432" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="E432" s="12"/>
       <c r="F432" s="12"/>
       <c r="G432" s="12"/>
@@ -20749,8 +20989,12 @@
     </row>
     <row r="445" spans="2:28">
       <c r="B445" s="10"/>
-      <c r="C445" s="11"/>
-      <c r="D445" s="13"/>
+      <c r="C445" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D445" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="E445" s="12"/>
       <c r="F445" s="12"/>
       <c r="G445" s="12"/>
@@ -20836,13 +21080,9 @@
     </row>
     <row r="448" spans="2:28">
       <c r="B448" s="10"/>
-      <c r="C448" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="C448" s="11"/>
       <c r="D448" s="13"/>
-      <c r="E448" s="12" t="s">
-        <v>83</v>
-      </c>
+      <c r="E448" s="12"/>
       <c r="F448" s="12"/>
       <c r="G448" s="12"/>
       <c r="H448" s="12"/>
@@ -20871,9 +21111,7 @@
       <c r="B449" s="10"/>
       <c r="C449" s="11"/>
       <c r="D449" s="13"/>
-      <c r="E449" s="12" t="s">
-        <v>84</v>
-      </c>
+      <c r="E449" s="12"/>
       <c r="F449" s="12"/>
       <c r="G449" s="12"/>
       <c r="H449" s="12"/>
@@ -20902,9 +21140,7 @@
       <c r="B450" s="10"/>
       <c r="C450" s="11"/>
       <c r="D450" s="13"/>
-      <c r="E450" s="41" t="s">
-        <v>85</v>
-      </c>
+      <c r="E450" s="12"/>
       <c r="F450" s="12"/>
       <c r="G450" s="12"/>
       <c r="H450" s="12"/>
@@ -20958,1541 +21194,3148 @@
       <c r="AA451" s="12"/>
       <c r="AB451" s="19"/>
     </row>
-    <row r="452" ht="20.1" customHeight="1" spans="2:28">
-      <c r="B452" s="8"/>
-      <c r="C452" s="39" t="s">
+    <row r="452" spans="2:28">
+      <c r="B452" s="10"/>
+      <c r="C452" s="11"/>
+      <c r="D452" s="13"/>
+      <c r="E452" s="12"/>
+      <c r="F452" s="12"/>
+      <c r="G452" s="12"/>
+      <c r="H452" s="12"/>
+      <c r="I452" s="12"/>
+      <c r="J452" s="12"/>
+      <c r="K452" s="12"/>
+      <c r="L452" s="12"/>
+      <c r="M452" s="12"/>
+      <c r="N452" s="12"/>
+      <c r="O452" s="12"/>
+      <c r="P452" s="12"/>
+      <c r="Q452" s="12"/>
+      <c r="R452" s="12"/>
+      <c r="S452" s="12"/>
+      <c r="T452" s="12"/>
+      <c r="U452" s="12"/>
+      <c r="V452" s="12"/>
+      <c r="W452" s="12"/>
+      <c r="X452" s="12"/>
+      <c r="Y452" s="12"/>
+      <c r="Z452" s="12"/>
+      <c r="AA452" s="12"/>
+      <c r="AB452" s="19"/>
+    </row>
+    <row r="453" spans="2:28">
+      <c r="B453" s="10"/>
+      <c r="C453" s="11"/>
+      <c r="D453" s="13"/>
+      <c r="E453" s="12"/>
+      <c r="F453" s="12"/>
+      <c r="G453" s="12"/>
+      <c r="H453" s="12"/>
+      <c r="I453" s="12"/>
+      <c r="J453" s="12"/>
+      <c r="K453" s="12"/>
+      <c r="L453" s="12"/>
+      <c r="M453" s="12"/>
+      <c r="N453" s="12"/>
+      <c r="O453" s="12"/>
+      <c r="P453" s="12"/>
+      <c r="Q453" s="12"/>
+      <c r="R453" s="12"/>
+      <c r="S453" s="12"/>
+      <c r="T453" s="12"/>
+      <c r="U453" s="12"/>
+      <c r="V453" s="12"/>
+      <c r="W453" s="12"/>
+      <c r="X453" s="12"/>
+      <c r="Y453" s="12"/>
+      <c r="Z453" s="12"/>
+      <c r="AA453" s="12"/>
+      <c r="AB453" s="19"/>
+    </row>
+    <row r="454" spans="2:28">
+      <c r="B454" s="10"/>
+      <c r="C454" s="11"/>
+      <c r="D454" s="13"/>
+      <c r="E454" s="12"/>
+      <c r="F454" s="12"/>
+      <c r="G454" s="12"/>
+      <c r="H454" s="12"/>
+      <c r="I454" s="12"/>
+      <c r="J454" s="12"/>
+      <c r="K454" s="12"/>
+      <c r="L454" s="12"/>
+      <c r="M454" s="12"/>
+      <c r="N454" s="12"/>
+      <c r="O454" s="12"/>
+      <c r="P454" s="12"/>
+      <c r="Q454" s="12"/>
+      <c r="R454" s="12"/>
+      <c r="S454" s="12"/>
+      <c r="T454" s="12"/>
+      <c r="U454" s="12"/>
+      <c r="V454" s="12"/>
+      <c r="W454" s="12"/>
+      <c r="X454" s="12"/>
+      <c r="Y454" s="12"/>
+      <c r="Z454" s="12"/>
+      <c r="AA454" s="12"/>
+      <c r="AB454" s="19"/>
+    </row>
+    <row r="455" spans="2:28">
+      <c r="B455" s="10"/>
+      <c r="C455" s="11"/>
+      <c r="D455" s="13"/>
+      <c r="E455" s="12"/>
+      <c r="F455" s="12"/>
+      <c r="G455" s="12"/>
+      <c r="H455" s="12"/>
+      <c r="I455" s="12"/>
+      <c r="J455" s="12"/>
+      <c r="K455" s="12"/>
+      <c r="L455" s="12"/>
+      <c r="M455" s="12"/>
+      <c r="N455" s="12"/>
+      <c r="O455" s="12"/>
+      <c r="P455" s="12"/>
+      <c r="Q455" s="12"/>
+      <c r="R455" s="12"/>
+      <c r="S455" s="12"/>
+      <c r="T455" s="12"/>
+      <c r="U455" s="12"/>
+      <c r="V455" s="12"/>
+      <c r="W455" s="12"/>
+      <c r="X455" s="12"/>
+      <c r="Y455" s="12"/>
+      <c r="Z455" s="12"/>
+      <c r="AA455" s="12"/>
+      <c r="AB455" s="19"/>
+    </row>
+    <row r="456" spans="2:28">
+      <c r="B456" s="10"/>
+      <c r="C456" s="11"/>
+      <c r="D456" s="13"/>
+      <c r="E456" s="12"/>
+      <c r="F456" s="12"/>
+      <c r="G456" s="12"/>
+      <c r="H456" s="12"/>
+      <c r="I456" s="12"/>
+      <c r="J456" s="12"/>
+      <c r="K456" s="12"/>
+      <c r="L456" s="12"/>
+      <c r="M456" s="12"/>
+      <c r="N456" s="12"/>
+      <c r="O456" s="12"/>
+      <c r="P456" s="12"/>
+      <c r="Q456" s="12"/>
+      <c r="R456" s="12"/>
+      <c r="S456" s="12"/>
+      <c r="T456" s="12"/>
+      <c r="U456" s="12"/>
+      <c r="V456" s="12"/>
+      <c r="W456" s="12"/>
+      <c r="X456" s="12"/>
+      <c r="Y456" s="12"/>
+      <c r="Z456" s="12"/>
+      <c r="AA456" s="12"/>
+      <c r="AB456" s="19"/>
+    </row>
+    <row r="457" spans="2:28">
+      <c r="B457" s="10"/>
+      <c r="C457" s="11"/>
+      <c r="D457" s="13"/>
+      <c r="E457" s="12"/>
+      <c r="F457" s="12"/>
+      <c r="G457" s="12"/>
+      <c r="H457" s="12"/>
+      <c r="I457" s="12"/>
+      <c r="J457" s="12"/>
+      <c r="K457" s="12"/>
+      <c r="L457" s="12"/>
+      <c r="M457" s="12"/>
+      <c r="N457" s="12"/>
+      <c r="O457" s="12"/>
+      <c r="P457" s="12"/>
+      <c r="Q457" s="12"/>
+      <c r="R457" s="12"/>
+      <c r="S457" s="12"/>
+      <c r="T457" s="12"/>
+      <c r="U457" s="12"/>
+      <c r="V457" s="12"/>
+      <c r="W457" s="12"/>
+      <c r="X457" s="12"/>
+      <c r="Y457" s="12"/>
+      <c r="Z457" s="12"/>
+      <c r="AA457" s="12"/>
+      <c r="AB457" s="19"/>
+    </row>
+    <row r="458" spans="2:28">
+      <c r="B458" s="10"/>
+      <c r="C458" s="11"/>
+      <c r="D458" s="13"/>
+      <c r="E458" s="12"/>
+      <c r="F458" s="12"/>
+      <c r="G458" s="12"/>
+      <c r="H458" s="12"/>
+      <c r="I458" s="12"/>
+      <c r="J458" s="12"/>
+      <c r="K458" s="12"/>
+      <c r="L458" s="12"/>
+      <c r="M458" s="12"/>
+      <c r="N458" s="12"/>
+      <c r="O458" s="12"/>
+      <c r="P458" s="12"/>
+      <c r="Q458" s="12"/>
+      <c r="R458" s="12"/>
+      <c r="S458" s="12"/>
+      <c r="T458" s="12"/>
+      <c r="U458" s="12"/>
+      <c r="V458" s="12"/>
+      <c r="W458" s="12"/>
+      <c r="X458" s="12"/>
+      <c r="Y458" s="12"/>
+      <c r="Z458" s="12"/>
+      <c r="AA458" s="12"/>
+      <c r="AB458" s="19"/>
+    </row>
+    <row r="459" spans="2:28">
+      <c r="B459" s="10"/>
+      <c r="C459" s="11"/>
+      <c r="D459" s="13"/>
+      <c r="E459" s="12"/>
+      <c r="F459" s="12"/>
+      <c r="G459" s="12"/>
+      <c r="H459" s="12"/>
+      <c r="I459" s="12"/>
+      <c r="J459" s="12"/>
+      <c r="K459" s="12"/>
+      <c r="L459" s="12"/>
+      <c r="M459" s="12"/>
+      <c r="N459" s="12"/>
+      <c r="O459" s="12"/>
+      <c r="P459" s="12"/>
+      <c r="Q459" s="12"/>
+      <c r="R459" s="12"/>
+      <c r="S459" s="12"/>
+      <c r="T459" s="12"/>
+      <c r="U459" s="12"/>
+      <c r="V459" s="12"/>
+      <c r="W459" s="12"/>
+      <c r="X459" s="12"/>
+      <c r="Y459" s="12"/>
+      <c r="Z459" s="12"/>
+      <c r="AA459" s="12"/>
+      <c r="AB459" s="19"/>
+    </row>
+    <row r="460" spans="2:28">
+      <c r="B460" s="10"/>
+      <c r="C460" s="11"/>
+      <c r="D460" s="13"/>
+      <c r="E460" s="12"/>
+      <c r="F460" s="12"/>
+      <c r="G460" s="12"/>
+      <c r="H460" s="12"/>
+      <c r="I460" s="12"/>
+      <c r="J460" s="12"/>
+      <c r="K460" s="12"/>
+      <c r="L460" s="12"/>
+      <c r="M460" s="12"/>
+      <c r="N460" s="12"/>
+      <c r="O460" s="12"/>
+      <c r="P460" s="12"/>
+      <c r="Q460" s="12"/>
+      <c r="R460" s="12"/>
+      <c r="S460" s="12"/>
+      <c r="T460" s="12"/>
+      <c r="U460" s="12"/>
+      <c r="V460" s="12"/>
+      <c r="W460" s="12"/>
+      <c r="X460" s="12"/>
+      <c r="Y460" s="12"/>
+      <c r="Z460" s="12"/>
+      <c r="AA460" s="12"/>
+      <c r="AB460" s="19"/>
+    </row>
+    <row r="461" spans="2:28">
+      <c r="B461" s="10"/>
+      <c r="C461" s="11"/>
+      <c r="D461" s="13"/>
+      <c r="E461" s="12"/>
+      <c r="F461" s="12"/>
+      <c r="G461" s="12"/>
+      <c r="H461" s="12"/>
+      <c r="I461" s="12"/>
+      <c r="J461" s="12"/>
+      <c r="K461" s="12"/>
+      <c r="L461" s="12"/>
+      <c r="M461" s="12"/>
+      <c r="N461" s="12"/>
+      <c r="O461" s="12"/>
+      <c r="P461" s="12"/>
+      <c r="Q461" s="12"/>
+      <c r="R461" s="12"/>
+      <c r="S461" s="12"/>
+      <c r="T461" s="12"/>
+      <c r="U461" s="12"/>
+      <c r="V461" s="12"/>
+      <c r="W461" s="12"/>
+      <c r="X461" s="12"/>
+      <c r="Y461" s="12"/>
+      <c r="Z461" s="12"/>
+      <c r="AA461" s="12"/>
+      <c r="AB461" s="19"/>
+    </row>
+    <row r="462" spans="2:28">
+      <c r="B462" s="10"/>
+      <c r="C462" s="11"/>
+      <c r="D462" s="13"/>
+      <c r="E462" s="12"/>
+      <c r="F462" s="12"/>
+      <c r="G462" s="12"/>
+      <c r="H462" s="12"/>
+      <c r="I462" s="12"/>
+      <c r="J462" s="12"/>
+      <c r="K462" s="12"/>
+      <c r="L462" s="12"/>
+      <c r="M462" s="12"/>
+      <c r="N462" s="12"/>
+      <c r="O462" s="12"/>
+      <c r="P462" s="12"/>
+      <c r="Q462" s="12"/>
+      <c r="R462" s="12"/>
+      <c r="S462" s="12"/>
+      <c r="T462" s="12"/>
+      <c r="U462" s="12"/>
+      <c r="V462" s="12"/>
+      <c r="W462" s="12"/>
+      <c r="X462" s="12"/>
+      <c r="Y462" s="12"/>
+      <c r="Z462" s="12"/>
+      <c r="AA462" s="12"/>
+      <c r="AB462" s="19"/>
+    </row>
+    <row r="463" spans="2:28">
+      <c r="B463" s="10"/>
+      <c r="C463" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D463" s="13"/>
+      <c r="E463" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F463" s="12"/>
+      <c r="G463" s="12"/>
+      <c r="H463" s="12"/>
+      <c r="I463" s="12"/>
+      <c r="J463" s="12"/>
+      <c r="K463" s="12"/>
+      <c r="L463" s="12"/>
+      <c r="M463" s="12"/>
+      <c r="N463" s="12"/>
+      <c r="O463" s="12"/>
+      <c r="P463" s="12"/>
+      <c r="Q463" s="12"/>
+      <c r="R463" s="12"/>
+      <c r="S463" s="12"/>
+      <c r="T463" s="12"/>
+      <c r="U463" s="12"/>
+      <c r="V463" s="12"/>
+      <c r="W463" s="12"/>
+      <c r="X463" s="12"/>
+      <c r="Y463" s="12"/>
+      <c r="Z463" s="12"/>
+      <c r="AA463" s="12"/>
+      <c r="AB463" s="19"/>
+    </row>
+    <row r="464" spans="2:28">
+      <c r="B464" s="10"/>
+      <c r="C464" s="11"/>
+      <c r="D464" s="13"/>
+      <c r="E464" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F464" s="12"/>
+      <c r="G464" s="12"/>
+      <c r="H464" s="12"/>
+      <c r="I464" s="12"/>
+      <c r="J464" s="12"/>
+      <c r="K464" s="12"/>
+      <c r="L464" s="12"/>
+      <c r="M464" s="12"/>
+      <c r="N464" s="12"/>
+      <c r="O464" s="12"/>
+      <c r="P464" s="12"/>
+      <c r="Q464" s="12"/>
+      <c r="R464" s="12"/>
+      <c r="S464" s="12"/>
+      <c r="T464" s="12"/>
+      <c r="U464" s="12"/>
+      <c r="V464" s="12"/>
+      <c r="W464" s="12"/>
+      <c r="X464" s="12"/>
+      <c r="Y464" s="12"/>
+      <c r="Z464" s="12"/>
+      <c r="AA464" s="12"/>
+      <c r="AB464" s="19"/>
+    </row>
+    <row r="465" spans="2:28">
+      <c r="B465" s="10"/>
+      <c r="C465" s="11"/>
+      <c r="D465" s="13"/>
+      <c r="E465" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F465" s="12"/>
+      <c r="G465" s="12"/>
+      <c r="H465" s="12"/>
+      <c r="I465" s="12"/>
+      <c r="J465" s="12"/>
+      <c r="K465" s="12"/>
+      <c r="L465" s="12"/>
+      <c r="M465" s="12"/>
+      <c r="N465" s="12"/>
+      <c r="O465" s="12"/>
+      <c r="P465" s="12"/>
+      <c r="Q465" s="12"/>
+      <c r="R465" s="12"/>
+      <c r="S465" s="12"/>
+      <c r="T465" s="12"/>
+      <c r="U465" s="12"/>
+      <c r="V465" s="12"/>
+      <c r="W465" s="12"/>
+      <c r="X465" s="12"/>
+      <c r="Y465" s="12"/>
+      <c r="Z465" s="12"/>
+      <c r="AA465" s="12"/>
+      <c r="AB465" s="19"/>
+    </row>
+    <row r="466" spans="2:28">
+      <c r="B466" s="10"/>
+      <c r="C466" s="11"/>
+      <c r="D466" s="13"/>
+      <c r="E466" s="12"/>
+      <c r="F466" s="12"/>
+      <c r="G466" s="12"/>
+      <c r="H466" s="12"/>
+      <c r="I466" s="12"/>
+      <c r="J466" s="12"/>
+      <c r="K466" s="12"/>
+      <c r="L466" s="12"/>
+      <c r="M466" s="12"/>
+      <c r="N466" s="12"/>
+      <c r="O466" s="12"/>
+      <c r="P466" s="12"/>
+      <c r="Q466" s="12"/>
+      <c r="R466" s="12"/>
+      <c r="S466" s="12"/>
+      <c r="T466" s="12"/>
+      <c r="U466" s="12"/>
+      <c r="V466" s="12"/>
+      <c r="W466" s="12"/>
+      <c r="X466" s="12"/>
+      <c r="Y466" s="12"/>
+      <c r="Z466" s="12"/>
+      <c r="AA466" s="12"/>
+      <c r="AB466" s="19"/>
+    </row>
+    <row r="467" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B467" s="8"/>
+      <c r="C467" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D452" s="9" t="s">
+      <c r="D467" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E452" s="9"/>
-      <c r="F452" s="9"/>
-      <c r="G452" s="9"/>
-      <c r="H452" s="9"/>
-      <c r="I452" s="9"/>
-      <c r="J452" s="9"/>
-      <c r="K452" s="9"/>
-      <c r="L452" s="9"/>
-      <c r="M452" s="9"/>
-      <c r="N452" s="9"/>
-      <c r="O452" s="9"/>
-      <c r="P452" s="9"/>
-      <c r="Q452" s="9"/>
-      <c r="R452" s="9"/>
-      <c r="S452" s="9"/>
-      <c r="T452" s="9"/>
-      <c r="U452" s="9"/>
-      <c r="V452" s="9"/>
-      <c r="W452" s="9"/>
-      <c r="X452" s="9"/>
-      <c r="Y452" s="9"/>
-      <c r="Z452" s="9"/>
-      <c r="AA452" s="9"/>
-      <c r="AB452" s="18"/>
-    </row>
-    <row r="453" spans="2:28">
-      <c r="B453" s="28"/>
-      <c r="C453" s="29"/>
-      <c r="D453" s="30"/>
-      <c r="E453" s="31"/>
-      <c r="F453" s="31"/>
-      <c r="G453" s="31"/>
-      <c r="H453" s="31"/>
-      <c r="I453" s="31"/>
-      <c r="J453" s="31"/>
-      <c r="K453" s="31"/>
-      <c r="L453" s="31"/>
-      <c r="M453" s="31"/>
-      <c r="N453" s="31"/>
-      <c r="O453" s="31"/>
-      <c r="P453" s="31"/>
-      <c r="Q453" s="31"/>
-      <c r="R453" s="31"/>
-      <c r="S453" s="31"/>
-      <c r="T453" s="31"/>
-      <c r="U453" s="31"/>
-      <c r="V453" s="31"/>
-      <c r="W453" s="31"/>
-      <c r="X453" s="31"/>
-      <c r="Y453" s="31"/>
-      <c r="Z453" s="31"/>
-      <c r="AA453" s="31"/>
-      <c r="AB453" s="37"/>
-    </row>
-    <row r="454" ht="15" spans="2:28">
-      <c r="B454" s="28"/>
-      <c r="C454" s="13" t="s">
+      <c r="E467" s="9"/>
+      <c r="F467" s="9"/>
+      <c r="G467" s="9"/>
+      <c r="H467" s="9"/>
+      <c r="I467" s="9"/>
+      <c r="J467" s="9"/>
+      <c r="K467" s="9"/>
+      <c r="L467" s="9"/>
+      <c r="M467" s="9"/>
+      <c r="N467" s="9"/>
+      <c r="O467" s="9"/>
+      <c r="P467" s="9"/>
+      <c r="Q467" s="9"/>
+      <c r="R467" s="9"/>
+      <c r="S467" s="9"/>
+      <c r="T467" s="9"/>
+      <c r="U467" s="9"/>
+      <c r="V467" s="9"/>
+      <c r="W467" s="9"/>
+      <c r="X467" s="9"/>
+      <c r="Y467" s="9"/>
+      <c r="Z467" s="9"/>
+      <c r="AA467" s="9"/>
+      <c r="AB467" s="18"/>
+    </row>
+    <row r="468" spans="2:28">
+      <c r="B468" s="10"/>
+      <c r="C468" s="11"/>
+      <c r="D468" s="13"/>
+      <c r="E468" s="12"/>
+      <c r="F468" s="12"/>
+      <c r="G468" s="12"/>
+      <c r="H468" s="12"/>
+      <c r="I468" s="12"/>
+      <c r="J468" s="12"/>
+      <c r="K468" s="12"/>
+      <c r="L468" s="12"/>
+      <c r="M468" s="12"/>
+      <c r="N468" s="12"/>
+      <c r="O468" s="12"/>
+      <c r="P468" s="12"/>
+      <c r="Q468" s="12"/>
+      <c r="R468" s="12"/>
+      <c r="S468" s="12"/>
+      <c r="T468" s="12"/>
+      <c r="U468" s="12"/>
+      <c r="V468" s="12"/>
+      <c r="W468" s="12"/>
+      <c r="X468" s="12"/>
+      <c r="Y468" s="12"/>
+      <c r="Z468" s="12"/>
+      <c r="AA468" s="12"/>
+      <c r="AB468" s="19"/>
+    </row>
+    <row r="469" ht="15" spans="2:28">
+      <c r="B469" s="10"/>
+      <c r="C469" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D454" s="13" t="s">
+      <c r="D469" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E454" s="31"/>
-      <c r="F454" s="31"/>
-      <c r="G454" s="31"/>
-      <c r="H454" s="31"/>
-      <c r="I454" s="31"/>
-      <c r="J454" s="31"/>
-      <c r="K454" s="31"/>
-      <c r="L454" s="31"/>
-      <c r="M454" s="31"/>
-      <c r="N454" s="31"/>
-      <c r="O454" s="31"/>
-      <c r="P454" s="31"/>
-      <c r="Q454" s="31"/>
-      <c r="R454" s="31"/>
-      <c r="S454" s="31"/>
-      <c r="T454" s="31"/>
-      <c r="U454" s="31"/>
-      <c r="V454" s="31"/>
-      <c r="W454" s="31"/>
-      <c r="X454" s="31"/>
-      <c r="Y454" s="31"/>
-      <c r="Z454" s="31"/>
-      <c r="AA454" s="31"/>
-      <c r="AB454" s="37"/>
-    </row>
-    <row r="455" ht="15" spans="2:28">
-      <c r="B455" s="28"/>
-      <c r="C455" s="13" t="s">
+      <c r="E469" s="12"/>
+      <c r="F469" s="12"/>
+      <c r="G469" s="12"/>
+      <c r="H469" s="12"/>
+      <c r="I469" s="12"/>
+      <c r="J469" s="12"/>
+      <c r="K469" s="12"/>
+      <c r="L469" s="12"/>
+      <c r="M469" s="12"/>
+      <c r="N469" s="12"/>
+      <c r="O469" s="12"/>
+      <c r="P469" s="12"/>
+      <c r="Q469" s="12"/>
+      <c r="R469" s="12"/>
+      <c r="S469" s="12"/>
+      <c r="T469" s="12"/>
+      <c r="U469" s="12"/>
+      <c r="V469" s="12"/>
+      <c r="W469" s="12"/>
+      <c r="X469" s="12"/>
+      <c r="Y469" s="12"/>
+      <c r="Z469" s="12"/>
+      <c r="AA469" s="12"/>
+      <c r="AB469" s="19"/>
+    </row>
+    <row r="470" ht="15" spans="2:28">
+      <c r="B470" s="10"/>
+      <c r="C470" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D455" s="30" t="s">
+      <c r="D470" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E455" s="31"/>
-      <c r="F455" s="31"/>
-      <c r="G455" s="31"/>
-      <c r="H455" s="31"/>
-      <c r="I455" s="31"/>
-      <c r="J455" s="31"/>
-      <c r="K455" s="31"/>
-      <c r="L455" s="31"/>
-      <c r="M455" s="31"/>
-      <c r="N455" s="31"/>
-      <c r="O455" s="31"/>
-      <c r="P455" s="31"/>
-      <c r="Q455" s="31"/>
-      <c r="R455" s="31"/>
-      <c r="S455" s="31"/>
-      <c r="T455" s="31"/>
-      <c r="U455" s="31"/>
-      <c r="V455" s="31"/>
-      <c r="W455" s="31"/>
-      <c r="X455" s="31"/>
-      <c r="Y455" s="31"/>
-      <c r="Z455" s="31"/>
-      <c r="AA455" s="31"/>
-      <c r="AB455" s="37"/>
-    </row>
-    <row r="456" spans="2:28">
-      <c r="B456" s="28"/>
-      <c r="C456" s="29"/>
-      <c r="D456" s="30"/>
-      <c r="E456" s="31"/>
-      <c r="F456" s="31"/>
-      <c r="G456" s="31"/>
-      <c r="H456" s="31"/>
-      <c r="I456" s="31"/>
-      <c r="J456" s="31"/>
-      <c r="K456" s="31"/>
-      <c r="L456" s="31"/>
-      <c r="M456" s="31"/>
-      <c r="N456" s="31"/>
-      <c r="O456" s="31"/>
-      <c r="P456" s="31"/>
-      <c r="Q456" s="31"/>
-      <c r="R456" s="31"/>
-      <c r="S456" s="31"/>
-      <c r="T456" s="31"/>
-      <c r="U456" s="31"/>
-      <c r="V456" s="31"/>
-      <c r="W456" s="31"/>
-      <c r="X456" s="31"/>
-      <c r="Y456" s="31"/>
-      <c r="Z456" s="31"/>
-      <c r="AA456" s="31"/>
-      <c r="AB456" s="37"/>
-    </row>
-    <row r="457" spans="2:28">
-      <c r="B457" s="28"/>
-      <c r="C457" s="32" t="s">
+      <c r="E470" s="12"/>
+      <c r="F470" s="12"/>
+      <c r="G470" s="12"/>
+      <c r="H470" s="12"/>
+      <c r="I470" s="12"/>
+      <c r="J470" s="12"/>
+      <c r="K470" s="12"/>
+      <c r="L470" s="12"/>
+      <c r="M470" s="12"/>
+      <c r="N470" s="12"/>
+      <c r="O470" s="12"/>
+      <c r="P470" s="12"/>
+      <c r="Q470" s="12"/>
+      <c r="R470" s="12"/>
+      <c r="S470" s="12"/>
+      <c r="T470" s="12"/>
+      <c r="U470" s="12"/>
+      <c r="V470" s="12"/>
+      <c r="W470" s="12"/>
+      <c r="X470" s="12"/>
+      <c r="Y470" s="12"/>
+      <c r="Z470" s="12"/>
+      <c r="AA470" s="12"/>
+      <c r="AB470" s="19"/>
+    </row>
+    <row r="471" spans="2:28">
+      <c r="B471" s="10"/>
+      <c r="C471" s="11"/>
+      <c r="D471" s="13"/>
+      <c r="E471" s="12"/>
+      <c r="F471" s="12"/>
+      <c r="G471" s="12"/>
+      <c r="H471" s="12"/>
+      <c r="I471" s="12"/>
+      <c r="J471" s="12"/>
+      <c r="K471" s="12"/>
+      <c r="L471" s="12"/>
+      <c r="M471" s="12"/>
+      <c r="N471" s="12"/>
+      <c r="O471" s="12"/>
+      <c r="P471" s="12"/>
+      <c r="Q471" s="12"/>
+      <c r="R471" s="12"/>
+      <c r="S471" s="12"/>
+      <c r="T471" s="12"/>
+      <c r="U471" s="12"/>
+      <c r="V471" s="12"/>
+      <c r="W471" s="12"/>
+      <c r="X471" s="12"/>
+      <c r="Y471" s="12"/>
+      <c r="Z471" s="12"/>
+      <c r="AA471" s="12"/>
+      <c r="AB471" s="19"/>
+    </row>
+    <row r="472" spans="2:28">
+      <c r="B472" s="10"/>
+      <c r="C472" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D457" s="30"/>
-      <c r="E457" s="31"/>
-      <c r="F457" s="31"/>
-      <c r="G457" s="31"/>
-      <c r="H457" s="31"/>
-      <c r="I457" s="31"/>
-      <c r="J457" s="31"/>
-      <c r="K457" s="31"/>
-      <c r="L457" s="31"/>
-      <c r="M457" s="31"/>
-      <c r="N457" s="31"/>
-      <c r="O457" s="31"/>
-      <c r="P457" s="31"/>
-      <c r="Q457" s="31"/>
-      <c r="R457" s="31"/>
-      <c r="S457" s="31"/>
-      <c r="T457" s="31"/>
-      <c r="U457" s="31"/>
-      <c r="V457" s="31"/>
-      <c r="W457" s="31"/>
-      <c r="X457" s="31"/>
-      <c r="Y457" s="31"/>
-      <c r="Z457" s="31"/>
-      <c r="AA457" s="31"/>
-      <c r="AB457" s="37"/>
-    </row>
-    <row r="458" spans="2:28">
-      <c r="B458" s="28"/>
-      <c r="C458" s="33" t="s">
+      <c r="D472" s="13"/>
+      <c r="E472" s="12"/>
+      <c r="F472" s="12"/>
+      <c r="G472" s="12"/>
+      <c r="H472" s="12"/>
+      <c r="I472" s="12"/>
+      <c r="J472" s="12"/>
+      <c r="K472" s="12"/>
+      <c r="L472" s="12"/>
+      <c r="M472" s="12"/>
+      <c r="N472" s="12"/>
+      <c r="O472" s="12"/>
+      <c r="P472" s="12"/>
+      <c r="Q472" s="12"/>
+      <c r="R472" s="12"/>
+      <c r="S472" s="12"/>
+      <c r="T472" s="12"/>
+      <c r="U472" s="12"/>
+      <c r="V472" s="12"/>
+      <c r="W472" s="12"/>
+      <c r="X472" s="12"/>
+      <c r="Y472" s="12"/>
+      <c r="Z472" s="12"/>
+      <c r="AA472" s="12"/>
+      <c r="AB472" s="19"/>
+    </row>
+    <row r="473" spans="2:28">
+      <c r="B473" s="10"/>
+      <c r="C473" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D458" s="33"/>
-      <c r="E458" s="33"/>
-      <c r="F458" s="33"/>
-      <c r="G458" s="33"/>
-      <c r="H458" s="33"/>
-      <c r="I458" s="31"/>
-      <c r="J458" s="31"/>
-      <c r="K458" s="31"/>
-      <c r="L458" s="31"/>
-      <c r="M458" s="31"/>
-      <c r="N458" s="31"/>
-      <c r="O458" s="31"/>
-      <c r="P458" s="31"/>
-      <c r="Q458" s="31"/>
-      <c r="R458" s="31"/>
-      <c r="S458" s="31"/>
-      <c r="T458" s="31"/>
-      <c r="U458" s="31"/>
-      <c r="V458" s="31"/>
-      <c r="W458" s="31"/>
-      <c r="X458" s="31"/>
-      <c r="Y458" s="31"/>
-      <c r="Z458" s="31"/>
-      <c r="AA458" s="31"/>
-      <c r="AB458" s="37"/>
-    </row>
-    <row r="459" spans="2:28">
-      <c r="B459" s="28"/>
-      <c r="C459" s="29"/>
-      <c r="J459" s="31"/>
-      <c r="K459" s="31"/>
-      <c r="L459" s="31"/>
-      <c r="M459" s="31"/>
-      <c r="N459" s="31"/>
-      <c r="O459" s="31"/>
-      <c r="P459" s="31"/>
-      <c r="Q459" s="31"/>
-      <c r="R459" s="31"/>
-      <c r="S459" s="31"/>
-      <c r="T459" s="31"/>
-      <c r="U459" s="31"/>
-      <c r="V459" s="31"/>
-      <c r="W459" s="31"/>
-      <c r="X459" s="31"/>
-      <c r="Y459" s="31"/>
-      <c r="Z459" s="31"/>
-      <c r="AA459" s="31"/>
-      <c r="AB459" s="37"/>
-    </row>
-    <row r="460" spans="2:28">
-      <c r="B460" s="28"/>
-      <c r="C460" s="29"/>
-      <c r="D460" s="30"/>
-      <c r="E460" s="31"/>
-      <c r="F460" s="31"/>
-      <c r="G460" s="31"/>
-      <c r="H460" s="31"/>
-      <c r="I460" s="31"/>
-      <c r="J460" s="31"/>
-      <c r="K460" s="31"/>
-      <c r="L460" s="31"/>
-      <c r="M460" s="31"/>
-      <c r="N460" s="31"/>
-      <c r="O460" s="31"/>
-      <c r="P460" s="31"/>
-      <c r="Q460" s="31"/>
-      <c r="R460" s="31"/>
-      <c r="S460" s="31"/>
-      <c r="T460" s="31"/>
-      <c r="U460" s="31"/>
-      <c r="V460" s="31"/>
-      <c r="W460" s="31"/>
-      <c r="X460" s="31"/>
-      <c r="Y460" s="31"/>
-      <c r="Z460" s="31"/>
-      <c r="AA460" s="31"/>
-      <c r="AB460" s="37"/>
-    </row>
-    <row r="461" spans="2:28">
-      <c r="B461" s="28"/>
-      <c r="C461" s="29"/>
-      <c r="D461" s="30"/>
-      <c r="E461" s="31"/>
-      <c r="F461" s="31"/>
-      <c r="G461" s="31"/>
-      <c r="H461" s="31"/>
-      <c r="I461" s="31"/>
-      <c r="J461" s="31"/>
-      <c r="K461" s="31"/>
-      <c r="L461" s="31"/>
-      <c r="M461" s="31"/>
-      <c r="N461" s="31"/>
-      <c r="O461" s="31"/>
-      <c r="P461" s="31"/>
-      <c r="Q461" s="31"/>
-      <c r="R461" s="31"/>
-      <c r="S461" s="31"/>
-      <c r="T461" s="31"/>
-      <c r="U461" s="31"/>
-      <c r="V461" s="31"/>
-      <c r="W461" s="31"/>
-      <c r="X461" s="31"/>
-      <c r="Y461" s="31"/>
-      <c r="Z461" s="31"/>
-      <c r="AA461" s="31"/>
-      <c r="AB461" s="37"/>
-    </row>
-    <row r="462" spans="2:28">
-      <c r="B462" s="28"/>
-      <c r="C462" s="29"/>
-      <c r="D462" s="30"/>
-      <c r="E462" s="31"/>
-      <c r="F462" s="31"/>
-      <c r="G462" s="31"/>
-      <c r="H462" s="31"/>
-      <c r="I462" s="31"/>
-      <c r="J462" s="31"/>
-      <c r="K462" s="31"/>
-      <c r="L462" s="31"/>
-      <c r="M462" s="31"/>
-      <c r="N462" s="31"/>
-      <c r="O462" s="31"/>
-      <c r="P462" s="31"/>
-      <c r="Q462" s="31"/>
-      <c r="R462" s="31"/>
-      <c r="S462" s="31"/>
-      <c r="T462" s="31"/>
-      <c r="U462" s="31"/>
-      <c r="V462" s="31"/>
-      <c r="W462" s="31"/>
-      <c r="X462" s="31"/>
-      <c r="Y462" s="31"/>
-      <c r="Z462" s="31"/>
-      <c r="AA462" s="31"/>
-      <c r="AB462" s="37"/>
-    </row>
-    <row r="463" spans="2:28">
-      <c r="B463" s="28"/>
-      <c r="C463" s="29"/>
-      <c r="D463" s="30"/>
-      <c r="E463" s="31"/>
-      <c r="F463" s="31"/>
-      <c r="G463" s="31"/>
-      <c r="H463" s="31"/>
-      <c r="I463" s="31"/>
-      <c r="J463" s="31"/>
-      <c r="K463" s="31"/>
-      <c r="L463" s="31"/>
-      <c r="M463" s="31"/>
-      <c r="N463" s="31"/>
-      <c r="O463" s="31"/>
-      <c r="P463" s="31"/>
-      <c r="Q463" s="31"/>
-      <c r="R463" s="31"/>
-      <c r="S463" s="31"/>
-      <c r="T463" s="31"/>
-      <c r="U463" s="31"/>
-      <c r="V463" s="31"/>
-      <c r="W463" s="31"/>
-      <c r="X463" s="31"/>
-      <c r="Y463" s="31"/>
-      <c r="Z463" s="31"/>
-      <c r="AA463" s="31"/>
-      <c r="AB463" s="37"/>
-    </row>
-    <row r="464" spans="2:28">
-      <c r="B464" s="28"/>
-      <c r="C464" s="29"/>
-      <c r="D464" s="30"/>
-      <c r="E464" s="31"/>
-      <c r="F464" s="31"/>
-      <c r="G464" s="31"/>
-      <c r="H464" s="31"/>
-      <c r="I464" s="31"/>
-      <c r="J464" s="31"/>
-      <c r="K464" s="31"/>
-      <c r="L464" s="31"/>
-      <c r="M464" s="31"/>
-      <c r="N464" s="31"/>
-      <c r="O464" s="31"/>
-      <c r="P464" s="31"/>
-      <c r="Q464" s="31"/>
-      <c r="R464" s="31"/>
-      <c r="S464" s="31"/>
-      <c r="T464" s="31"/>
-      <c r="U464" s="31"/>
-      <c r="V464" s="31"/>
-      <c r="W464" s="31"/>
-      <c r="X464" s="31"/>
-      <c r="Y464" s="31"/>
-      <c r="Z464" s="31"/>
-      <c r="AA464" s="31"/>
-      <c r="AB464" s="37"/>
-    </row>
-    <row r="465" spans="2:28">
-      <c r="B465" s="28"/>
-      <c r="C465" s="29"/>
-      <c r="D465" s="30"/>
-      <c r="E465" s="31"/>
-      <c r="F465" s="31"/>
-      <c r="G465" s="31"/>
-      <c r="H465" s="31"/>
-      <c r="I465" s="31"/>
-      <c r="J465" s="31"/>
-      <c r="K465" s="31"/>
-      <c r="L465" s="31"/>
-      <c r="M465" s="31"/>
-      <c r="N465" s="31"/>
-      <c r="O465" s="31"/>
-      <c r="P465" s="31"/>
-      <c r="Q465" s="31"/>
-      <c r="R465" s="31"/>
-      <c r="S465" s="31"/>
-      <c r="T465" s="31"/>
-      <c r="U465" s="31"/>
-      <c r="V465" s="31"/>
-      <c r="W465" s="31"/>
-      <c r="X465" s="31"/>
-      <c r="Y465" s="31"/>
-      <c r="Z465" s="31"/>
-      <c r="AA465" s="31"/>
-      <c r="AB465" s="37"/>
-    </row>
-    <row r="466" spans="2:28">
-      <c r="B466" s="28"/>
-      <c r="C466" s="29"/>
-      <c r="D466" s="30"/>
-      <c r="E466" s="31"/>
-      <c r="F466" s="31"/>
-      <c r="G466" s="31"/>
-      <c r="H466" s="31"/>
-      <c r="I466" s="31"/>
-      <c r="J466" s="31"/>
-      <c r="K466" s="31"/>
-      <c r="L466" s="31"/>
-      <c r="M466" s="31"/>
-      <c r="N466" s="31"/>
-      <c r="O466" s="31"/>
-      <c r="P466" s="31"/>
-      <c r="Q466" s="31"/>
-      <c r="R466" s="31"/>
-      <c r="S466" s="31"/>
-      <c r="T466" s="31"/>
-      <c r="U466" s="31"/>
-      <c r="V466" s="31"/>
-      <c r="W466" s="31"/>
-      <c r="X466" s="31"/>
-      <c r="Y466" s="31"/>
-      <c r="Z466" s="31"/>
-      <c r="AA466" s="31"/>
-      <c r="AB466" s="37"/>
-    </row>
-    <row r="467" spans="2:28">
-      <c r="B467" s="28"/>
-      <c r="C467" s="29"/>
-      <c r="D467" s="30"/>
-      <c r="E467" s="31"/>
-      <c r="F467" s="31"/>
-      <c r="G467" s="31"/>
-      <c r="H467" s="31"/>
-      <c r="I467" s="31"/>
-      <c r="J467" s="31"/>
-      <c r="K467" s="31"/>
-      <c r="L467" s="31"/>
-      <c r="M467" s="31"/>
-      <c r="N467" s="31"/>
-      <c r="O467" s="31"/>
-      <c r="P467" s="31"/>
-      <c r="Q467" s="31"/>
-      <c r="R467" s="31"/>
-      <c r="S467" s="31"/>
-      <c r="T467" s="31"/>
-      <c r="U467" s="31"/>
-      <c r="V467" s="31"/>
-      <c r="W467" s="31"/>
-      <c r="X467" s="31"/>
-      <c r="Y467" s="31"/>
-      <c r="Z467" s="31"/>
-      <c r="AA467" s="31"/>
-      <c r="AB467" s="37"/>
-    </row>
-    <row r="468" spans="2:28">
-      <c r="B468" s="28"/>
-      <c r="C468" s="29"/>
-      <c r="D468" s="30"/>
-      <c r="E468" s="31"/>
-      <c r="F468" s="31"/>
-      <c r="G468" s="31"/>
-      <c r="H468" s="31"/>
-      <c r="I468" s="31"/>
-      <c r="J468" s="31"/>
-      <c r="K468" s="31"/>
-      <c r="L468" s="31"/>
-      <c r="M468" s="31"/>
-      <c r="N468" s="31"/>
-      <c r="O468" s="31"/>
-      <c r="P468" s="31"/>
-      <c r="Q468" s="31"/>
-      <c r="R468" s="31"/>
-      <c r="S468" s="31"/>
-      <c r="T468" s="31"/>
-      <c r="U468" s="31"/>
-      <c r="V468" s="31"/>
-      <c r="W468" s="31"/>
-      <c r="X468" s="31"/>
-      <c r="Y468" s="31"/>
-      <c r="Z468" s="31"/>
-      <c r="AA468" s="31"/>
-      <c r="AB468" s="37"/>
-    </row>
-    <row r="469" spans="2:28">
-      <c r="B469" s="28"/>
-      <c r="C469" s="29"/>
-      <c r="D469" s="30"/>
-      <c r="E469" s="31"/>
-      <c r="F469" s="31"/>
-      <c r="G469" s="31"/>
-      <c r="H469" s="31"/>
-      <c r="I469" s="31"/>
-      <c r="J469" s="31"/>
-      <c r="K469" s="31"/>
-      <c r="L469" s="31"/>
-      <c r="M469" s="31"/>
-      <c r="N469" s="31"/>
-      <c r="O469" s="31"/>
-      <c r="P469" s="31"/>
-      <c r="Q469" s="31"/>
-      <c r="R469" s="31"/>
-      <c r="S469" s="31"/>
-      <c r="T469" s="31"/>
-      <c r="U469" s="31"/>
-      <c r="V469" s="31"/>
-      <c r="W469" s="31"/>
-      <c r="X469" s="31"/>
-      <c r="Y469" s="31"/>
-      <c r="Z469" s="31"/>
-      <c r="AA469" s="31"/>
-      <c r="AB469" s="37"/>
-    </row>
-    <row r="470" spans="2:28">
-      <c r="B470" s="28"/>
-      <c r="C470" s="29"/>
-      <c r="D470" s="30"/>
-      <c r="E470" s="31"/>
-      <c r="F470" s="31"/>
-      <c r="G470" s="31"/>
-      <c r="H470" s="31"/>
-      <c r="I470" s="31"/>
-      <c r="J470" s="31"/>
-      <c r="K470" s="31"/>
-      <c r="L470" s="31"/>
-      <c r="M470" s="31"/>
-      <c r="N470" s="31"/>
-      <c r="O470" s="31"/>
-      <c r="P470" s="31"/>
-      <c r="Q470" s="31"/>
-      <c r="R470" s="31"/>
-      <c r="S470" s="31"/>
-      <c r="T470" s="31"/>
-      <c r="U470" s="31"/>
-      <c r="V470" s="31"/>
-      <c r="W470" s="31"/>
-      <c r="X470" s="31"/>
-      <c r="Y470" s="31"/>
-      <c r="Z470" s="31"/>
-      <c r="AA470" s="31"/>
-      <c r="AB470" s="37"/>
-    </row>
-    <row r="471" spans="2:28">
-      <c r="B471" s="28"/>
-      <c r="C471" s="20" t="s">
+      <c r="D473" s="28"/>
+      <c r="E473" s="28"/>
+      <c r="F473" s="28"/>
+      <c r="G473" s="28"/>
+      <c r="H473" s="28"/>
+      <c r="I473" s="12"/>
+      <c r="J473" s="12"/>
+      <c r="K473" s="12"/>
+      <c r="L473" s="12"/>
+      <c r="M473" s="12"/>
+      <c r="N473" s="12"/>
+      <c r="O473" s="12"/>
+      <c r="P473" s="12"/>
+      <c r="Q473" s="12"/>
+      <c r="R473" s="12"/>
+      <c r="S473" s="12"/>
+      <c r="T473" s="12"/>
+      <c r="U473" s="12"/>
+      <c r="V473" s="12"/>
+      <c r="W473" s="12"/>
+      <c r="X473" s="12"/>
+      <c r="Y473" s="12"/>
+      <c r="Z473" s="12"/>
+      <c r="AA473" s="12"/>
+      <c r="AB473" s="19"/>
+    </row>
+    <row r="474" spans="2:28">
+      <c r="B474" s="10"/>
+      <c r="C474" s="11"/>
+      <c r="J474" s="12"/>
+      <c r="K474" s="12"/>
+      <c r="L474" s="12"/>
+      <c r="M474" s="12"/>
+      <c r="N474" s="12"/>
+      <c r="O474" s="12"/>
+      <c r="P474" s="12"/>
+      <c r="Q474" s="12"/>
+      <c r="R474" s="12"/>
+      <c r="S474" s="12"/>
+      <c r="T474" s="12"/>
+      <c r="U474" s="12"/>
+      <c r="V474" s="12"/>
+      <c r="W474" s="12"/>
+      <c r="X474" s="12"/>
+      <c r="Y474" s="12"/>
+      <c r="Z474" s="12"/>
+      <c r="AA474" s="12"/>
+      <c r="AB474" s="19"/>
+    </row>
+    <row r="475" spans="2:28">
+      <c r="B475" s="10"/>
+      <c r="C475" s="11"/>
+      <c r="D475" s="13"/>
+      <c r="E475" s="12"/>
+      <c r="F475" s="12"/>
+      <c r="G475" s="12"/>
+      <c r="H475" s="12"/>
+      <c r="I475" s="12"/>
+      <c r="J475" s="12"/>
+      <c r="K475" s="12"/>
+      <c r="L475" s="12"/>
+      <c r="M475" s="12"/>
+      <c r="N475" s="12"/>
+      <c r="O475" s="12"/>
+      <c r="P475" s="12"/>
+      <c r="Q475" s="12"/>
+      <c r="R475" s="12"/>
+      <c r="S475" s="12"/>
+      <c r="T475" s="12"/>
+      <c r="U475" s="12"/>
+      <c r="V475" s="12"/>
+      <c r="W475" s="12"/>
+      <c r="X475" s="12"/>
+      <c r="Y475" s="12"/>
+      <c r="Z475" s="12"/>
+      <c r="AA475" s="12"/>
+      <c r="AB475" s="19"/>
+    </row>
+    <row r="476" spans="2:28">
+      <c r="B476" s="10"/>
+      <c r="C476" s="11"/>
+      <c r="D476" s="13"/>
+      <c r="E476" s="12"/>
+      <c r="F476" s="12"/>
+      <c r="G476" s="12"/>
+      <c r="H476" s="12"/>
+      <c r="I476" s="12"/>
+      <c r="J476" s="12"/>
+      <c r="K476" s="12"/>
+      <c r="L476" s="12"/>
+      <c r="M476" s="12"/>
+      <c r="N476" s="12"/>
+      <c r="O476" s="12"/>
+      <c r="P476" s="12"/>
+      <c r="Q476" s="12"/>
+      <c r="R476" s="12"/>
+      <c r="S476" s="12"/>
+      <c r="T476" s="12"/>
+      <c r="U476" s="12"/>
+      <c r="V476" s="12"/>
+      <c r="W476" s="12"/>
+      <c r="X476" s="12"/>
+      <c r="Y476" s="12"/>
+      <c r="Z476" s="12"/>
+      <c r="AA476" s="12"/>
+      <c r="AB476" s="19"/>
+    </row>
+    <row r="477" spans="2:28">
+      <c r="B477" s="10"/>
+      <c r="C477" s="11"/>
+      <c r="D477" s="13"/>
+      <c r="E477" s="12"/>
+      <c r="F477" s="12"/>
+      <c r="G477" s="12"/>
+      <c r="H477" s="12"/>
+      <c r="I477" s="12"/>
+      <c r="J477" s="12"/>
+      <c r="K477" s="12"/>
+      <c r="L477" s="12"/>
+      <c r="M477" s="12"/>
+      <c r="N477" s="12"/>
+      <c r="O477" s="12"/>
+      <c r="P477" s="12"/>
+      <c r="Q477" s="12"/>
+      <c r="R477" s="12"/>
+      <c r="S477" s="12"/>
+      <c r="T477" s="12"/>
+      <c r="U477" s="12"/>
+      <c r="V477" s="12"/>
+      <c r="W477" s="12"/>
+      <c r="X477" s="12"/>
+      <c r="Y477" s="12"/>
+      <c r="Z477" s="12"/>
+      <c r="AA477" s="12"/>
+      <c r="AB477" s="19"/>
+    </row>
+    <row r="478" spans="2:28">
+      <c r="B478" s="10"/>
+      <c r="C478" s="11"/>
+      <c r="D478" s="13"/>
+      <c r="E478" s="12"/>
+      <c r="F478" s="12"/>
+      <c r="G478" s="12"/>
+      <c r="H478" s="12"/>
+      <c r="I478" s="12"/>
+      <c r="J478" s="12"/>
+      <c r="K478" s="12"/>
+      <c r="L478" s="12"/>
+      <c r="M478" s="12"/>
+      <c r="N478" s="12"/>
+      <c r="O478" s="12"/>
+      <c r="P478" s="12"/>
+      <c r="Q478" s="12"/>
+      <c r="R478" s="12"/>
+      <c r="S478" s="12"/>
+      <c r="T478" s="12"/>
+      <c r="U478" s="12"/>
+      <c r="V478" s="12"/>
+      <c r="W478" s="12"/>
+      <c r="X478" s="12"/>
+      <c r="Y478" s="12"/>
+      <c r="Z478" s="12"/>
+      <c r="AA478" s="12"/>
+      <c r="AB478" s="19"/>
+    </row>
+    <row r="479" spans="2:28">
+      <c r="B479" s="10"/>
+      <c r="C479" s="11"/>
+      <c r="D479" s="13"/>
+      <c r="E479" s="12"/>
+      <c r="F479" s="12"/>
+      <c r="G479" s="12"/>
+      <c r="H479" s="12"/>
+      <c r="I479" s="12"/>
+      <c r="J479" s="12"/>
+      <c r="K479" s="12"/>
+      <c r="L479" s="12"/>
+      <c r="M479" s="12"/>
+      <c r="N479" s="12"/>
+      <c r="O479" s="12"/>
+      <c r="P479" s="12"/>
+      <c r="Q479" s="12"/>
+      <c r="R479" s="12"/>
+      <c r="S479" s="12"/>
+      <c r="T479" s="12"/>
+      <c r="U479" s="12"/>
+      <c r="V479" s="12"/>
+      <c r="W479" s="12"/>
+      <c r="X479" s="12"/>
+      <c r="Y479" s="12"/>
+      <c r="Z479" s="12"/>
+      <c r="AA479" s="12"/>
+      <c r="AB479" s="19"/>
+    </row>
+    <row r="480" spans="2:28">
+      <c r="B480" s="10"/>
+      <c r="C480" s="11"/>
+      <c r="D480" s="13"/>
+      <c r="E480" s="12"/>
+      <c r="F480" s="12"/>
+      <c r="G480" s="12"/>
+      <c r="H480" s="12"/>
+      <c r="I480" s="12"/>
+      <c r="J480" s="12"/>
+      <c r="K480" s="12"/>
+      <c r="L480" s="12"/>
+      <c r="M480" s="12"/>
+      <c r="N480" s="12"/>
+      <c r="O480" s="12"/>
+      <c r="P480" s="12"/>
+      <c r="Q480" s="12"/>
+      <c r="R480" s="12"/>
+      <c r="S480" s="12"/>
+      <c r="T480" s="12"/>
+      <c r="U480" s="12"/>
+      <c r="V480" s="12"/>
+      <c r="W480" s="12"/>
+      <c r="X480" s="12"/>
+      <c r="Y480" s="12"/>
+      <c r="Z480" s="12"/>
+      <c r="AA480" s="12"/>
+      <c r="AB480" s="19"/>
+    </row>
+    <row r="481" spans="2:28">
+      <c r="B481" s="10"/>
+      <c r="C481" s="11"/>
+      <c r="D481" s="13"/>
+      <c r="E481" s="12"/>
+      <c r="F481" s="12"/>
+      <c r="G481" s="12"/>
+      <c r="H481" s="12"/>
+      <c r="I481" s="12"/>
+      <c r="J481" s="12"/>
+      <c r="K481" s="12"/>
+      <c r="L481" s="12"/>
+      <c r="M481" s="12"/>
+      <c r="N481" s="12"/>
+      <c r="O481" s="12"/>
+      <c r="P481" s="12"/>
+      <c r="Q481" s="12"/>
+      <c r="R481" s="12"/>
+      <c r="S481" s="12"/>
+      <c r="T481" s="12"/>
+      <c r="U481" s="12"/>
+      <c r="V481" s="12"/>
+      <c r="W481" s="12"/>
+      <c r="X481" s="12"/>
+      <c r="Y481" s="12"/>
+      <c r="Z481" s="12"/>
+      <c r="AA481" s="12"/>
+      <c r="AB481" s="19"/>
+    </row>
+    <row r="482" spans="2:28">
+      <c r="B482" s="10"/>
+      <c r="C482" s="11"/>
+      <c r="D482" s="13"/>
+      <c r="E482" s="12"/>
+      <c r="F482" s="12"/>
+      <c r="G482" s="12"/>
+      <c r="H482" s="12"/>
+      <c r="I482" s="12"/>
+      <c r="J482" s="12"/>
+      <c r="K482" s="12"/>
+      <c r="L482" s="12"/>
+      <c r="M482" s="12"/>
+      <c r="N482" s="12"/>
+      <c r="O482" s="12"/>
+      <c r="P482" s="12"/>
+      <c r="Q482" s="12"/>
+      <c r="R482" s="12"/>
+      <c r="S482" s="12"/>
+      <c r="T482" s="12"/>
+      <c r="U482" s="12"/>
+      <c r="V482" s="12"/>
+      <c r="W482" s="12"/>
+      <c r="X482" s="12"/>
+      <c r="Y482" s="12"/>
+      <c r="Z482" s="12"/>
+      <c r="AA482" s="12"/>
+      <c r="AB482" s="19"/>
+    </row>
+    <row r="483" spans="2:28">
+      <c r="B483" s="10"/>
+      <c r="C483" s="11"/>
+      <c r="D483" s="13"/>
+      <c r="E483" s="12"/>
+      <c r="F483" s="12"/>
+      <c r="G483" s="12"/>
+      <c r="H483" s="12"/>
+      <c r="I483" s="12"/>
+      <c r="J483" s="12"/>
+      <c r="K483" s="12"/>
+      <c r="L483" s="12"/>
+      <c r="M483" s="12"/>
+      <c r="N483" s="12"/>
+      <c r="O483" s="12"/>
+      <c r="P483" s="12"/>
+      <c r="Q483" s="12"/>
+      <c r="R483" s="12"/>
+      <c r="S483" s="12"/>
+      <c r="T483" s="12"/>
+      <c r="U483" s="12"/>
+      <c r="V483" s="12"/>
+      <c r="W483" s="12"/>
+      <c r="X483" s="12"/>
+      <c r="Y483" s="12"/>
+      <c r="Z483" s="12"/>
+      <c r="AA483" s="12"/>
+      <c r="AB483" s="19"/>
+    </row>
+    <row r="484" spans="2:28">
+      <c r="B484" s="10"/>
+      <c r="C484" s="11"/>
+      <c r="D484" s="13"/>
+      <c r="E484" s="12"/>
+      <c r="F484" s="12"/>
+      <c r="G484" s="12"/>
+      <c r="H484" s="12"/>
+      <c r="I484" s="12"/>
+      <c r="J484" s="12"/>
+      <c r="K484" s="12"/>
+      <c r="L484" s="12"/>
+      <c r="M484" s="12"/>
+      <c r="N484" s="12"/>
+      <c r="O484" s="12"/>
+      <c r="P484" s="12"/>
+      <c r="Q484" s="12"/>
+      <c r="R484" s="12"/>
+      <c r="S484" s="12"/>
+      <c r="T484" s="12"/>
+      <c r="U484" s="12"/>
+      <c r="V484" s="12"/>
+      <c r="W484" s="12"/>
+      <c r="X484" s="12"/>
+      <c r="Y484" s="12"/>
+      <c r="Z484" s="12"/>
+      <c r="AA484" s="12"/>
+      <c r="AB484" s="19"/>
+    </row>
+    <row r="485" spans="2:28">
+      <c r="B485" s="10"/>
+      <c r="C485" s="11"/>
+      <c r="D485" s="13"/>
+      <c r="E485" s="12"/>
+      <c r="F485" s="12"/>
+      <c r="G485" s="12"/>
+      <c r="H485" s="12"/>
+      <c r="I485" s="12"/>
+      <c r="J485" s="12"/>
+      <c r="K485" s="12"/>
+      <c r="L485" s="12"/>
+      <c r="M485" s="12"/>
+      <c r="N485" s="12"/>
+      <c r="O485" s="12"/>
+      <c r="P485" s="12"/>
+      <c r="Q485" s="12"/>
+      <c r="R485" s="12"/>
+      <c r="S485" s="12"/>
+      <c r="T485" s="12"/>
+      <c r="U485" s="12"/>
+      <c r="V485" s="12"/>
+      <c r="W485" s="12"/>
+      <c r="X485" s="12"/>
+      <c r="Y485" s="12"/>
+      <c r="Z485" s="12"/>
+      <c r="AA485" s="12"/>
+      <c r="AB485" s="19"/>
+    </row>
+    <row r="486" spans="2:28">
+      <c r="B486" s="10"/>
+      <c r="C486" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D471" s="30"/>
-      <c r="E471" s="31"/>
-      <c r="F471" s="31"/>
-      <c r="G471" s="31"/>
-      <c r="H471" s="31"/>
-      <c r="I471" s="31"/>
-      <c r="J471" s="31"/>
-      <c r="K471" s="31"/>
-      <c r="L471" s="31"/>
-      <c r="M471" s="31"/>
-      <c r="N471" s="31"/>
-      <c r="O471" s="31"/>
-      <c r="P471" s="31"/>
-      <c r="Q471" s="31"/>
-      <c r="R471" s="31"/>
-      <c r="S471" s="31"/>
-      <c r="T471" s="31"/>
-      <c r="U471" s="31"/>
-      <c r="V471" s="31"/>
-      <c r="W471" s="31"/>
-      <c r="X471" s="31"/>
-      <c r="Y471" s="31"/>
-      <c r="Z471" s="31"/>
-      <c r="AA471" s="31"/>
-      <c r="AB471" s="37"/>
-    </row>
-    <row r="472" spans="2:28">
-      <c r="B472" s="28"/>
-      <c r="C472" s="40" t="s">
+      <c r="D486" s="13"/>
+      <c r="E486" s="12"/>
+      <c r="F486" s="12"/>
+      <c r="G486" s="12"/>
+      <c r="H486" s="12"/>
+      <c r="I486" s="12"/>
+      <c r="J486" s="12"/>
+      <c r="K486" s="12"/>
+      <c r="L486" s="12"/>
+      <c r="M486" s="12"/>
+      <c r="N486" s="12"/>
+      <c r="O486" s="12"/>
+      <c r="P486" s="12"/>
+      <c r="Q486" s="12"/>
+      <c r="R486" s="12"/>
+      <c r="S486" s="12"/>
+      <c r="T486" s="12"/>
+      <c r="U486" s="12"/>
+      <c r="V486" s="12"/>
+      <c r="W486" s="12"/>
+      <c r="X486" s="12"/>
+      <c r="Y486" s="12"/>
+      <c r="Z486" s="12"/>
+      <c r="AA486" s="12"/>
+      <c r="AB486" s="19"/>
+    </row>
+    <row r="487" spans="2:28">
+      <c r="B487" s="10"/>
+      <c r="C487" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D472" s="12" t="s">
+      <c r="D487" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E472" s="31"/>
-      <c r="F472" s="31"/>
-      <c r="G472" s="31"/>
-      <c r="H472" s="31"/>
-      <c r="I472" s="31"/>
-      <c r="J472" s="31"/>
-      <c r="K472" s="31"/>
-      <c r="L472" s="31"/>
-      <c r="M472" s="31"/>
-      <c r="N472" s="31"/>
-      <c r="O472" s="31"/>
-      <c r="P472" s="31"/>
-      <c r="Q472" s="31"/>
-      <c r="R472" s="31"/>
-      <c r="S472" s="31"/>
-      <c r="T472" s="31"/>
-      <c r="U472" s="31"/>
-      <c r="V472" s="31"/>
-      <c r="W472" s="31"/>
-      <c r="X472" s="31"/>
-      <c r="Y472" s="31"/>
-      <c r="Z472" s="31"/>
-      <c r="AA472" s="31"/>
-      <c r="AB472" s="37"/>
-    </row>
-    <row r="473" spans="2:28">
-      <c r="B473" s="28"/>
-      <c r="C473" s="40" t="s">
+      <c r="E487" s="12"/>
+      <c r="F487" s="12"/>
+      <c r="G487" s="12"/>
+      <c r="H487" s="12"/>
+      <c r="I487" s="12"/>
+      <c r="J487" s="12"/>
+      <c r="K487" s="12"/>
+      <c r="L487" s="12"/>
+      <c r="M487" s="12"/>
+      <c r="N487" s="12"/>
+      <c r="O487" s="12"/>
+      <c r="P487" s="12"/>
+      <c r="Q487" s="12"/>
+      <c r="R487" s="12"/>
+      <c r="S487" s="12"/>
+      <c r="T487" s="12"/>
+      <c r="U487" s="12"/>
+      <c r="V487" s="12"/>
+      <c r="W487" s="12"/>
+      <c r="X487" s="12"/>
+      <c r="Y487" s="12"/>
+      <c r="Z487" s="12"/>
+      <c r="AA487" s="12"/>
+      <c r="AB487" s="19"/>
+    </row>
+    <row r="488" spans="2:28">
+      <c r="B488" s="10"/>
+      <c r="C488" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D473" s="12" t="s">
+      <c r="D488" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E473" s="31"/>
-      <c r="F473" s="31"/>
-      <c r="G473" s="31"/>
-      <c r="H473" s="31"/>
-      <c r="I473" s="31"/>
-      <c r="J473" s="31"/>
-      <c r="K473" s="31"/>
-      <c r="L473" s="31"/>
-      <c r="M473" s="31"/>
-      <c r="N473" s="31"/>
-      <c r="O473" s="31"/>
-      <c r="P473" s="31"/>
-      <c r="Q473" s="31"/>
-      <c r="R473" s="31"/>
-      <c r="S473" s="31"/>
-      <c r="T473" s="31"/>
-      <c r="U473" s="31"/>
-      <c r="V473" s="31"/>
-      <c r="W473" s="31"/>
-      <c r="X473" s="31"/>
-      <c r="Y473" s="31"/>
-      <c r="Z473" s="31"/>
-      <c r="AA473" s="31"/>
-      <c r="AB473" s="37"/>
-    </row>
-    <row r="474" spans="2:28">
-      <c r="B474" s="28"/>
-      <c r="C474" s="40" t="s">
+      <c r="E488" s="12"/>
+      <c r="F488" s="12"/>
+      <c r="G488" s="12"/>
+      <c r="H488" s="12"/>
+      <c r="I488" s="12"/>
+      <c r="J488" s="12"/>
+      <c r="K488" s="12"/>
+      <c r="L488" s="12"/>
+      <c r="M488" s="12"/>
+      <c r="N488" s="12"/>
+      <c r="O488" s="12"/>
+      <c r="P488" s="12"/>
+      <c r="Q488" s="12"/>
+      <c r="R488" s="12"/>
+      <c r="S488" s="12"/>
+      <c r="T488" s="12"/>
+      <c r="U488" s="12"/>
+      <c r="V488" s="12"/>
+      <c r="W488" s="12"/>
+      <c r="X488" s="12"/>
+      <c r="Y488" s="12"/>
+      <c r="Z488" s="12"/>
+      <c r="AA488" s="12"/>
+      <c r="AB488" s="19"/>
+    </row>
+    <row r="489" spans="2:28">
+      <c r="B489" s="10"/>
+      <c r="C489" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D474" s="12" t="s">
+      <c r="D489" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E474" s="31"/>
-      <c r="F474" s="31"/>
-      <c r="G474" s="31"/>
-      <c r="H474" s="31"/>
-      <c r="I474" s="31"/>
-      <c r="J474" s="31"/>
-      <c r="K474" s="31"/>
-      <c r="L474" s="31"/>
-      <c r="M474" s="31"/>
-      <c r="N474" s="31"/>
-      <c r="O474" s="31"/>
-      <c r="P474" s="31"/>
-      <c r="Q474" s="31"/>
-      <c r="R474" s="31"/>
-      <c r="S474" s="31"/>
-      <c r="T474" s="31"/>
-      <c r="U474" s="31"/>
-      <c r="V474" s="31"/>
-      <c r="W474" s="31"/>
-      <c r="X474" s="31"/>
-      <c r="Y474" s="31"/>
-      <c r="Z474" s="31"/>
-      <c r="AA474" s="31"/>
-      <c r="AB474" s="37"/>
-    </row>
-    <row r="475" spans="2:28">
-      <c r="B475" s="28"/>
-      <c r="C475" s="29"/>
-      <c r="D475" s="30"/>
-      <c r="E475" s="31"/>
-      <c r="F475" s="31"/>
-      <c r="G475" s="31"/>
-      <c r="H475" s="31"/>
-      <c r="I475" s="31"/>
-      <c r="J475" s="31"/>
-      <c r="K475" s="31"/>
-      <c r="L475" s="31"/>
-      <c r="M475" s="31"/>
-      <c r="N475" s="31"/>
-      <c r="O475" s="31"/>
-      <c r="P475" s="31"/>
-      <c r="Q475" s="31"/>
-      <c r="R475" s="31"/>
-      <c r="S475" s="31"/>
-      <c r="T475" s="31"/>
-      <c r="U475" s="31"/>
-      <c r="V475" s="31"/>
-      <c r="W475" s="31"/>
-      <c r="X475" s="31"/>
-      <c r="Y475" s="31"/>
-      <c r="Z475" s="31"/>
-      <c r="AA475" s="31"/>
-      <c r="AB475" s="37"/>
-    </row>
-    <row r="476" spans="2:28">
-      <c r="B476" s="28"/>
-      <c r="C476" s="29"/>
-      <c r="D476" s="30"/>
-      <c r="E476" s="31"/>
-      <c r="F476" s="31"/>
-      <c r="G476" s="31"/>
-      <c r="H476" s="31"/>
-      <c r="I476" s="31"/>
-      <c r="J476" s="31"/>
-      <c r="K476" s="31"/>
-      <c r="L476" s="31"/>
-      <c r="M476" s="31"/>
-      <c r="N476" s="31"/>
-      <c r="O476" s="31"/>
-      <c r="P476" s="31"/>
-      <c r="Q476" s="31"/>
-      <c r="R476" s="31"/>
-      <c r="S476" s="31"/>
-      <c r="T476" s="31"/>
-      <c r="U476" s="31"/>
-      <c r="V476" s="31"/>
-      <c r="W476" s="31"/>
-      <c r="X476" s="31"/>
-      <c r="Y476" s="31"/>
-      <c r="Z476" s="31"/>
-      <c r="AA476" s="31"/>
-      <c r="AB476" s="37"/>
-    </row>
-    <row r="477" spans="2:28">
-      <c r="B477" s="28"/>
-      <c r="C477" s="29"/>
-      <c r="D477" s="30"/>
-      <c r="E477" s="31"/>
-      <c r="F477" s="31"/>
-      <c r="G477" s="31"/>
-      <c r="H477" s="31"/>
-      <c r="I477" s="31"/>
-      <c r="J477" s="31"/>
-      <c r="K477" s="31"/>
-      <c r="L477" s="31"/>
-      <c r="M477" s="31"/>
-      <c r="N477" s="31"/>
-      <c r="O477" s="31"/>
-      <c r="P477" s="31"/>
-      <c r="Q477" s="31"/>
-      <c r="R477" s="31"/>
-      <c r="S477" s="31"/>
-      <c r="T477" s="31"/>
-      <c r="U477" s="31"/>
-      <c r="V477" s="31"/>
-      <c r="W477" s="31"/>
-      <c r="X477" s="31"/>
-      <c r="Y477" s="31"/>
-      <c r="Z477" s="31"/>
-      <c r="AA477" s="31"/>
-      <c r="AB477" s="37"/>
-    </row>
-    <row r="478" spans="2:28">
-      <c r="B478" s="28"/>
-      <c r="C478" s="29"/>
-      <c r="D478" s="30"/>
-      <c r="E478" s="31"/>
-      <c r="F478" s="31"/>
-      <c r="G478" s="31"/>
-      <c r="H478" s="31"/>
-      <c r="I478" s="31"/>
-      <c r="J478" s="31"/>
-      <c r="K478" s="31"/>
-      <c r="L478" s="31"/>
-      <c r="M478" s="31"/>
-      <c r="N478" s="31"/>
-      <c r="O478" s="31"/>
-      <c r="P478" s="31"/>
-      <c r="Q478" s="31"/>
-      <c r="R478" s="31"/>
-      <c r="S478" s="31"/>
-      <c r="T478" s="31"/>
-      <c r="U478" s="31"/>
-      <c r="V478" s="31"/>
-      <c r="W478" s="31"/>
-      <c r="X478" s="31"/>
-      <c r="Y478" s="31"/>
-      <c r="Z478" s="31"/>
-      <c r="AA478" s="31"/>
-      <c r="AB478" s="37"/>
-    </row>
-    <row r="479" spans="2:28">
-      <c r="B479" s="28"/>
-      <c r="C479" s="29"/>
-      <c r="D479" s="30"/>
-      <c r="E479" s="31"/>
-      <c r="F479" s="31"/>
-      <c r="G479" s="31"/>
-      <c r="H479" s="31"/>
-      <c r="I479" s="31"/>
-      <c r="J479" s="31"/>
-      <c r="K479" s="31"/>
-      <c r="L479" s="31"/>
-      <c r="M479" s="31"/>
-      <c r="N479" s="31"/>
-      <c r="O479" s="31"/>
-      <c r="P479" s="31"/>
-      <c r="Q479" s="31"/>
-      <c r="R479" s="31"/>
-      <c r="S479" s="31"/>
-      <c r="T479" s="31"/>
-      <c r="U479" s="31"/>
-      <c r="V479" s="31"/>
-      <c r="W479" s="31"/>
-      <c r="X479" s="31"/>
-      <c r="Y479" s="31"/>
-      <c r="Z479" s="31"/>
-      <c r="AA479" s="31"/>
-      <c r="AB479" s="37"/>
-    </row>
-    <row r="480" spans="2:28">
-      <c r="B480" s="28"/>
-      <c r="C480" s="29"/>
-      <c r="D480" s="30"/>
-      <c r="E480" s="31"/>
-      <c r="F480" s="31"/>
-      <c r="G480" s="31"/>
-      <c r="H480" s="31"/>
-      <c r="I480" s="31"/>
-      <c r="J480" s="31"/>
-      <c r="K480" s="31"/>
-      <c r="L480" s="31"/>
-      <c r="M480" s="31"/>
-      <c r="N480" s="31"/>
-      <c r="O480" s="31"/>
-      <c r="P480" s="31"/>
-      <c r="Q480" s="31"/>
-      <c r="R480" s="31"/>
-      <c r="S480" s="31"/>
-      <c r="T480" s="31"/>
-      <c r="U480" s="31"/>
-      <c r="V480" s="31"/>
-      <c r="W480" s="31"/>
-      <c r="X480" s="31"/>
-      <c r="Y480" s="31"/>
-      <c r="Z480" s="31"/>
-      <c r="AA480" s="31"/>
-      <c r="AB480" s="37"/>
-    </row>
-    <row r="481" spans="2:28">
-      <c r="B481" s="28"/>
-      <c r="C481" s="29"/>
-      <c r="D481" s="30"/>
-      <c r="E481" s="31"/>
-      <c r="F481" s="31"/>
-      <c r="G481" s="31"/>
-      <c r="H481" s="31"/>
-      <c r="I481" s="31"/>
-      <c r="J481" s="31"/>
-      <c r="K481" s="31"/>
-      <c r="L481" s="31"/>
-      <c r="M481" s="31"/>
-      <c r="N481" s="31"/>
-      <c r="O481" s="31"/>
-      <c r="P481" s="31"/>
-      <c r="Q481" s="31"/>
-      <c r="R481" s="31"/>
-      <c r="S481" s="31"/>
-      <c r="T481" s="31"/>
-      <c r="U481" s="31"/>
-      <c r="V481" s="31"/>
-      <c r="W481" s="31"/>
-      <c r="X481" s="31"/>
-      <c r="Y481" s="31"/>
-      <c r="Z481" s="31"/>
-      <c r="AA481" s="31"/>
-      <c r="AB481" s="37"/>
-    </row>
-    <row r="482" spans="2:28">
-      <c r="B482" s="28"/>
-      <c r="C482" s="29"/>
-      <c r="D482" s="30"/>
-      <c r="E482" s="31"/>
-      <c r="F482" s="31"/>
-      <c r="G482" s="31"/>
-      <c r="H482" s="31"/>
-      <c r="I482" s="31"/>
-      <c r="J482" s="31"/>
-      <c r="K482" s="31"/>
-      <c r="L482" s="31"/>
-      <c r="M482" s="31"/>
-      <c r="N482" s="31"/>
-      <c r="O482" s="31"/>
-      <c r="P482" s="31"/>
-      <c r="Q482" s="31"/>
-      <c r="R482" s="31"/>
-      <c r="S482" s="31"/>
-      <c r="T482" s="31"/>
-      <c r="U482" s="31"/>
-      <c r="V482" s="31"/>
-      <c r="W482" s="31"/>
-      <c r="X482" s="31"/>
-      <c r="Y482" s="31"/>
-      <c r="Z482" s="31"/>
-      <c r="AA482" s="31"/>
-      <c r="AB482" s="37"/>
-    </row>
-    <row r="483" spans="2:28">
-      <c r="B483" s="28"/>
-      <c r="C483" s="29"/>
-      <c r="D483" s="30"/>
-      <c r="E483" s="31"/>
-      <c r="F483" s="31"/>
-      <c r="G483" s="31"/>
-      <c r="H483" s="31"/>
-      <c r="I483" s="31"/>
-      <c r="J483" s="31"/>
-      <c r="K483" s="31"/>
-      <c r="L483" s="31"/>
-      <c r="M483" s="31"/>
-      <c r="N483" s="31"/>
-      <c r="O483" s="31"/>
-      <c r="P483" s="31"/>
-      <c r="Q483" s="31"/>
-      <c r="R483" s="31"/>
-      <c r="S483" s="31"/>
-      <c r="T483" s="31"/>
-      <c r="U483" s="31"/>
-      <c r="V483" s="31"/>
-      <c r="W483" s="31"/>
-      <c r="X483" s="31"/>
-      <c r="Y483" s="31"/>
-      <c r="Z483" s="31"/>
-      <c r="AA483" s="31"/>
-      <c r="AB483" s="37"/>
-    </row>
-    <row r="484" spans="2:28">
-      <c r="B484" s="28"/>
-      <c r="C484" s="29"/>
-      <c r="D484" s="30"/>
-      <c r="E484" s="31"/>
-      <c r="F484" s="31"/>
-      <c r="G484" s="31"/>
-      <c r="H484" s="31"/>
-      <c r="I484" s="31"/>
-      <c r="J484" s="31"/>
-      <c r="K484" s="31"/>
-      <c r="L484" s="31"/>
-      <c r="M484" s="31"/>
-      <c r="N484" s="31"/>
-      <c r="O484" s="31"/>
-      <c r="P484" s="31"/>
-      <c r="Q484" s="31"/>
-      <c r="R484" s="31"/>
-      <c r="S484" s="31"/>
-      <c r="T484" s="31"/>
-      <c r="U484" s="31"/>
-      <c r="V484" s="31"/>
-      <c r="W484" s="31"/>
-      <c r="X484" s="31"/>
-      <c r="Y484" s="31"/>
-      <c r="Z484" s="31"/>
-      <c r="AA484" s="31"/>
-      <c r="AB484" s="37"/>
-    </row>
-    <row r="485" spans="2:28">
-      <c r="B485" s="28"/>
-      <c r="C485" s="29"/>
-      <c r="D485" s="30"/>
-      <c r="E485" s="31"/>
-      <c r="F485" s="31"/>
-      <c r="G485" s="31"/>
-      <c r="H485" s="31"/>
-      <c r="I485" s="31"/>
-      <c r="J485" s="31"/>
-      <c r="K485" s="31"/>
-      <c r="L485" s="31"/>
-      <c r="M485" s="31"/>
-      <c r="N485" s="31"/>
-      <c r="O485" s="31"/>
-      <c r="P485" s="31"/>
-      <c r="Q485" s="31"/>
-      <c r="R485" s="31"/>
-      <c r="S485" s="31"/>
-      <c r="T485" s="31"/>
-      <c r="U485" s="31"/>
-      <c r="V485" s="31"/>
-      <c r="W485" s="31"/>
-      <c r="X485" s="31"/>
-      <c r="Y485" s="31"/>
-      <c r="Z485" s="31"/>
-      <c r="AA485" s="31"/>
-      <c r="AB485" s="37"/>
-    </row>
-    <row r="486" spans="2:28">
-      <c r="B486" s="28"/>
-      <c r="C486" s="29"/>
-      <c r="D486" s="30"/>
-      <c r="E486" s="31"/>
-      <c r="F486" s="31"/>
-      <c r="G486" s="31"/>
-      <c r="H486" s="31"/>
-      <c r="I486" s="31"/>
-      <c r="J486" s="31"/>
-      <c r="K486" s="31"/>
-      <c r="L486" s="31"/>
-      <c r="M486" s="31"/>
-      <c r="N486" s="31"/>
-      <c r="O486" s="31"/>
-      <c r="P486" s="31"/>
-      <c r="Q486" s="31"/>
-      <c r="R486" s="31"/>
-      <c r="S486" s="31"/>
-      <c r="T486" s="31"/>
-      <c r="U486" s="31"/>
-      <c r="V486" s="31"/>
-      <c r="W486" s="31"/>
-      <c r="X486" s="31"/>
-      <c r="Y486" s="31"/>
-      <c r="Z486" s="31"/>
-      <c r="AA486" s="31"/>
-      <c r="AB486" s="37"/>
-    </row>
-    <row r="487" spans="2:28">
-      <c r="B487" s="28"/>
-      <c r="C487" s="29"/>
-      <c r="D487" s="30"/>
-      <c r="E487" s="31"/>
-      <c r="F487" s="31"/>
-      <c r="G487" s="31"/>
-      <c r="H487" s="31"/>
-      <c r="I487" s="31"/>
-      <c r="J487" s="31"/>
-      <c r="K487" s="31"/>
-      <c r="L487" s="31"/>
-      <c r="M487" s="31"/>
-      <c r="N487" s="31"/>
-      <c r="O487" s="31"/>
-      <c r="P487" s="31"/>
-      <c r="Q487" s="31"/>
-      <c r="R487" s="31"/>
-      <c r="S487" s="31"/>
-      <c r="T487" s="31"/>
-      <c r="U487" s="31"/>
-      <c r="V487" s="31"/>
-      <c r="W487" s="31"/>
-      <c r="X487" s="31"/>
-      <c r="Y487" s="31"/>
-      <c r="Z487" s="31"/>
-      <c r="AA487" s="31"/>
-      <c r="AB487" s="37"/>
-    </row>
-    <row r="488" spans="2:28">
-      <c r="B488" s="28"/>
-      <c r="C488" s="29"/>
-      <c r="D488" s="30"/>
-      <c r="E488" s="31"/>
-      <c r="F488" s="31"/>
-      <c r="G488" s="31"/>
-      <c r="H488" s="31"/>
-      <c r="I488" s="31"/>
-      <c r="J488" s="31"/>
-      <c r="K488" s="31"/>
-      <c r="L488" s="31"/>
-      <c r="M488" s="31"/>
-      <c r="N488" s="31"/>
-      <c r="O488" s="31"/>
-      <c r="P488" s="31"/>
-      <c r="Q488" s="31"/>
-      <c r="R488" s="31"/>
-      <c r="S488" s="31"/>
-      <c r="T488" s="31"/>
-      <c r="U488" s="31"/>
-      <c r="V488" s="31"/>
-      <c r="W488" s="31"/>
-      <c r="X488" s="31"/>
-      <c r="Y488" s="31"/>
-      <c r="Z488" s="31"/>
-      <c r="AA488" s="31"/>
-      <c r="AB488" s="37"/>
-    </row>
-    <row r="489" spans="2:28">
-      <c r="B489" s="28"/>
-      <c r="C489" s="29"/>
-      <c r="D489" s="30"/>
-      <c r="E489" s="31"/>
-      <c r="F489" s="31"/>
-      <c r="G489" s="31"/>
-      <c r="H489" s="31"/>
-      <c r="I489" s="31"/>
-      <c r="J489" s="31"/>
-      <c r="K489" s="31"/>
-      <c r="L489" s="31"/>
-      <c r="M489" s="31"/>
-      <c r="N489" s="31"/>
-      <c r="O489" s="31"/>
-      <c r="P489" s="31"/>
-      <c r="Q489" s="31"/>
-      <c r="R489" s="31"/>
-      <c r="S489" s="31"/>
-      <c r="T489" s="31"/>
-      <c r="U489" s="31"/>
-      <c r="V489" s="31"/>
-      <c r="W489" s="31"/>
-      <c r="X489" s="31"/>
-      <c r="Y489" s="31"/>
-      <c r="Z489" s="31"/>
-      <c r="AA489" s="31"/>
-      <c r="AB489" s="37"/>
+      <c r="E489" s="12"/>
+      <c r="F489" s="12"/>
+      <c r="G489" s="12"/>
+      <c r="H489" s="12"/>
+      <c r="I489" s="12"/>
+      <c r="J489" s="12"/>
+      <c r="K489" s="12"/>
+      <c r="L489" s="12"/>
+      <c r="M489" s="12"/>
+      <c r="N489" s="12"/>
+      <c r="O489" s="12"/>
+      <c r="P489" s="12"/>
+      <c r="Q489" s="12"/>
+      <c r="R489" s="12"/>
+      <c r="S489" s="12"/>
+      <c r="T489" s="12"/>
+      <c r="U489" s="12"/>
+      <c r="V489" s="12"/>
+      <c r="W489" s="12"/>
+      <c r="X489" s="12"/>
+      <c r="Y489" s="12"/>
+      <c r="Z489" s="12"/>
+      <c r="AA489" s="12"/>
+      <c r="AB489" s="19"/>
     </row>
     <row r="490" spans="2:28">
-      <c r="B490" s="28"/>
-      <c r="C490" s="29"/>
-      <c r="D490" s="30"/>
-      <c r="E490" s="31"/>
-      <c r="F490" s="31"/>
-      <c r="G490" s="31"/>
-      <c r="H490" s="31"/>
-      <c r="I490" s="31"/>
-      <c r="J490" s="31"/>
-      <c r="K490" s="31"/>
-      <c r="L490" s="31"/>
-      <c r="M490" s="31"/>
-      <c r="N490" s="31"/>
-      <c r="O490" s="31"/>
-      <c r="P490" s="31"/>
-      <c r="Q490" s="31"/>
-      <c r="R490" s="31"/>
-      <c r="S490" s="31"/>
-      <c r="T490" s="31"/>
-      <c r="U490" s="31"/>
-      <c r="V490" s="31"/>
-      <c r="W490" s="31"/>
-      <c r="X490" s="31"/>
-      <c r="Y490" s="31"/>
-      <c r="Z490" s="31"/>
-      <c r="AA490" s="31"/>
-      <c r="AB490" s="37"/>
+      <c r="B490" s="10"/>
+      <c r="C490" s="11"/>
+      <c r="D490" s="13"/>
+      <c r="E490" s="12"/>
+      <c r="F490" s="12"/>
+      <c r="G490" s="12"/>
+      <c r="H490" s="12"/>
+      <c r="I490" s="12"/>
+      <c r="J490" s="12"/>
+      <c r="K490" s="12"/>
+      <c r="L490" s="12"/>
+      <c r="M490" s="12"/>
+      <c r="N490" s="12"/>
+      <c r="O490" s="12"/>
+      <c r="P490" s="12"/>
+      <c r="Q490" s="12"/>
+      <c r="R490" s="12"/>
+      <c r="S490" s="12"/>
+      <c r="T490" s="12"/>
+      <c r="U490" s="12"/>
+      <c r="V490" s="12"/>
+      <c r="W490" s="12"/>
+      <c r="X490" s="12"/>
+      <c r="Y490" s="12"/>
+      <c r="Z490" s="12"/>
+      <c r="AA490" s="12"/>
+      <c r="AB490" s="19"/>
     </row>
     <row r="491" spans="2:28">
-      <c r="B491" s="28"/>
-      <c r="C491" s="29"/>
-      <c r="D491" s="30"/>
-      <c r="E491" s="31"/>
-      <c r="F491" s="31"/>
-      <c r="G491" s="31"/>
-      <c r="H491" s="31"/>
-      <c r="I491" s="31"/>
-      <c r="J491" s="31"/>
-      <c r="K491" s="31"/>
-      <c r="L491" s="31"/>
-      <c r="M491" s="31"/>
-      <c r="N491" s="31"/>
-      <c r="O491" s="31"/>
-      <c r="P491" s="31"/>
-      <c r="Q491" s="31"/>
-      <c r="R491" s="31"/>
-      <c r="S491" s="31"/>
-      <c r="T491" s="31"/>
-      <c r="U491" s="31"/>
-      <c r="V491" s="31"/>
-      <c r="W491" s="31"/>
-      <c r="X491" s="31"/>
-      <c r="Y491" s="31"/>
-      <c r="Z491" s="31"/>
-      <c r="AA491" s="31"/>
-      <c r="AB491" s="37"/>
+      <c r="B491" s="10"/>
+      <c r="C491" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D491" s="13"/>
+      <c r="E491" s="12"/>
+      <c r="F491" s="12"/>
+      <c r="G491" s="12"/>
+      <c r="H491" s="12"/>
+      <c r="I491" s="12"/>
+      <c r="J491" s="12"/>
+      <c r="K491" s="12"/>
+      <c r="L491" s="12"/>
+      <c r="M491" s="12"/>
+      <c r="N491" s="12"/>
+      <c r="O491" s="12"/>
+      <c r="P491" s="12"/>
+      <c r="Q491" s="12"/>
+      <c r="R491" s="12"/>
+      <c r="S491" s="12"/>
+      <c r="T491" s="12"/>
+      <c r="U491" s="12"/>
+      <c r="V491" s="12"/>
+      <c r="W491" s="12"/>
+      <c r="X491" s="12"/>
+      <c r="Y491" s="12"/>
+      <c r="Z491" s="12"/>
+      <c r="AA491" s="12"/>
+      <c r="AB491" s="19"/>
     </row>
     <row r="492" spans="2:28">
-      <c r="B492" s="28"/>
-      <c r="C492" s="29"/>
-      <c r="D492" s="30"/>
-      <c r="E492" s="31"/>
-      <c r="F492" s="31"/>
-      <c r="G492" s="31"/>
-      <c r="H492" s="31"/>
-      <c r="I492" s="31"/>
-      <c r="J492" s="31"/>
-      <c r="K492" s="31"/>
-      <c r="L492" s="31"/>
-      <c r="M492" s="31"/>
-      <c r="N492" s="31"/>
-      <c r="O492" s="31"/>
-      <c r="P492" s="31"/>
-      <c r="Q492" s="31"/>
-      <c r="R492" s="31"/>
-      <c r="S492" s="31"/>
-      <c r="T492" s="31"/>
-      <c r="U492" s="31"/>
-      <c r="V492" s="31"/>
-      <c r="W492" s="31"/>
-      <c r="X492" s="31"/>
-      <c r="Y492" s="31"/>
-      <c r="Z492" s="31"/>
-      <c r="AA492" s="31"/>
-      <c r="AB492" s="37"/>
+      <c r="B492" s="10"/>
+      <c r="C492" s="11"/>
+      <c r="D492" s="13"/>
+      <c r="E492" s="12"/>
+      <c r="F492" s="12"/>
+      <c r="G492" s="12"/>
+      <c r="H492" s="12"/>
+      <c r="I492" s="12"/>
+      <c r="J492" s="12"/>
+      <c r="K492" s="12"/>
+      <c r="L492" s="12"/>
+      <c r="M492" s="12"/>
+      <c r="N492" s="12"/>
+      <c r="O492" s="12"/>
+      <c r="P492" s="12"/>
+      <c r="Q492" s="12"/>
+      <c r="R492" s="12"/>
+      <c r="S492" s="12"/>
+      <c r="T492" s="12"/>
+      <c r="U492" s="12"/>
+      <c r="V492" s="12"/>
+      <c r="W492" s="12"/>
+      <c r="X492" s="12"/>
+      <c r="Y492" s="12"/>
+      <c r="Z492" s="12"/>
+      <c r="AA492" s="12"/>
+      <c r="AB492" s="19"/>
     </row>
     <row r="493" spans="2:28">
-      <c r="B493" s="28"/>
-      <c r="C493" s="29"/>
-      <c r="D493" s="30"/>
-      <c r="E493" s="31"/>
-      <c r="F493" s="31"/>
-      <c r="G493" s="31"/>
-      <c r="H493" s="31"/>
-      <c r="I493" s="31"/>
-      <c r="J493" s="31"/>
-      <c r="K493" s="31"/>
-      <c r="L493" s="31"/>
-      <c r="M493" s="31"/>
-      <c r="N493" s="31"/>
-      <c r="O493" s="31"/>
-      <c r="P493" s="31"/>
-      <c r="Q493" s="31"/>
-      <c r="R493" s="31"/>
-      <c r="S493" s="31"/>
-      <c r="T493" s="31"/>
-      <c r="U493" s="31"/>
-      <c r="V493" s="31"/>
-      <c r="W493" s="31"/>
-      <c r="X493" s="31"/>
-      <c r="Y493" s="31"/>
-      <c r="Z493" s="31"/>
-      <c r="AA493" s="31"/>
-      <c r="AB493" s="37"/>
+      <c r="B493" s="10"/>
+      <c r="C493" s="11"/>
+      <c r="D493" s="13"/>
+      <c r="E493" s="12"/>
+      <c r="F493" s="12"/>
+      <c r="G493" s="12"/>
+      <c r="H493" s="12"/>
+      <c r="I493" s="12"/>
+      <c r="J493" s="12"/>
+      <c r="K493" s="12"/>
+      <c r="L493" s="12"/>
+      <c r="M493" s="12"/>
+      <c r="N493" s="12"/>
+      <c r="O493" s="12"/>
+      <c r="P493" s="12"/>
+      <c r="Q493" s="12"/>
+      <c r="R493" s="12"/>
+      <c r="S493" s="12"/>
+      <c r="T493" s="12"/>
+      <c r="U493" s="12"/>
+      <c r="V493" s="12"/>
+      <c r="W493" s="12"/>
+      <c r="X493" s="12"/>
+      <c r="Y493" s="12"/>
+      <c r="Z493" s="12"/>
+      <c r="AA493" s="12"/>
+      <c r="AB493" s="19"/>
     </row>
     <row r="494" spans="2:28">
-      <c r="B494" s="28"/>
-      <c r="C494" s="29"/>
-      <c r="D494" s="30"/>
-      <c r="E494" s="31"/>
-      <c r="F494" s="31"/>
-      <c r="G494" s="31"/>
-      <c r="H494" s="31"/>
-      <c r="I494" s="31"/>
-      <c r="J494" s="31"/>
-      <c r="K494" s="31"/>
-      <c r="L494" s="31"/>
-      <c r="M494" s="31"/>
-      <c r="N494" s="31"/>
-      <c r="O494" s="31"/>
-      <c r="P494" s="31"/>
-      <c r="Q494" s="31"/>
-      <c r="R494" s="31"/>
-      <c r="S494" s="31"/>
-      <c r="T494" s="31"/>
-      <c r="U494" s="31"/>
-      <c r="V494" s="31"/>
-      <c r="W494" s="31"/>
-      <c r="X494" s="31"/>
-      <c r="Y494" s="31"/>
-      <c r="Z494" s="31"/>
-      <c r="AA494" s="31"/>
-      <c r="AB494" s="37"/>
+      <c r="B494" s="10"/>
+      <c r="C494" s="11"/>
+      <c r="D494" s="13"/>
+      <c r="E494" s="12"/>
+      <c r="F494" s="12"/>
+      <c r="G494" s="12"/>
+      <c r="H494" s="12"/>
+      <c r="I494" s="12"/>
+      <c r="J494" s="12"/>
+      <c r="K494" s="12"/>
+      <c r="L494" s="12"/>
+      <c r="M494" s="12"/>
+      <c r="N494" s="12"/>
+      <c r="O494" s="12"/>
+      <c r="P494" s="12"/>
+      <c r="Q494" s="12"/>
+      <c r="R494" s="12"/>
+      <c r="S494" s="12"/>
+      <c r="T494" s="12"/>
+      <c r="U494" s="12"/>
+      <c r="V494" s="12"/>
+      <c r="W494" s="12"/>
+      <c r="X494" s="12"/>
+      <c r="Y494" s="12"/>
+      <c r="Z494" s="12"/>
+      <c r="AA494" s="12"/>
+      <c r="AB494" s="19"/>
     </row>
     <row r="495" spans="2:28">
-      <c r="B495" s="28"/>
-      <c r="C495" s="29"/>
-      <c r="D495" s="30"/>
-      <c r="E495" s="31"/>
-      <c r="F495" s="31"/>
-      <c r="G495" s="31"/>
-      <c r="H495" s="31"/>
-      <c r="I495" s="31"/>
-      <c r="J495" s="31"/>
-      <c r="K495" s="31"/>
-      <c r="L495" s="31"/>
-      <c r="M495" s="31"/>
-      <c r="N495" s="31"/>
-      <c r="O495" s="31"/>
-      <c r="P495" s="31"/>
-      <c r="Q495" s="31"/>
-      <c r="R495" s="31"/>
-      <c r="S495" s="31"/>
-      <c r="T495" s="31"/>
-      <c r="U495" s="31"/>
-      <c r="V495" s="31"/>
-      <c r="W495" s="31"/>
-      <c r="X495" s="31"/>
-      <c r="Y495" s="31"/>
-      <c r="Z495" s="31"/>
-      <c r="AA495" s="31"/>
-      <c r="AB495" s="37"/>
+      <c r="B495" s="10"/>
+      <c r="C495" s="11"/>
+      <c r="D495" s="13"/>
+      <c r="E495" s="12"/>
+      <c r="F495" s="12"/>
+      <c r="G495" s="12"/>
+      <c r="H495" s="12"/>
+      <c r="I495" s="12"/>
+      <c r="J495" s="12"/>
+      <c r="K495" s="12"/>
+      <c r="L495" s="12"/>
+      <c r="M495" s="12"/>
+      <c r="N495" s="12"/>
+      <c r="O495" s="12"/>
+      <c r="P495" s="12"/>
+      <c r="Q495" s="12"/>
+      <c r="R495" s="12"/>
+      <c r="S495" s="12"/>
+      <c r="T495" s="12"/>
+      <c r="U495" s="12"/>
+      <c r="V495" s="12"/>
+      <c r="W495" s="12"/>
+      <c r="X495" s="12"/>
+      <c r="Y495" s="12"/>
+      <c r="Z495" s="12"/>
+      <c r="AA495" s="12"/>
+      <c r="AB495" s="19"/>
     </row>
     <row r="496" spans="2:28">
-      <c r="B496" s="28"/>
-      <c r="C496" s="29"/>
-      <c r="D496" s="30"/>
-      <c r="E496" s="31"/>
-      <c r="F496" s="31"/>
-      <c r="G496" s="31"/>
-      <c r="H496" s="31"/>
-      <c r="I496" s="31"/>
-      <c r="J496" s="31"/>
-      <c r="K496" s="31"/>
-      <c r="L496" s="31"/>
-      <c r="M496" s="31"/>
-      <c r="N496" s="31"/>
-      <c r="O496" s="31"/>
-      <c r="P496" s="31"/>
-      <c r="Q496" s="31"/>
-      <c r="R496" s="31"/>
-      <c r="S496" s="31"/>
-      <c r="T496" s="31"/>
-      <c r="U496" s="31"/>
-      <c r="V496" s="31"/>
-      <c r="W496" s="31"/>
-      <c r="X496" s="31"/>
-      <c r="Y496" s="31"/>
-      <c r="Z496" s="31"/>
-      <c r="AA496" s="31"/>
-      <c r="AB496" s="37"/>
+      <c r="B496" s="10"/>
+      <c r="C496" s="11"/>
+      <c r="D496" s="13"/>
+      <c r="E496" s="12"/>
+      <c r="F496" s="12"/>
+      <c r="G496" s="12"/>
+      <c r="H496" s="12"/>
+      <c r="I496" s="12"/>
+      <c r="J496" s="12"/>
+      <c r="K496" s="12"/>
+      <c r="L496" s="12"/>
+      <c r="M496" s="12"/>
+      <c r="N496" s="12"/>
+      <c r="O496" s="12"/>
+      <c r="P496" s="12"/>
+      <c r="Q496" s="12"/>
+      <c r="R496" s="12"/>
+      <c r="S496" s="12"/>
+      <c r="T496" s="12"/>
+      <c r="U496" s="12"/>
+      <c r="V496" s="12"/>
+      <c r="W496" s="12"/>
+      <c r="X496" s="12"/>
+      <c r="Y496" s="12"/>
+      <c r="Z496" s="12"/>
+      <c r="AA496" s="12"/>
+      <c r="AB496" s="19"/>
     </row>
     <row r="497" spans="2:28">
-      <c r="B497" s="28"/>
-      <c r="C497" s="29"/>
-      <c r="D497" s="30"/>
-      <c r="E497" s="31"/>
-      <c r="F497" s="31"/>
-      <c r="G497" s="31"/>
-      <c r="H497" s="31"/>
-      <c r="I497" s="31"/>
-      <c r="J497" s="31"/>
-      <c r="K497" s="31"/>
-      <c r="L497" s="31"/>
-      <c r="M497" s="31"/>
-      <c r="N497" s="31"/>
-      <c r="O497" s="31"/>
-      <c r="P497" s="31"/>
-      <c r="Q497" s="31"/>
-      <c r="R497" s="31"/>
-      <c r="S497" s="31"/>
-      <c r="T497" s="31"/>
-      <c r="U497" s="31"/>
-      <c r="V497" s="31"/>
-      <c r="W497" s="31"/>
-      <c r="X497" s="31"/>
-      <c r="Y497" s="31"/>
-      <c r="Z497" s="31"/>
-      <c r="AA497" s="31"/>
-      <c r="AB497" s="37"/>
+      <c r="B497" s="10"/>
+      <c r="C497" s="11"/>
+      <c r="D497" s="13"/>
+      <c r="E497" s="12"/>
+      <c r="F497" s="12"/>
+      <c r="G497" s="12"/>
+      <c r="H497" s="12"/>
+      <c r="I497" s="12"/>
+      <c r="J497" s="12"/>
+      <c r="K497" s="12"/>
+      <c r="L497" s="12"/>
+      <c r="M497" s="12"/>
+      <c r="N497" s="12"/>
+      <c r="O497" s="12"/>
+      <c r="P497" s="12"/>
+      <c r="Q497" s="12"/>
+      <c r="R497" s="12"/>
+      <c r="S497" s="12"/>
+      <c r="T497" s="12"/>
+      <c r="U497" s="12"/>
+      <c r="V497" s="12"/>
+      <c r="W497" s="12"/>
+      <c r="X497" s="12"/>
+      <c r="Y497" s="12"/>
+      <c r="Z497" s="12"/>
+      <c r="AA497" s="12"/>
+      <c r="AB497" s="19"/>
     </row>
     <row r="498" spans="2:28">
-      <c r="B498" s="28"/>
-      <c r="C498" s="29"/>
-      <c r="D498" s="30"/>
-      <c r="E498" s="31"/>
-      <c r="F498" s="31"/>
-      <c r="G498" s="31"/>
-      <c r="H498" s="31"/>
-      <c r="I498" s="31"/>
-      <c r="J498" s="31"/>
-      <c r="K498" s="31"/>
-      <c r="L498" s="31"/>
-      <c r="M498" s="31"/>
-      <c r="N498" s="31"/>
-      <c r="O498" s="31"/>
-      <c r="P498" s="31"/>
-      <c r="Q498" s="31"/>
-      <c r="R498" s="31"/>
-      <c r="S498" s="31"/>
-      <c r="T498" s="31"/>
-      <c r="U498" s="31"/>
-      <c r="V498" s="31"/>
-      <c r="W498" s="31"/>
-      <c r="X498" s="31"/>
-      <c r="Y498" s="31"/>
-      <c r="Z498" s="31"/>
-      <c r="AA498" s="31"/>
-      <c r="AB498" s="37"/>
+      <c r="B498" s="10"/>
+      <c r="C498" s="11"/>
+      <c r="D498" s="13"/>
+      <c r="E498" s="12"/>
+      <c r="F498" s="12"/>
+      <c r="G498" s="12"/>
+      <c r="H498" s="12"/>
+      <c r="I498" s="12"/>
+      <c r="J498" s="12"/>
+      <c r="K498" s="12"/>
+      <c r="L498" s="12"/>
+      <c r="M498" s="12"/>
+      <c r="N498" s="12"/>
+      <c r="O498" s="12"/>
+      <c r="P498" s="12"/>
+      <c r="Q498" s="12"/>
+      <c r="R498" s="12"/>
+      <c r="S498" s="12"/>
+      <c r="T498" s="12"/>
+      <c r="U498" s="12"/>
+      <c r="V498" s="12"/>
+      <c r="W498" s="12"/>
+      <c r="X498" s="12"/>
+      <c r="Y498" s="12"/>
+      <c r="Z498" s="12"/>
+      <c r="AA498" s="12"/>
+      <c r="AB498" s="19"/>
     </row>
     <row r="499" spans="2:28">
-      <c r="B499" s="28"/>
-      <c r="C499" s="29"/>
-      <c r="D499" s="30"/>
-      <c r="E499" s="31"/>
-      <c r="F499" s="31"/>
-      <c r="G499" s="31"/>
-      <c r="H499" s="31"/>
-      <c r="I499" s="31"/>
-      <c r="J499" s="31"/>
-      <c r="K499" s="31"/>
-      <c r="L499" s="31"/>
-      <c r="M499" s="31"/>
-      <c r="N499" s="31"/>
-      <c r="O499" s="31"/>
-      <c r="P499" s="31"/>
-      <c r="Q499" s="31"/>
-      <c r="R499" s="31"/>
-      <c r="S499" s="31"/>
-      <c r="T499" s="31"/>
-      <c r="U499" s="31"/>
-      <c r="V499" s="31"/>
-      <c r="W499" s="31"/>
-      <c r="X499" s="31"/>
-      <c r="Y499" s="31"/>
-      <c r="Z499" s="31"/>
-      <c r="AA499" s="31"/>
-      <c r="AB499" s="37"/>
+      <c r="B499" s="10"/>
+      <c r="C499" s="11"/>
+      <c r="D499" s="13"/>
+      <c r="E499" s="12"/>
+      <c r="F499" s="12"/>
+      <c r="G499" s="12"/>
+      <c r="H499" s="12"/>
+      <c r="I499" s="12"/>
+      <c r="J499" s="12"/>
+      <c r="K499" s="12"/>
+      <c r="L499" s="12"/>
+      <c r="M499" s="12"/>
+      <c r="N499" s="12"/>
+      <c r="O499" s="12"/>
+      <c r="P499" s="12"/>
+      <c r="Q499" s="12"/>
+      <c r="R499" s="12"/>
+      <c r="S499" s="12"/>
+      <c r="T499" s="12"/>
+      <c r="U499" s="12"/>
+      <c r="V499" s="12"/>
+      <c r="W499" s="12"/>
+      <c r="X499" s="12"/>
+      <c r="Y499" s="12"/>
+      <c r="Z499" s="12"/>
+      <c r="AA499" s="12"/>
+      <c r="AB499" s="19"/>
     </row>
     <row r="500" spans="2:28">
-      <c r="B500" s="28"/>
-      <c r="C500" s="29"/>
-      <c r="D500" s="30"/>
-      <c r="E500" s="31"/>
-      <c r="F500" s="31"/>
-      <c r="G500" s="31"/>
-      <c r="H500" s="31"/>
-      <c r="I500" s="31"/>
-      <c r="J500" s="31"/>
-      <c r="K500" s="31"/>
-      <c r="L500" s="31"/>
-      <c r="M500" s="31"/>
-      <c r="N500" s="31"/>
-      <c r="O500" s="31"/>
-      <c r="P500" s="31"/>
-      <c r="Q500" s="31"/>
-      <c r="R500" s="31"/>
-      <c r="S500" s="31"/>
-      <c r="T500" s="31"/>
-      <c r="U500" s="31"/>
-      <c r="V500" s="31"/>
-      <c r="W500" s="31"/>
-      <c r="X500" s="31"/>
-      <c r="Y500" s="31"/>
-      <c r="Z500" s="31"/>
-      <c r="AA500" s="31"/>
-      <c r="AB500" s="37"/>
+      <c r="B500" s="10"/>
+      <c r="C500" s="11"/>
+      <c r="D500" s="13"/>
+      <c r="E500" s="12"/>
+      <c r="F500" s="12"/>
+      <c r="G500" s="12"/>
+      <c r="H500" s="12"/>
+      <c r="I500" s="12"/>
+      <c r="J500" s="12"/>
+      <c r="K500" s="12"/>
+      <c r="L500" s="12"/>
+      <c r="M500" s="12"/>
+      <c r="N500" s="12"/>
+      <c r="O500" s="12"/>
+      <c r="P500" s="12"/>
+      <c r="Q500" s="12"/>
+      <c r="R500" s="12"/>
+      <c r="S500" s="12"/>
+      <c r="T500" s="12"/>
+      <c r="U500" s="12"/>
+      <c r="V500" s="12"/>
+      <c r="W500" s="12"/>
+      <c r="X500" s="12"/>
+      <c r="Y500" s="12"/>
+      <c r="Z500" s="12"/>
+      <c r="AA500" s="12"/>
+      <c r="AB500" s="19"/>
     </row>
     <row r="501" spans="2:28">
-      <c r="B501" s="28"/>
-      <c r="C501" s="29"/>
-      <c r="D501" s="30"/>
-      <c r="E501" s="31"/>
-      <c r="F501" s="31"/>
-      <c r="G501" s="31"/>
-      <c r="H501" s="31"/>
-      <c r="I501" s="31"/>
-      <c r="J501" s="31"/>
-      <c r="K501" s="31"/>
-      <c r="L501" s="31"/>
-      <c r="M501" s="31"/>
-      <c r="N501" s="31"/>
-      <c r="O501" s="31"/>
-      <c r="P501" s="31"/>
-      <c r="Q501" s="31"/>
-      <c r="R501" s="31"/>
-      <c r="S501" s="31"/>
-      <c r="T501" s="31"/>
-      <c r="U501" s="31"/>
-      <c r="V501" s="31"/>
-      <c r="W501" s="31"/>
-      <c r="X501" s="31"/>
-      <c r="Y501" s="31"/>
-      <c r="Z501" s="31"/>
-      <c r="AA501" s="31"/>
-      <c r="AB501" s="37"/>
+      <c r="B501" s="10"/>
+      <c r="C501" s="11"/>
+      <c r="D501" s="13"/>
+      <c r="E501" s="12"/>
+      <c r="F501" s="12"/>
+      <c r="G501" s="12"/>
+      <c r="H501" s="12"/>
+      <c r="I501" s="12"/>
+      <c r="J501" s="12"/>
+      <c r="K501" s="12"/>
+      <c r="L501" s="12"/>
+      <c r="M501" s="12"/>
+      <c r="N501" s="12"/>
+      <c r="O501" s="12"/>
+      <c r="P501" s="12"/>
+      <c r="Q501" s="12"/>
+      <c r="R501" s="12"/>
+      <c r="S501" s="12"/>
+      <c r="T501" s="12"/>
+      <c r="U501" s="12"/>
+      <c r="V501" s="12"/>
+      <c r="W501" s="12"/>
+      <c r="X501" s="12"/>
+      <c r="Y501" s="12"/>
+      <c r="Z501" s="12"/>
+      <c r="AA501" s="12"/>
+      <c r="AB501" s="19"/>
     </row>
     <row r="502" spans="2:28">
-      <c r="B502" s="28"/>
-      <c r="C502" s="29"/>
-      <c r="D502" s="30"/>
-      <c r="E502" s="31"/>
-      <c r="F502" s="31"/>
-      <c r="G502" s="31"/>
-      <c r="H502" s="31"/>
-      <c r="I502" s="31"/>
-      <c r="J502" s="31"/>
-      <c r="K502" s="31"/>
-      <c r="L502" s="31"/>
-      <c r="M502" s="31"/>
-      <c r="N502" s="31"/>
-      <c r="O502" s="31"/>
-      <c r="P502" s="31"/>
-      <c r="Q502" s="31"/>
-      <c r="R502" s="31"/>
-      <c r="S502" s="31"/>
-      <c r="T502" s="31"/>
-      <c r="U502" s="31"/>
-      <c r="V502" s="31"/>
-      <c r="W502" s="31"/>
-      <c r="X502" s="31"/>
-      <c r="Y502" s="31"/>
-      <c r="Z502" s="31"/>
-      <c r="AA502" s="31"/>
-      <c r="AB502" s="37"/>
+      <c r="B502" s="10"/>
+      <c r="C502" s="11"/>
+      <c r="D502" s="13"/>
+      <c r="E502" s="12"/>
+      <c r="F502" s="12"/>
+      <c r="G502" s="12"/>
+      <c r="H502" s="12"/>
+      <c r="I502" s="12"/>
+      <c r="J502" s="12"/>
+      <c r="K502" s="12"/>
+      <c r="L502" s="12"/>
+      <c r="M502" s="12"/>
+      <c r="N502" s="12"/>
+      <c r="O502" s="12"/>
+      <c r="P502" s="12"/>
+      <c r="Q502" s="12"/>
+      <c r="R502" s="12"/>
+      <c r="S502" s="12"/>
+      <c r="T502" s="12"/>
+      <c r="U502" s="12"/>
+      <c r="V502" s="12"/>
+      <c r="W502" s="12"/>
+      <c r="X502" s="12"/>
+      <c r="Y502" s="12"/>
+      <c r="Z502" s="12"/>
+      <c r="AA502" s="12"/>
+      <c r="AB502" s="19"/>
     </row>
     <row r="503" spans="2:28">
-      <c r="B503" s="34"/>
-      <c r="C503" s="35"/>
-      <c r="D503" s="36"/>
-      <c r="E503" s="36"/>
-      <c r="F503" s="36"/>
-      <c r="G503" s="36"/>
-      <c r="H503" s="36"/>
-      <c r="I503" s="36"/>
-      <c r="J503" s="36"/>
-      <c r="K503" s="36"/>
-      <c r="L503" s="36"/>
-      <c r="M503" s="36"/>
-      <c r="N503" s="36"/>
-      <c r="O503" s="36"/>
-      <c r="P503" s="36"/>
-      <c r="Q503" s="36"/>
-      <c r="R503" s="36"/>
-      <c r="S503" s="36"/>
-      <c r="T503" s="36"/>
-      <c r="U503" s="36"/>
-      <c r="V503" s="36"/>
-      <c r="W503" s="36"/>
-      <c r="X503" s="36"/>
-      <c r="Y503" s="36"/>
-      <c r="Z503" s="36"/>
-      <c r="AA503" s="36"/>
-      <c r="AB503" s="38"/>
+      <c r="B503" s="10"/>
+      <c r="C503" s="11"/>
+      <c r="D503" s="13"/>
+      <c r="E503" s="12"/>
+      <c r="F503" s="12"/>
+      <c r="G503" s="12"/>
+      <c r="H503" s="12"/>
+      <c r="I503" s="12"/>
+      <c r="J503" s="12"/>
+      <c r="K503" s="12"/>
+      <c r="L503" s="12"/>
+      <c r="M503" s="12"/>
+      <c r="N503" s="12"/>
+      <c r="O503" s="12"/>
+      <c r="P503" s="12"/>
+      <c r="Q503" s="12"/>
+      <c r="R503" s="12"/>
+      <c r="S503" s="12"/>
+      <c r="T503" s="12"/>
+      <c r="U503" s="12"/>
+      <c r="V503" s="12"/>
+      <c r="W503" s="12"/>
+      <c r="X503" s="12"/>
+      <c r="Y503" s="12"/>
+      <c r="Z503" s="12"/>
+      <c r="AA503" s="12"/>
+      <c r="AB503" s="19"/>
+    </row>
+    <row r="504" spans="2:28">
+      <c r="B504" s="10"/>
+      <c r="C504" s="11"/>
+      <c r="D504" s="13"/>
+      <c r="E504" s="12"/>
+      <c r="F504" s="12"/>
+      <c r="G504" s="12"/>
+      <c r="H504" s="12"/>
+      <c r="I504" s="12"/>
+      <c r="J504" s="12"/>
+      <c r="K504" s="12"/>
+      <c r="L504" s="12"/>
+      <c r="M504" s="12"/>
+      <c r="N504" s="12"/>
+      <c r="O504" s="12"/>
+      <c r="P504" s="12"/>
+      <c r="Q504" s="12"/>
+      <c r="R504" s="12"/>
+      <c r="S504" s="12"/>
+      <c r="T504" s="12"/>
+      <c r="U504" s="12"/>
+      <c r="V504" s="12"/>
+      <c r="W504" s="12"/>
+      <c r="X504" s="12"/>
+      <c r="Y504" s="12"/>
+      <c r="Z504" s="12"/>
+      <c r="AA504" s="12"/>
+      <c r="AB504" s="19"/>
+    </row>
+    <row r="505" spans="2:28">
+      <c r="B505" s="10"/>
+      <c r="C505" s="11"/>
+      <c r="D505" s="13"/>
+      <c r="E505" s="12"/>
+      <c r="F505" s="12"/>
+      <c r="G505" s="12"/>
+      <c r="H505" s="12"/>
+      <c r="I505" s="12"/>
+      <c r="J505" s="12"/>
+      <c r="K505" s="12"/>
+      <c r="L505" s="12"/>
+      <c r="M505" s="12"/>
+      <c r="N505" s="12"/>
+      <c r="O505" s="12"/>
+      <c r="P505" s="12"/>
+      <c r="Q505" s="12"/>
+      <c r="R505" s="12"/>
+      <c r="S505" s="12"/>
+      <c r="T505" s="12"/>
+      <c r="U505" s="12"/>
+      <c r="V505" s="12"/>
+      <c r="W505" s="12"/>
+      <c r="X505" s="12"/>
+      <c r="Y505" s="12"/>
+      <c r="Z505" s="12"/>
+      <c r="AA505" s="12"/>
+      <c r="AB505" s="19"/>
+    </row>
+    <row r="506" spans="2:28">
+      <c r="B506" s="10"/>
+      <c r="C506" s="11"/>
+      <c r="D506" s="13"/>
+      <c r="E506" s="12"/>
+      <c r="F506" s="12"/>
+      <c r="G506" s="12"/>
+      <c r="H506" s="12"/>
+      <c r="I506" s="12"/>
+      <c r="J506" s="12"/>
+      <c r="K506" s="12"/>
+      <c r="L506" s="12"/>
+      <c r="M506" s="12"/>
+      <c r="N506" s="12"/>
+      <c r="O506" s="12"/>
+      <c r="P506" s="12"/>
+      <c r="Q506" s="12"/>
+      <c r="R506" s="12"/>
+      <c r="S506" s="12"/>
+      <c r="T506" s="12"/>
+      <c r="U506" s="12"/>
+      <c r="V506" s="12"/>
+      <c r="W506" s="12"/>
+      <c r="X506" s="12"/>
+      <c r="Y506" s="12"/>
+      <c r="Z506" s="12"/>
+      <c r="AA506" s="12"/>
+      <c r="AB506" s="19"/>
+    </row>
+    <row r="507" spans="2:28">
+      <c r="B507" s="10"/>
+      <c r="C507" s="11"/>
+      <c r="D507" s="13"/>
+      <c r="E507" s="12"/>
+      <c r="F507" s="12"/>
+      <c r="G507" s="12"/>
+      <c r="H507" s="12"/>
+      <c r="I507" s="12"/>
+      <c r="J507" s="12"/>
+      <c r="K507" s="12"/>
+      <c r="L507" s="12"/>
+      <c r="M507" s="12"/>
+      <c r="N507" s="12"/>
+      <c r="O507" s="12"/>
+      <c r="P507" s="12"/>
+      <c r="Q507" s="12"/>
+      <c r="R507" s="12"/>
+      <c r="S507" s="12"/>
+      <c r="T507" s="12"/>
+      <c r="U507" s="12"/>
+      <c r="V507" s="12"/>
+      <c r="W507" s="12"/>
+      <c r="X507" s="12"/>
+      <c r="Y507" s="12"/>
+      <c r="Z507" s="12"/>
+      <c r="AA507" s="12"/>
+      <c r="AB507" s="19"/>
+    </row>
+    <row r="508" spans="2:28">
+      <c r="B508" s="10"/>
+      <c r="C508" s="11"/>
+      <c r="D508" s="13"/>
+      <c r="E508" s="12"/>
+      <c r="F508" s="12"/>
+      <c r="G508" s="12"/>
+      <c r="H508" s="12"/>
+      <c r="I508" s="12"/>
+      <c r="J508" s="12"/>
+      <c r="K508" s="12"/>
+      <c r="L508" s="12"/>
+      <c r="M508" s="12"/>
+      <c r="N508" s="12"/>
+      <c r="O508" s="12"/>
+      <c r="P508" s="12"/>
+      <c r="Q508" s="12"/>
+      <c r="R508" s="12"/>
+      <c r="S508" s="12"/>
+      <c r="T508" s="12"/>
+      <c r="U508" s="12"/>
+      <c r="V508" s="12"/>
+      <c r="W508" s="12"/>
+      <c r="X508" s="12"/>
+      <c r="Y508" s="12"/>
+      <c r="Z508" s="12"/>
+      <c r="AA508" s="12"/>
+      <c r="AB508" s="19"/>
+    </row>
+    <row r="509" spans="2:28">
+      <c r="B509" s="10"/>
+      <c r="C509" s="11"/>
+      <c r="D509" s="13"/>
+      <c r="E509" s="12"/>
+      <c r="F509" s="12"/>
+      <c r="G509" s="12"/>
+      <c r="H509" s="12"/>
+      <c r="I509" s="12"/>
+      <c r="J509" s="12"/>
+      <c r="K509" s="12"/>
+      <c r="L509" s="12"/>
+      <c r="M509" s="12"/>
+      <c r="N509" s="12"/>
+      <c r="O509" s="12"/>
+      <c r="P509" s="12"/>
+      <c r="Q509" s="12"/>
+      <c r="R509" s="12"/>
+      <c r="S509" s="12"/>
+      <c r="T509" s="12"/>
+      <c r="U509" s="12"/>
+      <c r="V509" s="12"/>
+      <c r="W509" s="12"/>
+      <c r="X509" s="12"/>
+      <c r="Y509" s="12"/>
+      <c r="Z509" s="12"/>
+      <c r="AA509" s="12"/>
+      <c r="AB509" s="19"/>
+    </row>
+    <row r="510" spans="2:28">
+      <c r="B510" s="10"/>
+      <c r="C510" s="11"/>
+      <c r="D510" s="13"/>
+      <c r="E510" s="12"/>
+      <c r="F510" s="12"/>
+      <c r="G510" s="12"/>
+      <c r="H510" s="12"/>
+      <c r="I510" s="12"/>
+      <c r="J510" s="12"/>
+      <c r="K510" s="12"/>
+      <c r="L510" s="12"/>
+      <c r="M510" s="12"/>
+      <c r="N510" s="12"/>
+      <c r="O510" s="12"/>
+      <c r="P510" s="12"/>
+      <c r="Q510" s="12"/>
+      <c r="R510" s="12"/>
+      <c r="S510" s="12"/>
+      <c r="T510" s="12"/>
+      <c r="U510" s="12"/>
+      <c r="V510" s="12"/>
+      <c r="W510" s="12"/>
+      <c r="X510" s="12"/>
+      <c r="Y510" s="12"/>
+      <c r="Z510" s="12"/>
+      <c r="AA510" s="12"/>
+      <c r="AB510" s="19"/>
+    </row>
+    <row r="511" spans="2:28">
+      <c r="B511" s="10"/>
+      <c r="C511" s="11"/>
+      <c r="D511" s="13"/>
+      <c r="E511" s="12"/>
+      <c r="F511" s="12"/>
+      <c r="G511" s="12"/>
+      <c r="H511" s="12"/>
+      <c r="I511" s="12"/>
+      <c r="J511" s="12"/>
+      <c r="K511" s="12"/>
+      <c r="L511" s="12"/>
+      <c r="M511" s="12"/>
+      <c r="N511" s="12"/>
+      <c r="O511" s="12"/>
+      <c r="P511" s="12"/>
+      <c r="Q511" s="12"/>
+      <c r="R511" s="12"/>
+      <c r="S511" s="12"/>
+      <c r="T511" s="12"/>
+      <c r="U511" s="12"/>
+      <c r="V511" s="12"/>
+      <c r="W511" s="12"/>
+      <c r="X511" s="12"/>
+      <c r="Y511" s="12"/>
+      <c r="Z511" s="12"/>
+      <c r="AA511" s="12"/>
+      <c r="AB511" s="19"/>
+    </row>
+    <row r="512" spans="2:28">
+      <c r="B512" s="10"/>
+      <c r="C512" s="11"/>
+      <c r="D512" s="13"/>
+      <c r="E512" s="12"/>
+      <c r="F512" s="12"/>
+      <c r="G512" s="12"/>
+      <c r="H512" s="12"/>
+      <c r="I512" s="12"/>
+      <c r="J512" s="12"/>
+      <c r="K512" s="12"/>
+      <c r="L512" s="12"/>
+      <c r="M512" s="12"/>
+      <c r="N512" s="12"/>
+      <c r="O512" s="12"/>
+      <c r="P512" s="12"/>
+      <c r="Q512" s="12"/>
+      <c r="R512" s="12"/>
+      <c r="S512" s="12"/>
+      <c r="T512" s="12"/>
+      <c r="U512" s="12"/>
+      <c r="V512" s="12"/>
+      <c r="W512" s="12"/>
+      <c r="X512" s="12"/>
+      <c r="Y512" s="12"/>
+      <c r="Z512" s="12"/>
+      <c r="AA512" s="12"/>
+      <c r="AB512" s="19"/>
+    </row>
+    <row r="513" spans="2:28">
+      <c r="B513" s="10"/>
+      <c r="C513" s="11"/>
+      <c r="D513" s="13"/>
+      <c r="E513" s="12"/>
+      <c r="F513" s="12"/>
+      <c r="G513" s="12"/>
+      <c r="H513" s="12"/>
+      <c r="I513" s="12"/>
+      <c r="J513" s="12"/>
+      <c r="K513" s="12"/>
+      <c r="L513" s="12"/>
+      <c r="M513" s="12"/>
+      <c r="N513" s="12"/>
+      <c r="O513" s="12"/>
+      <c r="P513" s="12"/>
+      <c r="Q513" s="12"/>
+      <c r="R513" s="12"/>
+      <c r="S513" s="12"/>
+      <c r="T513" s="12"/>
+      <c r="U513" s="12"/>
+      <c r="V513" s="12"/>
+      <c r="W513" s="12"/>
+      <c r="X513" s="12"/>
+      <c r="Y513" s="12"/>
+      <c r="Z513" s="12"/>
+      <c r="AA513" s="12"/>
+      <c r="AB513" s="19"/>
+    </row>
+    <row r="514" spans="2:28">
+      <c r="B514" s="10"/>
+      <c r="C514" s="11"/>
+      <c r="D514" s="13"/>
+      <c r="E514" s="12"/>
+      <c r="F514" s="12"/>
+      <c r="G514" s="12"/>
+      <c r="H514" s="12"/>
+      <c r="I514" s="12"/>
+      <c r="J514" s="12"/>
+      <c r="K514" s="12"/>
+      <c r="L514" s="12"/>
+      <c r="M514" s="12"/>
+      <c r="N514" s="12"/>
+      <c r="O514" s="12"/>
+      <c r="P514" s="12"/>
+      <c r="Q514" s="12"/>
+      <c r="R514" s="12"/>
+      <c r="S514" s="12"/>
+      <c r="T514" s="12"/>
+      <c r="U514" s="12"/>
+      <c r="V514" s="12"/>
+      <c r="W514" s="12"/>
+      <c r="X514" s="12"/>
+      <c r="Y514" s="12"/>
+      <c r="Z514" s="12"/>
+      <c r="AA514" s="12"/>
+      <c r="AB514" s="19"/>
+    </row>
+    <row r="515" spans="2:28">
+      <c r="B515" s="10"/>
+      <c r="C515" s="11"/>
+      <c r="D515" s="13"/>
+      <c r="E515" s="12"/>
+      <c r="F515" s="12"/>
+      <c r="G515" s="12"/>
+      <c r="H515" s="12"/>
+      <c r="I515" s="12"/>
+      <c r="J515" s="12"/>
+      <c r="K515" s="12"/>
+      <c r="L515" s="12"/>
+      <c r="M515" s="12"/>
+      <c r="N515" s="12"/>
+      <c r="O515" s="12"/>
+      <c r="P515" s="12"/>
+      <c r="Q515" s="12"/>
+      <c r="R515" s="12"/>
+      <c r="S515" s="12"/>
+      <c r="T515" s="12"/>
+      <c r="U515" s="12"/>
+      <c r="V515" s="12"/>
+      <c r="W515" s="12"/>
+      <c r="X515" s="12"/>
+      <c r="Y515" s="12"/>
+      <c r="Z515" s="12"/>
+      <c r="AA515" s="12"/>
+      <c r="AB515" s="19"/>
+    </row>
+    <row r="516" spans="2:28">
+      <c r="B516" s="10"/>
+      <c r="C516" s="11"/>
+      <c r="D516" s="13"/>
+      <c r="E516" s="12"/>
+      <c r="F516" s="12"/>
+      <c r="G516" s="12"/>
+      <c r="H516" s="12"/>
+      <c r="I516" s="12"/>
+      <c r="J516" s="12"/>
+      <c r="K516" s="12"/>
+      <c r="L516" s="12"/>
+      <c r="M516" s="12"/>
+      <c r="N516" s="12"/>
+      <c r="O516" s="12"/>
+      <c r="P516" s="12"/>
+      <c r="Q516" s="12"/>
+      <c r="R516" s="12"/>
+      <c r="S516" s="12"/>
+      <c r="T516" s="12"/>
+      <c r="U516" s="12"/>
+      <c r="V516" s="12"/>
+      <c r="W516" s="12"/>
+      <c r="X516" s="12"/>
+      <c r="Y516" s="12"/>
+      <c r="Z516" s="12"/>
+      <c r="AA516" s="12"/>
+      <c r="AB516" s="19"/>
+    </row>
+    <row r="517" spans="2:28">
+      <c r="B517" s="10"/>
+      <c r="C517" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D517" s="13"/>
+      <c r="E517" s="12"/>
+      <c r="F517" s="12"/>
+      <c r="G517" s="12"/>
+      <c r="H517" s="12"/>
+      <c r="I517" s="12"/>
+      <c r="J517" s="12"/>
+      <c r="K517" s="12"/>
+      <c r="L517" s="12"/>
+      <c r="M517" s="12"/>
+      <c r="N517" s="12"/>
+      <c r="O517" s="12"/>
+      <c r="P517" s="12"/>
+      <c r="Q517" s="12"/>
+      <c r="R517" s="12"/>
+      <c r="S517" s="12"/>
+      <c r="T517" s="12"/>
+      <c r="U517" s="12"/>
+      <c r="V517" s="12"/>
+      <c r="W517" s="12"/>
+      <c r="X517" s="12"/>
+      <c r="Y517" s="12"/>
+      <c r="Z517" s="12"/>
+      <c r="AA517" s="12"/>
+      <c r="AB517" s="19"/>
+    </row>
+    <row r="518" spans="2:28">
+      <c r="B518" s="10"/>
+      <c r="C518" s="11"/>
+      <c r="D518" s="13"/>
+      <c r="E518" s="12"/>
+      <c r="F518" s="12"/>
+      <c r="G518" s="12"/>
+      <c r="H518" s="12"/>
+      <c r="I518" s="12"/>
+      <c r="J518" s="12"/>
+      <c r="K518" s="12"/>
+      <c r="L518" s="12"/>
+      <c r="M518" s="12"/>
+      <c r="N518" s="12"/>
+      <c r="O518" s="12"/>
+      <c r="P518" s="12"/>
+      <c r="Q518" s="12"/>
+      <c r="R518" s="12"/>
+      <c r="S518" s="12"/>
+      <c r="T518" s="12"/>
+      <c r="U518" s="12"/>
+      <c r="V518" s="12"/>
+      <c r="W518" s="12"/>
+      <c r="X518" s="12"/>
+      <c r="Y518" s="12"/>
+      <c r="Z518" s="12"/>
+      <c r="AA518" s="12"/>
+      <c r="AB518" s="19"/>
+    </row>
+    <row r="519" spans="2:28">
+      <c r="B519" s="10"/>
+      <c r="C519" s="11"/>
+      <c r="D519" s="13"/>
+      <c r="E519" s="12"/>
+      <c r="F519" s="12"/>
+      <c r="G519" s="12"/>
+      <c r="H519" s="12"/>
+      <c r="I519" s="12"/>
+      <c r="J519" s="12"/>
+      <c r="K519" s="12"/>
+      <c r="L519" s="12"/>
+      <c r="M519" s="12"/>
+      <c r="N519" s="12"/>
+      <c r="O519" s="12"/>
+      <c r="P519" s="12"/>
+      <c r="Q519" s="12"/>
+      <c r="R519" s="12"/>
+      <c r="S519" s="12"/>
+      <c r="T519" s="12"/>
+      <c r="U519" s="12"/>
+      <c r="V519" s="12"/>
+      <c r="W519" s="12"/>
+      <c r="X519" s="12"/>
+      <c r="Y519" s="12"/>
+      <c r="Z519" s="12"/>
+      <c r="AA519" s="12"/>
+      <c r="AB519" s="19"/>
+    </row>
+    <row r="520" spans="2:28">
+      <c r="B520" s="10"/>
+      <c r="C520" s="11"/>
+      <c r="D520" s="13"/>
+      <c r="E520" s="12"/>
+      <c r="F520" s="12"/>
+      <c r="G520" s="12"/>
+      <c r="H520" s="12"/>
+      <c r="I520" s="12"/>
+      <c r="J520" s="12"/>
+      <c r="K520" s="12"/>
+      <c r="L520" s="12"/>
+      <c r="M520" s="12"/>
+      <c r="N520" s="12"/>
+      <c r="O520" s="12"/>
+      <c r="P520" s="12"/>
+      <c r="Q520" s="12"/>
+      <c r="R520" s="12"/>
+      <c r="S520" s="12"/>
+      <c r="T520" s="12"/>
+      <c r="U520" s="12"/>
+      <c r="V520" s="12"/>
+      <c r="W520" s="12"/>
+      <c r="X520" s="12"/>
+      <c r="Y520" s="12"/>
+      <c r="Z520" s="12"/>
+      <c r="AA520" s="12"/>
+      <c r="AB520" s="19"/>
+    </row>
+    <row r="521" spans="2:28">
+      <c r="B521" s="10"/>
+      <c r="C521" s="11"/>
+      <c r="D521" s="13"/>
+      <c r="E521" s="12"/>
+      <c r="F521" s="12"/>
+      <c r="G521" s="12"/>
+      <c r="H521" s="12"/>
+      <c r="I521" s="12"/>
+      <c r="J521" s="12"/>
+      <c r="K521" s="12"/>
+      <c r="L521" s="12"/>
+      <c r="M521" s="12"/>
+      <c r="N521" s="12"/>
+      <c r="O521" s="12"/>
+      <c r="P521" s="12"/>
+      <c r="Q521" s="12"/>
+      <c r="R521" s="12"/>
+      <c r="S521" s="12"/>
+      <c r="T521" s="12"/>
+      <c r="U521" s="12"/>
+      <c r="V521" s="12"/>
+      <c r="W521" s="12"/>
+      <c r="X521" s="12"/>
+      <c r="Y521" s="12"/>
+      <c r="Z521" s="12"/>
+      <c r="AA521" s="12"/>
+      <c r="AB521" s="19"/>
+    </row>
+    <row r="522" spans="2:28">
+      <c r="B522" s="10"/>
+      <c r="C522" s="11"/>
+      <c r="D522" s="13"/>
+      <c r="E522" s="12"/>
+      <c r="F522" s="12"/>
+      <c r="G522" s="12"/>
+      <c r="H522" s="12"/>
+      <c r="I522" s="12"/>
+      <c r="J522" s="12"/>
+      <c r="K522" s="12"/>
+      <c r="L522" s="12"/>
+      <c r="M522" s="12"/>
+      <c r="N522" s="12"/>
+      <c r="O522" s="12"/>
+      <c r="P522" s="12"/>
+      <c r="Q522" s="12"/>
+      <c r="R522" s="12"/>
+      <c r="S522" s="12"/>
+      <c r="T522" s="12"/>
+      <c r="U522" s="12"/>
+      <c r="V522" s="12"/>
+      <c r="W522" s="12"/>
+      <c r="X522" s="12"/>
+      <c r="Y522" s="12"/>
+      <c r="Z522" s="12"/>
+      <c r="AA522" s="12"/>
+      <c r="AB522" s="19"/>
+    </row>
+    <row r="523" spans="2:28">
+      <c r="B523" s="10"/>
+      <c r="C523" s="11"/>
+      <c r="D523" s="13"/>
+      <c r="E523" s="12"/>
+      <c r="F523" s="12"/>
+      <c r="G523" s="12"/>
+      <c r="H523" s="12"/>
+      <c r="I523" s="12"/>
+      <c r="J523" s="12"/>
+      <c r="K523" s="12"/>
+      <c r="L523" s="12"/>
+      <c r="M523" s="12"/>
+      <c r="N523" s="12"/>
+      <c r="O523" s="12"/>
+      <c r="P523" s="12"/>
+      <c r="Q523" s="12"/>
+      <c r="R523" s="12"/>
+      <c r="S523" s="12"/>
+      <c r="T523" s="12"/>
+      <c r="U523" s="12"/>
+      <c r="V523" s="12"/>
+      <c r="W523" s="12"/>
+      <c r="X523" s="12"/>
+      <c r="Y523" s="12"/>
+      <c r="Z523" s="12"/>
+      <c r="AA523" s="12"/>
+      <c r="AB523" s="19"/>
+    </row>
+    <row r="524" spans="2:28">
+      <c r="B524" s="10"/>
+      <c r="C524" s="11"/>
+      <c r="D524" s="13"/>
+      <c r="E524" s="12"/>
+      <c r="F524" s="12"/>
+      <c r="G524" s="12"/>
+      <c r="H524" s="12"/>
+      <c r="I524" s="12"/>
+      <c r="J524" s="12"/>
+      <c r="K524" s="12"/>
+      <c r="L524" s="12"/>
+      <c r="M524" s="12"/>
+      <c r="N524" s="12"/>
+      <c r="O524" s="12"/>
+      <c r="P524" s="12"/>
+      <c r="Q524" s="12"/>
+      <c r="R524" s="12"/>
+      <c r="S524" s="12"/>
+      <c r="T524" s="12"/>
+      <c r="U524" s="12"/>
+      <c r="V524" s="12"/>
+      <c r="W524" s="12"/>
+      <c r="X524" s="12"/>
+      <c r="Y524" s="12"/>
+      <c r="Z524" s="12"/>
+      <c r="AA524" s="12"/>
+      <c r="AB524" s="19"/>
+    </row>
+    <row r="525" spans="2:28">
+      <c r="B525" s="10"/>
+      <c r="C525" s="11"/>
+      <c r="D525" s="13"/>
+      <c r="E525" s="12"/>
+      <c r="F525" s="12"/>
+      <c r="G525" s="12"/>
+      <c r="H525" s="12"/>
+      <c r="I525" s="12"/>
+      <c r="J525" s="12"/>
+      <c r="K525" s="12"/>
+      <c r="L525" s="12"/>
+      <c r="M525" s="12"/>
+      <c r="N525" s="12"/>
+      <c r="O525" s="12"/>
+      <c r="P525" s="12"/>
+      <c r="Q525" s="12"/>
+      <c r="R525" s="12"/>
+      <c r="S525" s="12"/>
+      <c r="T525" s="12"/>
+      <c r="U525" s="12"/>
+      <c r="V525" s="12"/>
+      <c r="W525" s="12"/>
+      <c r="X525" s="12"/>
+      <c r="Y525" s="12"/>
+      <c r="Z525" s="12"/>
+      <c r="AA525" s="12"/>
+      <c r="AB525" s="19"/>
+    </row>
+    <row r="526" spans="2:28">
+      <c r="B526" s="10"/>
+      <c r="C526" s="11"/>
+      <c r="D526" s="13"/>
+      <c r="E526" s="12"/>
+      <c r="F526" s="12"/>
+      <c r="G526" s="12"/>
+      <c r="H526" s="12"/>
+      <c r="I526" s="12"/>
+      <c r="J526" s="12"/>
+      <c r="K526" s="12"/>
+      <c r="L526" s="12"/>
+      <c r="M526" s="12"/>
+      <c r="N526" s="12"/>
+      <c r="O526" s="12"/>
+      <c r="P526" s="12"/>
+      <c r="Q526" s="12"/>
+      <c r="R526" s="12"/>
+      <c r="S526" s="12"/>
+      <c r="T526" s="12"/>
+      <c r="U526" s="12"/>
+      <c r="V526" s="12"/>
+      <c r="W526" s="12"/>
+      <c r="X526" s="12"/>
+      <c r="Y526" s="12"/>
+      <c r="Z526" s="12"/>
+      <c r="AA526" s="12"/>
+      <c r="AB526" s="19"/>
+    </row>
+    <row r="527" spans="2:28">
+      <c r="B527" s="10"/>
+      <c r="C527" s="11"/>
+      <c r="D527" s="13"/>
+      <c r="E527" s="12"/>
+      <c r="F527" s="12"/>
+      <c r="G527" s="12"/>
+      <c r="H527" s="12"/>
+      <c r="I527" s="12"/>
+      <c r="J527" s="12"/>
+      <c r="K527" s="12"/>
+      <c r="L527" s="12"/>
+      <c r="M527" s="12"/>
+      <c r="N527" s="12"/>
+      <c r="O527" s="12"/>
+      <c r="P527" s="12"/>
+      <c r="Q527" s="12"/>
+      <c r="R527" s="12"/>
+      <c r="S527" s="12"/>
+      <c r="T527" s="12"/>
+      <c r="U527" s="12"/>
+      <c r="V527" s="12"/>
+      <c r="W527" s="12"/>
+      <c r="X527" s="12"/>
+      <c r="Y527" s="12"/>
+      <c r="Z527" s="12"/>
+      <c r="AA527" s="12"/>
+      <c r="AB527" s="19"/>
+    </row>
+    <row r="528" spans="2:28">
+      <c r="B528" s="10"/>
+      <c r="C528" s="11"/>
+      <c r="D528" s="13"/>
+      <c r="E528" s="12"/>
+      <c r="F528" s="12"/>
+      <c r="G528" s="12"/>
+      <c r="H528" s="12"/>
+      <c r="I528" s="12"/>
+      <c r="J528" s="12"/>
+      <c r="K528" s="12"/>
+      <c r="L528" s="12"/>
+      <c r="M528" s="12"/>
+      <c r="N528" s="12"/>
+      <c r="O528" s="12"/>
+      <c r="P528" s="12"/>
+      <c r="Q528" s="12"/>
+      <c r="R528" s="12"/>
+      <c r="S528" s="12"/>
+      <c r="T528" s="12"/>
+      <c r="U528" s="12"/>
+      <c r="V528" s="12"/>
+      <c r="W528" s="12"/>
+      <c r="X528" s="12"/>
+      <c r="Y528" s="12"/>
+      <c r="Z528" s="12"/>
+      <c r="AA528" s="12"/>
+      <c r="AB528" s="19"/>
+    </row>
+    <row r="529" spans="2:28">
+      <c r="B529" s="10"/>
+      <c r="C529" s="11"/>
+      <c r="D529" s="13"/>
+      <c r="E529" s="12"/>
+      <c r="F529" s="12"/>
+      <c r="G529" s="12"/>
+      <c r="H529" s="12"/>
+      <c r="I529" s="12"/>
+      <c r="J529" s="12"/>
+      <c r="K529" s="12"/>
+      <c r="L529" s="12"/>
+      <c r="M529" s="12"/>
+      <c r="N529" s="12"/>
+      <c r="O529" s="12"/>
+      <c r="P529" s="12"/>
+      <c r="Q529" s="12"/>
+      <c r="R529" s="12"/>
+      <c r="S529" s="12"/>
+      <c r="T529" s="12"/>
+      <c r="U529" s="12"/>
+      <c r="V529" s="12"/>
+      <c r="W529" s="12"/>
+      <c r="X529" s="12"/>
+      <c r="Y529" s="12"/>
+      <c r="Z529" s="12"/>
+      <c r="AA529" s="12"/>
+      <c r="AB529" s="19"/>
+    </row>
+    <row r="530" spans="2:28">
+      <c r="B530" s="10"/>
+      <c r="C530" s="11"/>
+      <c r="D530" s="13"/>
+      <c r="E530" s="12"/>
+      <c r="F530" s="12"/>
+      <c r="G530" s="12"/>
+      <c r="H530" s="12"/>
+      <c r="I530" s="12"/>
+      <c r="J530" s="12"/>
+      <c r="K530" s="12"/>
+      <c r="L530" s="12"/>
+      <c r="M530" s="12"/>
+      <c r="N530" s="12"/>
+      <c r="O530" s="12"/>
+      <c r="P530" s="12"/>
+      <c r="Q530" s="12"/>
+      <c r="R530" s="12"/>
+      <c r="S530" s="12"/>
+      <c r="T530" s="12"/>
+      <c r="U530" s="12"/>
+      <c r="V530" s="12"/>
+      <c r="W530" s="12"/>
+      <c r="X530" s="12"/>
+      <c r="Y530" s="12"/>
+      <c r="Z530" s="12"/>
+      <c r="AA530" s="12"/>
+      <c r="AB530" s="19"/>
+    </row>
+    <row r="531" spans="2:28">
+      <c r="B531" s="10"/>
+      <c r="C531" s="11"/>
+      <c r="D531" s="13"/>
+      <c r="E531" s="12"/>
+      <c r="F531" s="12"/>
+      <c r="G531" s="12"/>
+      <c r="H531" s="12"/>
+      <c r="I531" s="12"/>
+      <c r="J531" s="12"/>
+      <c r="K531" s="12"/>
+      <c r="L531" s="12"/>
+      <c r="M531" s="12"/>
+      <c r="N531" s="12"/>
+      <c r="O531" s="12"/>
+      <c r="P531" s="12"/>
+      <c r="Q531" s="12"/>
+      <c r="R531" s="12"/>
+      <c r="S531" s="12"/>
+      <c r="T531" s="12"/>
+      <c r="U531" s="12"/>
+      <c r="V531" s="12"/>
+      <c r="W531" s="12"/>
+      <c r="X531" s="12"/>
+      <c r="Y531" s="12"/>
+      <c r="Z531" s="12"/>
+      <c r="AA531" s="12"/>
+      <c r="AB531" s="19"/>
+    </row>
+    <row r="532" spans="2:28">
+      <c r="B532" s="10"/>
+      <c r="C532" s="11"/>
+      <c r="D532" s="13"/>
+      <c r="E532" s="12"/>
+      <c r="F532" s="12"/>
+      <c r="G532" s="12"/>
+      <c r="H532" s="12"/>
+      <c r="I532" s="12"/>
+      <c r="J532" s="12"/>
+      <c r="K532" s="12"/>
+      <c r="L532" s="12"/>
+      <c r="M532" s="12"/>
+      <c r="N532" s="12"/>
+      <c r="O532" s="12"/>
+      <c r="P532" s="12"/>
+      <c r="Q532" s="12"/>
+      <c r="R532" s="12"/>
+      <c r="S532" s="12"/>
+      <c r="T532" s="12"/>
+      <c r="U532" s="12"/>
+      <c r="V532" s="12"/>
+      <c r="W532" s="12"/>
+      <c r="X532" s="12"/>
+      <c r="Y532" s="12"/>
+      <c r="Z532" s="12"/>
+      <c r="AA532" s="12"/>
+      <c r="AB532" s="19"/>
+    </row>
+    <row r="533" spans="2:28">
+      <c r="B533" s="10"/>
+      <c r="C533" s="11"/>
+      <c r="D533" s="13"/>
+      <c r="E533" s="12"/>
+      <c r="F533" s="12"/>
+      <c r="G533" s="12"/>
+      <c r="H533" s="12"/>
+      <c r="I533" s="12"/>
+      <c r="J533" s="12"/>
+      <c r="K533" s="12"/>
+      <c r="L533" s="12"/>
+      <c r="M533" s="12"/>
+      <c r="N533" s="12"/>
+      <c r="O533" s="12"/>
+      <c r="P533" s="12"/>
+      <c r="Q533" s="12"/>
+      <c r="R533" s="12"/>
+      <c r="S533" s="12"/>
+      <c r="T533" s="12"/>
+      <c r="U533" s="12"/>
+      <c r="V533" s="12"/>
+      <c r="W533" s="12"/>
+      <c r="X533" s="12"/>
+      <c r="Y533" s="12"/>
+      <c r="Z533" s="12"/>
+      <c r="AA533" s="12"/>
+      <c r="AB533" s="19"/>
+    </row>
+    <row r="534" spans="2:28">
+      <c r="B534" s="10"/>
+      <c r="C534" s="11"/>
+      <c r="D534" s="13"/>
+      <c r="E534" s="12"/>
+      <c r="F534" s="12"/>
+      <c r="G534" s="12"/>
+      <c r="H534" s="12"/>
+      <c r="I534" s="12"/>
+      <c r="J534" s="12"/>
+      <c r="K534" s="12"/>
+      <c r="L534" s="12"/>
+      <c r="M534" s="12"/>
+      <c r="N534" s="12"/>
+      <c r="O534" s="12"/>
+      <c r="P534" s="12"/>
+      <c r="Q534" s="12"/>
+      <c r="R534" s="12"/>
+      <c r="S534" s="12"/>
+      <c r="T534" s="12"/>
+      <c r="U534" s="12"/>
+      <c r="V534" s="12"/>
+      <c r="W534" s="12"/>
+      <c r="X534" s="12"/>
+      <c r="Y534" s="12"/>
+      <c r="Z534" s="12"/>
+      <c r="AA534" s="12"/>
+      <c r="AB534" s="19"/>
+    </row>
+    <row r="535" spans="2:28">
+      <c r="B535" s="10"/>
+      <c r="C535" s="11"/>
+      <c r="D535" s="13"/>
+      <c r="E535" s="12"/>
+      <c r="F535" s="12"/>
+      <c r="G535" s="12"/>
+      <c r="H535" s="12"/>
+      <c r="I535" s="12"/>
+      <c r="J535" s="12"/>
+      <c r="K535" s="12"/>
+      <c r="L535" s="12"/>
+      <c r="M535" s="12"/>
+      <c r="N535" s="12"/>
+      <c r="O535" s="12"/>
+      <c r="P535" s="12"/>
+      <c r="Q535" s="12"/>
+      <c r="R535" s="12"/>
+      <c r="S535" s="12"/>
+      <c r="T535" s="12"/>
+      <c r="U535" s="12"/>
+      <c r="V535" s="12"/>
+      <c r="W535" s="12"/>
+      <c r="X535" s="12"/>
+      <c r="Y535" s="12"/>
+      <c r="Z535" s="12"/>
+      <c r="AA535" s="12"/>
+      <c r="AB535" s="19"/>
+    </row>
+    <row r="536" spans="2:28">
+      <c r="B536" s="10"/>
+      <c r="C536" s="11"/>
+      <c r="D536" s="13"/>
+      <c r="E536" s="12"/>
+      <c r="F536" s="12"/>
+      <c r="G536" s="12"/>
+      <c r="H536" s="12"/>
+      <c r="I536" s="12"/>
+      <c r="J536" s="12"/>
+      <c r="K536" s="12"/>
+      <c r="L536" s="12"/>
+      <c r="M536" s="12"/>
+      <c r="N536" s="12"/>
+      <c r="O536" s="12"/>
+      <c r="P536" s="12"/>
+      <c r="Q536" s="12"/>
+      <c r="R536" s="12"/>
+      <c r="S536" s="12"/>
+      <c r="T536" s="12"/>
+      <c r="U536" s="12"/>
+      <c r="V536" s="12"/>
+      <c r="W536" s="12"/>
+      <c r="X536" s="12"/>
+      <c r="Y536" s="12"/>
+      <c r="Z536" s="12"/>
+      <c r="AA536" s="12"/>
+      <c r="AB536" s="19"/>
+    </row>
+    <row r="537" spans="2:28">
+      <c r="B537" s="10"/>
+      <c r="C537" s="11"/>
+      <c r="D537" s="13"/>
+      <c r="E537" s="12"/>
+      <c r="F537" s="12"/>
+      <c r="G537" s="12"/>
+      <c r="H537" s="12"/>
+      <c r="I537" s="12"/>
+      <c r="J537" s="12"/>
+      <c r="K537" s="12"/>
+      <c r="L537" s="12"/>
+      <c r="M537" s="12"/>
+      <c r="N537" s="12"/>
+      <c r="O537" s="12"/>
+      <c r="P537" s="12"/>
+      <c r="Q537" s="12"/>
+      <c r="R537" s="12"/>
+      <c r="S537" s="12"/>
+      <c r="T537" s="12"/>
+      <c r="U537" s="12"/>
+      <c r="V537" s="12"/>
+      <c r="W537" s="12"/>
+      <c r="X537" s="12"/>
+      <c r="Y537" s="12"/>
+      <c r="Z537" s="12"/>
+      <c r="AA537" s="12"/>
+      <c r="AB537" s="19"/>
+    </row>
+    <row r="538" spans="2:28">
+      <c r="B538" s="10"/>
+      <c r="C538" s="11"/>
+      <c r="D538" s="13"/>
+      <c r="E538" s="12"/>
+      <c r="F538" s="12"/>
+      <c r="G538" s="12"/>
+      <c r="H538" s="12"/>
+      <c r="I538" s="12"/>
+      <c r="J538" s="12"/>
+      <c r="K538" s="12"/>
+      <c r="L538" s="12"/>
+      <c r="M538" s="12"/>
+      <c r="N538" s="12"/>
+      <c r="O538" s="12"/>
+      <c r="P538" s="12"/>
+      <c r="Q538" s="12"/>
+      <c r="R538" s="12"/>
+      <c r="S538" s="12"/>
+      <c r="T538" s="12"/>
+      <c r="U538" s="12"/>
+      <c r="V538" s="12"/>
+      <c r="W538" s="12"/>
+      <c r="X538" s="12"/>
+      <c r="Y538" s="12"/>
+      <c r="Z538" s="12"/>
+      <c r="AA538" s="12"/>
+      <c r="AB538" s="19"/>
+    </row>
+    <row r="539" spans="2:28">
+      <c r="B539" s="10"/>
+      <c r="C539" s="11"/>
+      <c r="D539" s="13"/>
+      <c r="E539" s="12"/>
+      <c r="F539" s="12"/>
+      <c r="G539" s="12"/>
+      <c r="H539" s="12"/>
+      <c r="I539" s="12"/>
+      <c r="J539" s="12"/>
+      <c r="K539" s="12"/>
+      <c r="L539" s="12"/>
+      <c r="M539" s="12"/>
+      <c r="N539" s="12"/>
+      <c r="O539" s="12"/>
+      <c r="P539" s="12"/>
+      <c r="Q539" s="12"/>
+      <c r="R539" s="12"/>
+      <c r="S539" s="12"/>
+      <c r="T539" s="12"/>
+      <c r="U539" s="12"/>
+      <c r="V539" s="12"/>
+      <c r="W539" s="12"/>
+      <c r="X539" s="12"/>
+      <c r="Y539" s="12"/>
+      <c r="Z539" s="12"/>
+      <c r="AA539" s="12"/>
+      <c r="AB539" s="19"/>
+    </row>
+    <row r="540" spans="2:28">
+      <c r="B540" s="10"/>
+      <c r="C540" s="11"/>
+      <c r="D540" s="13"/>
+      <c r="E540" s="12"/>
+      <c r="F540" s="12"/>
+      <c r="G540" s="12"/>
+      <c r="H540" s="12"/>
+      <c r="I540" s="12"/>
+      <c r="J540" s="12"/>
+      <c r="K540" s="12"/>
+      <c r="L540" s="12"/>
+      <c r="M540" s="12"/>
+      <c r="N540" s="12"/>
+      <c r="O540" s="12"/>
+      <c r="P540" s="12"/>
+      <c r="Q540" s="12"/>
+      <c r="R540" s="12"/>
+      <c r="S540" s="12"/>
+      <c r="T540" s="12"/>
+      <c r="U540" s="12"/>
+      <c r="V540" s="12"/>
+      <c r="W540" s="12"/>
+      <c r="X540" s="12"/>
+      <c r="Y540" s="12"/>
+      <c r="Z540" s="12"/>
+      <c r="AA540" s="12"/>
+      <c r="AB540" s="19"/>
+    </row>
+    <row r="541" spans="2:28">
+      <c r="B541" s="10"/>
+      <c r="C541" s="11"/>
+      <c r="D541" s="13"/>
+      <c r="E541" s="12"/>
+      <c r="F541" s="12"/>
+      <c r="G541" s="12"/>
+      <c r="H541" s="12"/>
+      <c r="I541" s="12"/>
+      <c r="J541" s="12"/>
+      <c r="K541" s="12"/>
+      <c r="L541" s="12"/>
+      <c r="M541" s="12"/>
+      <c r="N541" s="12"/>
+      <c r="O541" s="12"/>
+      <c r="P541" s="12"/>
+      <c r="Q541" s="12"/>
+      <c r="R541" s="12"/>
+      <c r="S541" s="12"/>
+      <c r="T541" s="12"/>
+      <c r="U541" s="12"/>
+      <c r="V541" s="12"/>
+      <c r="W541" s="12"/>
+      <c r="X541" s="12"/>
+      <c r="Y541" s="12"/>
+      <c r="Z541" s="12"/>
+      <c r="AA541" s="12"/>
+      <c r="AB541" s="19"/>
+    </row>
+    <row r="542" spans="2:28">
+      <c r="B542" s="10"/>
+      <c r="C542" s="11"/>
+      <c r="D542" s="13"/>
+      <c r="E542" s="12"/>
+      <c r="F542" s="12"/>
+      <c r="G542" s="12"/>
+      <c r="H542" s="12"/>
+      <c r="I542" s="12"/>
+      <c r="J542" s="12"/>
+      <c r="K542" s="12"/>
+      <c r="L542" s="12"/>
+      <c r="M542" s="12"/>
+      <c r="N542" s="12"/>
+      <c r="O542" s="12"/>
+      <c r="P542" s="12"/>
+      <c r="Q542" s="12"/>
+      <c r="R542" s="12"/>
+      <c r="S542" s="12"/>
+      <c r="T542" s="12"/>
+      <c r="U542" s="12"/>
+      <c r="V542" s="12"/>
+      <c r="W542" s="12"/>
+      <c r="X542" s="12"/>
+      <c r="Y542" s="12"/>
+      <c r="Z542" s="12"/>
+      <c r="AA542" s="12"/>
+      <c r="AB542" s="19"/>
+    </row>
+    <row r="543" spans="2:28">
+      <c r="B543" s="10"/>
+      <c r="C543" s="11"/>
+      <c r="D543" s="13"/>
+      <c r="E543" s="12"/>
+      <c r="F543" s="12"/>
+      <c r="G543" s="12"/>
+      <c r="H543" s="12"/>
+      <c r="I543" s="12"/>
+      <c r="J543" s="12"/>
+      <c r="K543" s="12"/>
+      <c r="L543" s="12"/>
+      <c r="M543" s="12"/>
+      <c r="N543" s="12"/>
+      <c r="O543" s="12"/>
+      <c r="P543" s="12"/>
+      <c r="Q543" s="12"/>
+      <c r="R543" s="12"/>
+      <c r="S543" s="12"/>
+      <c r="T543" s="12"/>
+      <c r="U543" s="12"/>
+      <c r="V543" s="12"/>
+      <c r="W543" s="12"/>
+      <c r="X543" s="12"/>
+      <c r="Y543" s="12"/>
+      <c r="Z543" s="12"/>
+      <c r="AA543" s="12"/>
+      <c r="AB543" s="19"/>
+    </row>
+    <row r="544" spans="2:28">
+      <c r="B544" s="10"/>
+      <c r="C544" s="11"/>
+      <c r="D544" s="13"/>
+      <c r="E544" s="12"/>
+      <c r="F544" s="12"/>
+      <c r="G544" s="12"/>
+      <c r="H544" s="12"/>
+      <c r="I544" s="12"/>
+      <c r="J544" s="12"/>
+      <c r="K544" s="12"/>
+      <c r="L544" s="12"/>
+      <c r="M544" s="12"/>
+      <c r="N544" s="12"/>
+      <c r="O544" s="12"/>
+      <c r="P544" s="12"/>
+      <c r="Q544" s="12"/>
+      <c r="R544" s="12"/>
+      <c r="S544" s="12"/>
+      <c r="T544" s="12"/>
+      <c r="U544" s="12"/>
+      <c r="V544" s="12"/>
+      <c r="W544" s="12"/>
+      <c r="X544" s="12"/>
+      <c r="Y544" s="12"/>
+      <c r="Z544" s="12"/>
+      <c r="AA544" s="12"/>
+      <c r="AB544" s="19"/>
+    </row>
+    <row r="545" spans="2:28">
+      <c r="B545" s="10"/>
+      <c r="C545" s="11"/>
+      <c r="D545" s="13"/>
+      <c r="E545" s="12"/>
+      <c r="F545" s="12"/>
+      <c r="G545" s="12"/>
+      <c r="H545" s="12"/>
+      <c r="I545" s="12"/>
+      <c r="J545" s="12"/>
+      <c r="K545" s="12"/>
+      <c r="L545" s="12"/>
+      <c r="M545" s="12"/>
+      <c r="N545" s="12"/>
+      <c r="O545" s="12"/>
+      <c r="P545" s="12"/>
+      <c r="Q545" s="12"/>
+      <c r="R545" s="12"/>
+      <c r="S545" s="12"/>
+      <c r="T545" s="12"/>
+      <c r="U545" s="12"/>
+      <c r="V545" s="12"/>
+      <c r="W545" s="12"/>
+      <c r="X545" s="12"/>
+      <c r="Y545" s="12"/>
+      <c r="Z545" s="12"/>
+      <c r="AA545" s="12"/>
+      <c r="AB545" s="19"/>
+    </row>
+    <row r="546" spans="2:28">
+      <c r="B546" s="10"/>
+      <c r="C546" s="11"/>
+      <c r="D546" s="13"/>
+      <c r="E546" s="12"/>
+      <c r="F546" s="12"/>
+      <c r="G546" s="12"/>
+      <c r="H546" s="12"/>
+      <c r="I546" s="12"/>
+      <c r="J546" s="12"/>
+      <c r="K546" s="12"/>
+      <c r="L546" s="12"/>
+      <c r="M546" s="12"/>
+      <c r="N546" s="12"/>
+      <c r="O546" s="12"/>
+      <c r="P546" s="12"/>
+      <c r="Q546" s="12"/>
+      <c r="R546" s="12"/>
+      <c r="S546" s="12"/>
+      <c r="T546" s="12"/>
+      <c r="U546" s="12"/>
+      <c r="V546" s="12"/>
+      <c r="W546" s="12"/>
+      <c r="X546" s="12"/>
+      <c r="Y546" s="12"/>
+      <c r="Z546" s="12"/>
+      <c r="AA546" s="12"/>
+      <c r="AB546" s="19"/>
+    </row>
+    <row r="547" spans="2:28">
+      <c r="B547" s="10"/>
+      <c r="C547" s="11"/>
+      <c r="D547" s="13"/>
+      <c r="E547" s="12"/>
+      <c r="F547" s="12"/>
+      <c r="G547" s="12"/>
+      <c r="H547" s="12"/>
+      <c r="I547" s="12"/>
+      <c r="J547" s="12"/>
+      <c r="K547" s="12"/>
+      <c r="L547" s="12"/>
+      <c r="M547" s="12"/>
+      <c r="N547" s="12"/>
+      <c r="O547" s="12"/>
+      <c r="P547" s="12"/>
+      <c r="Q547" s="12"/>
+      <c r="R547" s="12"/>
+      <c r="S547" s="12"/>
+      <c r="T547" s="12"/>
+      <c r="U547" s="12"/>
+      <c r="V547" s="12"/>
+      <c r="W547" s="12"/>
+      <c r="X547" s="12"/>
+      <c r="Y547" s="12"/>
+      <c r="Z547" s="12"/>
+      <c r="AA547" s="12"/>
+      <c r="AB547" s="19"/>
+    </row>
+    <row r="548" spans="2:28">
+      <c r="B548" s="10"/>
+      <c r="C548" s="11"/>
+      <c r="D548" s="13"/>
+      <c r="E548" s="12"/>
+      <c r="F548" s="12"/>
+      <c r="G548" s="12"/>
+      <c r="H548" s="12"/>
+      <c r="I548" s="12"/>
+      <c r="J548" s="12"/>
+      <c r="K548" s="12"/>
+      <c r="L548" s="12"/>
+      <c r="M548" s="12"/>
+      <c r="N548" s="12"/>
+      <c r="O548" s="12"/>
+      <c r="P548" s="12"/>
+      <c r="Q548" s="12"/>
+      <c r="R548" s="12"/>
+      <c r="S548" s="12"/>
+      <c r="T548" s="12"/>
+      <c r="U548" s="12"/>
+      <c r="V548" s="12"/>
+      <c r="W548" s="12"/>
+      <c r="X548" s="12"/>
+      <c r="Y548" s="12"/>
+      <c r="Z548" s="12"/>
+      <c r="AA548" s="12"/>
+      <c r="AB548" s="19"/>
+    </row>
+    <row r="549" spans="2:28">
+      <c r="B549" s="10"/>
+      <c r="C549" s="11"/>
+      <c r="D549" s="13"/>
+      <c r="E549" s="12"/>
+      <c r="F549" s="12"/>
+      <c r="G549" s="12"/>
+      <c r="H549" s="12"/>
+      <c r="I549" s="12"/>
+      <c r="J549" s="12"/>
+      <c r="K549" s="12"/>
+      <c r="L549" s="12"/>
+      <c r="M549" s="12"/>
+      <c r="N549" s="12"/>
+      <c r="O549" s="12"/>
+      <c r="P549" s="12"/>
+      <c r="Q549" s="12"/>
+      <c r="R549" s="12"/>
+      <c r="S549" s="12"/>
+      <c r="T549" s="12"/>
+      <c r="U549" s="12"/>
+      <c r="V549" s="12"/>
+      <c r="W549" s="12"/>
+      <c r="X549" s="12"/>
+      <c r="Y549" s="12"/>
+      <c r="Z549" s="12"/>
+      <c r="AA549" s="12"/>
+      <c r="AB549" s="19"/>
+    </row>
+    <row r="550" spans="2:28">
+      <c r="B550" s="10"/>
+      <c r="C550" s="11"/>
+      <c r="D550" s="13"/>
+      <c r="E550" s="12"/>
+      <c r="F550" s="12"/>
+      <c r="G550" s="12"/>
+      <c r="H550" s="12"/>
+      <c r="I550" s="12"/>
+      <c r="J550" s="12"/>
+      <c r="K550" s="12"/>
+      <c r="L550" s="12"/>
+      <c r="M550" s="12"/>
+      <c r="N550" s="12"/>
+      <c r="O550" s="12"/>
+      <c r="P550" s="12"/>
+      <c r="Q550" s="12"/>
+      <c r="R550" s="12"/>
+      <c r="S550" s="12"/>
+      <c r="T550" s="12"/>
+      <c r="U550" s="12"/>
+      <c r="V550" s="12"/>
+      <c r="W550" s="12"/>
+      <c r="X550" s="12"/>
+      <c r="Y550" s="12"/>
+      <c r="Z550" s="12"/>
+      <c r="AA550" s="12"/>
+      <c r="AB550" s="19"/>
+    </row>
+    <row r="551" spans="2:28">
+      <c r="B551" s="10"/>
+      <c r="C551" s="11"/>
+      <c r="D551" s="13"/>
+      <c r="E551" s="12"/>
+      <c r="F551" s="12"/>
+      <c r="G551" s="12"/>
+      <c r="H551" s="12"/>
+      <c r="I551" s="12"/>
+      <c r="J551" s="12"/>
+      <c r="K551" s="12"/>
+      <c r="L551" s="12"/>
+      <c r="M551" s="12"/>
+      <c r="N551" s="12"/>
+      <c r="O551" s="12"/>
+      <c r="P551" s="12"/>
+      <c r="Q551" s="12"/>
+      <c r="R551" s="12"/>
+      <c r="S551" s="12"/>
+      <c r="T551" s="12"/>
+      <c r="U551" s="12"/>
+      <c r="V551" s="12"/>
+      <c r="W551" s="12"/>
+      <c r="X551" s="12"/>
+      <c r="Y551" s="12"/>
+      <c r="Z551" s="12"/>
+      <c r="AA551" s="12"/>
+      <c r="AB551" s="19"/>
+    </row>
+    <row r="552" spans="2:28">
+      <c r="B552" s="10"/>
+      <c r="C552" s="11"/>
+      <c r="D552" s="13"/>
+      <c r="E552" s="12"/>
+      <c r="F552" s="12"/>
+      <c r="G552" s="12"/>
+      <c r="H552" s="12"/>
+      <c r="I552" s="12"/>
+      <c r="J552" s="12"/>
+      <c r="K552" s="12"/>
+      <c r="L552" s="12"/>
+      <c r="M552" s="12"/>
+      <c r="N552" s="12"/>
+      <c r="O552" s="12"/>
+      <c r="P552" s="12"/>
+      <c r="Q552" s="12"/>
+      <c r="R552" s="12"/>
+      <c r="S552" s="12"/>
+      <c r="T552" s="12"/>
+      <c r="U552" s="12"/>
+      <c r="V552" s="12"/>
+      <c r="W552" s="12"/>
+      <c r="X552" s="12"/>
+      <c r="Y552" s="12"/>
+      <c r="Z552" s="12"/>
+      <c r="AA552" s="12"/>
+      <c r="AB552" s="19"/>
+    </row>
+    <row r="553" spans="2:28">
+      <c r="B553" s="10"/>
+      <c r="C553" s="11"/>
+      <c r="D553" s="13"/>
+      <c r="E553" s="12"/>
+      <c r="F553" s="12"/>
+      <c r="G553" s="12"/>
+      <c r="H553" s="12"/>
+      <c r="I553" s="12"/>
+      <c r="J553" s="12"/>
+      <c r="K553" s="12"/>
+      <c r="L553" s="12"/>
+      <c r="M553" s="12"/>
+      <c r="N553" s="12"/>
+      <c r="O553" s="12"/>
+      <c r="P553" s="12"/>
+      <c r="Q553" s="12"/>
+      <c r="R553" s="12"/>
+      <c r="S553" s="12"/>
+      <c r="T553" s="12"/>
+      <c r="U553" s="12"/>
+      <c r="V553" s="12"/>
+      <c r="W553" s="12"/>
+      <c r="X553" s="12"/>
+      <c r="Y553" s="12"/>
+      <c r="Z553" s="12"/>
+      <c r="AA553" s="12"/>
+      <c r="AB553" s="19"/>
+    </row>
+    <row r="554" spans="2:28">
+      <c r="B554" s="10"/>
+      <c r="C554" s="11"/>
+      <c r="D554" s="13"/>
+      <c r="E554" s="12"/>
+      <c r="F554" s="12"/>
+      <c r="G554" s="12"/>
+      <c r="H554" s="12"/>
+      <c r="I554" s="12"/>
+      <c r="J554" s="12"/>
+      <c r="K554" s="12"/>
+      <c r="L554" s="12"/>
+      <c r="M554" s="12"/>
+      <c r="N554" s="12"/>
+      <c r="O554" s="12"/>
+      <c r="P554" s="12"/>
+      <c r="Q554" s="12"/>
+      <c r="R554" s="12"/>
+      <c r="S554" s="12"/>
+      <c r="T554" s="12"/>
+      <c r="U554" s="12"/>
+      <c r="V554" s="12"/>
+      <c r="W554" s="12"/>
+      <c r="X554" s="12"/>
+      <c r="Y554" s="12"/>
+      <c r="Z554" s="12"/>
+      <c r="AA554" s="12"/>
+      <c r="AB554" s="19"/>
+    </row>
+    <row r="555" spans="2:28">
+      <c r="B555" s="10"/>
+      <c r="C555" s="11"/>
+      <c r="D555" s="13"/>
+      <c r="E555" s="12"/>
+      <c r="F555" s="12"/>
+      <c r="G555" s="12"/>
+      <c r="H555" s="12"/>
+      <c r="I555" s="12"/>
+      <c r="J555" s="12"/>
+      <c r="K555" s="12"/>
+      <c r="L555" s="12"/>
+      <c r="M555" s="12"/>
+      <c r="N555" s="12"/>
+      <c r="O555" s="12"/>
+      <c r="P555" s="12"/>
+      <c r="Q555" s="12"/>
+      <c r="R555" s="12"/>
+      <c r="S555" s="12"/>
+      <c r="T555" s="12"/>
+      <c r="U555" s="12"/>
+      <c r="V555" s="12"/>
+      <c r="W555" s="12"/>
+      <c r="X555" s="12"/>
+      <c r="Y555" s="12"/>
+      <c r="Z555" s="12"/>
+      <c r="AA555" s="12"/>
+      <c r="AB555" s="19"/>
+    </row>
+    <row r="556" spans="2:28">
+      <c r="B556" s="10"/>
+      <c r="C556" s="11"/>
+      <c r="D556" s="13"/>
+      <c r="E556" s="12"/>
+      <c r="F556" s="12"/>
+      <c r="G556" s="12"/>
+      <c r="H556" s="12"/>
+      <c r="I556" s="12"/>
+      <c r="J556" s="12"/>
+      <c r="K556" s="12"/>
+      <c r="L556" s="12"/>
+      <c r="M556" s="12"/>
+      <c r="N556" s="12"/>
+      <c r="O556" s="12"/>
+      <c r="P556" s="12"/>
+      <c r="Q556" s="12"/>
+      <c r="R556" s="12"/>
+      <c r="S556" s="12"/>
+      <c r="T556" s="12"/>
+      <c r="U556" s="12"/>
+      <c r="V556" s="12"/>
+      <c r="W556" s="12"/>
+      <c r="X556" s="12"/>
+      <c r="Y556" s="12"/>
+      <c r="Z556" s="12"/>
+      <c r="AA556" s="12"/>
+      <c r="AB556" s="19"/>
+    </row>
+    <row r="557" spans="2:28">
+      <c r="B557" s="10"/>
+      <c r="C557" s="11"/>
+      <c r="D557" s="13"/>
+      <c r="E557" s="12"/>
+      <c r="F557" s="12"/>
+      <c r="G557" s="12"/>
+      <c r="H557" s="12"/>
+      <c r="I557" s="12"/>
+      <c r="J557" s="12"/>
+      <c r="K557" s="12"/>
+      <c r="L557" s="12"/>
+      <c r="M557" s="12"/>
+      <c r="N557" s="12"/>
+      <c r="O557" s="12"/>
+      <c r="P557" s="12"/>
+      <c r="Q557" s="12"/>
+      <c r="R557" s="12"/>
+      <c r="S557" s="12"/>
+      <c r="T557" s="12"/>
+      <c r="U557" s="12"/>
+      <c r="V557" s="12"/>
+      <c r="W557" s="12"/>
+      <c r="X557" s="12"/>
+      <c r="Y557" s="12"/>
+      <c r="Z557" s="12"/>
+      <c r="AA557" s="12"/>
+      <c r="AB557" s="19"/>
+    </row>
+    <row r="558" ht="14.55" spans="2:28">
+      <c r="B558" s="29"/>
+      <c r="C558" s="30"/>
+      <c r="D558" s="31"/>
+      <c r="E558" s="31"/>
+      <c r="F558" s="31"/>
+      <c r="G558" s="31"/>
+      <c r="H558" s="31"/>
+      <c r="I558" s="31"/>
+      <c r="J558" s="31"/>
+      <c r="K558" s="31"/>
+      <c r="L558" s="31"/>
+      <c r="M558" s="31"/>
+      <c r="N558" s="31"/>
+      <c r="O558" s="31"/>
+      <c r="P558" s="31"/>
+      <c r="Q558" s="31"/>
+      <c r="R558" s="31"/>
+      <c r="S558" s="31"/>
+      <c r="T558" s="31"/>
+      <c r="U558" s="31"/>
+      <c r="V558" s="31"/>
+      <c r="W558" s="31"/>
+      <c r="X558" s="31"/>
+      <c r="Y558" s="31"/>
+      <c r="Z558" s="31"/>
+      <c r="AA558" s="31"/>
+      <c r="AB558" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C458:H458"/>
+    <mergeCell ref="C473:H473"/>
     <mergeCell ref="B1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebApiWithAspDotNet6.xlsx
+++ b/WebApiWithAspDotNet6.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Chung" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Chung!$A$1:$AC$559</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Chung!$A$1:$AC$565</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
   <si>
     <t>ASP.NET CORE API WEB APP (&gt;&lt;)</t>
   </si>
@@ -375,7 +375,7 @@
     <t>JSON Web Tokens (JWT)</t>
   </si>
   <si>
-    <t>Microsoft.AspNetCore.Authentication.JwtBearer</t>
+    <t>Microsoft.AspNetCore.Authentication.JwtBearer (6.0.15)</t>
   </si>
   <si>
     <t>Microsoft.IdentityModel.Tokens</t>
@@ -384,10 +384,22 @@
     <t>System.IdentityModel.Tokens.Jwt</t>
   </si>
   <si>
-    <t>1. Create TokenHandler class (Repository)</t>
+    <t>1. Create TokenHandler class (Service)</t>
   </si>
   <si>
     <t>2. AuthController (using TokenHandler)</t>
+  </si>
+  <si>
+    <t>3. Add authentication to services</t>
+  </si>
+  <si>
+    <t>4. Jwt constant information</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Logger</t>
   </si>
 </sst>
 </file>
@@ -395,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -463,6 +475,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -478,15 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,90 +515,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,7 +530,69 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,6 +600,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,7 +664,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,31 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,139 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,6 +949,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -952,17 +979,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,28 +1023,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,13 +1049,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,130 +1067,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1372,8 +1384,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1393,7 +1405,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="497840" y="13060680"/>
-          <a:ext cx="5943600" cy="2705100"/>
+          <a:ext cx="5946775" cy="2705100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4364,8 +4376,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>311785</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>186</xdr:row>
       <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
@@ -4385,7 +4397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="496570" y="29615130"/>
-          <a:ext cx="5942330" cy="3554095"/>
+          <a:ext cx="5948045" cy="3554095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5602,8 +5614,8 @@
       <xdr:rowOff>128270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>309245</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>398</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:to>
@@ -5623,7 +5635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="496570" y="68331080"/>
-          <a:ext cx="3082290" cy="2362200"/>
+          <a:ext cx="3090545" cy="2362200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7593,6 +7605,690 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>530</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="91718130"/>
+          <a:ext cx="6718300" cy="2403475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Oval 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5927090" y="92108655"/>
+          <a:ext cx="320675" cy="326390"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>52705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>541</xdr:row>
+      <xdr:rowOff>64135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="488315" y="94574995"/>
+          <a:ext cx="6737985" cy="1413510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>116840</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>120015</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Oval 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5926455" y="95001080"/>
+          <a:ext cx="320675" cy="326390"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>307340</xdr:colOff>
+      <xdr:row>541</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>545</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487680" y="96049465"/>
+          <a:ext cx="5761355" cy="667385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>543</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>545</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Oval 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4041140" y="96324420"/>
+          <a:ext cx="320675" cy="326390"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>307340</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>97790</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487680" y="97197545"/>
+          <a:ext cx="4149725" cy="1176655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7881,9 +8577,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AB558"/>
+  <dimension ref="B1:AB564"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -23581,7 +24277,9 @@
     </row>
     <row r="533" spans="2:28">
       <c r="B533" s="10"/>
-      <c r="C533" s="11"/>
+      <c r="C533" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="D533" s="13"/>
       <c r="E533" s="12"/>
       <c r="F533" s="12"/>
@@ -24016,7 +24714,9 @@
     </row>
     <row r="548" spans="2:28">
       <c r="B548" s="10"/>
-      <c r="C548" s="11"/>
+      <c r="C548" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="D548" s="13"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
@@ -24275,63 +24975,241 @@
       <c r="AA556" s="12"/>
       <c r="AB556" s="19"/>
     </row>
-    <row r="557" spans="2:28">
-      <c r="B557" s="10"/>
-      <c r="C557" s="11"/>
-      <c r="D557" s="13"/>
-      <c r="E557" s="12"/>
-      <c r="F557" s="12"/>
-      <c r="G557" s="12"/>
-      <c r="H557" s="12"/>
-      <c r="I557" s="12"/>
-      <c r="J557" s="12"/>
-      <c r="K557" s="12"/>
-      <c r="L557" s="12"/>
-      <c r="M557" s="12"/>
-      <c r="N557" s="12"/>
-      <c r="O557" s="12"/>
-      <c r="P557" s="12"/>
-      <c r="Q557" s="12"/>
-      <c r="R557" s="12"/>
-      <c r="S557" s="12"/>
-      <c r="T557" s="12"/>
-      <c r="U557" s="12"/>
-      <c r="V557" s="12"/>
-      <c r="W557" s="12"/>
-      <c r="X557" s="12"/>
-      <c r="Y557" s="12"/>
-      <c r="Z557" s="12"/>
-      <c r="AA557" s="12"/>
-      <c r="AB557" s="19"/>
-    </row>
-    <row r="558" ht="14.55" spans="2:28">
-      <c r="B558" s="29"/>
-      <c r="C558" s="30"/>
-      <c r="D558" s="31"/>
-      <c r="E558" s="31"/>
-      <c r="F558" s="31"/>
-      <c r="G558" s="31"/>
-      <c r="H558" s="31"/>
-      <c r="I558" s="31"/>
-      <c r="J558" s="31"/>
-      <c r="K558" s="31"/>
-      <c r="L558" s="31"/>
-      <c r="M558" s="31"/>
-      <c r="N558" s="31"/>
-      <c r="O558" s="31"/>
-      <c r="P558" s="31"/>
-      <c r="Q558" s="31"/>
-      <c r="R558" s="31"/>
-      <c r="S558" s="31"/>
-      <c r="T558" s="31"/>
-      <c r="U558" s="31"/>
-      <c r="V558" s="31"/>
-      <c r="W558" s="31"/>
-      <c r="X558" s="31"/>
-      <c r="Y558" s="31"/>
-      <c r="Z558" s="31"/>
-      <c r="AA558" s="31"/>
-      <c r="AB558" s="32"/>
+    <row r="557" ht="20.1" customHeight="1" spans="2:28">
+      <c r="B557" s="8"/>
+      <c r="C557" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D557" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E557" s="9"/>
+      <c r="F557" s="9"/>
+      <c r="G557" s="9"/>
+      <c r="H557" s="9"/>
+      <c r="I557" s="9"/>
+      <c r="J557" s="9"/>
+      <c r="K557" s="9"/>
+      <c r="L557" s="9"/>
+      <c r="M557" s="9"/>
+      <c r="N557" s="9"/>
+      <c r="O557" s="9"/>
+      <c r="P557" s="9"/>
+      <c r="Q557" s="9"/>
+      <c r="R557" s="9"/>
+      <c r="S557" s="9"/>
+      <c r="T557" s="9"/>
+      <c r="U557" s="9"/>
+      <c r="V557" s="9"/>
+      <c r="W557" s="9"/>
+      <c r="X557" s="9"/>
+      <c r="Y557" s="9"/>
+      <c r="Z557" s="9"/>
+      <c r="AA557" s="9"/>
+      <c r="AB557" s="18"/>
+    </row>
+    <row r="558" spans="2:28">
+      <c r="B558" s="10"/>
+      <c r="C558" s="11"/>
+      <c r="D558" s="13"/>
+      <c r="E558" s="12"/>
+      <c r="F558" s="12"/>
+      <c r="G558" s="12"/>
+      <c r="H558" s="12"/>
+      <c r="I558" s="12"/>
+      <c r="J558" s="12"/>
+      <c r="K558" s="12"/>
+      <c r="L558" s="12"/>
+      <c r="M558" s="12"/>
+      <c r="N558" s="12"/>
+      <c r="O558" s="12"/>
+      <c r="P558" s="12"/>
+      <c r="Q558" s="12"/>
+      <c r="R558" s="12"/>
+      <c r="S558" s="12"/>
+      <c r="T558" s="12"/>
+      <c r="U558" s="12"/>
+      <c r="V558" s="12"/>
+      <c r="W558" s="12"/>
+      <c r="X558" s="12"/>
+      <c r="Y558" s="12"/>
+      <c r="Z558" s="12"/>
+      <c r="AA558" s="12"/>
+      <c r="AB558" s="19"/>
+    </row>
+    <row r="559" spans="2:28">
+      <c r="B559" s="10"/>
+      <c r="C559" s="11"/>
+      <c r="D559" s="13"/>
+      <c r="E559" s="12"/>
+      <c r="F559" s="12"/>
+      <c r="G559" s="12"/>
+      <c r="H559" s="12"/>
+      <c r="I559" s="12"/>
+      <c r="J559" s="12"/>
+      <c r="K559" s="12"/>
+      <c r="L559" s="12"/>
+      <c r="M559" s="12"/>
+      <c r="N559" s="12"/>
+      <c r="O559" s="12"/>
+      <c r="P559" s="12"/>
+      <c r="Q559" s="12"/>
+      <c r="R559" s="12"/>
+      <c r="S559" s="12"/>
+      <c r="T559" s="12"/>
+      <c r="U559" s="12"/>
+      <c r="V559" s="12"/>
+      <c r="W559" s="12"/>
+      <c r="X559" s="12"/>
+      <c r="Y559" s="12"/>
+      <c r="Z559" s="12"/>
+      <c r="AA559" s="12"/>
+      <c r="AB559" s="19"/>
+    </row>
+    <row r="560" spans="2:28">
+      <c r="B560" s="10"/>
+      <c r="C560" s="11"/>
+      <c r="D560" s="13"/>
+      <c r="E560" s="12"/>
+      <c r="F560" s="12"/>
+      <c r="G560" s="12"/>
+      <c r="H560" s="12"/>
+      <c r="I560" s="12"/>
+      <c r="J560" s="12"/>
+      <c r="K560" s="12"/>
+      <c r="L560" s="12"/>
+      <c r="M560" s="12"/>
+      <c r="N560" s="12"/>
+      <c r="O560" s="12"/>
+      <c r="P560" s="12"/>
+      <c r="Q560" s="12"/>
+      <c r="R560" s="12"/>
+      <c r="S560" s="12"/>
+      <c r="T560" s="12"/>
+      <c r="U560" s="12"/>
+      <c r="V560" s="12"/>
+      <c r="W560" s="12"/>
+      <c r="X560" s="12"/>
+      <c r="Y560" s="12"/>
+      <c r="Z560" s="12"/>
+      <c r="AA560" s="12"/>
+      <c r="AB560" s="19"/>
+    </row>
+    <row r="561" spans="2:28">
+      <c r="B561" s="10"/>
+      <c r="C561" s="11"/>
+      <c r="D561" s="13"/>
+      <c r="E561" s="12"/>
+      <c r="F561" s="12"/>
+      <c r="G561" s="12"/>
+      <c r="H561" s="12"/>
+      <c r="I561" s="12"/>
+      <c r="J561" s="12"/>
+      <c r="K561" s="12"/>
+      <c r="L561" s="12"/>
+      <c r="M561" s="12"/>
+      <c r="N561" s="12"/>
+      <c r="O561" s="12"/>
+      <c r="P561" s="12"/>
+      <c r="Q561" s="12"/>
+      <c r="R561" s="12"/>
+      <c r="S561" s="12"/>
+      <c r="T561" s="12"/>
+      <c r="U561" s="12"/>
+      <c r="V561" s="12"/>
+      <c r="W561" s="12"/>
+      <c r="X561" s="12"/>
+      <c r="Y561" s="12"/>
+      <c r="Z561" s="12"/>
+      <c r="AA561" s="12"/>
+      <c r="AB561" s="19"/>
+    </row>
+    <row r="562" spans="2:28">
+      <c r="B562" s="10"/>
+      <c r="C562" s="11"/>
+      <c r="D562" s="13"/>
+      <c r="E562" s="12"/>
+      <c r="F562" s="12"/>
+      <c r="G562" s="12"/>
+      <c r="H562" s="12"/>
+      <c r="I562" s="12"/>
+      <c r="J562" s="12"/>
+      <c r="K562" s="12"/>
+      <c r="L562" s="12"/>
+      <c r="M562" s="12"/>
+      <c r="N562" s="12"/>
+      <c r="O562" s="12"/>
+      <c r="P562" s="12"/>
+      <c r="Q562" s="12"/>
+      <c r="R562" s="12"/>
+      <c r="S562" s="12"/>
+      <c r="T562" s="12"/>
+      <c r="U562" s="12"/>
+      <c r="V562" s="12"/>
+      <c r="W562" s="12"/>
+      <c r="X562" s="12"/>
+      <c r="Y562" s="12"/>
+      <c r="Z562" s="12"/>
+      <c r="AA562" s="12"/>
+      <c r="AB562" s="19"/>
+    </row>
+    <row r="563" spans="2:28">
+      <c r="B563" s="10"/>
+      <c r="C563" s="11"/>
+      <c r="D563" s="13"/>
+      <c r="E563" s="12"/>
+      <c r="F563" s="12"/>
+      <c r="G563" s="12"/>
+      <c r="H563" s="12"/>
+      <c r="I563" s="12"/>
+      <c r="J563" s="12"/>
+      <c r="K563" s="12"/>
+      <c r="L563" s="12"/>
+      <c r="M563" s="12"/>
+      <c r="N563" s="12"/>
+      <c r="O563" s="12"/>
+      <c r="P563" s="12"/>
+      <c r="Q563" s="12"/>
+      <c r="R563" s="12"/>
+      <c r="S563" s="12"/>
+      <c r="T563" s="12"/>
+      <c r="U563" s="12"/>
+      <c r="V563" s="12"/>
+      <c r="W563" s="12"/>
+      <c r="X563" s="12"/>
+      <c r="Y563" s="12"/>
+      <c r="Z563" s="12"/>
+      <c r="AA563" s="12"/>
+      <c r="AB563" s="19"/>
+    </row>
+    <row r="564" spans="2:28">
+      <c r="B564" s="29"/>
+      <c r="C564" s="30"/>
+      <c r="D564" s="31"/>
+      <c r="E564" s="31"/>
+      <c r="F564" s="31"/>
+      <c r="G564" s="31"/>
+      <c r="H564" s="31"/>
+      <c r="I564" s="31"/>
+      <c r="J564" s="31"/>
+      <c r="K564" s="31"/>
+      <c r="L564" s="31"/>
+      <c r="M564" s="31"/>
+      <c r="N564" s="31"/>
+      <c r="O564" s="31"/>
+      <c r="P564" s="31"/>
+      <c r="Q564" s="31"/>
+      <c r="R564" s="31"/>
+      <c r="S564" s="31"/>
+      <c r="T564" s="31"/>
+      <c r="U564" s="31"/>
+      <c r="V564" s="31"/>
+      <c r="W564" s="31"/>
+      <c r="X564" s="31"/>
+      <c r="Y564" s="31"/>
+      <c r="Z564" s="31"/>
+      <c r="AA564" s="31"/>
+      <c r="AB564" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
